--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18765" windowHeight="10110"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>克苏鲁神话</t>
   </si>
@@ -517,6 +517,24 @@
   </si>
   <si>
     <t>500种野菜野外识别</t>
+  </si>
+  <si>
+    <t>日常生活中的自我呈现</t>
+  </si>
+  <si>
+    <t>市场与大师：西方思想如何看待资本主义</t>
+  </si>
+  <si>
+    <t>新生儿婴儿护理百科全书</t>
+  </si>
+  <si>
+    <t>四世同堂</t>
+  </si>
+  <si>
+    <t>我是饭团君：手把手教做爱心饭团</t>
+  </si>
+  <si>
+    <t>西尔斯亲密育儿全书</t>
   </si>
   <si>
     <t>叫魂：1768年中国妖术大恐慌</t>
@@ -758,12 +776,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,7 +806,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,6 +817,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -815,7 +874,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +911,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,14 +927,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,83 +942,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,7 +956,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,175 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,69 +1161,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,157 +1199,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,6 +1421,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1417,54 +1431,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1760,21 +1774,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9.07692307692308"/>
+    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" spans="1:3">
+    <row r="1" ht="17.6" spans="1:3">
       <c r="A1" s="1">
         <v>2021</v>
       </c>
@@ -1785,14 +1800,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="21.75" spans="1:3">
+    <row r="2" ht="17.6" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="21.75" spans="1:3">
+    <row r="3" ht="22" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>20210227</v>
@@ -1801,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="21.75" spans="1:3">
+    <row r="4" ht="17.6" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>20210220</v>
@@ -1810,63 +1825,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:3">
+    <row r="5" ht="17.6" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:3">
+    <row r="6" ht="17.6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:3">
+    <row r="7" ht="17.6" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:3">
+    <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:3">
+    <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:3">
+    <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:3">
+    <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:3">
+    <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:3">
+    <row r="13" ht="17.6" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>20210206</v>
@@ -1875,28 +1890,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="1:3">
+    <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:3">
+    <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:3">
+    <row r="16" ht="17.6" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="21.75" spans="1:3">
+    <row r="17" ht="22" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>20210111</v>
@@ -1905,7 +1920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="21.75" spans="1:3">
+    <row r="18" ht="22" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>20210106</v>
@@ -1914,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>20210101</v>
@@ -1923,14 +1938,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:3">
+    <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="21.75" spans="1:3">
+    <row r="21" ht="22" spans="1:3">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>20201225</v>
@@ -1950,21 +1965,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
+    <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:3">
+    <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:3">
+    <row r="25" ht="17.6" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20201210</v>
@@ -1973,14 +1988,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:3">
+    <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:3">
+    <row r="27" ht="17.6" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>20201127</v>
@@ -1989,28 +2004,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:3">
+    <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:3">
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:3">
+    <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:3">
+    <row r="31" ht="17.6" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>20201125</v>
@@ -2019,14 +2034,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:3">
+    <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:3">
+    <row r="33" ht="17.6" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>20201123</v>
@@ -2035,14 +2050,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:3">
+    <row r="34" ht="17.6" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="21.75" spans="1:3">
+    <row r="35" ht="22" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>20201109</v>
@@ -2051,7 +2066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="21.75" spans="1:3">
+    <row r="36" ht="22" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>20201103</v>
@@ -2060,7 +2075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:3">
+    <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>20200919</v>
@@ -2069,28 +2084,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:3">
+    <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:3">
+    <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="18" spans="1:3">
+    <row r="40" ht="17.6" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:3">
+    <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>20200912</v>
@@ -2099,21 +2114,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:3">
+    <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:3">
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="21.75" spans="1:3">
+    <row r="44" ht="22" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>20200910</v>
@@ -2122,7 +2137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>20200901</v>
@@ -2131,21 +2146,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="18" spans="1:3">
+    <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:3">
+    <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:3">
+    <row r="48" ht="17.6" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>20200827</v>
@@ -2154,14 +2169,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:3">
+    <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:3">
+    <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>20200806</v>
@@ -2170,21 +2185,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:3">
+    <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:3">
+    <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="21.75" spans="1:3">
+    <row r="53" ht="22" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>20200804</v>
@@ -2193,7 +2208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="21.75" spans="1:3">
+    <row r="54" ht="22" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>20200703</v>
@@ -2202,7 +2217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="21.75" spans="1:3">
+    <row r="55" ht="22" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>20200627</v>
@@ -2211,7 +2226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:3">
+    <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>20200611</v>
@@ -2220,35 +2235,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="18" spans="1:3">
+    <row r="57" ht="17.6" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="18" spans="1:3">
+    <row r="58" ht="17.6" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:3">
+    <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="18" spans="1:3">
+    <row r="60" ht="17.6" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="18" spans="1:3">
+    <row r="61" ht="17.6" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>20200606</v>
@@ -2257,21 +2272,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:3">
+    <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:3">
+    <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:3">
+    <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>20200601</v>
@@ -2280,14 +2295,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="18" spans="1:3">
+    <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="18" spans="1:3">
+    <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>20200402</v>
@@ -2296,14 +2311,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:3">
+    <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:3">
+    <row r="68" ht="17.6" spans="1:3">
       <c r="A68" s="1">
         <v>2018</v>
       </c>
@@ -2314,21 +2329,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="18" spans="1:3">
+    <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:3">
+    <row r="71" ht="17.6" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>20181020</v>
@@ -2337,21 +2352,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="18" spans="1:3">
+    <row r="72" ht="17.6" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:3">
+    <row r="73" ht="17.6" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:3">
+    <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>20181018</v>
@@ -2360,21 +2375,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:3">
+    <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:3">
+    <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:3">
+    <row r="77" ht="17.6" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>20180907</v>
@@ -2383,14 +2398,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="18" spans="1:3">
+    <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="18" spans="1:3">
+    <row r="79" ht="17.6" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>20180906</v>
@@ -2399,14 +2414,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:3">
+    <row r="80" ht="17.6" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" ht="21.75" spans="1:3">
+    <row r="81" ht="17.6" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>20180822</v>
@@ -2415,21 +2430,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" ht="18" spans="1:3">
+    <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:3">
+    <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:3">
+    <row r="84" ht="17.6" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>20180808</v>
@@ -2438,14 +2453,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" ht="18" spans="1:3">
+    <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" ht="21.75" spans="1:3">
+    <row r="86" ht="22" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
         <v>20180801</v>
@@ -2454,7 +2469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" ht="18" spans="1:3">
+    <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>20180730</v>
@@ -2463,42 +2478,42 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" ht="18" spans="1:3">
+    <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:3">
+    <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" ht="18" spans="1:3">
+    <row r="90" ht="17.6" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:3">
+    <row r="91" ht="17.6" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:3">
+    <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:3">
+    <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>20180705</v>
@@ -2507,70 +2522,70 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:3">
+    <row r="94" ht="17.6" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="17.6" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
+    <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:3">
+    <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" ht="18" spans="1:3">
+    <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:3">
+    <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:3">
+    <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="18" spans="1:3">
+    <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="18" spans="1:3">
+    <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
         <v>20180613</v>
@@ -2579,28 +2594,28 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="18" spans="1:3">
+    <row r="104" ht="17.6" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="18" spans="1:3">
+    <row r="105" ht="17.6" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:3">
+    <row r="106" ht="17.6" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" ht="21.75" spans="1:3">
+    <row r="107" ht="22" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
         <v>20180427</v>
@@ -2609,7 +2624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:3">
+    <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
         <v>20180426</v>
@@ -2618,119 +2633,119 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:3">
+    <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:3">
+    <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="18" spans="1:3">
+    <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:3">
+    <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="18" spans="1:3">
+    <row r="113" ht="17.6" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" ht="18" spans="1:3">
+    <row r="114" ht="17.6" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" ht="18" spans="1:3">
+    <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:3">
+    <row r="116" ht="17.6" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" ht="18" spans="1:3">
+    <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:3">
+    <row r="118" ht="17.6" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
+    <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:3">
+    <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:3">
+    <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:3">
+    <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:3">
+    <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" ht="18" spans="1:3">
+    <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:3">
+    <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
         <v>20180217</v>
@@ -2739,14 +2754,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" ht="18" spans="1:3">
+    <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:3">
+    <row r="127" ht="17.6" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
         <v>20180125</v>
@@ -2755,36 +2770,36 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" ht="18" spans="1:3">
+    <row r="128" ht="17.6" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:3">
+    <row r="129" ht="17.6" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:3">
+    <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" ht="18" spans="1:3">
+    <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" ht="21.75" spans="1:3">
-      <c r="A132" s="1">
+    <row r="132" ht="17.6" spans="1:3">
+      <c r="A132" s="3">
         <v>2017</v>
       </c>
       <c r="B132" s="1">
@@ -2794,29 +2809,29 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="21.75" spans="1:3">
-      <c r="A133" s="1"/>
+    <row r="133" ht="17.6" spans="1:3">
+      <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" ht="21.75" spans="1:3">
-      <c r="A134" s="1"/>
+    <row r="134" ht="17.6" spans="1:3">
+      <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" ht="21.75" spans="1:3">
-      <c r="A135" s="1"/>
+    <row r="135" ht="17.6" spans="1:3">
+      <c r="A135" s="3"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="21.75" spans="1:3">
-      <c r="A136" s="1"/>
+    <row r="136" ht="17.6" spans="1:3">
+      <c r="A136" s="3"/>
       <c r="B136" s="1">
         <v>20171128</v>
       </c>
@@ -2824,57 +2839,57 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" ht="21.75" spans="1:3">
-      <c r="A137" s="1"/>
+    <row r="137" ht="17.6" spans="1:3">
+      <c r="A137" s="3"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" ht="21.75" spans="1:3">
-      <c r="A138" s="1"/>
+    <row r="138" ht="17.6" spans="1:3">
+      <c r="A138" s="3"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" ht="21.75" spans="1:3">
-      <c r="A139" s="1"/>
+    <row r="139" ht="17.6" spans="1:3">
+      <c r="A139" s="3"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" ht="21.75" spans="1:3">
-      <c r="A140" s="1"/>
+    <row r="140" ht="17.6" spans="1:3">
+      <c r="A140" s="3"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" ht="21.75" spans="1:3">
-      <c r="A141" s="1"/>
+    <row r="141" ht="17.6" spans="1:3">
+      <c r="A141" s="3"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="21.75" spans="1:3">
-      <c r="A142" s="1"/>
+    <row r="142" ht="17.6" spans="1:3">
+      <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" ht="21.75" spans="1:3">
-      <c r="A143" s="1"/>
+    <row r="143" ht="17.6" spans="1:3">
+      <c r="A143" s="3"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" ht="21.75" spans="1:3">
-      <c r="A144" s="1"/>
+    <row r="144" ht="17.6" spans="1:3">
+      <c r="A144" s="3"/>
       <c r="B144" s="1">
         <v>20170925</v>
       </c>
@@ -2882,15 +2897,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" ht="21.75" spans="1:3">
-      <c r="A145" s="1"/>
+    <row r="145" ht="17.6" spans="1:3">
+      <c r="A145" s="3"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" ht="21.75" spans="1:3">
-      <c r="A146" s="1"/>
+    <row r="146" ht="17.6" spans="1:3">
+      <c r="A146" s="3"/>
       <c r="B146" s="1">
         <v>20170912</v>
       </c>
@@ -2898,22 +2913,22 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" ht="21.75" spans="1:3">
-      <c r="A147" s="1"/>
+    <row r="147" ht="17.6" spans="1:3">
+      <c r="A147" s="3"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" ht="21.75" spans="1:3">
-      <c r="A148" s="1"/>
+    <row r="148" ht="17.6" spans="1:3">
+      <c r="A148" s="3"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" ht="21.75" spans="1:3">
-      <c r="A149" s="1"/>
+    <row r="149" ht="17.6" spans="1:3">
+      <c r="A149" s="3"/>
       <c r="B149" s="1">
         <v>20170716</v>
       </c>
@@ -2921,43 +2936,43 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" ht="21.75" spans="1:3">
-      <c r="A150" s="1"/>
+    <row r="150" ht="17.6" spans="1:3">
+      <c r="A150" s="3"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" ht="21.75" spans="1:3">
-      <c r="A151" s="1"/>
+    <row r="151" ht="17.6" spans="1:3">
+      <c r="A151" s="3"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" ht="21.75" spans="1:3">
-      <c r="A152" s="1"/>
+    <row r="152" ht="17.6" spans="1:3">
+      <c r="A152" s="3"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" ht="21.75" spans="1:3">
-      <c r="A153" s="1"/>
+    <row r="153" ht="17.6" spans="1:3">
+      <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="21.75" spans="1:3">
-      <c r="A154" s="1"/>
+    <row r="154" ht="17.6" spans="1:3">
+      <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" ht="21.75" spans="1:3">
-      <c r="A155" s="1"/>
+    <row r="155" ht="17.6" spans="1:3">
+      <c r="A155" s="3"/>
       <c r="B155" s="1">
         <v>20170613</v>
       </c>
@@ -2965,50 +2980,50 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" ht="21.75" spans="1:3">
-      <c r="A156" s="1"/>
+    <row r="156" ht="17.6" spans="1:3">
+      <c r="A156" s="3"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" ht="21.75" spans="1:3">
-      <c r="A157" s="1"/>
+    <row r="157" ht="17.6" spans="1:3">
+      <c r="A157" s="3"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="21.75" spans="1:3">
-      <c r="A158" s="1"/>
+    <row r="158" ht="17.6" spans="1:3">
+      <c r="A158" s="3"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="21.75" spans="1:3">
-      <c r="A159" s="1"/>
+    <row r="159" ht="17.6" spans="1:3">
+      <c r="A159" s="3"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" ht="21.75" spans="1:3">
-      <c r="A160" s="1"/>
+    <row r="160" ht="17.6" spans="1:3">
+      <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="21.75" spans="1:3">
-      <c r="A161" s="1"/>
+    <row r="161" ht="17.6" spans="1:3">
+      <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" ht="21.75" spans="1:3">
-      <c r="A162" s="1"/>
+    <row r="162" ht="22" spans="1:3">
+      <c r="A162" s="3"/>
       <c r="B162" s="1">
         <v>20170503</v>
       </c>
@@ -3016,8 +3031,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" ht="21.75" spans="1:3">
-      <c r="A163" s="1"/>
+    <row r="163" ht="22" spans="1:3">
+      <c r="A163" s="3"/>
       <c r="B163" s="1">
         <v>20170412</v>
       </c>
@@ -3025,8 +3040,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" ht="21.75" spans="1:3">
-      <c r="A164" s="1"/>
+    <row r="164" ht="17.6" spans="1:3">
+      <c r="A164" s="3"/>
       <c r="B164" s="1">
         <v>20170411</v>
       </c>
@@ -3034,660 +3049,704 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" ht="21.75" spans="1:3">
-      <c r="A165" s="1"/>
+    <row r="165" ht="17.6" spans="1:3">
+      <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" ht="21.75" spans="1:3">
-      <c r="A166" s="1"/>
+    <row r="166" ht="17.6" spans="1:3">
+      <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:3">
-      <c r="A167" s="1"/>
+    <row r="167" ht="17.6" spans="1:3">
+      <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" ht="21.75" spans="1:3">
-      <c r="A168" s="1">
+    <row r="168" ht="17.6" spans="1:3">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3">
+        <v>20170318</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" ht="17.6" spans="1:3">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" ht="17.6" spans="1:3">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" ht="17.6" spans="1:3">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" ht="17.6" spans="1:3">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" ht="17.6" spans="1:3">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" ht="22" spans="1:3">
+      <c r="A174" s="1">
         <v>2016</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B174" s="1">
         <v>20161215</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" ht="21.75" spans="1:3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1">
+      <c r="C174" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" ht="22" spans="1:3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1">
         <v>20160420</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1">
-        <v>20160415</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" ht="21.75" spans="1:3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" ht="21.75" spans="1:3">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" ht="21.75" spans="1:3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" ht="21.75" spans="1:3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" ht="21.75" spans="1:3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" ht="21.75" spans="1:3">
+    <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
-        <v>20160111</v>
-      </c>
-      <c r="C176" s="3" t="s">
+        <v>20160415</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" ht="21.75" spans="1:3">
-      <c r="A177" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B177" s="1">
-        <v>20151221</v>
-      </c>
-      <c r="C177" s="3" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" ht="21.75" spans="1:3">
+    <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" ht="21.75" spans="1:3">
+    <row r="182" ht="22" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
-        <v>20151104</v>
-      </c>
-      <c r="C182" s="3" t="s">
+        <v>20160111</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="3" t="s">
+      <c r="A183" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B183" s="1">
+        <v>20151221</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="3" t="s">
-        <v>175</v>
+      <c r="C184" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" ht="21.75" spans="1:3">
+      <c r="C185" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1">
-        <v>20150807</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>184</v>
+      <c r="B186" s="1"/>
+      <c r="C186" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="3" t="s">
-        <v>185</v>
+      <c r="C187" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="3" t="s">
-        <v>186</v>
+      <c r="B188" s="1">
+        <v>20151104</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="3" t="s">
-        <v>187</v>
+      <c r="C189" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="3" t="s">
-        <v>188</v>
+      <c r="C190" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="3" t="s">
+      <c r="B192" s="1">
+        <v>20150807</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" ht="21.75" spans="1:3">
+    <row r="194" spans="1:3">
       <c r="A194" s="1"/>
-      <c r="B194" s="1">
-        <v>20150303</v>
-      </c>
-      <c r="C194" s="3" t="s">
+      <c r="B194" s="1"/>
+      <c r="C194" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" ht="21.75" spans="1:3">
-      <c r="A196" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B196" s="1">
-        <v>20141210</v>
-      </c>
-      <c r="C196" s="3" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" ht="21.75" spans="1:3">
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" ht="21.75" spans="1:3">
+    <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" ht="21.75" spans="1:3">
+    <row r="199" spans="1:3">
       <c r="A199" s="1"/>
-      <c r="B199" s="1">
-        <v>20141120</v>
-      </c>
-      <c r="C199" s="3" t="s">
+      <c r="B199" s="1"/>
+      <c r="C199" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" ht="21.75" spans="1:3">
+    <row r="200" spans="1:3">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3" t="s">
+      <c r="B200" s="1">
+        <v>20150303</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" ht="21.75" spans="1:3">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B202" s="1">
-        <v>20131206</v>
-      </c>
-      <c r="C202" s="3" t="s">
+        <v>20141210</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" ht="21.75" spans="1:3">
+    <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" ht="21.75" spans="1:3">
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" ht="21.75" spans="1:3">
+    <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
-        <v>20130807</v>
-      </c>
-      <c r="C205" s="3" t="s">
+        <v>20141120</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" ht="21.75" spans="1:3">
+    <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" ht="21.75" spans="1:3">
+    <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" ht="21.75" spans="1:3">
-      <c r="A208" s="1"/>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>2013</v>
+      </c>
       <c r="B208" s="1">
-        <v>20130722</v>
-      </c>
-      <c r="C208" s="3" t="s">
+        <v>20131206</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" ht="21.75" spans="1:3">
+    <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" ht="21.75" spans="1:3">
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1">
-        <v>20130618</v>
-      </c>
-      <c r="C210" s="3" t="s">
+      <c r="B210" s="1"/>
+      <c r="C210" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" ht="21.75" spans="1:3">
+    <row r="211" spans="1:3">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="3" t="s">
+      <c r="B211" s="1">
+        <v>20130807</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" ht="21.75" spans="1:3">
+    <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" ht="21.75" spans="1:3">
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
-      <c r="B213" s="1">
-        <v>20130607</v>
-      </c>
-      <c r="C213" s="3" t="s">
+      <c r="B213" s="1"/>
+      <c r="C213" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" ht="21.75" spans="1:3">
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="3" t="s">
+      <c r="B214" s="1">
+        <v>20130722</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" ht="21.75" spans="1:3">
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" ht="21.75" spans="1:3">
+    <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
-        <v>20130417</v>
-      </c>
-      <c r="C216" s="3" t="s">
+        <v>20130618</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" ht="21.75" spans="1:3">
-      <c r="A217" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B217" s="1">
-        <v>20120119</v>
-      </c>
-      <c r="C217" s="3" t="s">
+    <row r="217" spans="1:3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" ht="21.75" spans="1:3">
-      <c r="A219" s="1">
-        <v>2011</v>
-      </c>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1"/>
       <c r="B219" s="1">
-        <v>20110818</v>
-      </c>
-      <c r="C219" s="3" t="s">
+        <v>20130607</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" ht="21.75" spans="1:3">
+    <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" ht="21.75" spans="1:3">
+    <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" ht="21.75" spans="1:3">
+    <row r="222" ht="22" spans="1:3">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="3" t="s">
+      <c r="B222" s="1">
+        <v>20130417</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="3" t="s">
+      <c r="A223" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B223" s="1">
+        <v>20120119</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" ht="21.75" spans="1:3">
-      <c r="A224" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B224" s="1">
-        <v>20101013</v>
-      </c>
-      <c r="C224" s="3" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="3" t="s">
+      <c r="A225" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B225" s="1">
+        <v>20110818</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" ht="21.75" spans="1:3">
-      <c r="A229" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B229" s="1">
-        <v>20091218</v>
-      </c>
-      <c r="C229" s="3" t="s">
+    <row r="229" spans="1:3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="3" t="s">
+      <c r="A230" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B230" s="1">
+        <v>20101013</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" ht="21.75" spans="1:3">
+    <row r="234" spans="1:3">
       <c r="A234" s="1"/>
-      <c r="B234" s="1">
-        <v>20090827</v>
-      </c>
-      <c r="C234" s="3" t="s">
+      <c r="B234" s="1"/>
+      <c r="C234" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="3" t="s">
+      <c r="A235" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B235" s="1">
+        <v>20091218</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" ht="21.75" spans="1:3">
+    <row r="238" spans="1:3">
       <c r="A238" s="1"/>
-      <c r="B238" s="1">
-        <v>20090731</v>
-      </c>
-      <c r="C238" s="3" t="s">
+      <c r="B238" s="1"/>
+      <c r="C238" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" ht="21.75" spans="1:3">
+    <row r="239" spans="1:3">
       <c r="A239" s="1"/>
-      <c r="B239" s="1">
-        <v>20090723</v>
-      </c>
-      <c r="C239" s="3" t="s">
+      <c r="B239" s="1"/>
+      <c r="C239" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" ht="21.75" spans="1:3">
+    <row r="240" spans="1:3">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="3" t="s">
+      <c r="B240" s="1">
+        <v>20090827</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" ht="21.75" spans="1:3">
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" ht="21.75" spans="1:3">
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" ht="21.75" spans="1:3">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
-      <c r="B243" s="1">
-        <v>20090705</v>
-      </c>
-      <c r="C243" s="3" t="s">
+      <c r="B243" s="1"/>
+      <c r="C243" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" ht="21.75" spans="1:3">
+    <row r="244" ht="22" spans="1:3">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="3" t="s">
+      <c r="B244" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" ht="21.75" spans="1:3">
+    <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
-        <v>20090620</v>
-      </c>
-      <c r="C245" s="3" t="s">
+        <v>20090723</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>244</v>
       </c>
     </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1">
+        <v>20090705</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1">
+        <v>20090620</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="A1:A20"/>
     <mergeCell ref="A21:A67"/>
     <mergeCell ref="A68:A131"/>
-    <mergeCell ref="A132:A167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="A177:A195"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A202:A216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="A229:A246"/>
+    <mergeCell ref="A132:A173"/>
+    <mergeCell ref="A174:A182"/>
+    <mergeCell ref="A183:A201"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="A208:A222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A252"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B16"/>
@@ -3726,35 +3785,36 @@
     <mergeCell ref="B149:B154"/>
     <mergeCell ref="B155:B161"/>
     <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="B192:B199"/>
+    <mergeCell ref="B200:B201"/>
     <mergeCell ref="B202:B204"/>
     <mergeCell ref="B205:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="B230:B234"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="B240:B243"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3762,16 +3822,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3779,9 +3839,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -147,7 +147,27 @@
     <t>中国思想史十讲 上卷</t>
   </si>
   <si>
-    <t>权力与自由：联邦论+辩论+美利坚共和国的缔造</t>
+    <r>
+      <t>权力与自由：联邦论+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辩论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+美利坚共和国的缔造</t>
+    </r>
   </si>
   <si>
     <t>现代世界体系 4卷</t>
@@ -776,12 +796,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +821,26 @@
       <color rgb="FF333333"/>
       <name val="Open Sans"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -825,63 +865,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,14 +881,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +913,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,15 +958,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,13 +995,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,73 +1091,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,31 +1127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,19 +1145,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,23 +1201,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,30 +1237,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1234,6 +1246,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1254,11 +1281,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,152 +1300,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,10 +1455,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1812,7 +1848,7 @@
       <c r="B3" s="1">
         <v>20210227</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1821,7 +1857,7 @@
       <c r="B4" s="1">
         <v>20210220</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1863,21 +1899,21 @@
     <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1893,14 +1929,14 @@
     <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1934,14 +1970,14 @@
       <c r="B19" s="1">
         <v>20210101</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1952,7 +1988,7 @@
       <c r="B21" s="1">
         <v>20201230</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1984,14 +2020,14 @@
       <c r="B25" s="1">
         <v>20201210</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2030,14 +2066,14 @@
       <c r="B31" s="1">
         <v>20201125</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2094,7 +2130,7 @@
     <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2172,7 +2208,7 @@
     <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2188,14 +2224,14 @@
     <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2222,7 +2258,7 @@
       <c r="B55" s="1">
         <v>20200627</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2546,14 +2582,14 @@
     <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2713,7 +2749,7 @@
     <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2799,39 +2835,39 @@
       </c>
     </row>
     <row r="132" ht="17.6" spans="1:3">
-      <c r="A132" s="3">
+      <c r="A132" s="1">
         <v>2017</v>
       </c>
       <c r="B132" s="1">
         <v>20171220</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" ht="17.6" spans="1:3">
-      <c r="A133" s="3"/>
+      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" ht="17.6" spans="1:3">
-      <c r="A134" s="3"/>
+      <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" ht="17.6" spans="1:3">
-      <c r="A135" s="3"/>
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" ht="17.6" spans="1:3">
-      <c r="A136" s="3"/>
+      <c r="A136" s="1"/>
       <c r="B136" s="1">
         <v>20171128</v>
       </c>
@@ -2840,72 +2876,72 @@
       </c>
     </row>
     <row r="137" ht="17.6" spans="1:3">
-      <c r="A137" s="3"/>
+      <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" ht="17.6" spans="1:3">
-      <c r="A138" s="3"/>
+      <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" ht="17.6" spans="1:3">
-      <c r="A139" s="3"/>
+      <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" ht="17.6" spans="1:3">
-      <c r="A140" s="3"/>
+      <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" ht="17.6" spans="1:3">
-      <c r="A141" s="3"/>
+      <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" ht="17.6" spans="1:3">
-      <c r="A142" s="3"/>
+      <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" ht="17.6" spans="1:3">
-      <c r="A143" s="3"/>
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" ht="17.6" spans="1:3">
-      <c r="A144" s="3"/>
+      <c r="A144" s="1"/>
       <c r="B144" s="1">
         <v>20170925</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" ht="17.6" spans="1:3">
-      <c r="A145" s="3"/>
+      <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" ht="17.6" spans="1:3">
-      <c r="A146" s="3"/>
+      <c r="A146" s="1"/>
       <c r="B146" s="1">
         <v>20170912</v>
       </c>
@@ -2914,21 +2950,21 @@
       </c>
     </row>
     <row r="147" ht="17.6" spans="1:3">
-      <c r="A147" s="3"/>
+      <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" ht="17.6" spans="1:3">
-      <c r="A148" s="3"/>
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" ht="17.6" spans="1:3">
-      <c r="A149" s="3"/>
+      <c r="A149" s="1"/>
       <c r="B149" s="1">
         <v>20170716</v>
       </c>
@@ -2937,42 +2973,42 @@
       </c>
     </row>
     <row r="150" ht="17.6" spans="1:3">
-      <c r="A150" s="3"/>
+      <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" ht="17.6" spans="1:3">
-      <c r="A151" s="3"/>
+      <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" ht="17.6" spans="1:3">
-      <c r="A152" s="3"/>
+      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" ht="17.6" spans="1:3">
-      <c r="A153" s="3"/>
+      <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" ht="17.6" spans="1:3">
-      <c r="A154" s="3"/>
+      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" ht="17.6" spans="1:3">
-      <c r="A155" s="3"/>
+      <c r="A155" s="1"/>
       <c r="B155" s="1">
         <v>20170613</v>
       </c>
@@ -2981,49 +3017,49 @@
       </c>
     </row>
     <row r="156" ht="17.6" spans="1:3">
-      <c r="A156" s="3"/>
+      <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" ht="17.6" spans="1:3">
-      <c r="A157" s="3"/>
+      <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" ht="17.6" spans="1:3">
-      <c r="A158" s="3"/>
+      <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" ht="17.6" spans="1:3">
-      <c r="A159" s="3"/>
+      <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" ht="17.6" spans="1:3">
-      <c r="A160" s="3"/>
+      <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" ht="17.6" spans="1:3">
-      <c r="A161" s="3"/>
+      <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" ht="22" spans="1:3">
-      <c r="A162" s="3"/>
+      <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>20170503</v>
       </c>
@@ -3032,7 +3068,7 @@
       </c>
     </row>
     <row r="163" ht="22" spans="1:3">
-      <c r="A163" s="3"/>
+      <c r="A163" s="1"/>
       <c r="B163" s="1">
         <v>20170412</v>
       </c>
@@ -3041,7 +3077,7 @@
       </c>
     </row>
     <row r="164" ht="17.6" spans="1:3">
-      <c r="A164" s="3"/>
+      <c r="A164" s="1"/>
       <c r="B164" s="1">
         <v>20170411</v>
       </c>
@@ -3050,66 +3086,66 @@
       </c>
     </row>
     <row r="165" ht="17.6" spans="1:3">
-      <c r="A165" s="3"/>
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" ht="17.6" spans="1:3">
-      <c r="A166" s="3"/>
+      <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" ht="17.6" spans="1:3">
-      <c r="A167" s="3"/>
+      <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" ht="17.6" spans="1:3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1">
         <v>20170318</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" ht="17.6" spans="1:3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="2" t="s">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" ht="17.6" spans="1:3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" ht="17.6" spans="1:3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="C171" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" ht="17.6" spans="1:3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" ht="17.6" spans="1:3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="2" t="s">
         <v>172</v>
       </c>
@@ -3121,7 +3157,7 @@
       <c r="B174" s="1">
         <v>20161215</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3130,7 +3166,7 @@
       <c r="B175" s="1">
         <v>20160420</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3153,7 +3189,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3183,7 +3219,7 @@
       <c r="B182" s="1">
         <v>20160111</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3201,7 +3237,7 @@
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3296,7 +3332,7 @@
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3344,14 +3380,14 @@
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3385,7 +3421,7 @@
       <c r="B208" s="1">
         <v>20131206</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3431,7 +3467,7 @@
       <c r="B214" s="1">
         <v>20130722</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3447,7 +3483,7 @@
       <c r="B216" s="1">
         <v>20130618</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3470,7 +3506,7 @@
       <c r="B219" s="1">
         <v>20130607</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3493,7 +3529,7 @@
       <c r="B222" s="1">
         <v>20130417</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3550,7 +3586,7 @@
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3561,35 +3597,35 @@
       <c r="B230" s="1">
         <v>20101013</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3600,7 +3636,7 @@
       <c r="B235" s="1">
         <v>20091218</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3614,14 +3650,14 @@
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3644,7 +3680,7 @@
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3658,7 +3694,7 @@
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3676,28 +3712,28 @@
       <c r="B245" s="1">
         <v>20090723</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="5" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3706,14 +3742,14 @@
       <c r="B249" s="1">
         <v>20090705</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="5" t="s">
         <v>248</v>
       </c>
     </row>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -148,6 +148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>权力与自由：联邦论+</t>
     </r>
     <r>
@@ -170,7 +176,18 @@
     </r>
   </si>
   <si>
-    <t>现代世界体系 4卷</t>
+    <r>
+      <t>现代世界体系 2卷，3卷，4卷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1卷</t>
+    </r>
   </si>
   <si>
     <t>韩国式资本主义</t>
@@ -796,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -818,13 +835,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF00B050"/>
       <name val="Open Sans"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF333333"/>
       <name val="Open Sans"/>
       <charset val="134"/>
     </font>
@@ -844,14 +861,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,36 +876,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -913,9 +900,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,6 +911,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,6 +945,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -958,16 +967,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,6 +978,22 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -989,19 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,49 +1030,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,6 +1072,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1085,25 +1096,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,25 +1144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,13 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,22 +1233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,17 +1293,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,145 +1317,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1814,8 +1831,8 @@
   <sheetPr/>
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1839,7 +1856,7 @@
     <row r="2" ht="17.6" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1848,7 +1865,7 @@
       <c r="B3" s="1">
         <v>20210227</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1857,35 +1874,35 @@
       <c r="B4" s="1">
         <v>20210220</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1899,21 +1916,21 @@
     <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1922,21 +1939,21 @@
       <c r="B13" s="1">
         <v>20210206</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1952,7 +1969,7 @@
       <c r="B17" s="1">
         <v>20210111</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1961,7 +1978,7 @@
       <c r="B18" s="1">
         <v>20210106</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1970,14 +1987,14 @@
       <c r="B19" s="1">
         <v>20210101</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1988,7 +2005,7 @@
       <c r="B21" s="1">
         <v>20201230</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1997,21 +2014,21 @@
       <c r="B22" s="1">
         <v>20201225</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2020,14 +2037,14 @@
       <c r="B25" s="1">
         <v>20201210</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2036,28 +2053,28 @@
       <c r="B27" s="1">
         <v>20201127</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2066,14 +2083,14 @@
       <c r="B31" s="1">
         <v>20201125</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2082,14 +2099,14 @@
       <c r="B33" s="1">
         <v>20201123</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2098,7 +2115,7 @@
       <c r="B35" s="1">
         <v>20201109</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2107,7 +2124,7 @@
       <c r="B36" s="1">
         <v>20201103</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2116,28 +2133,28 @@
       <c r="B37" s="1">
         <v>20200919</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2146,7 +2163,7 @@
       <c r="B41" s="1">
         <v>20200912</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2160,7 +2177,7 @@
     <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2169,30 +2186,30 @@
       <c r="B44" s="1">
         <v>20200910</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:3">
+    <row r="45" ht="18" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>20200901</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2201,14 +2218,14 @@
       <c r="B48" s="1">
         <v>20200827</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2217,21 +2234,21 @@
       <c r="B50" s="1">
         <v>20200806</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2240,7 +2257,7 @@
       <c r="B53" s="1">
         <v>20200804</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2249,7 +2266,7 @@
       <c r="B54" s="1">
         <v>20200703</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2258,7 +2275,7 @@
       <c r="B55" s="1">
         <v>20200627</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2267,35 +2284,35 @@
       <c r="B56" s="1">
         <v>20200611</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2304,21 +2321,21 @@
       <c r="B61" s="1">
         <v>20200606</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2327,14 +2344,14 @@
       <c r="B64" s="1">
         <v>20200601</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2343,14 +2360,14 @@
       <c r="B66" s="1">
         <v>20200402</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2361,21 +2378,21 @@
       <c r="B68" s="1">
         <v>20181120</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2384,21 +2401,21 @@
       <c r="B71" s="1">
         <v>20181020</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" ht="17.6" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" ht="17.6" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2407,21 +2424,21 @@
       <c r="B74" s="1">
         <v>20181018</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2430,14 +2447,14 @@
       <c r="B77" s="1">
         <v>20180907</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2446,14 +2463,14 @@
       <c r="B79" s="1">
         <v>20180906</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" ht="17.6" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2462,21 +2479,21 @@
       <c r="B81" s="1">
         <v>20180822</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2485,14 +2502,14 @@
       <c r="B84" s="1">
         <v>20180808</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2501,7 +2518,7 @@
       <c r="B86" s="1">
         <v>20180801</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2510,42 +2527,42 @@
       <c r="B87" s="1">
         <v>20180730</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" ht="17.6" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" ht="17.6" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2554,70 +2571,70 @@
       <c r="B93" s="1">
         <v>20180705</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" ht="17.6" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" ht="17.6" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2626,28 +2643,28 @@
       <c r="B103" s="1">
         <v>20180613</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" ht="17.6" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" ht="17.6" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" ht="17.6" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2656,7 +2673,7 @@
       <c r="B107" s="1">
         <v>20180427</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2665,119 +2682,119 @@
       <c r="B108" s="1">
         <v>20180426</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" ht="17.6" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" ht="17.6" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" ht="17.6" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" ht="17.6" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2786,14 +2803,14 @@
       <c r="B125" s="1">
         <v>20180217</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2802,35 +2819,35 @@
       <c r="B127" s="1">
         <v>20180125</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" ht="17.6" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" ht="17.6" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2841,28 +2858,28 @@
       <c r="B132" s="1">
         <v>20171220</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" ht="17.6" spans="1:3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2871,56 +2888,56 @@
       <c r="B136" s="1">
         <v>20171128</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" ht="17.6" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" ht="17.6" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2929,14 +2946,14 @@
       <c r="B144" s="1">
         <v>20170925</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2945,21 +2962,21 @@
       <c r="B146" s="1">
         <v>20170912</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" ht="17.6" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2968,42 +2985,42 @@
       <c r="B149" s="1">
         <v>20170716</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" ht="17.6" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3012,49 +3029,49 @@
       <c r="B155" s="1">
         <v>20170613</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" ht="17.6" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" ht="17.6" spans="1:3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3063,7 +3080,7 @@
       <c r="B162" s="1">
         <v>20170503</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3072,7 +3089,7 @@
       <c r="B163" s="1">
         <v>20170412</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3081,28 +3098,28 @@
       <c r="B164" s="1">
         <v>20170411</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" ht="17.6" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3111,42 +3128,42 @@
       <c r="B168" s="1">
         <v>20170318</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" ht="17.6" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3157,7 +3174,7 @@
       <c r="B174" s="1">
         <v>20161215</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3166,7 +3183,7 @@
       <c r="B175" s="1">
         <v>20160420</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3219,7 +3236,7 @@
       <c r="B182" s="1">
         <v>20160111</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>181</v>
       </c>
     </row>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -1831,8 +1831,8 @@
   <sheetPr/>
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -2133,14 +2133,14 @@
       <c r="B37" s="1">
         <v>20200919</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2431,14 +2431,14 @@
     <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2803,14 +2803,14 @@
       <c r="B125" s="1">
         <v>20180217</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>125</v>
       </c>
     </row>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+  <si>
+    <t>亚里士多德 诗学</t>
+  </si>
+  <si>
+    <t>文心雕龙</t>
+  </si>
   <si>
     <t>我们为何结婚 又为何不忠 性 婚姻和外语的自然史</t>
   </si>
@@ -882,8 +888,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -923,13 +929,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -954,13 +953,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,6 +989,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1005,8 +1012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,7 +1029,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,34 +1058,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1081,25 +1087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,31 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1135,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1207,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,85 +1249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,6 +1293,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1297,7 +1327,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,6 +1342,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1342,196 +1387,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,13 +1550,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1904,10 +1904,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C278"/>
+  <dimension ref="A3:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1917,2212 +1917,2240 @@
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" ht="17.6" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>20210408</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="22" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>20210416</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+    <row r="8" ht="22" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>20210414</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>20210408</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
-        <v>20210407</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="1">
+        <v>20210407</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="22" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
-        <v>20210406</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
-        <v>20210321</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
-        <v>20210320</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
+      <c r="B22" s="1">
+        <v>20210406</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="4">
-        <v>20210316</v>
+      <c r="B23" s="1">
+        <v>20210321</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" ht="22" spans="1:3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="4">
-        <v>20210313</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" ht="17.6" spans="1:3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="22" spans="1:3">
       <c r="A27" s="1"/>
-      <c r="B27" s="4">
-        <v>20210302</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>23</v>
+      <c r="B27" s="1">
+        <v>20210320</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="1">
+        <v>20210316</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" ht="22" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="4">
-        <v>20210227</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="4">
-        <v>20210220</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" ht="17.6" spans="1:3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="22" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
+      <c r="B31" s="1">
+        <v>20210313</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3" t="s">
-        <v>28</v>
+      <c r="B32" s="1">
+        <v>20210302</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="1:3">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" ht="17.6" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="22" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3" t="s">
-        <v>30</v>
+      <c r="B34" s="1">
+        <v>20210227</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>31</v>
+      <c r="B35" s="1">
+        <v>20210220</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="17.6" spans="1:3">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
-        <v>32</v>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>34</v>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="1"/>
-      <c r="B39" s="4">
-        <v>20210206</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:3">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>36</v>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
-        <v>37</v>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" ht="22" spans="1:3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
-      <c r="B43" s="4">
-        <v>20210111</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" ht="22" spans="1:3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:3">
       <c r="A44" s="1"/>
-      <c r="B44" s="4">
-        <v>20210106</v>
+      <c r="B44" s="1">
+        <v>20210206</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="1"/>
-      <c r="B45" s="4">
-        <v>20210101</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>41</v>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" ht="17.6" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" ht="22" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1">
+        <v>20210111</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" ht="22" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1">
+        <v>20210106</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="22" spans="1:3">
-      <c r="A47" s="4">
+    <row r="50" ht="17.6" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>20210101</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" ht="17.6" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" ht="22" spans="1:3">
+      <c r="A52" s="1">
         <v>2020</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B52" s="1">
         <v>20201230</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" ht="17.6" spans="1:3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4">
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="17.6" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1">
         <v>20201225</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" ht="17.6" spans="1:3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" ht="17.6" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4">
+    <row r="54" ht="17.6" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" ht="17.6" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" ht="17.6" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
         <v>20201210</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" ht="17.6" spans="1:3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" ht="17.6" spans="1:3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4">
+      <c r="C56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" ht="17.6" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="17.6" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
         <v>20201127</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" ht="17.6" spans="1:3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" ht="17.6" spans="1:3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="3" t="s">
+    <row r="59" ht="17.6" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="17.6" spans="1:3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4">
+    <row r="60" ht="17.6" spans="1:3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" ht="17.6" spans="1:3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" ht="17.6" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1">
         <v>20201125</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" ht="17.6" spans="1:3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" ht="17.6" spans="1:3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4">
+      <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" ht="17.6" spans="1:3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" ht="17.6" spans="1:3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1">
         <v>20201123</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" ht="17.6" spans="1:3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" ht="22" spans="1:3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4">
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" ht="17.6" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" ht="22" spans="1:3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1">
         <v>20201109</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" ht="22" spans="1:3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4">
+      <c r="C66" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" ht="22" spans="1:3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1">
         <v>20201103</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" ht="17.6" spans="1:3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4">
+      <c r="C67" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" ht="17.6" spans="1:3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1">
         <v>20200919</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" ht="17.6" spans="1:3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" ht="17.6" spans="1:3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" ht="17.6" spans="1:3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3" t="s">
+    <row r="69" ht="17.6" spans="1:3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="17.6" spans="1:3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4">
+    <row r="70" ht="17.6" spans="1:3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" ht="17.6" spans="1:3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" ht="17.6" spans="1:3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
         <v>20200912</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" ht="17.6" spans="1:3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" ht="17.6" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" ht="22" spans="1:3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4">
+    <row r="73" ht="17.6" spans="1:3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" ht="17.6" spans="1:3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" ht="22" spans="1:3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
         <v>20200910</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" ht="18" spans="1:3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4">
+      <c r="C75" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
         <v>20200901</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" ht="17.6" spans="1:3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" ht="17.6" spans="1:3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" ht="17.6" spans="1:3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4">
+    <row r="77" ht="17.6" spans="1:3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" ht="17.6" spans="1:3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" ht="17.6" spans="1:3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
         <v>20200827</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" ht="17.6" spans="1:3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" ht="17.6" spans="1:3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4">
+      <c r="C79" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" ht="17.6" spans="1:3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" ht="17.6" spans="1:3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1">
         <v>20200806</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" ht="17.6" spans="1:3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" ht="17.6" spans="1:3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="22" spans="1:3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4">
+    <row r="82" ht="17.6" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" ht="17.6" spans="1:3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" ht="22" spans="1:3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1">
         <v>20200804</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" ht="22" spans="1:3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4">
+      <c r="C84" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" ht="22" spans="1:3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1">
         <v>20200703</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" ht="22" spans="1:3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4">
+      <c r="C85" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" ht="22" spans="1:3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1">
         <v>20200627</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" ht="17.6" spans="1:3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4">
+      <c r="C86" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" ht="17.6" spans="1:3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1">
         <v>20200611</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" ht="17.6" spans="1:3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" ht="17.6" spans="1:3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" ht="17.6" spans="1:3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="3" t="s">
+    <row r="88" ht="17.6" spans="1:3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" ht="17.6" spans="1:3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="3" t="s">
+    <row r="89" ht="17.6" spans="1:3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" ht="17.6" spans="1:3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4">
+    <row r="90" ht="17.6" spans="1:3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" ht="17.6" spans="1:3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" ht="17.6" spans="1:3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1">
         <v>20200606</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" ht="17.6" spans="1:3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" ht="17.6" spans="1:3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" ht="17.6" spans="1:3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4">
+    <row r="93" ht="17.6" spans="1:3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" ht="17.6" spans="1:3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" ht="17.6" spans="1:3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1">
         <v>20200601</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" ht="17.6" spans="1:3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" ht="17.6" spans="1:3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4">
+      <c r="C95" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" ht="17.6" spans="1:3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" ht="17.6" spans="1:3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1">
         <v>20200402</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" ht="17.6" spans="1:3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" ht="17.6" spans="1:3">
-      <c r="A94" s="4">
+      <c r="C97" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" ht="17.6" spans="1:3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" ht="17.6" spans="1:3">
+      <c r="A99" s="1">
         <v>2018</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B99" s="1">
         <v>20181120</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" ht="17.6" spans="1:3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" ht="17.6" spans="1:3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" ht="17.6" spans="1:3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4">
+    <row r="100" ht="17.6" spans="1:3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" ht="17.6" spans="1:3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" ht="17.6" spans="1:3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1">
         <v>20181020</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" ht="17.6" spans="1:3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" ht="17.6" spans="1:3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" ht="17.6" spans="1:3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4">
+    <row r="103" ht="17.6" spans="1:3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" ht="17.6" spans="1:3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" ht="17.6" spans="1:3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1">
         <v>20181018</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" ht="17.6" spans="1:3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" ht="17.6" spans="1:3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5" t="s">
+      <c r="C105" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" ht="17.6" spans="1:3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4">
+    <row r="106" ht="17.6" spans="1:3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" ht="17.6" spans="1:3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" ht="17.6" spans="1:3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1">
         <v>20180907</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" ht="17.6" spans="1:3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" ht="17.6" spans="1:3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4">
+      <c r="C108" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" ht="17.6" spans="1:3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" ht="17.6" spans="1:3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1">
         <v>20180906</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" ht="17.6" spans="1:3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" ht="17.6" spans="1:3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4">
+      <c r="C110" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" ht="17.6" spans="1:3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" ht="17.6" spans="1:3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1">
         <v>20180822</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" ht="17.6" spans="1:3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" ht="17.6" spans="1:3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" ht="17.6" spans="1:3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4">
+    <row r="113" ht="17.6" spans="1:3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" ht="17.6" spans="1:3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" ht="17.6" spans="1:3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1">
         <v>20180808</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" ht="17.6" spans="1:3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" ht="22" spans="1:3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4">
+      <c r="C115" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" ht="17.6" spans="1:3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" ht="22" spans="1:3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1">
         <v>20180801</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" ht="17.6" spans="1:3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4">
+      <c r="C117" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" ht="17.6" spans="1:3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1">
         <v>20180730</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" ht="17.6" spans="1:3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" ht="17.6" spans="1:3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" ht="17.6" spans="1:3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="3" t="s">
+    <row r="119" ht="17.6" spans="1:3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" ht="17.6" spans="1:3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="3" t="s">
+    <row r="120" ht="17.6" spans="1:3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" ht="17.6" spans="1:3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="3" t="s">
+    <row r="121" ht="17.6" spans="1:3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" ht="17.6" spans="1:3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4">
+    <row r="122" ht="17.6" spans="1:3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" ht="17.6" spans="1:3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" ht="17.6" spans="1:3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1">
         <v>20180705</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" ht="17.6" spans="1:3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" ht="17.6" spans="1:3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" ht="17.6" spans="1:3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="3" t="s">
+    <row r="125" ht="17.6" spans="1:3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" ht="17.6" spans="1:3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="5" t="s">
+    <row r="126" ht="17.6" spans="1:3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" ht="17.6" spans="1:3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="5" t="s">
+    <row r="127" ht="17.6" spans="1:3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" ht="17.6" spans="1:3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="3" t="s">
+    <row r="128" ht="17.6" spans="1:3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" ht="17.6" spans="1:3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="3" t="s">
+    <row r="129" ht="17.6" spans="1:3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" ht="17.6" spans="1:3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="3" t="s">
+    <row r="130" ht="17.6" spans="1:3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" ht="17.6" spans="1:3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="3" t="s">
+    <row r="131" ht="17.6" spans="1:3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" ht="17.6" spans="1:3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4">
+    <row r="132" ht="17.6" spans="1:3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" ht="17.6" spans="1:3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" ht="17.6" spans="1:3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1">
         <v>20180613</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" ht="17.6" spans="1:3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" ht="17.6" spans="1:3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="132" ht="17.6" spans="1:3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="3" t="s">
+    <row r="135" ht="17.6" spans="1:3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" ht="22" spans="1:3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4">
+    <row r="136" ht="17.6" spans="1:3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" ht="17.6" spans="1:3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" ht="22" spans="1:3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1">
         <v>20180427</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" ht="17.6" spans="1:3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4">
+      <c r="C138" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" ht="17.6" spans="1:3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1">
         <v>20180426</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" ht="17.6" spans="1:3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" ht="17.6" spans="1:3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" ht="17.6" spans="1:3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="3" t="s">
+    <row r="140" ht="17.6" spans="1:3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" ht="17.6" spans="1:3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="3" t="s">
+    <row r="141" ht="17.6" spans="1:3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="139" ht="17.6" spans="1:3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="3" t="s">
+    <row r="142" ht="17.6" spans="1:3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" ht="17.6" spans="1:3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="3" t="s">
+    <row r="143" ht="17.6" spans="1:3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="141" ht="17.6" spans="1:3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="3" t="s">
+    <row r="144" ht="17.6" spans="1:3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" ht="17.6" spans="1:3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="3" t="s">
+    <row r="145" ht="17.6" spans="1:3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" ht="17.6" spans="1:3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="3" t="s">
+    <row r="146" ht="17.6" spans="1:3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" ht="17.6" spans="1:3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="3" t="s">
+    <row r="147" ht="17.6" spans="1:3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="145" ht="17.6" spans="1:3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="3" t="s">
+    <row r="148" ht="17.6" spans="1:3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="5" t="s">
+    <row r="149" ht="17.6" spans="1:3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" ht="17.6" spans="1:3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="3" t="s">
+    <row r="150" ht="17.6" spans="1:3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="148" ht="17.6" spans="1:3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="3" t="s">
+    <row r="151" ht="17.6" spans="1:3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" ht="17.6" spans="1:3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="3" t="s">
+    <row r="152" ht="17.6" spans="1:3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="150" ht="17.6" spans="1:3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="3" t="s">
+    <row r="153" ht="17.6" spans="1:3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" ht="17.6" spans="1:3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4">
+    <row r="154" ht="17.6" spans="1:3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" ht="17.6" spans="1:3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" ht="17.6" spans="1:3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1">
         <v>20180217</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" ht="17.6" spans="1:3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" ht="17.6" spans="1:3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4">
+      <c r="C156" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" ht="17.6" spans="1:3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" ht="17.6" spans="1:3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1">
         <v>20180125</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" ht="17.6" spans="1:3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" ht="17.6" spans="1:3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" ht="17.6" spans="1:3">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="3" t="s">
+    <row r="159" ht="17.6" spans="1:3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" ht="17.6" spans="1:3">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="3" t="s">
+    <row r="160" ht="17.6" spans="1:3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="158" ht="17.6" spans="1:3">
-      <c r="A158" s="4">
+    <row r="161" ht="17.6" spans="1:3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" ht="17.6" spans="1:3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" ht="17.6" spans="1:3">
+      <c r="A163" s="1">
         <v>2017</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B163" s="1">
         <v>20171220</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="159" ht="17.6" spans="1:3">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" ht="17.6" spans="1:3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="5" t="s">
+      <c r="C163" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" ht="17.6" spans="1:3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="3" t="s">
+    <row r="164" ht="17.6" spans="1:3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="17.6" spans="1:3">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4">
+    <row r="165" ht="17.6" spans="1:3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" ht="17.6" spans="1:3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" ht="17.6" spans="1:3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1">
         <v>20171128</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" ht="17.6" spans="1:3">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="164" ht="17.6" spans="1:3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="5" t="s">
+      <c r="C167" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="165" ht="17.6" spans="1:3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="3" t="s">
+    <row r="168" ht="17.6" spans="1:3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" ht="17.6" spans="1:3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="3" t="s">
+    <row r="169" ht="17.6" spans="1:3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="167" ht="17.6" spans="1:3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="5" t="s">
+    <row r="170" ht="17.6" spans="1:3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" ht="17.6" spans="1:3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="5" t="s">
+    <row r="171" ht="17.6" spans="1:3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="169" ht="17.6" spans="1:3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="5" t="s">
+    <row r="172" ht="17.6" spans="1:3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="170" ht="17.6" spans="1:3">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4">
+    <row r="173" ht="17.6" spans="1:3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" ht="17.6" spans="1:3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" ht="17.6" spans="1:3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1">
         <v>20170925</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="171" ht="17.6" spans="1:3">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" ht="17.6" spans="1:3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4">
+      <c r="C175" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" ht="17.6" spans="1:3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" ht="17.6" spans="1:3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1">
         <v>20170912</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" ht="17.6" spans="1:3">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174" ht="17.6" spans="1:3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="5" t="s">
+      <c r="C177" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="175" ht="17.6" spans="1:3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4">
+    <row r="178" ht="17.6" spans="1:3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" ht="17.6" spans="1:3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" ht="17.6" spans="1:3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1">
         <v>20170716</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="176" ht="17.6" spans="1:3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="177" ht="17.6" spans="1:3">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="178" ht="17.6" spans="1:3">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="3" t="s">
+    <row r="181" ht="17.6" spans="1:3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="179" ht="17.6" spans="1:3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="3" t="s">
+    <row r="182" ht="17.6" spans="1:3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="180" ht="17.6" spans="1:3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="3" t="s">
+    <row r="183" ht="17.6" spans="1:3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="181" ht="17.6" spans="1:3">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4">
+    <row r="184" ht="17.6" spans="1:3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" ht="17.6" spans="1:3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" ht="17.6" spans="1:3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1">
         <v>20170613</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182" ht="17.6" spans="1:3">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" ht="17.6" spans="1:3">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" ht="17.6" spans="1:3">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="5" t="s">
+      <c r="C186" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="185" ht="17.6" spans="1:3">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="5" t="s">
+    <row r="187" ht="17.6" spans="1:3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="5" t="s">
+    <row r="188" ht="17.6" spans="1:3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" ht="17.6" spans="1:3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="187" ht="17.6" spans="1:3">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="5" t="s">
+    <row r="190" ht="17.6" spans="1:3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="188" ht="22" spans="1:3">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4">
+    <row r="191" ht="17.6" spans="1:3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" ht="17.6" spans="1:3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" ht="22" spans="1:3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1">
         <v>20170503</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" ht="22" spans="1:3">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4">
+      <c r="C193" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" ht="22" spans="1:3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1">
         <v>20170412</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="190" ht="17.6" spans="1:3">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4">
+      <c r="C194" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" ht="17.6" spans="1:3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1">
         <v>20170411</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" ht="17.6" spans="1:3">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="192" ht="17.6" spans="1:3">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="193" ht="17.6" spans="1:3">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="3" t="s">
+    <row r="196" ht="17.6" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="194" ht="17.6" spans="1:3">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4">
+    <row r="197" ht="17.6" spans="1:3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198" ht="17.6" spans="1:3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" ht="17.6" spans="1:3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1">
         <v>20170318</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" ht="17.6" spans="1:3">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="196" ht="17.6" spans="1:3">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="197" ht="17.6" spans="1:3">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="3" t="s">
+    <row r="200" ht="17.6" spans="1:3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="198" ht="17.6" spans="1:3">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="3" t="s">
+    <row r="201" ht="17.6" spans="1:3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="199" ht="17.6" spans="1:3">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="3" t="s">
+    <row r="202" ht="17.6" spans="1:3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="200" ht="22" spans="1:3">
-      <c r="A200" s="4">
+    <row r="203" ht="17.6" spans="1:3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" ht="17.6" spans="1:3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205" ht="22" spans="1:3">
+      <c r="A205" s="1">
         <v>2016</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B205" s="1">
         <v>20161215</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" ht="22" spans="1:3">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4">
+      <c r="C205" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" ht="22" spans="1:3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1">
         <v>20160420</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4">
+      <c r="C206" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1">
         <v>20160415</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="7" t="s">
+      <c r="C207" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="6" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="6" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="6" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="208" ht="22" spans="1:3">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" ht="22" spans="1:3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1">
         <v>20160111</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="4">
+      <c r="C213" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
         <v>2015</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B214" s="1">
         <v>20151221</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="7" t="s">
+      <c r="C214" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1">
+        <v>20151104</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4">
-        <v>20151104</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4">
+    <row r="222" spans="1:3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1">
         <v>20150807</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="6" t="s">
+      <c r="C223" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="6" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="6" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="7" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="6" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="6" t="s">
+    <row r="228" spans="1:3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4">
+    <row r="229" spans="1:3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1">
         <v>20150303</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="4">
+      <c r="C231" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
         <v>2014</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B233" s="1">
         <v>20141210</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="7" t="s">
+      <c r="C233" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4">
+    <row r="234" spans="1:3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1">
         <v>20141120</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="6" t="s">
+      <c r="C236" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="4">
+    <row r="237" spans="1:3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
         <v>2013</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B239" s="1">
         <v>20131206</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="6" t="s">
+      <c r="C239" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4">
+    <row r="240" spans="1:3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1">
         <v>20130807</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="6" t="s">
+      <c r="C242" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4">
+    <row r="243" spans="1:3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1">
         <v>20130722</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4">
+      <c r="C245" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1">
         <v>20130618</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="6" t="s">
+      <c r="C247" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4">
+    <row r="248" spans="1:3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1">
         <v>20130607</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="6" t="s">
+      <c r="C250" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="248" ht="22" spans="1:3">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4">
+    <row r="251" spans="1:3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="253" ht="22" spans="1:3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1">
         <v>20130417</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="4">
+      <c r="C253" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
         <v>2012</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B254" s="1">
         <v>20120119</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="4">
+      <c r="C254" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
         <v>2011</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B256" s="1">
         <v>20110818</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="6" t="s">
+      <c r="C256" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="6" t="s">
+    <row r="257" spans="1:3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="7" t="s">
+    <row r="258" spans="1:3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="4">
+    <row r="259" spans="1:3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
         <v>2010</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B261" s="1">
         <v>20101013</v>
       </c>
-      <c r="C256" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="7" t="s">
+      <c r="C261" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="7" t="s">
+    <row r="262" spans="1:3">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="4">
+    <row r="263" spans="1:3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
         <v>2009</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B266" s="1">
         <v>20091218</v>
       </c>
-      <c r="C261" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="7" t="s">
+      <c r="C266" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="4"/>
-      <c r="B264" s="4"/>
-      <c r="C264" s="7" t="s">
+    <row r="267" spans="1:3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
-      <c r="C265" s="6" t="s">
+    <row r="268" spans="1:3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4">
+    <row r="269" spans="1:3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1">
         <v>20090827</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
-      <c r="C267" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="4"/>
-      <c r="B268" s="4"/>
-      <c r="C268" s="6" t="s">
+      <c r="C271" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
-      <c r="C269" s="7" t="s">
+    <row r="272" spans="1:3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="270" ht="22" spans="1:3">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4">
+    <row r="273" spans="1:3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" ht="22" spans="1:3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1">
         <v>20090731</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="4"/>
-      <c r="B271" s="4">
+      <c r="C275" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1">
         <v>20090723</v>
       </c>
-      <c r="C271" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
-      <c r="C272" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
-      <c r="C273" s="7" t="s">
+      <c r="C276" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
-      <c r="C274" s="7" t="s">
+    <row r="277" spans="1:3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4">
+    <row r="278" spans="1:3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1">
         <v>20090705</v>
       </c>
-      <c r="C275" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
-      <c r="C276" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4">
+      <c r="C280" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1">
         <v>20090620</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="6" t="s">
-        <v>271</v>
+      <c r="C282" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A2:A46"/>
-    <mergeCell ref="A47:A93"/>
-    <mergeCell ref="A94:A157"/>
-    <mergeCell ref="A158:A199"/>
-    <mergeCell ref="A200:A208"/>
-    <mergeCell ref="A209:A227"/>
-    <mergeCell ref="A228:A233"/>
-    <mergeCell ref="A234:A248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A3:A51"/>
+    <mergeCell ref="A52:A98"/>
+    <mergeCell ref="A99:A162"/>
+    <mergeCell ref="A163:A204"/>
+    <mergeCell ref="A205:A213"/>
+    <mergeCell ref="A214:A232"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A239:A253"/>
+    <mergeCell ref="A254:A255"/>
     <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A278"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A261:A265"/>
+    <mergeCell ref="A266:A283"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B74"/>
     <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B109"/>
     <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B134:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="B162:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="B181:B187"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B218:B225"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B139:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="B239:B241"/>
     <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="B254:B255"/>
     <mergeCell ref="B256:B260"/>
     <mergeCell ref="B261:B265"/>
-    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B266:B270"/>
     <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B282:B283"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="278">
+  <si>
+    <t>契诃夫短篇小说</t>
+  </si>
+  <si>
+    <t>莫泊桑短篇小说</t>
+  </si>
+  <si>
+    <t>马克吐温短篇小说</t>
+  </si>
+  <si>
+    <t>欧亨利-短篇小说</t>
+  </si>
+  <si>
+    <t>罪与罚</t>
+  </si>
   <si>
     <t>亚里士多德 诗学</t>
   </si>
@@ -469,9 +484,6 @@
     <t>罗生门</t>
   </si>
   <si>
-    <t>莫泊桑短篇小说</t>
-  </si>
-  <si>
     <t>恋情的终结</t>
   </si>
   <si>
@@ -888,10 +900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -928,6 +940,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -942,6 +977,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -950,24 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,21 +1045,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1005,38 +1054,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,22 +1077,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,25 +1093,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,31 +1171,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,13 +1201,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,19 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,78 +1261,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1290,11 +1302,69 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,9 +1386,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,17 +1404,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,183 +1436,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,8 +1596,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1559,54 +1617,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1902,25 +1960,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C283"/>
+  <dimension ref="A2:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07692307692308"/>
-    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="9.075"/>
+    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2021</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
@@ -1929,2228 +1992,2256 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="18" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="3">
+        <v>20210420</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:3">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" ht="22" spans="1:3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="21.75" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="21.75" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <v>20210416</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="22" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="21.75" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <v>20210414</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>20210408</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:3">
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:3">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" spans="1:3">
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="17.6" spans="1:3">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>20210407</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" spans="1:3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="17.6" spans="1:3">
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="17.6" spans="1:3">
+      <c r="B19" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" spans="1:3">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="22" spans="1:3">
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>20210406</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>20210321</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="17.6" spans="1:3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="17.6" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="21.75" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="17.6" spans="1:3">
+      <c r="B25" s="1">
+        <v>20210406</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="22" spans="1:3">
+      <c r="B26" s="1">
+        <v>20210321</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>20210320</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="17.6" spans="1:3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>20210316</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="17.6" spans="1:3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" ht="17.6" spans="1:3">
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="21.75" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>20210320</v>
+      </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" ht="22" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>20210313</v>
+        <v>20210316</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" ht="17.6" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1">
-        <v>20210302</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" ht="17.6" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" ht="22" spans="1:3">
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" ht="21.75" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
-        <v>20210227</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" ht="17.6" spans="1:3">
+        <v>20210313</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
-        <v>20210220</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" ht="17.6" spans="1:3">
+        <v>20210302</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" ht="17.6" spans="1:3">
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" ht="21.75" spans="1:3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="17.6" spans="1:3">
+      <c r="B37" s="1">
+        <v>20210227</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:3">
+      <c r="B38" s="1">
+        <v>20210220</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" ht="17.6" spans="1:3">
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" ht="17.6" spans="1:3">
+      <c r="C43" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1">
-        <v>20210206</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" ht="17.6" spans="1:3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" ht="17.6" spans="1:3">
+      <c r="C45" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" ht="17.6" spans="1:3">
+      <c r="C46" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1">
+        <v>20210206</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" ht="22" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" ht="18" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" ht="21.75" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1">
         <v>20210111</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" ht="22" spans="1:3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1">
+      <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" ht="21.75" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
         <v>20210106</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" ht="17.6" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>20210101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" ht="17.6" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" ht="22" spans="1:3">
-      <c r="A52" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B52" s="1">
-        <v>20201230</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" ht="17.6" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
-        <v>20201225</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" ht="17.6" spans="1:3">
+        <v>20210101</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" ht="18" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" ht="17.6" spans="1:3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" ht="17.6" spans="1:3">
+      <c r="C54" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" ht="21.75" spans="1:3">
+      <c r="A55" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20201230</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="18" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
-        <v>20201210</v>
+        <v>20201225</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" ht="17.6" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" ht="17.6" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="1:3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>20201127</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" ht="17.6" spans="1:3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" ht="17.6" spans="1:3">
+      <c r="B59" s="1">
+        <v>20201210</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" ht="17.6" spans="1:3">
+      <c r="C60" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" ht="18" spans="1:3">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" ht="17.6" spans="1:3">
+      <c r="B61" s="1">
+        <v>20201127</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1">
-        <v>20201125</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" ht="17.6" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" ht="17.6" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:3">
       <c r="A64" s="1"/>
-      <c r="B64" s="1">
-        <v>20201123</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" ht="17.6" spans="1:3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:3">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" ht="22" spans="1:3">
+      <c r="B65" s="1">
+        <v>20201125</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="1:3">
       <c r="A66" s="1"/>
-      <c r="B66" s="1">
-        <v>20201109</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" ht="22" spans="1:3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
+        <v>20201123</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" ht="21.75" spans="1:3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1">
+        <v>20201109</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" ht="21.75" spans="1:3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1">
         <v>20201103</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" ht="17.6" spans="1:3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1">
+      <c r="C70" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="1:3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
         <v>20200919</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" ht="17.6" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" ht="17.6" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" ht="17.6" spans="1:3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" ht="17.6" spans="1:3">
+      <c r="C71" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1">
-        <v>20200912</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" ht="17.6" spans="1:3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" ht="17.6" spans="1:3">
+      <c r="C73" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" ht="22" spans="1:3">
+      <c r="C74" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
-        <v>20200910</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>20200912</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1">
-        <v>20200901</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" ht="17.6" spans="1:3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" ht="17.6" spans="1:3">
+      <c r="C77" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" ht="21.75" spans="1:3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" ht="17.6" spans="1:3">
+      <c r="B78" s="1">
+        <v>20200910</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
-        <v>20200827</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" ht="17.6" spans="1:3">
+        <v>20200901</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" ht="17.6" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="1:3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1">
-        <v>20200806</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" ht="17.6" spans="1:3">
+      <c r="B81" s="1"/>
+      <c r="C81" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="1:3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1">
+        <v>20200827</v>
+      </c>
       <c r="C82" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" ht="17.6" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" ht="18" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" ht="22" spans="1:3">
+      <c r="C83" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
-        <v>20200804</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" ht="22" spans="1:3">
+        <v>20200806</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="1:3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1">
-        <v>20200703</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" ht="22" spans="1:3">
+      <c r="B85" s="1"/>
+      <c r="C85" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:3">
       <c r="A86" s="1"/>
-      <c r="B86" s="1">
-        <v>20200627</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" ht="17.6" spans="1:3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" ht="21.75" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
+        <v>20200804</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" ht="21.75" spans="1:3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1">
+        <v>20200703</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" ht="21.75" spans="1:3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1">
+        <v>20200627</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" ht="18" spans="1:3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1">
         <v>20200611</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" ht="17.6" spans="1:3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" ht="17.6" spans="1:3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" ht="17.6" spans="1:3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" ht="17.6" spans="1:3">
+      <c r="C90" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" ht="17.6" spans="1:3">
+      <c r="C91" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" ht="18" spans="1:3">
       <c r="A92" s="1"/>
-      <c r="B92" s="1">
-        <v>20200606</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" ht="17.6" spans="1:3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" ht="18" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" ht="17.6" spans="1:3">
+      <c r="C93" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" ht="18" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" ht="17.6" spans="1:3">
+      <c r="C94" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>20200601</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" ht="17.6" spans="1:3">
+        <v>20200606</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" ht="17.6" spans="1:3">
+      <c r="C96" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="1:3">
       <c r="A97" s="1"/>
-      <c r="B97" s="1">
+      <c r="B97" s="1"/>
+      <c r="C97" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="1:3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1">
+        <v>20200601</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1">
         <v>20200402</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" ht="17.6" spans="1:3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" ht="17.6" spans="1:3">
-      <c r="A99" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B99" s="1">
-        <v>20181120</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" ht="17.6" spans="1:3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" ht="17.6" spans="1:3">
+      <c r="C100" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" ht="18" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" ht="17.6" spans="1:3">
-      <c r="A102" s="1"/>
+      <c r="C101" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" ht="18" spans="1:3">
+      <c r="A102" s="1">
+        <v>2018</v>
+      </c>
       <c r="B102" s="1">
-        <v>20181020</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" ht="17.6" spans="1:3">
+        <v>20181120</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" ht="17.6" spans="1:3">
+      <c r="C103" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" ht="17.6" spans="1:3">
+      <c r="C104" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" ht="18" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
-        <v>20181018</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" ht="17.6" spans="1:3">
+        <v>20181020</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" ht="17.6" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" ht="17.6" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" ht="18" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
-        <v>20180907</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" ht="17.6" spans="1:3">
+        <v>20181018</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" ht="18" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" ht="17.6" spans="1:3">
+      <c r="C109" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" ht="18" spans="1:3">
       <c r="A110" s="1"/>
-      <c r="B110" s="1">
+      <c r="B110" s="1"/>
+      <c r="C110" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" ht="18" spans="1:3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1">
+        <v>20180907</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" ht="18" spans="1:3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" ht="18" spans="1:3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1">
         <v>20180906</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" ht="17.6" spans="1:3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" ht="17.6" spans="1:3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1">
-        <v>20180822</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" ht="17.6" spans="1:3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" ht="17.6" spans="1:3">
+      <c r="C113" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" ht="17.6" spans="1:3">
+      <c r="C114" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" ht="18" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
-        <v>20180808</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" ht="17.6" spans="1:3">
+        <v>20180822</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" ht="22" spans="1:3">
+      <c r="C116" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" ht="18" spans="1:3">
       <c r="A117" s="1"/>
-      <c r="B117" s="1">
-        <v>20180801</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" ht="17.6" spans="1:3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" ht="18" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
-        <v>20180730</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" ht="17.6" spans="1:3">
+        <v>20180808</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" ht="18" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" ht="17.6" spans="1:3">
+      <c r="C119" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" ht="21.75" spans="1:3">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" ht="17.6" spans="1:3">
+      <c r="B120" s="1">
+        <v>20180801</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" ht="18" spans="1:3">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="17.6" spans="1:3">
+      <c r="B121" s="1">
+        <v>20180730</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" ht="17.6" spans="1:3">
+      <c r="C122" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" ht="18" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" ht="17.6" spans="1:3">
+      <c r="C123" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" ht="18" spans="1:3">
       <c r="A124" s="1"/>
-      <c r="B124" s="1">
-        <v>20180705</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" ht="17.6" spans="1:3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" ht="18" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" ht="17.6" spans="1:3">
+      <c r="C125" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" ht="17.6" spans="1:3">
+      <c r="C126" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" ht="18" spans="1:3">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" ht="17.6" spans="1:3">
+      <c r="B127" s="1">
+        <v>20180705</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" ht="18" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" ht="17.6" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" ht="18" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" ht="17.6" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" ht="17.6" spans="1:3">
+      <c r="C130" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" ht="18" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" ht="17.6" spans="1:3">
+      <c r="C131" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" ht="17.6" spans="1:3">
+      <c r="C132" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" ht="18" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" ht="17.6" spans="1:3">
+      <c r="C133" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" ht="18" spans="1:3">
       <c r="A134" s="1"/>
-      <c r="B134" s="1">
-        <v>20180613</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" ht="17.6" spans="1:3">
+      <c r="B134" s="1"/>
+      <c r="C134" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" ht="18" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="136" ht="17.6" spans="1:3">
+      <c r="C135" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" ht="18" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="137" ht="17.6" spans="1:3">
+      <c r="C136" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" ht="18" spans="1:3">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138" ht="22" spans="1:3">
+      <c r="B137" s="1">
+        <v>20180613</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:3">
       <c r="A138" s="1"/>
-      <c r="B138" s="1">
-        <v>20180427</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="139" ht="17.6" spans="1:3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" ht="18" spans="1:3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1">
-        <v>20180426</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140" ht="17.6" spans="1:3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" ht="18" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="141" ht="17.6" spans="1:3">
+      <c r="C140" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" ht="21.75" spans="1:3">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="142" ht="17.6" spans="1:3">
+      <c r="B141" s="1">
+        <v>20180427</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" ht="18" spans="1:3">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="143" ht="17.6" spans="1:3">
+      <c r="B142" s="1">
+        <v>20180426</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" ht="17.6" spans="1:3">
+      <c r="C143" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" ht="18" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" ht="17.6" spans="1:3">
+      <c r="C144" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" ht="18" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" ht="17.6" spans="1:3">
+      <c r="C145" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" ht="18" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" ht="17.6" spans="1:3">
+      <c r="C146" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="18" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148" ht="17.6" spans="1:3">
+      <c r="C147" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" ht="18" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="149" ht="17.6" spans="1:3">
+      <c r="C148" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" ht="18" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" ht="17.6" spans="1:3">
+      <c r="C149" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" ht="18" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="151" ht="17.6" spans="1:3">
+      <c r="C150" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" ht="18" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="152" ht="17.6" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" ht="18" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="153" ht="17.6" spans="1:3">
+      <c r="C152" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" ht="18" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" ht="17.6" spans="1:3">
+      <c r="C153" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" ht="18" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="155" ht="17.6" spans="1:3">
+      <c r="C154" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" ht="18" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="156" ht="17.6" spans="1:3">
+      <c r="C155" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" ht="18" spans="1:3">
       <c r="A156" s="1"/>
-      <c r="B156" s="1">
-        <v>20180217</v>
-      </c>
+      <c r="B156" s="1"/>
       <c r="C156" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="157" ht="17.6" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" ht="18" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" ht="17.6" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" ht="18" spans="1:3">
       <c r="A158" s="1"/>
-      <c r="B158" s="1">
-        <v>20180125</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" ht="17.6" spans="1:3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" ht="18" spans="1:3">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="160" ht="17.6" spans="1:3">
+      <c r="B159" s="1">
+        <v>20180217</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" ht="18" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" ht="17.6" spans="1:3">
+      <c r="C160" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" ht="18" spans="1:3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" ht="17.6" spans="1:3">
+      <c r="B161" s="1">
+        <v>20180125</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" ht="18" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="163" ht="17.6" spans="1:3">
-      <c r="A163" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B163" s="1">
-        <v>20171220</v>
-      </c>
+      <c r="C162" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" ht="18" spans="1:3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="164" ht="17.6" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" ht="18" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="165" ht="17.6" spans="1:3">
+      <c r="C164" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" ht="18" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="166" ht="17.6" spans="1:3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" ht="17.6" spans="1:3">
+    <row r="166" ht="18" spans="1:3">
+      <c r="A166" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B166" s="1">
+        <v>20171220</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" ht="18" spans="1:3">
       <c r="A167" s="1"/>
-      <c r="B167" s="1">
-        <v>20171128</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="168" ht="17.6" spans="1:3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" ht="18" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169" ht="17.6" spans="1:3">
+      <c r="C168" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" ht="18" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" ht="17.6" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" ht="18" spans="1:3">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" ht="17.6" spans="1:3">
+      <c r="B170" s="1">
+        <v>20171128</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" ht="18" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="172" ht="17.6" spans="1:3">
+      <c r="C171" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" ht="18" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" ht="17.6" spans="1:3">
+      <c r="C172" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" ht="18" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" ht="17.6" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" ht="18" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="175" ht="17.6" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" ht="18" spans="1:3">
       <c r="A175" s="1"/>
-      <c r="B175" s="1">
-        <v>20170925</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="176" ht="17.6" spans="1:3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" ht="18" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="177" ht="17.6" spans="1:3">
+      <c r="C176" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" ht="18" spans="1:3">
       <c r="A177" s="1"/>
-      <c r="B177" s="1">
-        <v>20170912</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" ht="17.6" spans="1:3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" ht="18" spans="1:3">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="179" ht="17.6" spans="1:3">
+      <c r="B178" s="1">
+        <v>20170925</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" ht="18" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="180" ht="17.6" spans="1:3">
+      <c r="C179" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" ht="18" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
-        <v>20170716</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="181" ht="17.6" spans="1:3">
+        <v>20170912</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" ht="18" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="182" ht="17.6" spans="1:3">
+      <c r="C181" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" ht="18" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" ht="17.6" spans="1:3">
+      <c r="C182" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" ht="18" spans="1:3">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" ht="17.6" spans="1:3">
+      <c r="B183" s="1">
+        <v>20170716</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" ht="18" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" ht="17.6" spans="1:3">
+      <c r="C184" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" ht="18" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" ht="17.6" spans="1:3">
+      <c r="C185" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" ht="18" spans="1:3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1">
-        <v>20170613</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" ht="17.6" spans="1:3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" ht="18" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="188" ht="17.6" spans="1:3">
+      <c r="C187" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" ht="18" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" ht="17.6" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" ht="18" spans="1:3">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="1">
+        <v>20170613</v>
+      </c>
       <c r="C189" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="190" ht="17.6" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" ht="18" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" ht="17.6" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" ht="18" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="192" ht="17.6" spans="1:3">
+      <c r="C191" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" ht="18" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="193" ht="22" spans="1:3">
+      <c r="C192" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" ht="18" spans="1:3">
       <c r="A193" s="1"/>
-      <c r="B193" s="1">
+      <c r="B193" s="1"/>
+      <c r="C193" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" ht="18" spans="1:3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" ht="18" spans="1:3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" ht="21.75" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1">
         <v>20170503</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="194" ht="22" spans="1:3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1">
+      <c r="C196" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" ht="21.75" spans="1:3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1">
         <v>20170412</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="195" ht="17.6" spans="1:3">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1">
+      <c r="C197" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" ht="18" spans="1:3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1">
         <v>20170411</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" ht="17.6" spans="1:3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" ht="17.6" spans="1:3">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" ht="17.6" spans="1:3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" ht="17.6" spans="1:3">
+      <c r="C198" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" ht="18" spans="1:3">
       <c r="A199" s="1"/>
-      <c r="B199" s="1">
-        <v>20170318</v>
-      </c>
+      <c r="B199" s="1"/>
       <c r="C199" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="200" ht="17.6" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" ht="18" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="201" ht="17.6" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" ht="18" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="202" ht="17.6" spans="1:3">
+      <c r="C201" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" ht="18" spans="1:3">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="203" ht="17.6" spans="1:3">
+      <c r="B202" s="1">
+        <v>20170318</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" ht="18" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="204" ht="17.6" spans="1:3">
+      <c r="C203" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" ht="18" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="205" ht="22" spans="1:3">
-      <c r="A205" s="1">
+      <c r="C204" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" ht="18" spans="1:3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" ht="18" spans="1:3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" ht="18" spans="1:3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" ht="21.75" spans="1:3">
+      <c r="A208" s="1">
         <v>2016</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B208" s="1">
         <v>20161215</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="206" ht="22" spans="1:3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1">
+      <c r="C208" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" ht="21.75" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1">
         <v>20160420</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1">
-        <v>20160415</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="5" t="s">
-        <v>201</v>
+      <c r="C209" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1">
+        <v>20160415</v>
+      </c>
       <c r="C210" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="213" ht="22" spans="1:3">
+      <c r="C212" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
-      <c r="B213" s="1">
-        <v>20160111</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>205</v>
+      <c r="B213" s="1"/>
+      <c r="C213" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B214" s="1">
-        <v>20151221</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
       <c r="C214" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="C215" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" ht="21.75" spans="1:3">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="2" t="s">
-        <v>208</v>
+      <c r="B216" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B217" s="1">
+        <v>20151221</v>
+      </c>
       <c r="C217" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="2" t="s">
-        <v>210</v>
+      <c r="C218" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
-      <c r="B219" s="1">
-        <v>20151104</v>
-      </c>
+      <c r="B219" s="1"/>
       <c r="C219" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="1">
+        <v>20151104</v>
+      </c>
       <c r="C222" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
-      <c r="B223" s="1">
-        <v>20150807</v>
-      </c>
+      <c r="B223" s="1"/>
       <c r="C223" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="1">
+        <v>20150807</v>
+      </c>
       <c r="C226" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="5" t="s">
-        <v>219</v>
+      <c r="C228" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
-      <c r="B231" s="1">
-        <v>20150303</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>222</v>
+      <c r="B231" s="1"/>
+      <c r="C231" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B233" s="1">
-        <v>20141210</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
       <c r="C233" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="5" t="s">
-        <v>225</v>
+      <c r="B234" s="1">
+        <v>20150303</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="5" t="s">
-        <v>226</v>
+      <c r="C235" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>2014</v>
+      </c>
       <c r="B236" s="1">
-        <v>20141120</v>
+        <v>20141210</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="2" t="s">
-        <v>228</v>
+      <c r="C237" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="2" t="s">
-        <v>229</v>
+      <c r="C238" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>2013</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239" s="1">
-        <v>20131206</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>230</v>
+        <v>20141120</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>2013</v>
+      </c>
       <c r="B242" s="1">
-        <v>20130807</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>233</v>
+        <v>20131206</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
-        <v>20130722</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>236</v>
+        <v>20130807</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
-      <c r="B247" s="1">
-        <v>20130618</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>238</v>
+      <c r="B247" s="1"/>
+      <c r="C247" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="2" t="s">
-        <v>239</v>
+      <c r="B248" s="1">
+        <v>20130722</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
-        <v>20130607</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>241</v>
+        <v>20130618</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="253" ht="22" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1">
-        <v>20130417</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>244</v>
+        <v>20130607</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B254" s="1">
-        <v>20120119</v>
-      </c>
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
       <c r="C254" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>2011</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" ht="21.75" spans="1:3">
+      <c r="A256" s="1"/>
       <c r="B256" s="1">
-        <v>20110818</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>247</v>
+        <v>20130417</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+      <c r="A257" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B257" s="1">
+        <v>20120119</v>
+      </c>
       <c r="C257" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+      <c r="A259" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B259" s="1">
+        <v>20110818</v>
+      </c>
       <c r="C259" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="5" t="s">
-        <v>251</v>
+      <c r="C260" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B261" s="1">
-        <v>20101013</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>252</v>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="5" t="s">
-        <v>253</v>
+      <c r="C262" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="5" t="s">
-        <v>254</v>
+      <c r="C263" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="5" t="s">
-        <v>13</v>
+      <c r="A264" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B264" s="1">
+        <v>20101013</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="5" t="s">
-        <v>255</v>
+      <c r="C265" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B266" s="1">
-        <v>20091218</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>256</v>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="2" t="s">
-        <v>257</v>
+      <c r="C267" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="5" t="s">
-        <v>258</v>
+      <c r="C268" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="5" t="s">
-        <v>259</v>
+      <c r="A269" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B269" s="1">
+        <v>20091218</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1"/>
-      <c r="B271" s="1">
-        <v>20090827</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>261</v>
+      <c r="B271" s="1"/>
+      <c r="C271" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
-      <c r="C272" s="5" t="s">
-        <v>262</v>
+      <c r="C272" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="275" ht="22" spans="1:3">
+      <c r="B274" s="1">
+        <v>20090827</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="1"/>
-      <c r="B275" s="1">
-        <v>20090731</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>265</v>
+      <c r="B275" s="1"/>
+      <c r="C275" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1"/>
-      <c r="B276" s="1">
-        <v>20090723</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>266</v>
+      <c r="B276" s="1"/>
+      <c r="C276" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
-      <c r="C277" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="C277" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" ht="21.75" spans="1:3">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="5" t="s">
-        <v>268</v>
+      <c r="B278" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="5" t="s">
-        <v>269</v>
+      <c r="B279" s="1">
+        <v>20090723</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1"/>
-      <c r="B280" s="1">
-        <v>20090705</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>270</v>
+      <c r="B280" s="1"/>
+      <c r="C280" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
-      <c r="C281" s="5" t="s">
-        <v>271</v>
+      <c r="C281" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1"/>
-      <c r="B282" s="1">
-        <v>20090620</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>272</v>
+      <c r="B282" s="1"/>
+      <c r="C282" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="2" t="s">
-        <v>273</v>
+      <c r="B283" s="1">
+        <v>20090705</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1">
+        <v>20090620</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A3:A51"/>
-    <mergeCell ref="A52:A98"/>
-    <mergeCell ref="A99:A162"/>
-    <mergeCell ref="A163:A204"/>
-    <mergeCell ref="A205:A213"/>
-    <mergeCell ref="A214:A232"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A239:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A260"/>
-    <mergeCell ref="A261:A265"/>
-    <mergeCell ref="A266:A283"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
+  <mergeCells count="76">
+    <mergeCell ref="A2:A54"/>
+    <mergeCell ref="A55:A101"/>
+    <mergeCell ref="A102:A165"/>
+    <mergeCell ref="A166:A207"/>
+    <mergeCell ref="A208:A216"/>
+    <mergeCell ref="A217:A235"/>
+    <mergeCell ref="A236:A241"/>
+    <mergeCell ref="A242:A256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="A259:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A286"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B139:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B127:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B142:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="B226:B233"/>
+    <mergeCell ref="B234:B235"/>
     <mergeCell ref="B236:B238"/>
     <mergeCell ref="B239:B241"/>
     <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="B248:B249"/>
     <mergeCell ref="B250:B252"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B260"/>
-    <mergeCell ref="B261:B265"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B263"/>
+    <mergeCell ref="B264:B268"/>
+    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="B285:B286"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4159,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4167,7 +4258,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4176,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4184,7 +4275,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -900,10 +900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -940,26 +940,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -977,18 +985,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,7 +1024,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,71 +1077,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,7 +1093,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,43 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1147,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,13 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,19 +1195,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,67 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,21 +1340,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1365,6 +1350,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,20 +1413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,21 +1436,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1444,10 +1444,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,133 +1456,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1965,7 +1965,7 @@
   <dimension ref="A2:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="1:3">
+    <row r="8" ht="18" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
@@ -2073,7 +2073,7 @@
     <row r="15" ht="18" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       <c r="B102" s="1">
         <v>20181120</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
     <row r="106" ht="18" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3565,47 +3565,47 @@
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" ht="18" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
         <v>20160415</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" ht="18" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" ht="18" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" ht="18" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" ht="18" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" ht="18" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3618,258 +3618,258 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" ht="18" spans="1:3">
       <c r="A217" s="1">
         <v>2015</v>
       </c>
       <c r="B217" s="1">
         <v>20151221</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" ht="18" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" ht="18" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" ht="18" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" ht="18" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" ht="18" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="1">
         <v>20151104</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" ht="18" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" ht="18" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" ht="18" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" ht="18" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
         <v>20150807</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" ht="18" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" ht="18" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" ht="18" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" ht="18" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" ht="18" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" ht="18" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" ht="18" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" ht="18" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="1">
         <v>20150303</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" ht="18" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" ht="18" spans="1:3">
       <c r="A236" s="1">
         <v>2014</v>
       </c>
       <c r="B236" s="1">
         <v>20141210</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" ht="18" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" ht="18" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" ht="18" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="1">
         <v>20141120</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" ht="18" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" ht="18" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" ht="18" spans="1:3">
       <c r="A242" s="1">
         <v>2013</v>
       </c>
       <c r="B242" s="1">
         <v>20131206</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" ht="18" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" ht="18" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" ht="18" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
         <v>20130807</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" ht="18" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" ht="18" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" ht="18" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1">
         <v>20130722</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" ht="18" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3882,40 +3882,40 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" ht="18" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" ht="18" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" ht="18" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1">
         <v>20130607</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" ht="18" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" ht="18" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3928,168 +3928,168 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" ht="18" spans="1:3">
       <c r="A257" s="1">
         <v>2012</v>
       </c>
       <c r="B257" s="1">
         <v>20120119</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" ht="18" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" ht="18" spans="1:3">
       <c r="A259" s="1">
         <v>2011</v>
       </c>
       <c r="B259" s="1">
         <v>20110818</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" ht="18" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" ht="18" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" ht="18" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" ht="18" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" ht="18" spans="1:3">
       <c r="A264" s="1">
         <v>2010</v>
       </c>
       <c r="B264" s="1">
         <v>20101013</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" ht="18" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" ht="18" spans="1:3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" ht="18" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" ht="18" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" ht="18" spans="1:3">
       <c r="A269" s="1">
         <v>2009</v>
       </c>
       <c r="B269" s="1">
         <v>20091218</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" ht="18" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" ht="18" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" ht="18" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" ht="18" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" ht="18" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="1">
         <v>20090827</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" ht="18" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
-      <c r="C275" s="8" t="s">
+      <c r="C275" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" ht="18" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" ht="18" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="7" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4102,65 +4102,65 @@
         <v>269</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" ht="18" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1">
         <v>20090723</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" ht="18" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" ht="18" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" ht="18" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" ht="18" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="1">
         <v>20090705</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" ht="18" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" ht="18" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="1">
         <v>20090620</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" ht="18" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="4" t="s">
         <v>277</v>
       </c>
     </row>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
+  <si>
+    <t>臣服实验</t>
+  </si>
+  <si>
+    <t>写作即思考</t>
+  </si>
   <si>
     <t>契诃夫短篇小说</t>
   </si>
@@ -289,7 +295,22 @@
     <t>韩国式资本主义</t>
   </si>
   <si>
-    <t>哈佛中国史6册</t>
+    <t>哈佛中国史-早期中华帝国：秦与汉</t>
+  </si>
+  <si>
+    <t>哈佛中国史-分裂的帝国：南北朝</t>
+  </si>
+  <si>
+    <t>哈佛中国史-世界性的帝国：唐朝</t>
+  </si>
+  <si>
+    <t>哈佛中国史-儒家统治的时代：宋的转型</t>
+  </si>
+  <si>
+    <t>哈佛中国史-挣扎的帝国：元与明</t>
+  </si>
+  <si>
+    <t>哈佛中国史-最后的中华帝国：大清</t>
   </si>
   <si>
     <t>地中海的衰落：文明的征程</t>
@@ -313,7 +334,34 @@
     <t>兵法简述</t>
   </si>
   <si>
-    <t>讲谈社：中国的历史 十卷</t>
+    <t>第01卷 从神话到历史：神话时代 夏王朝 宫本一夫 九州大学教授</t>
+  </si>
+  <si>
+    <t>第02卷 从城市国家到中华：殷周 春秋战国 平势隆郎 东京大学教授</t>
+  </si>
+  <si>
+    <t>第03卷 始皇帝的遗产：秦汉帝国 鹤间和幸 学习院大学教授</t>
+  </si>
+  <si>
+    <t>第04卷 三国志的世界：后汉 三国时代 金 文京 京都大学教授</t>
+  </si>
+  <si>
+    <t>第05卷 中华的崩溃与扩大：魏晋南北朝 川本芳昭 九州大学教授</t>
+  </si>
+  <si>
+    <t>第06卷 绚烂的世界帝国：隋唐时代 气贺泽保规 明治大学教授</t>
+  </si>
+  <si>
+    <t>第07卷 中国思想与宗教的奔流：宋朝 小岛 毅 东京大学教授</t>
+  </si>
+  <si>
+    <t>第08卷 疾驰的草原征服者：辽 西夏 金 元 杉山正明 京都大学教授</t>
+  </si>
+  <si>
+    <t>第09卷 海与帝国：明清时代 上田 信 立教大学教授</t>
+  </si>
+  <si>
+    <t>第10卷 末代王朝与近代中国：清末 中华民国 菊池秀明 国际基督教大学教授</t>
   </si>
   <si>
     <t>资本主义经济制度</t>
@@ -901,9 +949,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -941,7 +989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,7 +997,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,23 +1066,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,14 +1088,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1008,11 +1095,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1023,62 +1124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,7 +1141,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,19 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,19 +1207,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,91 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,18 +1322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,41 +1387,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,27 +1407,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1436,153 +1439,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1596,11 +1644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,54 +1665,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1960,2288 +2008,2405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C286"/>
+  <dimension ref="A2:C302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.075"/>
-    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="9.07692307692308"/>
+    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="87.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" ht="17.6" spans="1:3">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" ht="17.6" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="17.6" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" ht="18" spans="1:3">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="22" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
+        <v>20210518</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="22" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>20210515</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4">
         <v>20210420</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="18" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:3">
+    <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:3">
+    <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:3">
+    <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>20210416</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="21.75" spans="1:3">
+    <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>20210414</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:3">
+    <row r="12" ht="22" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
+        <v>20210416</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="22" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>20210414</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>20210408</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:3">
+    <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:3">
+    <row r="16" ht="17.6" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:3">
+    <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:3">
+    <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>20210407</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:3">
+    <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:3">
+    <row r="21" ht="17.6" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
+    <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:3">
+    <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="21.75" spans="1:3">
+    <row r="25" ht="17.6" spans="1:3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="17.6" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="22" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
         <v>20210406</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>20210321</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:3">
+    <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1">
+        <v>20210321</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:3">
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="21.75" spans="1:3">
+    <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="17.6" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="22" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1">
         <v>20210320</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1">
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="17.6" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
         <v>20210316</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" ht="18" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="21.75" spans="1:3">
+    <row r="34" ht="17.6" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>20210313</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" ht="18" spans="1:3">
+    <row r="35" ht="17.6" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1">
-        <v>20210302</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:3">
+    <row r="36" ht="22" spans="1:3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="1">
+        <v>20210313</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" ht="21.75" spans="1:3">
+    <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>20210227</v>
+        <v>20210302</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:3">
+    <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="22" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1">
+        <v>20210227</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
         <v>20210220</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" ht="18" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" ht="18" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:3">
+    <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:3">
+    <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:3">
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:3">
+    <row r="44" ht="17.6" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" ht="18" spans="1:3">
+    <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:3">
+    <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1">
-        <v>20210206</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:3">
+    <row r="48" ht="17.6" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:3">
+    <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="1">
+        <v>20210206</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:3">
+    <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" ht="21.75" spans="1:3">
+    <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1">
-        <v>20210111</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" ht="21.75" spans="1:3">
+    <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
-      <c r="B52" s="1">
-        <v>20210106</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" ht="18" spans="1:3">
+    <row r="53" ht="22" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
+        <v>20210111</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" ht="22" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <v>20210106</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" ht="17.6" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
         <v>20210101</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" ht="18" spans="1:3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" ht="21.75" spans="1:3">
-      <c r="A55" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B55" s="1">
-        <v>20201230</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:3">
+    <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="1"/>
-      <c r="B56" s="1">
+      <c r="B56" s="1"/>
+      <c r="C56" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" ht="22" spans="1:3">
+      <c r="A57" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20201230</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" ht="17.6" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
         <v>20201225</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" ht="18" spans="1:3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" ht="18" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:3">
+    <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1">
-        <v>20201210</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" ht="18" spans="1:3">
+    <row r="60" ht="17.6" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" ht="18" spans="1:3">
+    <row r="61" ht="17.6" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>20201127</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>20201210</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:3">
+    <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:3">
+    <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="1">
+        <v>20201127</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:3">
+    <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" ht="18" spans="1:3">
+    <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="1"/>
-      <c r="B65" s="1">
-        <v>20201125</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" ht="18" spans="1:3">
+    <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:3">
+    <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
-        <v>20201123</v>
-      </c>
-      <c r="C67" s="4" t="s">
+        <v>20201125</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:3">
+    <row r="68" ht="17.6" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" ht="21.75" spans="1:3">
+    <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>20201109</v>
-      </c>
-      <c r="C69" s="4" t="s">
+        <v>20201123</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" ht="21.75" spans="1:3">
+    <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1">
-        <v>20201103</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:3">
+    <row r="71" ht="22" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
+        <v>20201109</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" ht="22" spans="1:3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
+        <v>20201103</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" ht="17.6" spans="1:3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
         <v>20200919</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" ht="18" spans="1:3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" ht="18" spans="1:3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
       <c r="C73" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:3">
+    <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:3">
+    <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
-      <c r="B75" s="1">
-        <v>20200912</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:3">
+    <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:3">
+    <row r="77" ht="17.6" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="1">
+        <v>20200912</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" ht="21.75" spans="1:3">
+    <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1">
+      <c r="B78" s="1"/>
+      <c r="C78" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" ht="17.6" spans="1:3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" ht="22" spans="1:3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1">
         <v>20200910</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" ht="18" spans="1:3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1">
-        <v>20200901</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" ht="18" spans="1:3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="4" t="s">
+      <c r="B81" s="1">
+        <v>20200901</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" ht="18" spans="1:3">
+    <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>20200827</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:3">
+    <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:3">
+    <row r="84" ht="17.6" spans="1:3">
       <c r="A84" s="1"/>
-      <c r="B84" s="1">
-        <v>20200806</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" ht="18" spans="1:3">
+    <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" ht="18" spans="1:3">
+    <row r="86" ht="17.6" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" ht="21.75" spans="1:3">
+    <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="1"/>
-      <c r="B87" s="1">
-        <v>20200804</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" ht="21.75" spans="1:3">
+    <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="1"/>
-      <c r="B88" s="1">
-        <v>20200703</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" ht="21.75" spans="1:3">
+    <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>20200627</v>
-      </c>
-      <c r="C89" s="7" t="s">
+        <v>20200827</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" ht="18" spans="1:3">
+    <row r="90" ht="17.6" spans="1:3">
       <c r="A90" s="1"/>
-      <c r="B90" s="1">
-        <v>20200611</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:3">
+    <row r="91" ht="17.6" spans="1:3">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="4" t="s">
+      <c r="B91" s="1">
+        <v>20200806</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:3">
+    <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:3">
+    <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:3">
+    <row r="94" ht="22" spans="1:3">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="1">
+        <v>20200804</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="22" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
-        <v>20200606</v>
-      </c>
-      <c r="C95" s="4" t="s">
+        <v>20200703</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
+    <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="4">
+        <v>20200627</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:3">
+    <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
-      <c r="B98" s="1">
-        <v>20200601</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="99" ht="18" spans="1:3">
+    <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="5"/>
+      <c r="C99" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:3">
+    <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="1"/>
-      <c r="B100" s="1">
-        <v>20200402</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="B100" s="5"/>
+      <c r="C100" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:3">
+    <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="4" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" ht="18" spans="1:3">
-      <c r="A102" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B102" s="1">
-        <v>20181120</v>
-      </c>
+    <row r="102" ht="17.6" spans="1:3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" ht="18" spans="1:3">
+    <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" ht="18" spans="1:3">
+    <row r="104" ht="17.6" spans="1:3">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="4" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="105" ht="18" spans="1:3">
+    <row r="105" ht="17.6" spans="1:3">
       <c r="A105" s="1"/>
-      <c r="B105" s="1">
-        <v>20181020</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:3">
+    <row r="106" ht="17.6" spans="1:3">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="1">
+        <v>20200611</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:3">
+    <row r="107" ht="17.6" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:3">
+    <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="1"/>
-      <c r="B108" s="1">
-        <v>20181018</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="B108" s="1"/>
+      <c r="C108" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:3">
+    <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:3">
+    <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111" ht="18" spans="1:3">
+    <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
-        <v>20180907</v>
-      </c>
-      <c r="C111" s="4" t="s">
+        <v>20200606</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:3">
+    <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" ht="18" spans="1:3">
+    <row r="113" ht="17.6" spans="1:3">
       <c r="A113" s="1"/>
-      <c r="B113" s="1">
-        <v>20180906</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B113" s="1"/>
+      <c r="C113" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" ht="18" spans="1:3">
+    <row r="114" ht="17.6" spans="1:3">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="4" t="s">
+      <c r="B114" s="1">
+        <v>20200601</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" ht="18" spans="1:3">
+    <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="1"/>
-      <c r="B115" s="1">
-        <v>20180822</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:3">
+    <row r="116" ht="17.6" spans="1:3">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="4" t="s">
+      <c r="B116" s="1">
+        <v>20200402</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" ht="18" spans="1:3">
+    <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:3">
-      <c r="A118" s="1"/>
+    <row r="118" ht="17.6" spans="1:3">
+      <c r="A118" s="1">
+        <v>2018</v>
+      </c>
       <c r="B118" s="1">
-        <v>20180808</v>
-      </c>
-      <c r="C118" s="4" t="s">
+        <v>20181120</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
+    <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" ht="21.75" spans="1:3">
+    <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
-      <c r="B120" s="1">
-        <v>20180801</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="B120" s="1"/>
+      <c r="C120" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:3">
+    <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
-        <v>20180730</v>
-      </c>
-      <c r="C121" s="4" t="s">
+        <v>20181020</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:3">
+    <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:3">
+    <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" ht="18" spans="1:3">
+    <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="4" t="s">
+      <c r="B124" s="1">
+        <v>20181018</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:3">
+    <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" ht="18" spans="1:3">
+    <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:3">
+    <row r="127" ht="17.6" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
-        <v>20180705</v>
-      </c>
-      <c r="C127" s="4" t="s">
+        <v>20180907</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" ht="18" spans="1:3">
+    <row r="128" ht="17.6" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:3">
+    <row r="129" ht="17.6" spans="1:3">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="4" t="s">
+      <c r="B129" s="1">
+        <v>20180906</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:3">
+    <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" ht="18" spans="1:3">
+    <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="7" t="s">
+      <c r="B131" s="1">
+        <v>20180822</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" ht="18" spans="1:3">
+    <row r="132" ht="17.6" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" ht="18" spans="1:3">
+    <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" ht="18" spans="1:3">
+    <row r="134" ht="17.6" spans="1:3">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="4" t="s">
+      <c r="B134" s="1">
+        <v>20180808</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:3">
+    <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" ht="18" spans="1:3">
+    <row r="136" ht="22" spans="1:3">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="4" t="s">
+      <c r="B136" s="1">
+        <v>20180801</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:3">
+    <row r="137" ht="17.6" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>20180613</v>
-      </c>
-      <c r="C137" s="4" t="s">
+        <v>20180730</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:3">
+    <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:3">
+    <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="140" ht="18" spans="1:3">
+    <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="141" ht="21.75" spans="1:3">
+    <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="1"/>
-      <c r="B141" s="1">
-        <v>20180427</v>
-      </c>
-      <c r="C141" s="4" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="142" ht="18" spans="1:3">
+    <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="1"/>
-      <c r="B142" s="1">
-        <v>20180426</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="143" ht="18" spans="1:3">
+    <row r="143" ht="17.6" spans="1:3">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="4" t="s">
+      <c r="B143" s="1">
+        <v>20180705</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" ht="18" spans="1:3">
+    <row r="144" ht="17.6" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="145" ht="18" spans="1:3">
+    <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" ht="18" spans="1:3">
+    <row r="146" ht="17.6" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="18" spans="1:3">
+      <c r="C146" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" ht="17.6" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" ht="18" spans="1:3">
+      <c r="C147" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" ht="18" spans="1:3">
+      <c r="C148" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" ht="17.6" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="150" ht="18" spans="1:3">
+      <c r="C149" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" ht="18" spans="1:3">
+      <c r="C150" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" ht="18" spans="1:3">
+      <c r="C151" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" ht="18" spans="1:3">
+      <c r="C152" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" ht="17.6" spans="1:3">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="154" ht="18" spans="1:3">
+      <c r="B153" s="1">
+        <v>20180613</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="155" ht="18" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" ht="17.6" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156" ht="18" spans="1:3">
+      <c r="C155" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" ht="18" spans="1:3">
+      <c r="C156" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" ht="22" spans="1:3">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" ht="18" spans="1:3">
+      <c r="B157" s="1">
+        <v>20180427</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" ht="17.6" spans="1:3">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" ht="18" spans="1:3">
+      <c r="B158" s="1">
+        <v>20180426</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="1"/>
-      <c r="B159" s="1">
-        <v>20180217</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" ht="18" spans="1:3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" ht="18" spans="1:3">
+      <c r="C160" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1">
-        <v>20180125</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" ht="18" spans="1:3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" ht="17.6" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="163" ht="18" spans="1:3">
+      <c r="C162" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" ht="17.6" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:3">
+    <row r="164" ht="17.6" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="18" spans="1:3">
+    <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" ht="18" spans="1:3">
-      <c r="A166" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B166" s="1">
-        <v>20171220</v>
-      </c>
-      <c r="C166" s="7" t="s">
+    <row r="166" ht="17.6" spans="1:3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:3">
+    <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="18" spans="1:3">
+    <row r="168" ht="17.6" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" ht="18" spans="1:3">
+    <row r="169" ht="17.6" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="170" ht="18" spans="1:3">
+    <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="1"/>
-      <c r="B170" s="1">
-        <v>20171128</v>
-      </c>
-      <c r="C170" s="4" t="s">
+      <c r="B170" s="1"/>
+      <c r="C170" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="171" ht="18" spans="1:3">
+    <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" ht="18" spans="1:3">
+    <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="18" spans="1:3">
+    <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:3">
+    <row r="174" ht="17.6" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:3">
+    <row r="175" ht="17.6" spans="1:3">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="1">
+        <v>20180217</v>
+      </c>
       <c r="C175" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:3">
+    <row r="176" ht="17.6" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="18" spans="1:3">
+    <row r="177" ht="17.6" spans="1:3">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="7" t="s">
+      <c r="B177" s="1">
+        <v>20180125</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="18" spans="1:3">
+    <row r="178" ht="17.6" spans="1:3">
       <c r="A178" s="1"/>
-      <c r="B178" s="1">
-        <v>20170925</v>
-      </c>
-      <c r="C178" s="7" t="s">
+      <c r="B178" s="1"/>
+      <c r="C178" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="18" spans="1:3">
+    <row r="179" ht="17.6" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="18" spans="1:3">
+    <row r="180" ht="17.6" spans="1:3">
       <c r="A180" s="1"/>
-      <c r="B180" s="1">
-        <v>20170912</v>
-      </c>
-      <c r="C180" s="4" t="s">
+      <c r="B180" s="1"/>
+      <c r="C180" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="18" spans="1:3">
+    <row r="181" ht="17.6" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="18" spans="1:3">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+    <row r="182" ht="17.6" spans="1:3">
+      <c r="A182" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B182" s="1">
+        <v>20171220</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="18" spans="1:3">
+    <row r="183" ht="17.6" spans="1:3">
       <c r="A183" s="1"/>
-      <c r="B183" s="1">
-        <v>20170716</v>
-      </c>
-      <c r="C183" s="4" t="s">
+      <c r="B183" s="1"/>
+      <c r="C183" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="18" spans="1:3">
+    <row r="184" ht="17.6" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:3">
+    <row r="185" ht="17.6" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:3">
+    <row r="186" ht="17.6" spans="1:3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="4" t="s">
+      <c r="B186" s="1">
+        <v>20171128</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:3">
+    <row r="187" ht="17.6" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:3">
+    <row r="188" ht="17.6" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:3">
+    <row r="189" ht="17.6" spans="1:3">
       <c r="A189" s="1"/>
-      <c r="B189" s="1">
-        <v>20170613</v>
-      </c>
-      <c r="C189" s="4" t="s">
+      <c r="B189" s="1"/>
+      <c r="C189" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="18" spans="1:3">
+    <row r="190" ht="17.6" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="18" spans="1:3">
+    <row r="191" ht="17.6" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" ht="18" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" ht="17.6" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" ht="18" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" ht="17.6" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="194" ht="18" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" ht="17.6" spans="1:3">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="1">
+        <v>20170925</v>
+      </c>
       <c r="C194" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="195" ht="18" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" ht="17.6" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" ht="21.75" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" ht="17.6" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
-        <v>20170503</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" ht="21.75" spans="1:3">
+        <v>20170912</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" ht="17.6" spans="1:3">
       <c r="A197" s="1"/>
-      <c r="B197" s="1">
-        <v>20170412</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" ht="18" spans="1:3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" ht="17.6" spans="1:3">
       <c r="A198" s="1"/>
-      <c r="B198" s="1">
-        <v>20170411</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" ht="18" spans="1:3">
+      <c r="B198" s="1"/>
+      <c r="C198" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" ht="17.6" spans="1:3">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="200" ht="18" spans="1:3">
+      <c r="B199" s="1">
+        <v>20170716</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" ht="17.6" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="201" ht="18" spans="1:3">
+      <c r="C200" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" ht="17.6" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" ht="18" spans="1:3">
+      <c r="C201" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" ht="17.6" spans="1:3">
       <c r="A202" s="1"/>
-      <c r="B202" s="1">
-        <v>20170318</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" ht="18" spans="1:3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" ht="17.6" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" ht="18" spans="1:3">
+      <c r="C203" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" ht="17.6" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" ht="18" spans="1:3">
+      <c r="C204" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" ht="17.6" spans="1:3">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="206" ht="18" spans="1:3">
+      <c r="B205" s="1">
+        <v>20170613</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" ht="17.6" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" ht="18" spans="1:3">
+      <c r="C206" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" ht="17.6" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" ht="21.75" spans="1:3">
-      <c r="A208" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B208" s="1">
-        <v>20161215</v>
-      </c>
-      <c r="C208" s="4" t="s">
+      <c r="C207" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" ht="17.6" spans="1:3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" ht="21.75" spans="1:3">
+    <row r="209" ht="17.6" spans="1:3">
       <c r="A209" s="1"/>
-      <c r="B209" s="1">
-        <v>20160420</v>
-      </c>
-      <c r="C209" s="4" t="s">
+      <c r="B209" s="1"/>
+      <c r="C209" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="210" ht="18" spans="1:3">
+    <row r="210" ht="17.6" spans="1:3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1">
-        <v>20160415</v>
-      </c>
-      <c r="C210" s="4" t="s">
+      <c r="B210" s="1"/>
+      <c r="C210" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="211" ht="18" spans="1:3">
+    <row r="211" ht="17.6" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" ht="18" spans="1:3">
+    <row r="212" ht="22" spans="1:3">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="7" t="s">
+      <c r="B212" s="1">
+        <v>20170503</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="213" ht="18" spans="1:3">
+    <row r="213" ht="22" spans="1:3">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="4" t="s">
+      <c r="B213" s="1">
+        <v>20170412</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="214" ht="18" spans="1:3">
+    <row r="214" ht="17.6" spans="1:3">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="4" t="s">
+      <c r="B214" s="1">
+        <v>20170411</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="215" ht="18" spans="1:3">
+    <row r="215" ht="17.6" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="216" ht="21.75" spans="1:3">
+    <row r="216" ht="17.6" spans="1:3">
       <c r="A216" s="1"/>
-      <c r="B216" s="1">
-        <v>20160111</v>
-      </c>
-      <c r="C216" s="4" t="s">
+      <c r="B216" s="1"/>
+      <c r="C216" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="217" ht="18" spans="1:3">
-      <c r="A217" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B217" s="1">
-        <v>20151221</v>
-      </c>
-      <c r="C217" s="4" t="s">
+    <row r="217" ht="17.6" spans="1:3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="218" ht="18" spans="1:3">
+    <row r="218" ht="17.6" spans="1:3">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="1">
+        <v>20170318</v>
+      </c>
       <c r="C218" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="219" ht="18" spans="1:3">
+    <row r="219" ht="17.6" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" ht="18" spans="1:3">
+    <row r="220" ht="17.6" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:3">
+    <row r="221" ht="17.6" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="222" ht="18" spans="1:3">
+    <row r="222" ht="17.6" spans="1:3">
       <c r="A222" s="1"/>
-      <c r="B222" s="1">
-        <v>20151104</v>
-      </c>
-      <c r="C222" s="4" t="s">
+      <c r="B222" s="1"/>
+      <c r="C222" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="223" ht="18" spans="1:3">
+    <row r="223" ht="17.6" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="224" ht="18" spans="1:3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="225" ht="18" spans="1:3">
+    <row r="224" ht="22" spans="1:3">
+      <c r="A224" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B224" s="1">
+        <v>20161215</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" ht="22" spans="1:3">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="226" ht="18" spans="1:3">
+      <c r="B225" s="1">
+        <v>20160420</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" ht="17.6" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
-        <v>20150807</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="227" ht="18" spans="1:3">
+        <v>20160415</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" ht="17.6" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="228" ht="18" spans="1:3">
+      <c r="C227" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" ht="17.6" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="229" ht="18" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" ht="17.6" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="230" ht="18" spans="1:3">
+      <c r="C229" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="231" ht="18" spans="1:3">
+      <c r="C230" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" ht="17.6" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="232" ht="18" spans="1:3">
+      <c r="C231" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" ht="22" spans="1:3">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="233" ht="18" spans="1:3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="4" t="s">
+      <c r="B232" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" ht="18" spans="1:3">
+    <row r="233" ht="17.6" spans="1:3">
+      <c r="A233" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B233" s="1">
+        <v>20151221</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="1"/>
-      <c r="B234" s="1">
-        <v>20150303</v>
-      </c>
+      <c r="B234" s="1"/>
       <c r="C234" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="235" ht="18" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" ht="17.6" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="236" ht="18" spans="1:3">
-      <c r="A236" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B236" s="1">
-        <v>20141210</v>
-      </c>
-      <c r="C236" s="4" t="s">
+      <c r="C235" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:3">
+    <row r="236" ht="17.6" spans="1:3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" ht="17.6" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="238" ht="18" spans="1:3">
+      <c r="C237" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" ht="17.6" spans="1:3">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" ht="18" spans="1:3">
+      <c r="B238" s="1">
+        <v>20151104</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" ht="17.6" spans="1:3">
       <c r="A239" s="1"/>
-      <c r="B239" s="1">
-        <v>20141120</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="240" ht="18" spans="1:3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" ht="17.6" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="241" ht="18" spans="1:3">
+      <c r="C240" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" ht="17.6" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="242" ht="18" spans="1:3">
-      <c r="A242" s="1">
-        <v>2013</v>
-      </c>
+    <row r="242" ht="17.6" spans="1:3">
+      <c r="A242" s="1"/>
       <c r="B242" s="1">
-        <v>20131206</v>
-      </c>
-      <c r="C242" s="7" t="s">
+        <v>20150807</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="243" ht="18" spans="1:3">
+    <row r="243" ht="17.6" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="244" ht="18" spans="1:3">
+    <row r="244" ht="17.6" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="245" ht="18" spans="1:3">
+    <row r="245" ht="17.6" spans="1:3">
       <c r="A245" s="1"/>
-      <c r="B245" s="1">
-        <v>20130807</v>
-      </c>
-      <c r="C245" s="4" t="s">
+      <c r="B245" s="1"/>
+      <c r="C245" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="246" ht="18" spans="1:3">
+    <row r="246" ht="17.6" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:3">
+    <row r="247" ht="17.6" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="248" ht="18" spans="1:3">
+    <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="1"/>
-      <c r="B248" s="1">
-        <v>20130722</v>
-      </c>
-      <c r="C248" s="7" t="s">
+      <c r="B248" s="1"/>
+      <c r="C248" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="249" ht="18" spans="1:3">
+    <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" ht="17.6" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
-        <v>20130618</v>
-      </c>
-      <c r="C250" s="8" t="s">
+        <v>20150303</v>
+      </c>
+      <c r="C250" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="251" ht="18" spans="1:3">
+    <row r="251" ht="17.6" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="252" ht="18" spans="1:3">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="4" t="s">
+    <row r="252" ht="17.6" spans="1:3">
+      <c r="A252" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B252" s="1">
+        <v>20141210</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="253" ht="18" spans="1:3">
+    <row r="253" ht="17.6" spans="1:3">
       <c r="A253" s="1"/>
-      <c r="B253" s="1">
-        <v>20130607</v>
-      </c>
+      <c r="B253" s="1"/>
       <c r="C253" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="254" ht="18" spans="1:3">
+    <row r="254" ht="17.6" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="255" ht="18" spans="1:3">
+    <row r="255" ht="17.6" spans="1:3">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="4" t="s">
+      <c r="B255" s="1">
+        <v>20141120</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="256" ht="21.75" spans="1:3">
+    <row r="256" ht="17.6" spans="1:3">
       <c r="A256" s="1"/>
-      <c r="B256" s="1">
-        <v>20130417</v>
-      </c>
-      <c r="C256" s="8" t="s">
+      <c r="B256" s="1"/>
+      <c r="C256" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="257" ht="18" spans="1:3">
-      <c r="A257" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B257" s="1">
-        <v>20120119</v>
-      </c>
-      <c r="C257" s="4" t="s">
+    <row r="257" ht="17.6" spans="1:3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="258" ht="18" spans="1:3">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+    <row r="258" ht="17.6" spans="1:3">
+      <c r="A258" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B258" s="1">
+        <v>20131206</v>
+      </c>
       <c r="C258" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="259" ht="18" spans="1:3">
-      <c r="A259" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B259" s="1">
-        <v>20110818</v>
-      </c>
-      <c r="C259" s="4" t="s">
+    <row r="259" ht="17.6" spans="1:3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="260" ht="18" spans="1:3">
+    <row r="260" ht="17.6" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="261" ht="18" spans="1:3">
+    <row r="261" ht="17.6" spans="1:3">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="4" t="s">
+      <c r="B261" s="1">
+        <v>20130807</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="262" ht="18" spans="1:3">
+    <row r="262" ht="17.6" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="263" ht="18" spans="1:3">
+    <row r="263" ht="17.6" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="264" ht="18" spans="1:3">
-      <c r="A264" s="1">
-        <v>2010</v>
-      </c>
+    <row r="264" ht="17.6" spans="1:3">
+      <c r="A264" s="1"/>
       <c r="B264" s="1">
-        <v>20101013</v>
+        <v>20130722</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="265" ht="18" spans="1:3">
+    <row r="265" ht="17.6" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="266" ht="18" spans="1:3">
+    <row r="266" spans="1:3">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="7" t="s">
+      <c r="B266" s="1">
+        <v>20130618</v>
+      </c>
+      <c r="C266" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="267" ht="18" spans="1:3">
+    <row r="267" ht="17.6" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" ht="18" spans="1:3">
+      <c r="C267" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" ht="17.6" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="269" ht="18" spans="1:3">
-      <c r="A269" s="1">
-        <v>2009</v>
-      </c>
+      <c r="C268" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" ht="17.6" spans="1:3">
+      <c r="A269" s="1"/>
       <c r="B269" s="1">
-        <v>20091218</v>
+        <v>20130607</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="270" ht="18" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" ht="17.6" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
-      <c r="C270" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="271" ht="18" spans="1:3">
+      <c r="C270" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" ht="17.6" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
-      <c r="C271" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="272" ht="18" spans="1:3">
+      <c r="C271" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" ht="22" spans="1:3">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="273" ht="18" spans="1:3">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="4" t="s">
+      <c r="B272" s="1">
+        <v>20130417</v>
+      </c>
+      <c r="C272" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="274" ht="18" spans="1:3">
+    <row r="273" ht="17.6" spans="1:3">
+      <c r="A273" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B273" s="1">
+        <v>20120119</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="274" ht="17.6" spans="1:3">
       <c r="A274" s="1"/>
-      <c r="B274" s="1">
-        <v>20090827</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="275" ht="18" spans="1:3">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="7" t="s">
+      <c r="B274" s="1"/>
+      <c r="C274" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="276" ht="18" spans="1:3">
+    <row r="275" ht="17.6" spans="1:3">
+      <c r="A275" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B275" s="1">
+        <v>20110818</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="276" ht="17.6" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
-      <c r="C276" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="277" ht="18" spans="1:3">
+      <c r="C276" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" ht="17.6" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
-      <c r="C277" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="278" ht="21.75" spans="1:3">
+      <c r="C277" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="278" ht="17.6" spans="1:3">
       <c r="A278" s="1"/>
-      <c r="B278" s="1">
-        <v>20090731</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="279" ht="18" spans="1:3">
+      <c r="B278" s="1"/>
+      <c r="C278" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="279" ht="17.6" spans="1:3">
       <c r="A279" s="1"/>
-      <c r="B279" s="1">
-        <v>20090723</v>
-      </c>
+      <c r="B279" s="1"/>
       <c r="C279" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="280" ht="18" spans="1:3">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280" ht="17.6" spans="1:3">
+      <c r="A280" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B280" s="1">
+        <v>20101013</v>
+      </c>
       <c r="C280" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="281" ht="18" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="281" ht="17.6" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="282" ht="18" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="282" ht="17.6" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="283" ht="18" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" ht="17.6" spans="1:3">
       <c r="A283" s="1"/>
-      <c r="B283" s="1">
-        <v>20090705</v>
-      </c>
+      <c r="B283" s="1"/>
       <c r="C283" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="284" ht="18" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" ht="17.6" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="285" ht="18" spans="1:3">
-      <c r="A285" s="1"/>
+    <row r="285" ht="17.6" spans="1:3">
+      <c r="A285" s="1">
+        <v>2009</v>
+      </c>
       <c r="B285" s="1">
-        <v>20090620</v>
-      </c>
-      <c r="C285" s="4" t="s">
+        <v>20091218</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="286" ht="18" spans="1:3">
+    <row r="286" ht="17.6" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="7" t="s">
         <v>277</v>
       </c>
     </row>
+    <row r="287" ht="17.6" spans="1:3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" ht="17.6" spans="1:3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" ht="17.6" spans="1:3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" ht="17.6" spans="1:3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1">
+        <v>20090827</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" ht="17.6" spans="1:3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" ht="17.6" spans="1:3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="293" ht="17.6" spans="1:3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="294" ht="22" spans="1:3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="295" ht="17.6" spans="1:3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1">
+        <v>20090723</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="296" ht="17.6" spans="1:3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" ht="17.6" spans="1:3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" ht="17.6" spans="1:3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" ht="17.6" spans="1:3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1">
+        <v>20090705</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="300" ht="17.6" spans="1:3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" ht="17.6" spans="1:3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1">
+        <v>20090620</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="302" ht="17.6" spans="1:3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="A55:A101"/>
-    <mergeCell ref="A102:A165"/>
-    <mergeCell ref="A166:A207"/>
-    <mergeCell ref="A208:A216"/>
-    <mergeCell ref="A217:A235"/>
-    <mergeCell ref="A236:A241"/>
-    <mergeCell ref="A242:A256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="A259:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A286"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B66"/>
+  <mergeCells count="77">
+    <mergeCell ref="A2:A56"/>
+    <mergeCell ref="A57:A117"/>
+    <mergeCell ref="A118:A181"/>
+    <mergeCell ref="A182:A223"/>
+    <mergeCell ref="A224:A232"/>
+    <mergeCell ref="A233:A251"/>
+    <mergeCell ref="A252:A257"/>
+    <mergeCell ref="A258:A272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A280:A284"/>
+    <mergeCell ref="A285:A302"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B127:B136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B142:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="B189:B195"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="B226:B233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B263"/>
-    <mergeCell ref="B264:B268"/>
-    <mergeCell ref="B269:B273"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B158:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B186:B193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B226:B231"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="B242:B249"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B279"/>
+    <mergeCell ref="B280:B284"/>
+    <mergeCell ref="B285:B289"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="B301:B302"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4250,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4258,7 +4423,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4267,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4275,7 +4440,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+  <si>
+    <t>基业长青</t>
+  </si>
   <si>
     <t>臣服实验</t>
   </si>
@@ -948,10 +951,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -989,6 +992,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -997,7 +1007,84 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,21 +1099,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,93 +1128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,7 +1156,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,67 +1288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,55 +1306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,31 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,11 +1392,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,8 +1402,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,40 +1418,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,16 +1448,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,160 +1492,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1660,6 +1663,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2013,7 +2019,7 @@
   <dimension ref="A2:C302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -2023,30 +2029,34 @@
     <col min="3" max="3" width="87.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.6" spans="1:3">
+    <row r="2" ht="22" spans="1:3">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="17.6" spans="1:3">
+    <row r="3" ht="22" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="17.6" spans="1:3">
+    <row r="4" ht="22" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2">
+        <v>20210527</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="22" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>20210518</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="22" spans="1:3">
@@ -2055,7 +2065,7 @@
         <v>20210515</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:3">
@@ -2064,35 +2074,35 @@
         <v>20210420</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="22" spans="1:3">
@@ -2101,7 +2111,7 @@
         <v>20210416</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="22" spans="1:3">
@@ -2110,7 +2120,7 @@
         <v>20210414</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:3">
@@ -2119,49 +2129,49 @@
         <v>20210408</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:3">
@@ -2170,42 +2180,42 @@
         <v>20210407</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="22" spans="1:3">
@@ -2214,7 +2224,7 @@
         <v>20210406</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="1:3">
@@ -2223,28 +2233,28 @@
         <v>20210321</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="22" spans="1:3">
@@ -2253,7 +2263,7 @@
         <v>20210320</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="1:3">
@@ -2262,21 +2272,21 @@
         <v>20210316</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="22" spans="1:3">
@@ -2285,7 +2295,7 @@
         <v>20210313</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="1:3">
@@ -2294,14 +2304,14 @@
         <v>20210302</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="22" spans="1:3">
@@ -2310,7 +2320,7 @@
         <v>20210227</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:3">
@@ -2319,63 +2329,63 @@
         <v>20210220</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="1:3">
@@ -2384,28 +2394,28 @@
         <v>20210206</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="22" spans="1:3">
@@ -2414,7 +2424,7 @@
         <v>20210111</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="22" spans="1:3">
@@ -2423,7 +2433,7 @@
         <v>20210106</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="1:3">
@@ -2432,14 +2442,14 @@
         <v>20210101</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="22" spans="1:3">
@@ -2450,7 +2460,7 @@
         <v>20201230</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="1:3">
@@ -2459,21 +2469,21 @@
         <v>20201225</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="1:3">
@@ -2482,14 +2492,14 @@
         <v>20201210</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="1:3">
@@ -2498,28 +2508,28 @@
         <v>20201127</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="17.6" spans="1:3">
@@ -2528,14 +2538,14 @@
         <v>20201125</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" ht="17.6" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="17.6" spans="1:3">
@@ -2544,14 +2554,14 @@
         <v>20201123</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" ht="22" spans="1:3">
@@ -2560,7 +2570,7 @@
         <v>20201109</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" ht="22" spans="1:3">
@@ -2569,7 +2579,7 @@
         <v>20201103</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" ht="17.6" spans="1:3">
@@ -2578,28 +2588,28 @@
         <v>20200919</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="17.6" spans="1:3">
@@ -2608,21 +2618,21 @@
         <v>20200912</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="17.6" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="22" spans="1:3">
@@ -2631,7 +2641,7 @@
         <v>20200910</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:3">
@@ -2640,56 +2650,56 @@
         <v>20200901</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" ht="17.6" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" ht="17.6" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" ht="17.6" spans="1:3">
@@ -2698,14 +2708,14 @@
         <v>20200827</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="17.6" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" ht="17.6" spans="1:3">
@@ -2714,21 +2724,21 @@
         <v>20200806</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" ht="22" spans="1:3">
@@ -2737,7 +2747,7 @@
         <v>20200804</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" ht="22" spans="1:3">
@@ -2746,7 +2756,7 @@
         <v>20200703</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" ht="17.6" spans="1:3">
@@ -2755,70 +2765,70 @@
         <v>20200627</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="5"/>
       <c r="C97" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98" s="5"/>
       <c r="C98" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="5"/>
       <c r="C99" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="5"/>
       <c r="C100" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="5"/>
       <c r="C102" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="5"/>
       <c r="C103" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" ht="17.6" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="5"/>
       <c r="C104" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" ht="17.6" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" ht="17.6" spans="1:3">
@@ -2827,35 +2837,35 @@
         <v>20200611</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" ht="17.6" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" ht="17.6" spans="1:3">
@@ -2864,21 +2874,21 @@
         <v>20200606</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" ht="17.6" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" ht="17.6" spans="1:3">
@@ -2887,14 +2897,14 @@
         <v>20200601</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" ht="17.6" spans="1:3">
@@ -2903,14 +2913,14 @@
         <v>20200402</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" ht="17.6" spans="1:3">
@@ -2921,21 +2931,21 @@
         <v>20181120</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" ht="17.6" spans="1:3">
@@ -2944,21 +2954,21 @@
         <v>20181020</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" ht="17.6" spans="1:3">
@@ -2967,21 +2977,21 @@
         <v>20181018</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" ht="17.6" spans="1:3">
@@ -2990,14 +3000,14 @@
         <v>20180907</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" ht="17.6" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" ht="17.6" spans="1:3">
@@ -3006,14 +3016,14 @@
         <v>20180906</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" ht="17.6" spans="1:3">
@@ -3022,21 +3032,21 @@
         <v>20180822</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" ht="17.6" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" ht="17.6" spans="1:3">
@@ -3045,14 +3055,14 @@
         <v>20180808</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" ht="22" spans="1:3">
@@ -3061,7 +3071,7 @@
         <v>20180801</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" ht="17.6" spans="1:3">
@@ -3070,42 +3080,42 @@
         <v>20180730</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" ht="17.6" spans="1:3">
@@ -3114,70 +3124,70 @@
         <v>20180705</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" ht="17.6" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" ht="17.6" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" ht="17.6" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" ht="17.6" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" ht="17.6" spans="1:3">
@@ -3186,28 +3196,28 @@
         <v>20180613</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" ht="17.6" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" ht="22" spans="1:3">
@@ -3216,7 +3226,7 @@
         <v>20180427</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" ht="17.6" spans="1:3">
@@ -3225,119 +3235,119 @@
         <v>20180426</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" ht="17.6" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" ht="17.6" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" ht="17.6" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" ht="17.6" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" ht="17.6" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" ht="17.6" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" ht="17.6" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" ht="17.6" spans="1:3">
@@ -3346,14 +3356,14 @@
         <v>20180217</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" ht="17.6" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" ht="17.6" spans="1:3">
@@ -3362,35 +3372,35 @@
         <v>20180125</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" ht="17.6" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" ht="17.6" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" ht="17.6" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" ht="17.6" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" ht="17.6" spans="1:3">
@@ -3401,28 +3411,28 @@
         <v>20171220</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" ht="17.6" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" ht="17.6" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" ht="17.6" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" ht="17.6" spans="1:3">
@@ -3431,56 +3441,56 @@
         <v>20171128</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" ht="17.6" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" ht="17.6" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" ht="17.6" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" ht="17.6" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" ht="17.6" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" ht="17.6" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" ht="17.6" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" ht="17.6" spans="1:3">
@@ -3489,14 +3499,14 @@
         <v>20170925</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" ht="17.6" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" ht="17.6" spans="1:3">
@@ -3505,21 +3515,21 @@
         <v>20170912</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" ht="17.6" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" ht="17.6" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" ht="17.6" spans="1:3">
@@ -3528,42 +3538,42 @@
         <v>20170716</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" ht="17.6" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" ht="17.6" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" ht="17.6" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" ht="17.6" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" ht="17.6" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" ht="17.6" spans="1:3">
@@ -3572,49 +3582,49 @@
         <v>20170613</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" ht="17.6" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" ht="17.6" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" ht="17.6" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" ht="17.6" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" ht="17.6" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" ht="17.6" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" ht="22" spans="1:3">
@@ -3623,7 +3633,7 @@
         <v>20170503</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" ht="22" spans="1:3">
@@ -3632,7 +3642,7 @@
         <v>20170412</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" ht="17.6" spans="1:3">
@@ -3641,28 +3651,28 @@
         <v>20170411</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" ht="17.6" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" ht="17.6" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" ht="17.6" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" ht="17.6" spans="1:3">
@@ -3671,42 +3681,42 @@
         <v>20170318</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" ht="17.6" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" ht="17.6" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" ht="17.6" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="222" ht="17.6" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223" ht="17.6" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224" ht="22" spans="1:3">
@@ -3717,7 +3727,7 @@
         <v>20161215</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" ht="22" spans="1:3">
@@ -3726,7 +3736,7 @@
         <v>20160420</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226" ht="17.6" spans="1:3">
@@ -3735,42 +3745,42 @@
         <v>20160415</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227" ht="17.6" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" ht="17.6" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" ht="17.6" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" ht="17.6" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" ht="22" spans="1:3">
@@ -3779,7 +3789,7 @@
         <v>20160111</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" ht="17.6" spans="1:3">
@@ -3790,35 +3800,35 @@
         <v>20151221</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" ht="17.6" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" ht="17.6" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" ht="17.6" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" ht="17.6" spans="1:3">
@@ -3827,28 +3837,28 @@
         <v>20151104</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" ht="17.6" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" ht="17.6" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" ht="17.6" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" ht="17.6" spans="1:3">
@@ -3857,56 +3867,56 @@
         <v>20150807</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" ht="17.6" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" ht="17.6" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" ht="17.6" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" ht="17.6" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" ht="17.6" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" ht="17.6" spans="1:3">
@@ -3915,14 +3925,14 @@
         <v>20150303</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" ht="17.6" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" ht="17.6" spans="1:3">
@@ -3933,21 +3943,21 @@
         <v>20141210</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" ht="17.6" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" ht="17.6" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" ht="17.6" spans="1:3">
@@ -3956,21 +3966,21 @@
         <v>20141120</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="256" ht="17.6" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" ht="17.6" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" ht="17.6" spans="1:3">
@@ -3981,21 +3991,21 @@
         <v>20131206</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" ht="17.6" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="260" ht="17.6" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="261" ht="17.6" spans="1:3">
@@ -4004,21 +4014,21 @@
         <v>20130807</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" ht="17.6" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" ht="17.6" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" ht="17.6" spans="1:3">
@@ -4027,14 +4037,14 @@
         <v>20130722</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" ht="17.6" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4043,21 +4053,21 @@
         <v>20130618</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" ht="17.6" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" ht="17.6" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" ht="17.6" spans="1:3">
@@ -4066,21 +4076,21 @@
         <v>20130607</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" ht="17.6" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" ht="17.6" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" ht="22" spans="1:3">
@@ -4089,7 +4099,7 @@
         <v>20130417</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" ht="17.6" spans="1:3">
@@ -4100,14 +4110,14 @@
         <v>20120119</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" ht="17.6" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" ht="17.6" spans="1:3">
@@ -4118,35 +4128,35 @@
         <v>20110818</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" ht="17.6" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="277" ht="17.6" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" ht="17.6" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" ht="17.6" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" ht="17.6" spans="1:3">
@@ -4157,35 +4167,35 @@
         <v>20101013</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" ht="17.6" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" ht="17.6" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" ht="17.6" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" ht="17.6" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" ht="17.6" spans="1:3">
@@ -4196,35 +4206,35 @@
         <v>20091218</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" ht="17.6" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="287" ht="17.6" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="288" ht="17.6" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" ht="17.6" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" ht="17.6" spans="1:3">
@@ -4233,28 +4243,28 @@
         <v>20090827</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" ht="17.6" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" ht="17.6" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" ht="17.6" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" ht="22" spans="1:3">
@@ -4262,8 +4272,8 @@
       <c r="B294" s="1">
         <v>20090731</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>285</v>
+      <c r="C294" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="295" ht="17.6" spans="1:3">
@@ -4272,28 +4282,28 @@
         <v>20090723</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" ht="17.6" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" ht="17.6" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" ht="17.6" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" ht="17.6" spans="1:3">
@@ -4302,14 +4312,14 @@
         <v>20090705</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" ht="17.6" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" ht="17.6" spans="1:3">
@@ -4318,14 +4328,14 @@
         <v>20090620</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" ht="17.6" spans="1:3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
+  <si>
+    <t>技术垄断</t>
+  </si>
+  <si>
+    <t>童年的消逝</t>
+  </si>
+  <si>
+    <t>娱乐至死</t>
+  </si>
+  <si>
+    <t>罗生门</t>
+  </si>
+  <si>
+    <t>现实不似你所见</t>
+  </si>
+  <si>
+    <t>时间的秩序</t>
+  </si>
+  <si>
+    <t>学术与政治</t>
+  </si>
+  <si>
+    <t>毛泽东选集套装四册</t>
+  </si>
   <si>
     <t>基业长青</t>
   </si>
@@ -532,9 +556,6 @@
     <t>慢煮生活</t>
   </si>
   <si>
-    <t>罗生门</t>
-  </si>
-  <si>
     <t>恋情的终结</t>
   </si>
   <si>
@@ -951,12 +972,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +1000,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Open Sans"/>
       <charset val="134"/>
@@ -992,7 +1019,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,8 +1032,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1021,32 +1109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,15 +1126,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,52 +1156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,25 +1171,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,79 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,13 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1267,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,37 +1303,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,29 +1417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,17 +1447,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,152 +1519,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,6 +1677,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,10 +1698,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1671,54 +1710,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2014,631 +2053,627 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C302"/>
+  <dimension ref="A2:C310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07692307692308"/>
-    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="87.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="9.075"/>
+    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
+    <col min="3" max="3" width="87.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="22" spans="1:3">
+    <row r="2" ht="21.75" spans="1:3">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="22" spans="1:3">
+    <row r="3" ht="21.75" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="22" spans="1:3">
+    <row r="4" ht="21.75" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
+        <v>20210601</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="21.75" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="21.75" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="21.75" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="21.75" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="21.75" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="21.75" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="21.75" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="21.75" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
         <v>20210527</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="22" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>20210518</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="22" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>20210515</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4">
-        <v>20210420</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="22" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>20210416</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="22" spans="1:3">
+    <row r="13" ht="21.75" spans="1:3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>20210414</v>
+      <c r="B13" s="2">
+        <v>20210518</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:3">
+    <row r="14" ht="21.75" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>20210408</v>
+        <v>20210515</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:3">
+    <row r="15" ht="18" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="8">
+        <v>20210420</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:3">
+    <row r="16" ht="18" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:3">
+    <row r="17" ht="18" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:3">
+    <row r="18" ht="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" ht="18" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:3">
+    <row r="20" ht="21.75" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>20210416</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:3">
+    <row r="21" ht="21.75" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>20210407</v>
+        <v>20210414</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:3">
+    <row r="22" ht="18" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="1">
+        <v>20210408</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:3">
+    <row r="23" ht="18" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:3">
+    <row r="24" ht="18" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="1:3">
+    <row r="25" ht="18" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" ht="17.6" spans="1:3">
+    <row r="26" ht="18" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="22" spans="1:3">
+    <row r="27" ht="18" spans="1:3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>20210406</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:3">
+    <row r="28" ht="18" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>20210321</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:3">
+    <row r="29" ht="18" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="1">
+        <v>20210407</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:3">
+    <row r="30" ht="18" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:3">
+    <row r="31" ht="18" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" ht="22" spans="1:3">
+    <row r="32" ht="18" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1">
-        <v>20210320</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:3">
+    <row r="33" ht="18" spans="1:3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1">
-        <v>20210316</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="1:3">
+    <row r="34" ht="18" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="1:3">
+    <row r="35" ht="21.75" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="1">
+        <v>20210406</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="22" spans="1:3">
+    <row r="36" ht="18" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
-        <v>20210313</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>20210321</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:3">
+    <row r="37" ht="18" spans="1:3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>20210302</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:3">
+    <row r="38" ht="18" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" ht="22" spans="1:3">
+    <row r="39" ht="18" spans="1:3">
       <c r="A39" s="1"/>
-      <c r="B39" s="1">
-        <v>20210227</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="1:3">
+    <row r="40" ht="21.75" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
-        <v>20210220</v>
-      </c>
-      <c r="C40" s="7" t="s">
+        <v>20210320</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:3">
+    <row r="41" ht="18" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>20210316</v>
+      </c>
       <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:3">
+    <row r="42" ht="18" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:3">
+    <row r="43" ht="18" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:3">
+    <row r="44" ht="21.75" spans="1:3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="1">
+        <v>20210313</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:3">
+    <row r="45" ht="18" spans="1:3">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="1">
+        <v>20210302</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:3">
+    <row r="46" ht="18" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:3">
+    <row r="47" ht="21.75" spans="1:3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="1">
+        <v>20210227</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:3">
+    <row r="48" ht="18" spans="1:3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="1">
+        <v>20210220</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:3">
+    <row r="49" ht="18" spans="1:3">
       <c r="A49" s="1"/>
-      <c r="B49" s="1">
-        <v>20210206</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:3">
+    <row r="50" ht="18" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:3">
+    <row r="51" ht="18" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:3">
+    <row r="52" ht="18" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" ht="22" spans="1:3">
+    <row r="53" ht="18" spans="1:3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>20210111</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" ht="22" spans="1:3">
+    <row r="54" ht="18" spans="1:3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1">
-        <v>20210106</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="1:3">
+    <row r="55" ht="18" spans="1:3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1">
-        <v>20210101</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:3">
+    <row r="56" ht="18" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="22" spans="1:3">
-      <c r="A57" s="1">
-        <v>2020</v>
-      </c>
+    <row r="57" ht="18" spans="1:3">
+      <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>20201230</v>
-      </c>
-      <c r="C57" s="7" t="s">
+        <v>20210206</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="1:3">
+    <row r="58" ht="18" spans="1:3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>20201225</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="1:3">
+    <row r="59" ht="18" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" ht="17.6" spans="1:3">
+    <row r="60" ht="18" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" ht="17.6" spans="1:3">
+    <row r="61" ht="21.75" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
-        <v>20201210</v>
-      </c>
-      <c r="C61" s="7" t="s">
+        <v>20210111</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" ht="17.6" spans="1:3">
+    <row r="62" ht="21.75" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="1">
+        <v>20210106</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" ht="17.6" spans="1:3">
+    <row r="63" ht="18" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
-        <v>20201127</v>
-      </c>
-      <c r="C63" s="3" t="s">
+        <v>20210101</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" ht="17.6" spans="1:3">
+    <row r="64" ht="18" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
+    <row r="65" ht="21.75" spans="1:3">
+      <c r="A65" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20201230</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" ht="17.6" spans="1:3">
+    <row r="66" ht="18" spans="1:3">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1">
+        <v>20201225</v>
+      </c>
       <c r="C66" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="17.6" spans="1:3">
+    <row r="67" ht="18" spans="1:3">
       <c r="A67" s="1"/>
-      <c r="B67" s="1">
-        <v>20201125</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" ht="17.6" spans="1:3">
+    <row r="68" ht="18" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" ht="17.6" spans="1:3">
+    <row r="69" ht="18" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>20201123</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>20201210</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" ht="17.6" spans="1:3">
+    <row r="70" ht="18" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" ht="22" spans="1:3">
+    <row r="71" ht="18" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
-        <v>20201109</v>
+        <v>20201127</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" ht="22" spans="1:3">
+    <row r="72" ht="18" spans="1:3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1">
-        <v>20201103</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" ht="17.6" spans="1:3">
+    <row r="73" ht="18" spans="1:3">
       <c r="A73" s="1"/>
-      <c r="B73" s="1">
-        <v>20200919</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" ht="17.6" spans="1:3">
+    <row r="74" ht="18" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" ht="17.6" spans="1:3">
+    <row r="75" ht="18" spans="1:3">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="1">
+        <v>20201125</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" ht="17.6" spans="1:3">
+    <row r="76" ht="18" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" ht="17.6" spans="1:3">
+    <row r="77" ht="18" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
-        <v>20200912</v>
+        <v>20201123</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" ht="17.6" spans="1:3">
+    <row r="78" ht="18" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="17.6" spans="1:3">
+    <row r="79" ht="21.75" spans="1:3">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1">
+        <v>20201109</v>
+      </c>
       <c r="C79" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" ht="22" spans="1:3">
+    <row r="80" ht="21.75" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>20200910</v>
+        <v>20201103</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>76</v>
@@ -2647,1776 +2682,1839 @@
     <row r="81" ht="18" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
-        <v>20200901</v>
-      </c>
-      <c r="C81" s="3" t="s">
+        <v>20200919</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" ht="17.6" spans="1:3">
+    <row r="82" ht="18" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" ht="17.6" spans="1:3">
+    <row r="83" ht="18" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" ht="17.6" spans="1:3">
+    <row r="84" ht="18" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" ht="17.6" spans="1:3">
+    <row r="85" ht="18" spans="1:3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="1">
+        <v>20200912</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" ht="17.6" spans="1:3">
+    <row r="86" ht="18" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" ht="17.6" spans="1:3">
+    <row r="87" ht="18" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" ht="17.6" spans="1:3">
+    <row r="88" ht="21.75" spans="1:3">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="1">
+        <v>20200910</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" ht="17.6" spans="1:3">
+    <row r="89" ht="18" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
-        <v>20200827</v>
+        <v>20200901</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" ht="17.6" spans="1:3">
+    <row r="90" ht="18" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" ht="17.6" spans="1:3">
+    <row r="91" ht="18" spans="1:3">
       <c r="A91" s="1"/>
-      <c r="B91" s="1">
-        <v>20200806</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" ht="17.6" spans="1:3">
+    <row r="92" ht="18" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" ht="17.6" spans="1:3">
+    <row r="93" ht="18" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" ht="22" spans="1:3">
+    <row r="94" ht="18" spans="1:3">
       <c r="A94" s="1"/>
-      <c r="B94" s="1">
+      <c r="B94" s="1"/>
+      <c r="C94" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="1:3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="1:3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="1:3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1">
+        <v>20200827</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="1:3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1">
+        <v>20200806</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" ht="18" spans="1:3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" ht="21.75" spans="1:3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1">
         <v>20200804</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" ht="22" spans="1:3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1">
+      <c r="C102" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" ht="21.75" spans="1:3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1">
         <v>20200703</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" ht="17.6" spans="1:3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="4">
+      <c r="C103" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="8">
         <v>20200627</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" ht="17.6" spans="1:3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" ht="17.6" spans="1:3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" ht="17.6" spans="1:3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" ht="17.6" spans="1:3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" ht="17.6" spans="1:3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" ht="17.6" spans="1:3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" ht="17.6" spans="1:3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" ht="17.6" spans="1:3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" ht="17.6" spans="1:3">
+    <row r="105" ht="18" spans="1:3">
       <c r="A105" s="1"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="9"/>
+      <c r="C105" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" ht="17.6" spans="1:3">
+    <row r="106" ht="18" spans="1:3">
       <c r="A106" s="1"/>
-      <c r="B106" s="1">
-        <v>20200611</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" ht="17.6" spans="1:3">
+    <row r="107" ht="18" spans="1:3">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="9"/>
+      <c r="C107" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" ht="17.6" spans="1:3">
+    <row r="108" ht="18" spans="1:3">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="9"/>
+      <c r="C108" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" ht="17.6" spans="1:3">
+    <row r="109" ht="18" spans="1:3">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="9"/>
+      <c r="C109" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" ht="17.6" spans="1:3">
+    <row r="110" ht="18" spans="1:3">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" ht="17.6" spans="1:3">
+    <row r="111" ht="18" spans="1:3">
       <c r="A111" s="1"/>
-      <c r="B111" s="1">
-        <v>20200606</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="9"/>
+      <c r="C111" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" ht="17.6" spans="1:3">
+    <row r="112" ht="18" spans="1:3">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="9"/>
+      <c r="C112" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" ht="17.6" spans="1:3">
+    <row r="113" ht="18" spans="1:3">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="10"/>
+      <c r="C113" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" ht="17.6" spans="1:3">
+    <row r="114" ht="18" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
-        <v>20200601</v>
+        <v>20200611</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" ht="17.6" spans="1:3">
+    <row r="115" ht="18" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" ht="17.6" spans="1:3">
+    <row r="116" ht="18" spans="1:3">
       <c r="A116" s="1"/>
-      <c r="B116" s="1">
-        <v>20200402</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" ht="17.6" spans="1:3">
+    <row r="117" ht="18" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" ht="17.6" spans="1:3">
-      <c r="A118" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B118" s="1">
-        <v>20181120</v>
-      </c>
-      <c r="C118" s="7" t="s">
+    <row r="118" ht="18" spans="1:3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" ht="17.6" spans="1:3">
+    <row r="119" ht="18" spans="1:3">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1">
+        <v>20200606</v>
+      </c>
       <c r="C119" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" ht="17.6" spans="1:3">
+    <row r="120" ht="18" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" ht="17.6" spans="1:3">
+    <row r="121" ht="18" spans="1:3">
       <c r="A121" s="1"/>
-      <c r="B121" s="1">
-        <v>20181020</v>
-      </c>
+      <c r="B121" s="1"/>
       <c r="C121" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" ht="17.6" spans="1:3">
+    <row r="122" ht="18" spans="1:3">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="7" t="s">
+      <c r="B122" s="1">
+        <v>20200601</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" ht="17.6" spans="1:3">
+    <row r="123" ht="18" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" ht="17.6" spans="1:3">
+    <row r="124" ht="18" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
-        <v>20181018</v>
+        <v>20200402</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" ht="17.6" spans="1:3">
+    <row r="125" ht="18" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" ht="17.6" spans="1:3">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="7" t="s">
+    <row r="126" ht="18" spans="1:3">
+      <c r="A126" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="1">
+        <v>20181120</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" ht="17.6" spans="1:3">
+    <row r="127" ht="18" spans="1:3">
       <c r="A127" s="1"/>
-      <c r="B127" s="1">
-        <v>20180907</v>
-      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" ht="17.6" spans="1:3">
+    <row r="128" ht="18" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" ht="17.6" spans="1:3">
+    <row r="129" ht="18" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
-        <v>20180906</v>
+        <v>20181020</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" ht="17.6" spans="1:3">
+    <row r="130" ht="18" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" ht="17.6" spans="1:3">
+    <row r="131" ht="18" spans="1:3">
       <c r="A131" s="1"/>
-      <c r="B131" s="1">
-        <v>20180822</v>
-      </c>
+      <c r="B131" s="1"/>
       <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="132" ht="17.6" spans="1:3">
+    <row r="132" ht="18" spans="1:3">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="1">
+        <v>20181018</v>
+      </c>
       <c r="C132" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" ht="17.6" spans="1:3">
+    <row r="133" ht="18" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="134" ht="17.6" spans="1:3">
+    <row r="134" ht="18" spans="1:3">
       <c r="A134" s="1"/>
-      <c r="B134" s="1">
-        <v>20180808</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="1"/>
+      <c r="C134" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="135" ht="17.6" spans="1:3">
+    <row r="135" ht="18" spans="1:3">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="1">
+        <v>20180907</v>
+      </c>
       <c r="C135" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="136" ht="22" spans="1:3">
+    <row r="136" ht="18" spans="1:3">
       <c r="A136" s="1"/>
-      <c r="B136" s="1">
-        <v>20180801</v>
-      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" ht="17.6" spans="1:3">
+    <row r="137" ht="18" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
-        <v>20180730</v>
+        <v>20180906</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" ht="17.6" spans="1:3">
+    <row r="138" ht="18" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="139" ht="17.6" spans="1:3">
+    <row r="139" ht="18" spans="1:3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="1">
+        <v>20180822</v>
+      </c>
       <c r="C139" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" ht="17.6" spans="1:3">
+    <row r="140" ht="18" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="141" ht="17.6" spans="1:3">
+    <row r="141" ht="18" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" ht="17.6" spans="1:3">
+    <row r="142" ht="18" spans="1:3">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="1">
+        <v>20180808</v>
+      </c>
       <c r="C142" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" ht="17.6" spans="1:3">
+    <row r="143" ht="18" spans="1:3">
       <c r="A143" s="1"/>
-      <c r="B143" s="1">
-        <v>20180705</v>
-      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" ht="17.6" spans="1:3">
+    <row r="144" ht="21.75" spans="1:3">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1">
+        <v>20180801</v>
+      </c>
       <c r="C144" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="145" ht="17.6" spans="1:3">
+    <row r="145" ht="18" spans="1:3">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1">
+        <v>20180730</v>
+      </c>
       <c r="C145" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
+    <row r="146" ht="18" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" ht="17.6" spans="1:3">
+    <row r="147" ht="18" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="148" ht="17.6" spans="1:3">
+    <row r="148" ht="18" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" ht="17.6" spans="1:3">
+    <row r="149" ht="18" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="150" ht="17.6" spans="1:3">
+    <row r="150" ht="18" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" ht="17.6" spans="1:3">
+    <row r="151" ht="18" spans="1:3">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1">
+        <v>20180705</v>
+      </c>
       <c r="C151" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="152" ht="17.6" spans="1:3">
+    <row r="152" ht="18" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="153" ht="17.6" spans="1:3">
+    <row r="153" ht="18" spans="1:3">
       <c r="A153" s="1"/>
-      <c r="B153" s="1">
-        <v>20180613</v>
-      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="154" ht="17.6" spans="1:3">
+    <row r="154" ht="18" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="155" ht="17.6" spans="1:3">
+    <row r="155" ht="18" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" ht="17.6" spans="1:3">
+    <row r="156" ht="18" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" ht="22" spans="1:3">
+    <row r="157" ht="18" spans="1:3">
       <c r="A157" s="1"/>
-      <c r="B157" s="1">
-        <v>20180427</v>
-      </c>
+      <c r="B157" s="1"/>
       <c r="C157" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="158" ht="17.6" spans="1:3">
+    <row r="158" ht="18" spans="1:3">
       <c r="A158" s="1"/>
-      <c r="B158" s="1">
-        <v>20180426</v>
-      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" ht="17.6" spans="1:3">
+    <row r="159" ht="18" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" ht="17.6" spans="1:3">
+    <row r="160" ht="18" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" ht="17.6" spans="1:3">
+    <row r="161" ht="18" spans="1:3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1">
+        <v>20180613</v>
+      </c>
       <c r="C161" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="17.6" spans="1:3">
+    <row r="162" ht="18" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" ht="17.6" spans="1:3">
+      <c r="C162" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" ht="18" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" ht="17.6" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" ht="18" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="165" ht="17.6" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" ht="21.75" spans="1:3">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="1">
+        <v>20180427</v>
+      </c>
       <c r="C165" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" ht="17.6" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" ht="18" spans="1:3">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="1">
+        <v>20180426</v>
+      </c>
       <c r="C166" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" ht="17.6" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" ht="18" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" ht="17.6" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" ht="18" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" ht="17.6" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" ht="18" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" ht="17.6" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" ht="18" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" ht="17.6" spans="1:3">
+      <c r="C170" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" ht="18" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" ht="17.6" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" ht="18" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" ht="17.6" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" ht="18" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" ht="17.6" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" ht="18" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" ht="18" spans="1:3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="175" ht="17.6" spans="1:3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1">
-        <v>20180217</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" ht="17.6" spans="1:3">
+    <row r="176" ht="18" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" ht="18" spans="1:3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="177" ht="17.6" spans="1:3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1">
-        <v>20180125</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178" ht="17.6" spans="1:3">
+    <row r="178" ht="18" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" ht="17.6" spans="1:3">
+      <c r="C178" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" ht="18" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="180" ht="17.6" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" ht="18" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="181" ht="17.6" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" ht="18" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" ht="18" spans="1:3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="182" ht="17.6" spans="1:3">
-      <c r="A182" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B182" s="1">
-        <v>20171220</v>
-      </c>
-      <c r="C182" s="7" t="s">
+    <row r="183" ht="18" spans="1:3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1">
+        <v>20180217</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="183" ht="17.6" spans="1:3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="184" ht="17.6" spans="1:3">
+    <row r="184" ht="18" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" ht="18" spans="1:3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1">
+        <v>20180125</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="185" ht="17.6" spans="1:3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="3" t="s">
+    <row r="186" ht="18" spans="1:3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1">
-        <v>20171128</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="187" ht="17.6" spans="1:3">
+    <row r="187" ht="18" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="188" ht="17.6" spans="1:3">
+      <c r="C187" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" ht="18" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" ht="17.6" spans="1:3">
+      <c r="C188" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" ht="18" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" ht="18" spans="1:3">
+      <c r="A190" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B190" s="1">
+        <v>20171220</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="190" ht="17.6" spans="1:3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" ht="17.6" spans="1:3">
+    <row r="191" ht="18" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="192" ht="17.6" spans="1:3">
+      <c r="C191" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" ht="18" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="193" ht="17.6" spans="1:3">
+      <c r="C192" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" ht="18" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="194" ht="17.6" spans="1:3">
+      <c r="C193" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" ht="18" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194" s="1">
-        <v>20170925</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" ht="17.6" spans="1:3">
+        <v>20171128</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" ht="18" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" ht="18" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="196" ht="17.6" spans="1:3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1">
-        <v>20170912</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="197" ht="17.6" spans="1:3">
+    <row r="197" ht="18" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="198" ht="17.6" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" ht="18" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" ht="18" spans="1:3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="199" ht="17.6" spans="1:3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1">
-        <v>20170716</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" ht="17.6" spans="1:3">
+    <row r="200" ht="18" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" ht="17.6" spans="1:3">
+      <c r="C200" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" ht="18" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" ht="18" spans="1:3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1">
+        <v>20170925</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="202" ht="17.6" spans="1:3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" ht="17.6" spans="1:3">
+    <row r="203" ht="18" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" ht="18" spans="1:3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1">
+        <v>20170912</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="204" ht="17.6" spans="1:3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="3" t="s">
+    <row r="205" ht="18" spans="1:3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="205" ht="17.6" spans="1:3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1">
-        <v>20170613</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" ht="17.6" spans="1:3">
+    <row r="206" ht="18" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" ht="18" spans="1:3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1">
+        <v>20170716</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="207" ht="17.6" spans="1:3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" ht="17.6" spans="1:3">
+    <row r="208" ht="18" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="209" ht="17.6" spans="1:3">
+    <row r="209" ht="18" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="210" ht="17.6" spans="1:3">
+    <row r="210" ht="18" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="211" ht="17.6" spans="1:3">
+    <row r="211" ht="18" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="212" ht="22" spans="1:3">
+    <row r="212" ht="18" spans="1:3">
       <c r="A212" s="1"/>
-      <c r="B212" s="1">
-        <v>20170503</v>
-      </c>
+      <c r="B212" s="1"/>
       <c r="C212" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="213" ht="22" spans="1:3">
+    <row r="213" ht="18" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
-        <v>20170412</v>
+        <v>20170613</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="214" ht="17.6" spans="1:3">
+    <row r="214" ht="18" spans="1:3">
       <c r="A214" s="1"/>
-      <c r="B214" s="1">
-        <v>20170411</v>
-      </c>
+      <c r="B214" s="1"/>
       <c r="C214" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="215" ht="17.6" spans="1:3">
+    <row r="215" ht="18" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="216" ht="17.6" spans="1:3">
+      <c r="C215" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" ht="18" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" ht="17.6" spans="1:3">
+      <c r="C216" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" ht="18" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" ht="18" spans="1:3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="218" ht="17.6" spans="1:3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1">
-        <v>20170318</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="219" ht="17.6" spans="1:3">
+    <row r="219" ht="18" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" ht="21.75" spans="1:3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1">
+        <v>20170503</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="220" ht="17.6" spans="1:3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="3" t="s">
+    <row r="221" ht="21.75" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1">
+        <v>20170412</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="221" ht="17.6" spans="1:3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="3" t="s">
+    <row r="222" ht="18" spans="1:3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1">
+        <v>20170411</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="223" ht="17.6" spans="1:3">
+    <row r="223" ht="18" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" ht="18" spans="1:3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="224" ht="22" spans="1:3">
-      <c r="A224" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B224" s="1">
-        <v>20161215</v>
-      </c>
-      <c r="C224" s="3" t="s">
+    <row r="225" ht="18" spans="1:3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="225" ht="22" spans="1:3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1">
-        <v>20160420</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="226" ht="17.6" spans="1:3">
+    <row r="226" ht="18" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
-        <v>20160415</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" ht="17.6" spans="1:3">
+        <v>20170318</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" ht="18" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="228" ht="17.6" spans="1:3">
+      <c r="C227" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" ht="18" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="229" ht="17.6" spans="1:3">
+      <c r="C228" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" ht="18" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="230" ht="17.6" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" ht="18" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="231" ht="17.6" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" ht="18" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" ht="21.75" spans="1:3">
+      <c r="A232" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B232" s="1">
+        <v>20161215</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="232" ht="22" spans="1:3">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1">
-        <v>20160111</v>
-      </c>
-      <c r="C232" s="3" t="s">
+    <row r="233" ht="21.75" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1">
+        <v>20160420</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="233" ht="17.6" spans="1:3">
-      <c r="A233" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B233" s="1">
-        <v>20151221</v>
-      </c>
-      <c r="C233" s="3" t="s">
+    <row r="234" ht="18" spans="1:3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1">
+        <v>20160415</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="234" ht="17.6" spans="1:3">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="235" ht="17.6" spans="1:3">
+    <row r="235" ht="18" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="236" ht="17.6" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" ht="18" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="237" ht="17.6" spans="1:3">
+      <c r="C236" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" ht="18" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" ht="18" spans="1:3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:3">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1">
-        <v>20151104</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="239" ht="17.6" spans="1:3">
+    <row r="239" ht="18" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" ht="21.75" spans="1:3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="240" ht="17.6" spans="1:3">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="241" ht="17.6" spans="1:3">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+    <row r="241" ht="18" spans="1:3">
+      <c r="A241" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B241" s="1">
+        <v>20151221</v>
+      </c>
       <c r="C241" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" ht="17.6" spans="1:3">
+    <row r="242" ht="18" spans="1:3">
       <c r="A242" s="1"/>
-      <c r="B242" s="1">
-        <v>20150807</v>
-      </c>
-      <c r="C242" s="3" t="s">
+      <c r="B242" s="1"/>
+      <c r="C242" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="243" ht="17.6" spans="1:3">
+    <row r="243" ht="18" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="244" ht="17.6" spans="1:3">
+    <row r="244" ht="18" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="245" ht="17.6" spans="1:3">
+    <row r="245" ht="18" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="246" ht="17.6" spans="1:3">
+    <row r="246" ht="18" spans="1:3">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="B246" s="1">
+        <v>20151104</v>
+      </c>
       <c r="C246" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="247" ht="17.6" spans="1:3">
+    <row r="247" ht="18" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="248" ht="17.6" spans="1:3">
+    <row r="248" ht="18" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="249" ht="17.6" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="249" ht="18" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="250" ht="17.6" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" ht="18" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
-        <v>20150303</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="251" ht="17.6" spans="1:3">
+        <v>20150807</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" ht="18" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" ht="18" spans="1:3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="252" ht="17.6" spans="1:3">
-      <c r="A252" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B252" s="1">
-        <v>20141210</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="253" ht="17.6" spans="1:3">
+    <row r="253" ht="18" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
-      <c r="C253" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="254" ht="17.6" spans="1:3">
+      <c r="C253" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" ht="18" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="255" ht="18" spans="1:3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="255" ht="17.6" spans="1:3">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1">
-        <v>20141120</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="256" ht="17.6" spans="1:3">
+    <row r="256" ht="18" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="257" ht="17.6" spans="1:3">
+      <c r="C256" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" ht="18" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" ht="18" spans="1:3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1">
+        <v>20150303</v>
+      </c>
+      <c r="C258" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="258" ht="17.6" spans="1:3">
-      <c r="A258" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B258" s="1">
-        <v>20131206</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="259" ht="17.6" spans="1:3">
+    <row r="259" ht="18" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="260" ht="18" spans="1:3">
+      <c r="A260" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B260" s="1">
+        <v>20141210</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="260" ht="17.6" spans="1:3">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="3" t="s">
+    <row r="261" ht="18" spans="1:3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="261" ht="17.6" spans="1:3">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1">
-        <v>20130807</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="262" ht="17.6" spans="1:3">
+    <row r="262" ht="18" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" ht="18" spans="1:3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1">
+        <v>20141120</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="263" ht="17.6" spans="1:3">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="3" t="s">
+    <row r="264" ht="18" spans="1:3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="264" ht="17.6" spans="1:3">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1">
-        <v>20130722</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="265" ht="17.6" spans="1:3">
+    <row r="265" ht="18" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" ht="18" spans="1:3">
+      <c r="A266" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B266" s="1">
+        <v>20131206</v>
+      </c>
+      <c r="C266" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1">
-        <v>20130618</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="267" ht="17.6" spans="1:3">
+    <row r="267" ht="18" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="268" ht="17.6" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" ht="18" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="269" ht="17.6" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" ht="18" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="1">
-        <v>20130607</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="270" ht="17.6" spans="1:3">
+        <v>20130807</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" ht="18" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="271" ht="17.6" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" ht="18" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="272" ht="22" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" ht="18" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1">
-        <v>20130417</v>
-      </c>
-      <c r="C272" s="8" t="s">
+        <v>20130722</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" ht="18" spans="1:3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="273" ht="17.6" spans="1:3">
-      <c r="A273" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B273" s="1">
-        <v>20120119</v>
-      </c>
-      <c r="C273" s="3" t="s">
+    <row r="274" spans="1:3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1">
+        <v>20130618</v>
+      </c>
+      <c r="C274" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="274" ht="17.6" spans="1:3">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="7" t="s">
+    <row r="275" ht="18" spans="1:3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="275" ht="17.6" spans="1:3">
-      <c r="A275" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B275" s="1">
-        <v>20110818</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="276" ht="17.6" spans="1:3">
+    <row r="276" ht="18" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" ht="18" spans="1:3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1">
+        <v>20130607</v>
+      </c>
+      <c r="C277" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="277" ht="17.6" spans="1:3">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="278" ht="17.6" spans="1:3">
+    <row r="278" ht="18" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="279" ht="17.6" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="279" ht="18" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280" ht="21.75" spans="1:3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1">
+        <v>20130417</v>
+      </c>
+      <c r="C280" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="280" ht="17.6" spans="1:3">
-      <c r="A280" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B280" s="1">
-        <v>20101013</v>
-      </c>
-      <c r="C280" s="7" t="s">
+    <row r="281" ht="18" spans="1:3">
+      <c r="A281" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B281" s="1">
+        <v>20120119</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="281" ht="17.6" spans="1:3">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="282" ht="17.6" spans="1:3">
+    <row r="282" ht="18" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" ht="18" spans="1:3">
+      <c r="A283" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B283" s="1">
+        <v>20110818</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="283" ht="17.6" spans="1:3">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="284" ht="17.6" spans="1:3">
+    <row r="284" ht="18" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="285" ht="17.6" spans="1:3">
-      <c r="A285" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B285" s="1">
-        <v>20091218</v>
-      </c>
-      <c r="C285" s="7" t="s">
+    <row r="285" ht="18" spans="1:3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="286" ht="17.6" spans="1:3">
+    <row r="286" ht="18" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="287" ht="17.6" spans="1:3">
+    <row r="287" ht="18" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="288" ht="17.6" spans="1:3">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="7" t="s">
+    <row r="288" ht="18" spans="1:3">
+      <c r="A288" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B288" s="1">
+        <v>20101013</v>
+      </c>
+      <c r="C288" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="289" ht="17.6" spans="1:3">
+    <row r="289" ht="18" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="290" ht="17.6" spans="1:3">
+    <row r="290" ht="18" spans="1:3">
       <c r="A290" s="1"/>
-      <c r="B290" s="1">
-        <v>20090827</v>
-      </c>
-      <c r="C290" s="3" t="s">
+      <c r="B290" s="1"/>
+      <c r="C290" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="291" ht="17.6" spans="1:3">
+    <row r="291" ht="18" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
-      <c r="C291" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="292" ht="17.6" spans="1:3">
+      <c r="C291" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" ht="18" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="293" ht="18" spans="1:3">
+      <c r="A293" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B293" s="1">
+        <v>20091218</v>
+      </c>
+      <c r="C293" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="293" ht="17.6" spans="1:3">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="7" t="s">
+    <row r="294" ht="18" spans="1:3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="294" ht="22" spans="1:3">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1">
-        <v>20090731</v>
-      </c>
-      <c r="C294" s="9" t="s">
+    <row r="295" ht="18" spans="1:3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="295" ht="17.6" spans="1:3">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1">
-        <v>20090723</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="296" ht="17.6" spans="1:3">
+    <row r="296" ht="18" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
-      <c r="C296" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="297" ht="17.6" spans="1:3">
+      <c r="C296" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" ht="18" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" ht="18" spans="1:3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1">
+        <v>20090827</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="298" ht="17.6" spans="1:3">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="7" t="s">
+    <row r="299" ht="18" spans="1:3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="299" ht="17.6" spans="1:3">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1">
-        <v>20090705</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="300" ht="17.6" spans="1:3">
+    <row r="300" ht="18" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="301" ht="18" spans="1:3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="301" ht="17.6" spans="1:3">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1">
+    <row r="302" ht="21.75" spans="1:3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" ht="18" spans="1:3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1">
+        <v>20090723</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="304" ht="18" spans="1:3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" ht="18" spans="1:3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="306" ht="18" spans="1:3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="307" ht="18" spans="1:3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1">
+        <v>20090705</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" ht="18" spans="1:3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="309" ht="18" spans="1:3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1">
         <v>20090620</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="302" ht="17.6" spans="1:3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="3" t="s">
-        <v>294</v>
+      <c r="C309" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="310" ht="18" spans="1:3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A2:A56"/>
-    <mergeCell ref="A57:A117"/>
-    <mergeCell ref="A118:A181"/>
-    <mergeCell ref="A182:A223"/>
-    <mergeCell ref="A224:A232"/>
-    <mergeCell ref="A233:A251"/>
-    <mergeCell ref="A252:A257"/>
-    <mergeCell ref="A258:A272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A280:A284"/>
-    <mergeCell ref="A285:A302"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B68"/>
+  <mergeCells count="78">
+    <mergeCell ref="A2:A64"/>
+    <mergeCell ref="A65:A125"/>
+    <mergeCell ref="A126:A189"/>
+    <mergeCell ref="A190:A231"/>
+    <mergeCell ref="A232:A240"/>
+    <mergeCell ref="A241:A259"/>
+    <mergeCell ref="A260:A265"/>
+    <mergeCell ref="A266:A280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="A288:A292"/>
+    <mergeCell ref="A293:A310"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B158:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="B151:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B166:B182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B194:B201"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B213:B219"/>
+    <mergeCell ref="B222:B225"/>
     <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="B242:B249"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="B263:B265"/>
     <mergeCell ref="B266:B268"/>
     <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B279"/>
-    <mergeCell ref="B280:B284"/>
-    <mergeCell ref="B285:B289"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="B288:B292"/>
+    <mergeCell ref="B293:B297"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B309:B310"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4425,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4433,7 +4531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4442,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4450,7 +4548,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
   <si>
     <t>技术垄断</t>
   </si>
@@ -192,7 +192,16 @@
     <t>涂尔干文集</t>
   </si>
   <si>
-    <t>塔勒布套装4册</t>
+    <t>塔勒布套装：黑天鹅</t>
+  </si>
+  <si>
+    <t>塔勒布套装：随机漫步的傻瓜</t>
+  </si>
+  <si>
+    <t>塔勒布套装：非对称风险</t>
+  </si>
+  <si>
+    <t>塔勒布套装：反脆弱</t>
   </si>
   <si>
     <t>天朝的崩溃：鸦片战争再研究</t>
@@ -973,9 +982,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1019,14 +1028,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,24 +1065,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1078,47 +1087,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,9 +1118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1133,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,7 +1180,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1288,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,13 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,13 +1342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,103 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,6 +1426,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1428,63 +1457,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,11 +1478,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,152 +1528,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1686,6 +1695,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,8 +1710,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1710,54 +1728,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2053,34 +2071,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C310"/>
+  <dimension ref="A2:C313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.075"/>
-    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
-    <col min="3" max="3" width="87.3083333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.07692307692308"/>
+    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="87.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21.75" spans="1:3">
+    <row r="2" ht="22" spans="1:3">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="21.75" spans="1:3">
+    <row r="3" ht="22" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="21.75" spans="1:3">
+    <row r="4" ht="17.6" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
         <v>20210601</v>
@@ -2089,56 +2107,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="21.75" spans="1:3">
+    <row r="5" ht="17.6" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="21.75" spans="1:3">
+    <row r="6" ht="17.6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="21.75" spans="1:3">
+    <row r="7" ht="17.6" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="1:3">
+    <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="21.75" spans="1:3">
+    <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:3">
+    <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="21.75" spans="1:3">
+    <row r="11" ht="17.6" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="21.75" spans="1:3">
+    <row r="12" ht="22" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>20210527</v>
@@ -2147,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="21.75" spans="1:3">
+    <row r="13" ht="22" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>20210518</v>
@@ -2156,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="21.75" spans="1:3">
+    <row r="14" ht="22" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>20210515</v>
@@ -2165,44 +2183,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:3">
+    <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>20210420</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:3">
+    <row r="16" ht="17.6" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:3">
+    <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:3">
+    <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="21.75" spans="1:3">
+    <row r="20" ht="22" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>20210416</v>
@@ -2211,7 +2229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="21.75" spans="1:3">
+    <row r="21" ht="22" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>20210414</v>
@@ -2220,7 +2238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>20210408</v>
@@ -2229,49 +2247,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
+    <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:3">
+    <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:3">
+    <row r="25" ht="17.6" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:3">
+    <row r="26" ht="17.6" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:3">
+    <row r="27" ht="17.6" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:3">
+    <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:3">
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>20210407</v>
@@ -2280,81 +2298,81 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:3">
+    <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:3">
+    <row r="31" ht="17.6" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:3">
+    <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:3">
+    <row r="33" ht="17.6" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:3">
+    <row r="34" ht="17.6" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="21.75" spans="1:3">
+    <row r="35" ht="22" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>20210406</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:3">
+    <row r="36" ht="17.6" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>20210321</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:3">
+    <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:3">
+    <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:3">
+    <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="21.75" spans="1:3">
+    <row r="40" ht="22" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>20210320</v>
@@ -2363,7 +2381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:3">
+    <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>20210316</v>
@@ -2372,120 +2390,120 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:3">
+    <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:3">
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="21.75" spans="1:3">
+    <row r="44" ht="22" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>20210313</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>20210302</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="18" spans="1:3">
+    <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="21.75" spans="1:3">
+    <row r="47" ht="22" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>20210227</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:3">
+    <row r="48" ht="17.6" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>20210220</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:3">
+    <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:3">
+    <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:3">
+    <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:3">
+    <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" ht="18" spans="1:3">
+    <row r="53" ht="17.6" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" ht="18" spans="1:3">
+    <row r="54" ht="17.6" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="18" spans="1:3">
+    <row r="55" ht="17.6" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:3">
+    <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="18" spans="1:3">
+    <row r="57" ht="17.6" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>20210206</v>
@@ -2494,28 +2512,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" ht="18" spans="1:3">
+    <row r="58" ht="17.6" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:3">
+    <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" ht="18" spans="1:3">
+    <row r="60" ht="17.6" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" ht="21.75" spans="1:3">
+    <row r="61" ht="22" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>20210111</v>
@@ -2524,1931 +2542,1952 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" ht="21.75" spans="1:3">
+    <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1">
+      <c r="B62" s="12">
         <v>20210106</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:3">
+    <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1">
-        <v>20210101</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:3">
+    <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="21.75" spans="1:3">
-      <c r="A65" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B65" s="1">
-        <v>20201230</v>
-      </c>
-      <c r="C65" s="11" t="s">
+    <row r="65" ht="17.6" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" ht="18" spans="1:3">
+    <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>20201225</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>20210101</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:3">
+    <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3" t="s">
+    <row r="68" ht="22" spans="1:3">
+      <c r="A68" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20201230</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
-        <v>20201210</v>
-      </c>
-      <c r="C69" s="11" t="s">
+        <v>20201225</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" ht="18" spans="1:3">
+    <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:3">
+    <row r="71" ht="17.6" spans="1:3">
       <c r="A71" s="1"/>
-      <c r="B71" s="1">
-        <v>20201127</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" ht="18" spans="1:3">
+    <row r="72" ht="17.6" spans="1:3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="1">
+        <v>20201210</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:3">
+    <row r="73" ht="17.6" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:3">
+    <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1">
+        <v>20201127</v>
+      </c>
       <c r="C74" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:3">
+    <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="1"/>
-      <c r="B75" s="1">
-        <v>20201125</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:3">
+    <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:3">
+    <row r="77" ht="17.6" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1">
-        <v>20201123</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" ht="18" spans="1:3">
+    <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="1">
+        <v>20201125</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="21.75" spans="1:3">
+    <row r="79" ht="17.6" spans="1:3">
       <c r="A79" s="1"/>
-      <c r="B79" s="1">
-        <v>20201109</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" ht="21.75" spans="1:3">
+    <row r="80" ht="17.6" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
-        <v>20201103</v>
+        <v>20201123</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" ht="18" spans="1:3">
+    <row r="81" ht="17.6" spans="1:3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1">
+      <c r="B81" s="1"/>
+      <c r="C81" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" ht="22" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>20201109</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" ht="22" spans="1:3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1">
+        <v>20201103</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" ht="17.6" spans="1:3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1">
         <v>20200919</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" ht="18" spans="1:3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" ht="18" spans="1:3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" ht="18" spans="1:3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" ht="18" spans="1:3">
+    <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1">
-        <v>20200912</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" ht="18" spans="1:3">
+    <row r="86" ht="17.6" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" ht="18" spans="1:3">
+    <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" ht="21.75" spans="1:3">
+    <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>20200910</v>
+        <v>20200912</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:3">
+    <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>20200901</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" ht="18" spans="1:3">
+    <row r="90" ht="17.6" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:3">
+    <row r="91" ht="22" spans="1:3">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="1">
+        <v>20200910</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" ht="18" spans="1:3">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="1">
+        <v>20200901</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:3">
+    <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:3">
+    <row r="94" ht="17.6" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="17.6" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
+    <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="1"/>
-      <c r="B97" s="1">
-        <v>20200827</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:3">
+    <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" ht="18" spans="1:3">
+    <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1">
-        <v>20200806</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:3">
+    <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="1">
+        <v>20200827</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:3">
+    <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" ht="21.75" spans="1:3">
+    <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
-        <v>20200804</v>
+        <v>20200806</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" ht="21.75" spans="1:3">
+    <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="1"/>
-      <c r="B103" s="1">
+      <c r="B103" s="1"/>
+      <c r="C103" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" ht="17.6" spans="1:3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" ht="22" spans="1:3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1">
+        <v>20200804</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" ht="22" spans="1:3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1">
         <v>20200703</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" ht="18" spans="1:3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="8">
+      <c r="C106" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" ht="17.6" spans="1:3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="9">
         <v>20200627</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" ht="18" spans="1:3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" ht="18" spans="1:3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" ht="18" spans="1:3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:3">
+    <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="1"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="10"/>
+      <c r="C108" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:3">
+    <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="1"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="11" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:3">
+    <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="1"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="11" t="s">
+      <c r="B110" s="10"/>
+      <c r="C110" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" ht="18" spans="1:3">
+    <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="1"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="11" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:3">
+    <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="1"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="10"/>
+      <c r="C112" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" ht="18" spans="1:3">
+    <row r="113" ht="17.6" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="10"/>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" ht="18" spans="1:3">
+    <row r="114" ht="17.6" spans="1:3">
       <c r="A114" s="1"/>
-      <c r="B114" s="1">
+      <c r="B114" s="10"/>
+      <c r="C114" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" ht="17.6" spans="1:3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" ht="17.6" spans="1:3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" ht="17.6" spans="1:3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1">
         <v>20200611</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" ht="18" spans="1:3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" ht="18" spans="1:3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" ht="18" spans="1:3">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
       <c r="C117" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:3">
+    <row r="118" ht="17.6" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
+    <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="1"/>
-      <c r="B119" s="1">
-        <v>20200606</v>
-      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:3">
+    <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:3">
+    <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:3">
+    <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
-        <v>20200601</v>
+        <v>20200606</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:3">
+    <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" ht="18" spans="1:3">
+    <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="1"/>
-      <c r="B124" s="1">
-        <v>20200402</v>
-      </c>
+      <c r="B124" s="1"/>
       <c r="C124" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:3">
+    <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1">
+        <v>20200601</v>
+      </c>
       <c r="C125" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" ht="18" spans="1:3">
-      <c r="A126" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B126" s="1">
-        <v>20181120</v>
-      </c>
-      <c r="C126" s="11" t="s">
+    <row r="126" ht="17.6" spans="1:3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:3">
+    <row r="127" ht="17.6" spans="1:3">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1">
+        <v>20200402</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" ht="18" spans="1:3">
+    <row r="128" ht="17.6" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:3">
-      <c r="A129" s="1"/>
+    <row r="129" ht="17.6" spans="1:3">
+      <c r="A129" s="1">
+        <v>2018</v>
+      </c>
       <c r="B129" s="1">
-        <v>20181020</v>
-      </c>
-      <c r="C129" s="3" t="s">
+        <v>20181120</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:3">
+    <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" ht="18" spans="1:3">
+    <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="132" ht="18" spans="1:3">
+    <row r="132" ht="17.6" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
-        <v>20181018</v>
+        <v>20181020</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" ht="18" spans="1:3">
+    <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="134" ht="18" spans="1:3">
+    <row r="134" ht="17.6" spans="1:3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:3">
+    <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
-        <v>20180907</v>
+        <v>20181018</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="136" ht="18" spans="1:3">
+    <row r="136" ht="17.6" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:3">
+    <row r="137" ht="17.6" spans="1:3">
       <c r="A137" s="1"/>
-      <c r="B137" s="1">
-        <v>20180906</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B137" s="1"/>
+      <c r="C137" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:3">
+    <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="1">
+        <v>20180907</v>
+      </c>
       <c r="C138" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:3">
+    <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1">
-        <v>20180822</v>
-      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" ht="18" spans="1:3">
+    <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="1">
+        <v>20180906</v>
+      </c>
       <c r="C140" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="141" ht="18" spans="1:3">
+    <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" ht="18" spans="1:3">
+    <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
-        <v>20180808</v>
+        <v>20180822</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" ht="18" spans="1:3">
+    <row r="143" ht="17.6" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" ht="21.75" spans="1:3">
+    <row r="144" ht="17.6" spans="1:3">
       <c r="A144" s="1"/>
-      <c r="B144" s="1">
-        <v>20180801</v>
-      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="145" ht="18" spans="1:3">
+    <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
-        <v>20180730</v>
+        <v>20180808</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" ht="18" spans="1:3">
+    <row r="146" ht="17.6" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" ht="18" spans="1:3">
+    <row r="147" ht="22" spans="1:3">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1">
+        <v>20180801</v>
+      </c>
       <c r="C147" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="148" ht="18" spans="1:3">
+    <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1">
+        <v>20180730</v>
+      </c>
       <c r="C148" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" ht="18" spans="1:3">
+    <row r="149" ht="17.6" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="150" ht="18" spans="1:3">
+    <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" ht="18" spans="1:3">
+    <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="1"/>
-      <c r="B151" s="1">
-        <v>20180705</v>
-      </c>
+      <c r="B151" s="1"/>
       <c r="C151" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:3">
+    <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:3">
+    <row r="153" ht="17.6" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="154" ht="18" spans="1:3">
+    <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="1">
+        <v>20180705</v>
+      </c>
       <c r="C154" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="155" ht="18" spans="1:3">
+    <row r="155" ht="17.6" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" ht="18" spans="1:3">
+    <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" ht="18" spans="1:3">
+    <row r="157" ht="17.6" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="158" ht="18" spans="1:3">
+    <row r="158" ht="17.6" spans="1:3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" ht="18" spans="1:3">
+    <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:3">
+    <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:3">
+    <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1">
-        <v>20180613</v>
-      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="18" spans="1:3">
+    <row r="162" ht="17.6" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:3">
+    <row r="163" ht="17.6" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:3">
+    <row r="164" ht="17.6" spans="1:3">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="1">
+        <v>20180613</v>
+      </c>
       <c r="C164" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="165" ht="21.75" spans="1:3">
+    <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="1"/>
-      <c r="B165" s="1">
-        <v>20180427</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B165" s="1"/>
+      <c r="C165" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" ht="18" spans="1:3">
+    <row r="166" ht="17.6" spans="1:3">
       <c r="A166" s="1"/>
-      <c r="B166" s="1">
-        <v>20180426</v>
-      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:3">
+    <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" ht="18" spans="1:3">
+    <row r="168" ht="22" spans="1:3">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="1">
+        <v>20180427</v>
+      </c>
       <c r="C168" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="169" ht="18" spans="1:3">
+    <row r="169" ht="17.6" spans="1:3">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="1">
+        <v>20180426</v>
+      </c>
       <c r="C169" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" ht="18" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" ht="18" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" ht="18" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173" ht="18" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" ht="18" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" ht="17.6" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:3">
+    <row r="175" ht="17.6" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:3">
+    <row r="176" ht="17.6" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="18" spans="1:3">
+    <row r="177" ht="17.6" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="18" spans="1:3">
+    <row r="178" ht="17.6" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="18" spans="1:3">
+    <row r="179" ht="17.6" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="18" spans="1:3">
+    <row r="180" ht="17.6" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="18" spans="1:3">
+    <row r="181" ht="17.6" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="18" spans="1:3">
+    <row r="182" ht="17.6" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="18" spans="1:3">
+    <row r="183" ht="17.6" spans="1:3">
       <c r="A183" s="1"/>
-      <c r="B183" s="1">
-        <v>20180217</v>
-      </c>
-      <c r="C183" s="11" t="s">
+      <c r="B183" s="1"/>
+      <c r="C183" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="18" spans="1:3">
+    <row r="184" ht="17.6" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:3">
+    <row r="185" ht="17.6" spans="1:3">
       <c r="A185" s="1"/>
-      <c r="B185" s="1">
-        <v>20180125</v>
-      </c>
+      <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:3">
+    <row r="186" ht="17.6" spans="1:3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="1">
+        <v>20180217</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:3">
+    <row r="187" ht="17.6" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:3">
+    <row r="188" ht="17.6" spans="1:3">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="1">
+        <v>20180125</v>
+      </c>
       <c r="C188" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:3">
+    <row r="189" ht="17.6" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="18" spans="1:3">
-      <c r="A190" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B190" s="1">
-        <v>20171220</v>
-      </c>
-      <c r="C190" s="11" t="s">
+    <row r="190" ht="17.6" spans="1:3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="18" spans="1:3">
+    <row r="191" ht="17.6" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="18" spans="1:3">
+    <row r="192" ht="17.6" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="18" spans="1:3">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="3" t="s">
+    <row r="193" ht="17.6" spans="1:3">
+      <c r="A193" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B193" s="1">
+        <v>20171220</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="18" spans="1:3">
+    <row r="194" ht="17.6" spans="1:3">
       <c r="A194" s="1"/>
-      <c r="B194" s="1">
-        <v>20171128</v>
-      </c>
+      <c r="B194" s="1"/>
       <c r="C194" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="195" ht="18" spans="1:3">
+    <row r="195" ht="17.6" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="196" ht="18" spans="1:3">
+    <row r="196" ht="17.6" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="197" ht="18" spans="1:3">
+    <row r="197" ht="17.6" spans="1:3">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="1">
+        <v>20171128</v>
+      </c>
       <c r="C197" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="198" ht="18" spans="1:3">
+    <row r="198" ht="17.6" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="199" ht="18" spans="1:3">
+    <row r="199" ht="17.6" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="200" ht="18" spans="1:3">
+    <row r="200" ht="17.6" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="201" ht="18" spans="1:3">
+    <row r="201" ht="17.6" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="202" ht="18" spans="1:3">
+    <row r="202" ht="17.6" spans="1:3">
       <c r="A202" s="1"/>
-      <c r="B202" s="1">
-        <v>20170925</v>
-      </c>
-      <c r="C202" s="11" t="s">
+      <c r="B202" s="1"/>
+      <c r="C202" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="203" ht="18" spans="1:3">
+    <row r="203" ht="17.6" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="204" ht="18" spans="1:3">
+    <row r="204" ht="17.6" spans="1:3">
       <c r="A204" s="1"/>
-      <c r="B204" s="1">
-        <v>20170912</v>
-      </c>
-      <c r="C204" s="3" t="s">
+      <c r="B204" s="1"/>
+      <c r="C204" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="205" ht="18" spans="1:3">
+    <row r="205" ht="17.6" spans="1:3">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="3" t="s">
+      <c r="B205" s="1">
+        <v>20170925</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="206" ht="18" spans="1:3">
+    <row r="206" ht="17.6" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="207" ht="18" spans="1:3">
+    <row r="207" ht="17.6" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
-        <v>20170716</v>
+        <v>20170912</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="208" ht="18" spans="1:3">
+    <row r="208" ht="17.6" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="209" ht="18" spans="1:3">
+    <row r="209" ht="17.6" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="210" ht="18" spans="1:3">
+    <row r="210" ht="17.6" spans="1:3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1">
+        <v>20170716</v>
+      </c>
       <c r="C210" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="211" ht="18" spans="1:3">
+    <row r="211" ht="17.6" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="212" ht="18" spans="1:3">
+    <row r="212" ht="17.6" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="213" ht="18" spans="1:3">
+    <row r="213" ht="17.6" spans="1:3">
       <c r="A213" s="1"/>
-      <c r="B213" s="1">
-        <v>20170613</v>
-      </c>
+      <c r="B213" s="1"/>
       <c r="C213" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="214" ht="18" spans="1:3">
+    <row r="214" ht="17.6" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="215" ht="18" spans="1:3">
+    <row r="215" ht="17.6" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" ht="18" spans="1:3">
+      <c r="C215" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" ht="17.6" spans="1:3">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="217" ht="18" spans="1:3">
+      <c r="B216" s="1">
+        <v>20170613</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" ht="17.6" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="218" ht="18" spans="1:3">
+      <c r="C217" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" ht="17.6" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="219" ht="18" spans="1:3">
+      <c r="C218" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" ht="17.6" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="11" t="s">
+      <c r="C219" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" ht="21.75" spans="1:3">
+    <row r="220" ht="17.6" spans="1:3">
       <c r="A220" s="1"/>
-      <c r="B220" s="1">
+      <c r="B220" s="1"/>
+      <c r="C220" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" ht="17.6" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" ht="17.6" spans="1:3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" ht="22" spans="1:3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1">
         <v>20170503</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="221" ht="21.75" spans="1:3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1">
-        <v>20170412</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="222" ht="18" spans="1:3">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1">
-        <v>20170411</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="223" ht="18" spans="1:3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
       <c r="C223" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="224" ht="18" spans="1:3">
+    <row r="224" ht="22" spans="1:3">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="1">
+        <v>20170412</v>
+      </c>
       <c r="C224" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="225" ht="18" spans="1:3">
+    <row r="225" ht="17.6" spans="1:3">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1">
+        <v>20170411</v>
+      </c>
       <c r="C225" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="226" ht="18" spans="1:3">
+    <row r="226" ht="17.6" spans="1:3">
       <c r="A226" s="1"/>
-      <c r="B226" s="1">
-        <v>20170318</v>
-      </c>
-      <c r="C226" s="11" t="s">
+      <c r="B226" s="1"/>
+      <c r="C226" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="227" ht="18" spans="1:3">
+    <row r="227" ht="17.6" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="11" t="s">
+      <c r="C227" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="228" ht="18" spans="1:3">
+    <row r="228" ht="17.6" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="229" ht="18" spans="1:3">
+    <row r="229" ht="17.6" spans="1:3">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="3" t="s">
+      <c r="B229" s="1">
+        <v>20170318</v>
+      </c>
+      <c r="C229" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="230" ht="18" spans="1:3">
+    <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" ht="18" spans="1:3">
+    <row r="231" ht="17.6" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="232" ht="21.75" spans="1:3">
-      <c r="A232" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B232" s="1">
-        <v>20161215</v>
-      </c>
+    <row r="232" ht="17.6" spans="1:3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
       <c r="C232" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="233" ht="21.75" spans="1:3">
+    <row r="233" ht="17.6" spans="1:3">
       <c r="A233" s="1"/>
-      <c r="B233" s="1">
-        <v>20160420</v>
-      </c>
+      <c r="B233" s="1"/>
       <c r="C233" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="234" ht="18" spans="1:3">
+    <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="1"/>
-      <c r="B234" s="1">
-        <v>20160415</v>
-      </c>
+      <c r="B234" s="1"/>
       <c r="C234" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="235" ht="18" spans="1:3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+    <row r="235" ht="22" spans="1:3">
+      <c r="A235" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B235" s="1">
+        <v>20161215</v>
+      </c>
       <c r="C235" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="236" ht="18" spans="1:3">
+    <row r="236" ht="22" spans="1:3">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="11" t="s">
+      <c r="B236" s="1">
+        <v>20160420</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:3">
+    <row r="237" ht="17.6" spans="1:3">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="B237" s="1">
+        <v>20160415</v>
+      </c>
       <c r="C237" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238" ht="18" spans="1:3">
+    <row r="238" ht="17.6" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="239" ht="18" spans="1:3">
+    <row r="239" ht="17.6" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="240" ht="21.75" spans="1:3">
+    <row r="240" ht="17.6" spans="1:3">
       <c r="A240" s="1"/>
-      <c r="B240" s="1">
-        <v>20160111</v>
-      </c>
+      <c r="B240" s="1"/>
       <c r="C240" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" ht="18" spans="1:3">
-      <c r="A241" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B241" s="1">
-        <v>20151221</v>
-      </c>
+    <row r="241" ht="17.6" spans="1:3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
       <c r="C241" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" ht="18" spans="1:3">
+    <row r="242" ht="17.6" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="243" ht="18" spans="1:3">
+    <row r="243" ht="22" spans="1:3">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="B243" s="1">
+        <v>20160111</v>
+      </c>
       <c r="C243" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="244" ht="18" spans="1:3">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+    <row r="244" ht="17.6" spans="1:3">
+      <c r="A244" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B244" s="1">
+        <v>20151221</v>
+      </c>
       <c r="C244" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="245" ht="18" spans="1:3">
+    <row r="245" ht="17.6" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="246" ht="18" spans="1:3">
+    <row r="246" ht="17.6" spans="1:3">
       <c r="A246" s="1"/>
-      <c r="B246" s="1">
-        <v>20151104</v>
-      </c>
+      <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:3">
+    <row r="247" ht="17.6" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="248" ht="18" spans="1:3">
+    <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="249" ht="18" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="B249" s="1">
+        <v>20151104</v>
+      </c>
       <c r="C249" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="250" ht="18" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" ht="17.6" spans="1:3">
       <c r="A250" s="1"/>
-      <c r="B250" s="1">
-        <v>20150807</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="251" ht="18" spans="1:3">
+      <c r="B250" s="1"/>
+      <c r="C250" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="251" ht="17.6" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="252" ht="18" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="252" ht="17.6" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="253" ht="18" spans="1:3">
+    <row r="253" ht="17.6" spans="1:3">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1">
+        <v>20150807</v>
+      </c>
       <c r="C253" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="254" ht="18" spans="1:3">
+    <row r="254" ht="17.6" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="255" ht="18" spans="1:3">
+    <row r="255" ht="17.6" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="256" ht="18" spans="1:3">
+    <row r="256" ht="17.6" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="257" ht="18" spans="1:3">
+    <row r="257" ht="17.6" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="258" ht="18" spans="1:3">
+    <row r="258" ht="17.6" spans="1:3">
       <c r="A258" s="1"/>
-      <c r="B258" s="1">
-        <v>20150303</v>
-      </c>
-      <c r="C258" s="11" t="s">
+      <c r="B258" s="1"/>
+      <c r="C258" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="259" ht="18" spans="1:3">
+    <row r="259" ht="17.6" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="260" ht="18" spans="1:3">
-      <c r="A260" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B260" s="1">
-        <v>20141210</v>
-      </c>
+    <row r="260" ht="17.6" spans="1:3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
       <c r="C260" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="261" ht="18" spans="1:3">
+    <row r="261" ht="17.6" spans="1:3">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="11" t="s">
+      <c r="B261" s="1">
+        <v>20150303</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="262" ht="18" spans="1:3">
+    <row r="262" ht="17.6" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="11" t="s">
+      <c r="C262" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="263" ht="18" spans="1:3">
-      <c r="A263" s="1"/>
+    <row r="263" ht="17.6" spans="1:3">
+      <c r="A263" s="1">
+        <v>2014</v>
+      </c>
       <c r="B263" s="1">
-        <v>20141120</v>
+        <v>20141210</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="264" ht="18" spans="1:3">
+    <row r="264" ht="17.6" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
-      <c r="C264" s="11" t="s">
+      <c r="C264" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="265" ht="18" spans="1:3">
+    <row r="265" ht="17.6" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="266" ht="18" spans="1:3">
-      <c r="A266" s="1">
-        <v>2013</v>
-      </c>
+    <row r="266" ht="17.6" spans="1:3">
+      <c r="A266" s="1"/>
       <c r="B266" s="1">
-        <v>20131206</v>
-      </c>
-      <c r="C266" s="11" t="s">
+        <v>20141120</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="267" ht="18" spans="1:3">
+    <row r="267" ht="17.6" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="268" ht="18" spans="1:3">
+    <row r="268" ht="17.6" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="269" ht="18" spans="1:3">
-      <c r="A269" s="1"/>
+    <row r="269" ht="17.6" spans="1:3">
+      <c r="A269" s="1">
+        <v>2013</v>
+      </c>
       <c r="B269" s="1">
-        <v>20130807</v>
-      </c>
-      <c r="C269" s="3" t="s">
+        <v>20131206</v>
+      </c>
+      <c r="C269" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="270" ht="18" spans="1:3">
+    <row r="270" ht="17.6" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="271" ht="18" spans="1:3">
+    <row r="271" ht="17.6" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="272" ht="18" spans="1:3">
+    <row r="272" ht="17.6" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1">
-        <v>20130722</v>
-      </c>
-      <c r="C272" s="11" t="s">
+        <v>20130807</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="273" ht="18" spans="1:3">
+    <row r="273" ht="17.6" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" ht="17.6" spans="1:3">
       <c r="A274" s="1"/>
-      <c r="B274" s="1">
-        <v>20130618</v>
-      </c>
-      <c r="C274" s="12" t="s">
+      <c r="B274" s="1"/>
+      <c r="C274" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="275" ht="18" spans="1:3">
+    <row r="275" ht="17.6" spans="1:3">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="3" t="s">
+      <c r="B275" s="1">
+        <v>20130722</v>
+      </c>
+      <c r="C275" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="276" ht="18" spans="1:3">
+    <row r="276" ht="17.6" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="277" ht="18" spans="1:3">
+    <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1">
-        <v>20130607</v>
-      </c>
-      <c r="C277" s="11" t="s">
+        <v>20130618</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="278" ht="18" spans="1:3">
+    <row r="278" ht="17.6" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="279" ht="18" spans="1:3">
+    <row r="279" ht="17.6" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="280" ht="21.75" spans="1:3">
+    <row r="280" ht="17.6" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="1">
-        <v>20130417</v>
-      </c>
-      <c r="C280" s="12" t="s">
+        <v>20130607</v>
+      </c>
+      <c r="C280" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="281" ht="18" spans="1:3">
-      <c r="A281" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B281" s="1">
-        <v>20120119</v>
-      </c>
+    <row r="281" ht="17.6" spans="1:3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
       <c r="C281" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="282" ht="18" spans="1:3">
+    <row r="282" ht="17.6" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
-      <c r="C282" s="11" t="s">
+      <c r="C282" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="283" ht="18" spans="1:3">
-      <c r="A283" s="1">
-        <v>2011</v>
-      </c>
+    <row r="283" ht="22" spans="1:3">
+      <c r="A283" s="1"/>
       <c r="B283" s="1">
-        <v>20110818</v>
-      </c>
-      <c r="C283" s="3" t="s">
+        <v>20130417</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="284" ht="18" spans="1:3">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+    <row r="284" ht="17.6" spans="1:3">
+      <c r="A284" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B284" s="1">
+        <v>20120119</v>
+      </c>
       <c r="C284" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="285" ht="18" spans="1:3">
+    <row r="285" ht="17.6" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="286" ht="18" spans="1:3">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+    <row r="286" ht="17.6" spans="1:3">
+      <c r="A286" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B286" s="1">
+        <v>20110818</v>
+      </c>
       <c r="C286" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="287" ht="18" spans="1:3">
+    <row r="287" ht="17.6" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
-      <c r="C287" s="11" t="s">
+      <c r="C287" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="288" ht="18" spans="1:3">
-      <c r="A288" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B288" s="1">
-        <v>20101013</v>
-      </c>
-      <c r="C288" s="11" t="s">
+    <row r="288" ht="17.6" spans="1:3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="289" ht="18" spans="1:3">
+    <row r="289" ht="17.6" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
-      <c r="C289" s="11" t="s">
+      <c r="C289" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="290" ht="18" spans="1:3">
+    <row r="290" ht="17.6" spans="1:3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
-      <c r="C290" s="11" t="s">
+      <c r="C290" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="291" ht="18" spans="1:3">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="292" ht="18" spans="1:3">
+    <row r="291" ht="17.6" spans="1:3">
+      <c r="A291" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B291" s="1">
+        <v>20101013</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="292" ht="17.6" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
-      <c r="C292" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="293" ht="18" spans="1:3">
-      <c r="A293" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B293" s="1">
-        <v>20091218</v>
-      </c>
-      <c r="C293" s="11" t="s">
+      <c r="C292" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="294" ht="18" spans="1:3">
+    <row r="293" ht="17.6" spans="1:3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="294" ht="17.6" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
-      <c r="C294" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="295" ht="18" spans="1:3">
+      <c r="C294" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" ht="17.6" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
-      <c r="C295" s="11" t="s">
+      <c r="C295" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="296" ht="18" spans="1:3">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="11" t="s">
+    <row r="296" ht="17.6" spans="1:3">
+      <c r="A296" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B296" s="1">
+        <v>20091218</v>
+      </c>
+      <c r="C296" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="297" ht="18" spans="1:3">
+    <row r="297" ht="17.6" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="298" ht="18" spans="1:3">
+    <row r="298" ht="17.6" spans="1:3">
       <c r="A298" s="1"/>
-      <c r="B298" s="1">
-        <v>20090827</v>
-      </c>
-      <c r="C298" s="3" t="s">
+      <c r="B298" s="1"/>
+      <c r="C298" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="299" ht="18" spans="1:3">
+    <row r="299" ht="17.6" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
-      <c r="C299" s="11" t="s">
+      <c r="C299" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="300" ht="18" spans="1:3">
+    <row r="300" ht="17.6" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="301" ht="18" spans="1:3">
+    <row r="301" ht="17.6" spans="1:3">
       <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="11" t="s">
+      <c r="B301" s="1">
+        <v>20090827</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="302" ht="21.75" spans="1:3">
+    <row r="302" ht="17.6" spans="1:3">
       <c r="A302" s="1"/>
-      <c r="B302" s="1">
-        <v>20090731</v>
-      </c>
-      <c r="C302" s="13" t="s">
+      <c r="B302" s="1"/>
+      <c r="C302" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="303" ht="18" spans="1:3">
+    <row r="303" ht="17.6" spans="1:3">
       <c r="A303" s="1"/>
-      <c r="B303" s="1">
-        <v>20090723</v>
-      </c>
-      <c r="C303" s="11" t="s">
+      <c r="B303" s="1"/>
+      <c r="C303" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="304" ht="18" spans="1:3">
+    <row r="304" ht="17.6" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
-      <c r="C304" s="11" t="s">
+      <c r="C304" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="305" ht="18" spans="1:3">
+    <row r="305" ht="22" spans="1:3">
       <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="11" t="s">
+      <c r="B305" s="1">
+        <v>20090731</v>
+      </c>
+      <c r="C305" s="16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="306" ht="18" spans="1:3">
+    <row r="306" ht="17.6" spans="1:3">
       <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="11" t="s">
+      <c r="B306" s="1">
+        <v>20090723</v>
+      </c>
+      <c r="C306" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="307" ht="18" spans="1:3">
+    <row r="307" ht="17.6" spans="1:3">
       <c r="A307" s="1"/>
-      <c r="B307" s="1">
-        <v>20090705</v>
-      </c>
-      <c r="C307" s="11" t="s">
+      <c r="B307" s="1"/>
+      <c r="C307" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="308" ht="18" spans="1:3">
+    <row r="308" ht="17.6" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
-      <c r="C308" s="11" t="s">
+      <c r="C308" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="309" ht="18" spans="1:3">
+    <row r="309" ht="17.6" spans="1:3">
       <c r="A309" s="1"/>
-      <c r="B309" s="1">
+      <c r="B309" s="1"/>
+      <c r="C309" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="310" ht="17.6" spans="1:3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1">
+        <v>20090705</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="311" ht="17.6" spans="1:3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="312" ht="17.6" spans="1:3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1">
         <v>20090620</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="310" ht="18" spans="1:3">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="3" t="s">
-        <v>301</v>
+      <c r="C312" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="313" ht="17.6" spans="1:3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A2:A64"/>
-    <mergeCell ref="A65:A125"/>
-    <mergeCell ref="A126:A189"/>
-    <mergeCell ref="A190:A231"/>
-    <mergeCell ref="A232:A240"/>
-    <mergeCell ref="A241:A259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A266:A280"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="A288:A292"/>
-    <mergeCell ref="A293:A310"/>
+  <mergeCells count="79">
+    <mergeCell ref="A2:A67"/>
+    <mergeCell ref="A68:A128"/>
+    <mergeCell ref="A129:A192"/>
+    <mergeCell ref="A193:A234"/>
+    <mergeCell ref="A235:A243"/>
+    <mergeCell ref="A244:A262"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="A269:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A290"/>
+    <mergeCell ref="A291:A295"/>
+    <mergeCell ref="A296:A313"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B28"/>
@@ -4458,63 +4497,64 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B48:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B104:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="B151:B160"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B166:B182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B201"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="B250:B257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B154:B163"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B169:B185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="B216:B222"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B234"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="B244:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B260"/>
+    <mergeCell ref="B261:B262"/>
     <mergeCell ref="B263:B265"/>
     <mergeCell ref="B266:B268"/>
     <mergeCell ref="B269:B271"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B275:B276"/>
     <mergeCell ref="B277:B279"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="B288:B292"/>
-    <mergeCell ref="B293:B297"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="B280:B282"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="B296:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B312:B313"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4523,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4531,7 +4571,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4540,7 +4580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4548,7 +4588,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="314">
   <si>
     <t>技术垄断</t>
   </si>
@@ -307,6 +307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>权力与自由：联邦论+</t>
     </r>
     <r>
@@ -332,6 +339,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>现代世界体系 2卷，3卷，4卷，</t>
     </r>
     <r>
@@ -999,10 +1013,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1058,16 +1072,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,7 +1109,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1139,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1103,15 +1148,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,68 +1209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1242,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,127 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,25 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,19 +1472,49 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1515,41 +1559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,152 +1572,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,15 +1746,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,54 +1766,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2104,34 +2109,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07692307692308"/>
-    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="87.3076923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.075"/>
+    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
+    <col min="3" max="3" width="87.3083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="22" spans="1:3">
+    <row r="2" ht="21.75" spans="1:3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="22" spans="1:3">
+    <row r="3" ht="21.75" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="17.6" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="5">
         <v>20210601</v>
@@ -2140,56 +2145,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:3">
+    <row r="5" ht="18" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:3">
+    <row r="7" ht="18" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="1:3">
+    <row r="8" ht="18" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="1:3">
+    <row r="9" ht="18" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="22" spans="1:3">
+    <row r="12" ht="21.75" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>20210527</v>
@@ -2198,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="22" spans="1:3">
+    <row r="13" ht="21.75" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>20210518</v>
@@ -2207,7 +2212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="22" spans="1:3">
+    <row r="14" ht="21.75" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>20210515</v>
@@ -2216,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:3">
+    <row r="15" ht="18" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="10">
         <v>20210420</v>
@@ -2225,35 +2230,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="17.6" spans="1:3">
+    <row r="16" ht="18" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="11"/>
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:3">
+    <row r="17" ht="18" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:3">
+    <row r="18" ht="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="11"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" ht="18" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="22" spans="1:3">
+    <row r="20" ht="21.75" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>20210416</v>
@@ -2262,7 +2267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="22" spans="1:3">
+    <row r="21" ht="21.75" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>20210414</v>
@@ -2271,7 +2276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:3">
+    <row r="22" ht="18" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>20210408</v>
@@ -2280,49 +2285,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:3">
+    <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:3">
+    <row r="24" ht="18" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="1:3">
+    <row r="25" ht="18" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" ht="17.6" spans="1:3">
+    <row r="26" ht="18" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="17.6" spans="1:3">
+    <row r="27" ht="18" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:3">
+    <row r="28" ht="18" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:3">
+    <row r="29" ht="18" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>20210407</v>
@@ -2331,42 +2336,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:3">
+    <row r="30" ht="18" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:3">
+    <row r="31" ht="18" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:3">
+    <row r="32" ht="18" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="1:3">
+    <row r="33" ht="18" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="1:3">
+    <row r="34" ht="18" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="22" spans="1:3">
+    <row r="35" ht="21.75" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>20210406</v>
@@ -2375,7 +2380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:3">
+    <row r="36" ht="18" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>20210321</v>
@@ -2384,28 +2389,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:3">
+    <row r="37" ht="18" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:3">
+    <row r="38" ht="18" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:3">
+    <row r="39" ht="18" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="22" spans="1:3">
+    <row r="40" ht="21.75" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>20210320</v>
@@ -2414,7 +2419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:3">
+    <row r="41" ht="18" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>20210316</v>
@@ -2423,21 +2428,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:3">
+    <row r="42" ht="18" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:3">
+    <row r="43" ht="18" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="22" spans="1:3">
+    <row r="44" ht="21.75" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>20210313</v>
@@ -2446,7 +2451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:3">
+    <row r="45" ht="18" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>20210302</v>
@@ -2455,14 +2460,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:3">
+    <row r="46" ht="18" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="22" spans="1:3">
+    <row r="47" ht="21.75" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>20210227</v>
@@ -2471,7 +2476,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="1:3">
+    <row r="48" ht="18" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>20210220</v>
@@ -2480,63 +2485,63 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:3">
+    <row r="49" ht="18" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:3">
+    <row r="50" ht="18" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:3">
+    <row r="51" ht="18" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:3">
+    <row r="52" ht="18" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" ht="17.6" spans="1:3">
+    <row r="53" ht="18" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" ht="17.6" spans="1:3">
+    <row r="54" ht="18" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="1:3">
+    <row r="55" ht="18" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:3">
+    <row r="56" ht="18" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="17.6" spans="1:3">
+    <row r="57" ht="18" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>20210206</v>
@@ -2545,100 +2550,100 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="1:3">
+    <row r="58" ht="18" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="1:3">
+    <row r="59" ht="18" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" ht="17.6" spans="1:3">
+    <row r="60" ht="18" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" ht="17.6" spans="1:3">
+    <row r="61" ht="18" spans="1:3">
       <c r="A61" s="2"/>
-      <c r="B61" s="13">
+      <c r="B61" s="10">
         <v>20210111</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" ht="17.6" spans="1:3">
+    <row r="62" ht="18" spans="1:3">
       <c r="A62" s="2"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" ht="17.6" spans="1:3">
+    <row r="63" ht="18" spans="1:3">
       <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" ht="17.6" spans="1:3">
+    <row r="64" ht="18" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="1:3">
+    <row r="65" ht="18" spans="1:3">
       <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" ht="17.6" spans="1:3">
+    <row r="66" ht="18" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" ht="17.6" spans="1:3">
+    <row r="67" ht="18" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" ht="17.6" spans="1:3">
+    <row r="68" ht="18" spans="1:3">
       <c r="A68" s="2"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" ht="17.6" spans="1:3">
+    <row r="69" ht="18" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" ht="17.6" spans="1:3">
+    <row r="70" ht="18" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" ht="17.6" spans="1:3">
+    <row r="71" ht="18" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="10">
         <v>20210106</v>
@@ -2647,28 +2652,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" ht="17.6" spans="1:3">
+    <row r="72" ht="18" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="11"/>
       <c r="C72" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" ht="17.6" spans="1:3">
+    <row r="73" ht="18" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="11"/>
       <c r="C73" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" ht="17.6" spans="1:3">
+    <row r="74" ht="18" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="12"/>
       <c r="C74" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" ht="17.6" spans="1:3">
+    <row r="75" ht="18" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>20210101</v>
@@ -2677,14 +2682,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" ht="17.6" spans="1:3">
+    <row r="76" ht="18" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" ht="22" spans="1:3">
+    <row r="77" ht="21.75" spans="1:3">
       <c r="A77" s="2">
         <v>2020</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" ht="17.6" spans="1:3">
+    <row r="78" ht="18" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>20201225</v>
@@ -2704,21 +2709,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" ht="17.6" spans="1:3">
+    <row r="79" ht="18" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" ht="17.6" spans="1:3">
+    <row r="80" ht="18" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" ht="17.6" spans="1:3">
+    <row r="81" ht="18" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>20201210</v>
@@ -2727,14 +2732,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" ht="17.6" spans="1:3">
+    <row r="82" ht="18" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" ht="17.6" spans="1:3">
+    <row r="83" ht="18" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>20201127</v>
@@ -2743,28 +2748,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" ht="17.6" spans="1:3">
+    <row r="84" ht="18" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" ht="17.6" spans="1:3">
+    <row r="85" ht="18" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" ht="17.6" spans="1:3">
+    <row r="86" ht="18" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" ht="17.6" spans="1:3">
+    <row r="87" ht="18" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>20201125</v>
@@ -2773,14 +2778,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" ht="17.6" spans="1:3">
+    <row r="88" ht="18" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" ht="17.6" spans="1:3">
+    <row r="89" ht="18" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>20201123</v>
@@ -2789,14 +2794,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" ht="17.6" spans="1:3">
+    <row r="90" ht="18" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" ht="22" spans="1:3">
+    <row r="91" ht="21.75" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>20201109</v>
@@ -2805,7 +2810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" ht="22" spans="1:3">
+    <row r="92" ht="21.75" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>20201103</v>
@@ -2814,7 +2819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" ht="17.6" spans="1:3">
+    <row r="93" ht="18" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>20200919</v>
@@ -2823,28 +2828,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" ht="17.6" spans="1:3">
+    <row r="94" ht="18" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" ht="17.6" spans="1:3">
+    <row r="95" ht="18" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" ht="17.6" spans="1:3">
+    <row r="96" ht="18" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" ht="17.6" spans="1:3">
+    <row r="97" ht="18" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>20200912</v>
@@ -2853,21 +2858,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" ht="17.6" spans="1:3">
+    <row r="98" ht="18" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" ht="17.6" spans="1:3">
+    <row r="99" ht="18" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" ht="22" spans="1:3">
+    <row r="100" ht="21.75" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>20200910</v>
@@ -2885,56 +2890,56 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" ht="17.6" spans="1:3">
+    <row r="102" ht="18" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" ht="17.6" spans="1:3">
+    <row r="103" ht="18" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" ht="17.6" spans="1:3">
+    <row r="104" ht="18" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" ht="17.6" spans="1:3">
+    <row r="105" ht="18" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" ht="17.6" spans="1:3">
+    <row r="106" ht="18" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" ht="17.6" spans="1:3">
+    <row r="107" ht="18" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" ht="17.6" spans="1:3">
+    <row r="108" ht="18" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" ht="17.6" spans="1:3">
+    <row r="109" ht="18" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>20200827</v>
@@ -2943,14 +2948,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" ht="17.6" spans="1:3">
+    <row r="110" ht="18" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" ht="17.6" spans="1:3">
+    <row r="111" ht="18" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2">
         <v>20200806</v>
@@ -2959,21 +2964,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" ht="17.6" spans="1:3">
+    <row r="112" ht="18" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" ht="17.6" spans="1:3">
+    <row r="113" ht="18" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" ht="22" spans="1:3">
+    <row r="114" ht="21.75" spans="1:3">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
         <v>20200804</v>
@@ -2982,7 +2987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" ht="22" spans="1:3">
+    <row r="115" ht="21.75" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2">
         <v>20200703</v>
@@ -2991,7 +2996,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" ht="17.6" spans="1:3">
+    <row r="116" ht="18" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116" s="10">
         <v>20200627</v>
@@ -3000,70 +3005,70 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" ht="17.6" spans="1:3">
+    <row r="117" ht="18" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="11"/>
       <c r="C117" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" ht="17.6" spans="1:3">
+    <row r="118" ht="18" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="11"/>
       <c r="C118" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" ht="17.6" spans="1:3">
+    <row r="119" ht="18" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="11"/>
       <c r="C119" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" ht="17.6" spans="1:3">
+    <row r="120" ht="18" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="11"/>
       <c r="C120" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" ht="17.6" spans="1:3">
+    <row r="121" ht="18" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="11"/>
       <c r="C121" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" ht="17.6" spans="1:3">
+    <row r="122" ht="18" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122" s="11"/>
       <c r="C122" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" ht="17.6" spans="1:3">
+    <row r="123" ht="18" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="11"/>
       <c r="C123" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" ht="17.6" spans="1:3">
+    <row r="124" ht="18" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="11"/>
       <c r="C124" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" ht="17.6" spans="1:3">
+    <row r="125" ht="18" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125" s="12"/>
       <c r="C125" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" ht="17.6" spans="1:3">
+    <row r="126" ht="18" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2">
         <v>20200611</v>
@@ -3072,35 +3077,35 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" ht="17.6" spans="1:3">
+    <row r="127" ht="18" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" ht="17.6" spans="1:3">
+    <row r="128" ht="18" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" ht="17.6" spans="1:3">
+    <row r="129" ht="18" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" ht="17.6" spans="1:3">
+    <row r="130" ht="18" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" ht="17.6" spans="1:3">
+    <row r="131" ht="18" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
         <v>20200606</v>
@@ -3109,21 +3114,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" ht="17.6" spans="1:3">
+    <row r="132" ht="18" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" ht="17.6" spans="1:3">
+    <row r="133" ht="18" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="134" ht="17.6" spans="1:3">
+    <row r="134" ht="18" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="2">
         <v>20200601</v>
@@ -3132,14 +3137,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" ht="17.6" spans="1:3">
+    <row r="135" ht="18" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="136" ht="17.6" spans="1:3">
+    <row r="136" ht="18" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="2">
         <v>20200402</v>
@@ -3148,14 +3153,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" ht="17.6" spans="1:3">
+    <row r="137" ht="18" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" ht="17.6" spans="1:3">
+    <row r="138" ht="18" spans="1:3">
       <c r="A138" s="2">
         <v>2018</v>
       </c>
@@ -3166,21 +3171,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" ht="17.6" spans="1:3">
+    <row r="139" ht="18" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" ht="17.6" spans="1:3">
+    <row r="140" ht="18" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="141" ht="17.6" spans="1:3">
+    <row r="141" ht="18" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="2">
         <v>20181020</v>
@@ -3189,21 +3194,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" ht="17.6" spans="1:3">
+    <row r="142" ht="18" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="143" ht="17.6" spans="1:3">
+    <row r="143" ht="18" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="144" ht="17.6" spans="1:3">
+    <row r="144" ht="18" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>20181018</v>
@@ -3212,21 +3217,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" ht="17.6" spans="1:3">
+    <row r="145" ht="18" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
+    <row r="146" ht="18" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="147" ht="17.6" spans="1:3">
+    <row r="147" ht="18" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>20180907</v>
@@ -3235,14 +3240,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" ht="17.6" spans="1:3">
+    <row r="148" ht="18" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="149" ht="17.6" spans="1:3">
+    <row r="149" ht="18" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>20180906</v>
@@ -3251,14 +3256,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" ht="17.6" spans="1:3">
+    <row r="150" ht="18" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" ht="17.6" spans="1:3">
+    <row r="151" ht="18" spans="1:3">
       <c r="A151" s="2"/>
       <c r="B151" s="2">
         <v>20180822</v>
@@ -3267,21 +3272,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" ht="17.6" spans="1:3">
+    <row r="152" ht="18" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="153" ht="17.6" spans="1:3">
+    <row r="153" ht="18" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="154" ht="17.6" spans="1:3">
+    <row r="154" ht="18" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>20180808</v>
@@ -3290,14 +3295,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" ht="17.6" spans="1:3">
+    <row r="155" ht="18" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" ht="22" spans="1:3">
+    <row r="156" ht="21.75" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2">
         <v>20180801</v>
@@ -3306,7 +3311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" ht="17.6" spans="1:3">
+    <row r="157" ht="18" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>20180730</v>
@@ -3315,42 +3320,42 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" ht="17.6" spans="1:3">
+    <row r="158" ht="18" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" ht="17.6" spans="1:3">
+    <row r="159" ht="18" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" ht="17.6" spans="1:3">
+    <row r="160" ht="18" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" ht="17.6" spans="1:3">
+    <row r="161" ht="18" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="17.6" spans="1:3">
+    <row r="162" ht="18" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="163" ht="17.6" spans="1:3">
+    <row r="163" ht="18" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2">
         <v>20180705</v>
@@ -3359,70 +3364,70 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" ht="17.6" spans="1:3">
+    <row r="164" ht="18" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="165" ht="17.6" spans="1:3">
+    <row r="165" ht="18" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" ht="17.6" spans="1:3">
+    <row r="166" ht="18" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="167" ht="17.6" spans="1:3">
+    <row r="167" ht="18" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="168" ht="17.6" spans="1:3">
+    <row r="168" ht="18" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="169" ht="17.6" spans="1:3">
+    <row r="169" ht="18" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="170" ht="17.6" spans="1:3">
+    <row r="170" ht="18" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="171" ht="17.6" spans="1:3">
+    <row r="171" ht="18" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="172" ht="17.6" spans="1:3">
+    <row r="172" ht="18" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="173" ht="17.6" spans="1:3">
+    <row r="173" ht="18" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2">
         <v>20180613</v>
@@ -3431,28 +3436,28 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" ht="17.6" spans="1:3">
+    <row r="174" ht="18" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="175" ht="17.6" spans="1:3">
+    <row r="175" ht="18" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="176" ht="17.6" spans="1:3">
+    <row r="176" ht="18" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="177" ht="22" spans="1:3">
+    <row r="177" ht="21.75" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2">
         <v>20180427</v>
@@ -3461,7 +3466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" ht="17.6" spans="1:3">
+    <row r="178" ht="18" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2">
         <v>20180426</v>
@@ -3470,119 +3475,119 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" ht="17.6" spans="1:3">
+    <row r="179" ht="18" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="180" ht="17.6" spans="1:3">
+    <row r="180" ht="18" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="181" ht="17.6" spans="1:3">
+    <row r="181" ht="18" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="182" ht="17.6" spans="1:3">
+    <row r="182" ht="18" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" ht="17.6" spans="1:3">
+    <row r="183" ht="18" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="17.6" spans="1:3">
+    <row r="184" ht="18" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="17.6" spans="1:3">
+    <row r="185" ht="18" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
+    <row r="186" ht="18" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="17.6" spans="1:3">
+    <row r="187" ht="18" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="17.6" spans="1:3">
+    <row r="188" ht="18" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="17.6" spans="1:3">
+    <row r="189" ht="18" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="17.6" spans="1:3">
+    <row r="190" ht="18" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="17.6" spans="1:3">
+    <row r="191" ht="18" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="17.6" spans="1:3">
+    <row r="192" ht="18" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="17.6" spans="1:3">
+    <row r="193" ht="18" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="17.6" spans="1:3">
+    <row r="194" ht="18" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="195" ht="17.6" spans="1:3">
+    <row r="195" ht="18" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2">
         <v>20180217</v>
@@ -3591,14 +3596,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="196" ht="17.6" spans="1:3">
+    <row r="196" ht="18" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="197" ht="17.6" spans="1:3">
+    <row r="197" ht="18" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2">
         <v>20180125</v>
@@ -3607,35 +3612,35 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" ht="17.6" spans="1:3">
+    <row r="198" ht="18" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="199" ht="17.6" spans="1:3">
+    <row r="199" ht="18" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="200" ht="17.6" spans="1:3">
+    <row r="200" ht="18" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="201" ht="17.6" spans="1:3">
+    <row r="201" ht="18" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="202" ht="17.6" spans="1:3">
+    <row r="202" ht="18" spans="1:3">
       <c r="A202" s="2">
         <v>2017</v>
       </c>
@@ -3646,28 +3651,28 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" ht="17.6" spans="1:3">
+    <row r="203" ht="18" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="204" ht="17.6" spans="1:3">
+    <row r="204" ht="18" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="205" ht="17.6" spans="1:3">
+    <row r="205" ht="18" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="206" ht="17.6" spans="1:3">
+    <row r="206" ht="18" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2">
         <v>20171128</v>
@@ -3676,56 +3681,56 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" ht="17.6" spans="1:3">
+    <row r="207" ht="18" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="208" ht="17.6" spans="1:3">
+    <row r="208" ht="18" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="209" ht="17.6" spans="1:3">
+    <row r="209" ht="18" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="210" ht="17.6" spans="1:3">
+    <row r="210" ht="18" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="211" ht="17.6" spans="1:3">
+    <row r="211" ht="18" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="212" ht="17.6" spans="1:3">
+    <row r="212" ht="18" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="213" ht="17.6" spans="1:3">
+    <row r="213" ht="18" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="214" ht="17.6" spans="1:3">
+    <row r="214" ht="18" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2">
         <v>20170925</v>
@@ -3734,14 +3739,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" ht="17.6" spans="1:3">
+    <row r="215" ht="18" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="216" ht="17.6" spans="1:3">
+    <row r="216" ht="18" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2">
         <v>20170912</v>
@@ -3750,21 +3755,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" ht="17.6" spans="1:3">
+    <row r="217" ht="18" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="218" ht="17.6" spans="1:3">
+    <row r="218" ht="18" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="219" ht="17.6" spans="1:3">
+    <row r="219" ht="18" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
         <v>20170716</v>
@@ -3773,42 +3778,42 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" ht="17.6" spans="1:3">
+    <row r="220" ht="18" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="221" ht="17.6" spans="1:3">
+    <row r="221" ht="18" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
+    <row r="222" ht="18" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="223" ht="17.6" spans="1:3">
+    <row r="223" ht="18" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="224" ht="17.6" spans="1:3">
+    <row r="224" ht="18" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="225" ht="17.6" spans="1:3">
+    <row r="225" ht="18" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2">
         <v>20170613</v>
@@ -3817,49 +3822,49 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" ht="17.6" spans="1:3">
+    <row r="226" ht="18" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" ht="17.6" spans="1:3">
+    <row r="227" ht="18" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="228" ht="17.6" spans="1:3">
+    <row r="228" ht="18" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="229" ht="17.6" spans="1:3">
+    <row r="229" ht="18" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:3">
+    <row r="230" ht="18" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" ht="17.6" spans="1:3">
+    <row r="231" ht="18" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="232" ht="22" spans="1:3">
+    <row r="232" ht="21.75" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="2">
         <v>20170503</v>
@@ -3868,7 +3873,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="233" ht="22" spans="1:3">
+    <row r="233" ht="21.75" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2">
         <v>20170412</v>
@@ -3877,7 +3882,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="234" ht="17.6" spans="1:3">
+    <row r="234" ht="18" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2">
         <v>20170411</v>
@@ -3886,28 +3891,28 @@
         <v>227</v>
       </c>
     </row>
-    <row r="235" ht="17.6" spans="1:3">
+    <row r="235" ht="18" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="236" ht="17.6" spans="1:3">
+    <row r="236" ht="18" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237" ht="17.6" spans="1:3">
+    <row r="237" ht="18" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:3">
+    <row r="238" ht="18" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
         <v>20170318</v>
@@ -3916,42 +3921,42 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" ht="17.6" spans="1:3">
+    <row r="239" ht="18" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="240" ht="17.6" spans="1:3">
+    <row r="240" ht="18" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" ht="17.6" spans="1:3">
+    <row r="241" ht="18" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" ht="17.6" spans="1:3">
+    <row r="242" ht="18" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="243" ht="17.6" spans="1:3">
+    <row r="243" ht="18" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="244" ht="22" spans="1:3">
+    <row r="244" ht="21.75" spans="1:3">
       <c r="A244" s="2">
         <v>2016</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="245" ht="22" spans="1:3">
+    <row r="245" ht="21.75" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="2">
         <v>20160420</v>
@@ -3971,7 +3976,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="246" ht="17.6" spans="1:3">
+    <row r="246" ht="18" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
         <v>20160415</v>
@@ -3980,42 +3985,42 @@
         <v>239</v>
       </c>
     </row>
-    <row r="247" ht="17.6" spans="1:3">
+    <row r="247" ht="18" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="248" ht="17.6" spans="1:3">
+    <row r="248" ht="18" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="249" ht="17.6" spans="1:3">
+    <row r="249" ht="18" spans="1:3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="250" ht="17.6" spans="1:3">
+    <row r="250" ht="18" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="251" ht="17.6" spans="1:3">
+    <row r="251" ht="18" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="252" ht="22" spans="1:3">
+    <row r="252" ht="21.75" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2">
         <v>20160111</v>
@@ -4024,7 +4029,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" ht="17.6" spans="1:3">
+    <row r="253" ht="18" spans="1:3">
       <c r="A253" s="2">
         <v>2015</v>
       </c>
@@ -4035,35 +4040,35 @@
         <v>246</v>
       </c>
     </row>
-    <row r="254" ht="17.6" spans="1:3">
+    <row r="254" ht="18" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="255" ht="17.6" spans="1:3">
+    <row r="255" ht="18" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="256" ht="17.6" spans="1:3">
+    <row r="256" ht="18" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="257" ht="17.6" spans="1:3">
+    <row r="257" ht="18" spans="1:3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="258" ht="17.6" spans="1:3">
+    <row r="258" ht="18" spans="1:3">
       <c r="A258" s="2"/>
       <c r="B258" s="2">
         <v>20151104</v>
@@ -4072,28 +4077,28 @@
         <v>251</v>
       </c>
     </row>
-    <row r="259" ht="17.6" spans="1:3">
+    <row r="259" ht="18" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="260" ht="17.6" spans="1:3">
+    <row r="260" ht="18" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="261" ht="17.6" spans="1:3">
+    <row r="261" ht="18" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="262" ht="17.6" spans="1:3">
+    <row r="262" ht="18" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="2">
         <v>20150807</v>
@@ -4102,56 +4107,56 @@
         <v>254</v>
       </c>
     </row>
-    <row r="263" ht="17.6" spans="1:3">
+    <row r="263" ht="18" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="264" ht="17.6" spans="1:3">
+    <row r="264" ht="18" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="265" ht="17.6" spans="1:3">
+    <row r="265" ht="18" spans="1:3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="266" ht="17.6" spans="1:3">
+    <row r="266" ht="18" spans="1:3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="267" ht="17.6" spans="1:3">
+    <row r="267" ht="18" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="268" ht="17.6" spans="1:3">
+    <row r="268" ht="18" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="269" ht="17.6" spans="1:3">
+    <row r="269" ht="18" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="270" ht="17.6" spans="1:3">
+    <row r="270" ht="18" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="2">
         <v>20150303</v>
@@ -4160,14 +4165,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="271" ht="17.6" spans="1:3">
+    <row r="271" ht="18" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="272" ht="17.6" spans="1:3">
+    <row r="272" ht="18" spans="1:3">
       <c r="A272" s="2">
         <v>2014</v>
       </c>
@@ -4178,21 +4183,21 @@
         <v>264</v>
       </c>
     </row>
-    <row r="273" ht="17.6" spans="1:3">
+    <row r="273" ht="18" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="274" ht="17.6" spans="1:3">
+    <row r="274" ht="18" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="275" ht="17.6" spans="1:3">
+    <row r="275" ht="18" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
         <v>20141120</v>
@@ -4201,21 +4206,21 @@
         <v>267</v>
       </c>
     </row>
-    <row r="276" ht="17.6" spans="1:3">
+    <row r="276" ht="18" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="277" ht="17.6" spans="1:3">
+    <row r="277" ht="18" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="278" ht="17.6" spans="1:3">
+    <row r="278" ht="18" spans="1:3">
       <c r="A278" s="2">
         <v>2013</v>
       </c>
@@ -4226,21 +4231,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="279" ht="17.6" spans="1:3">
+    <row r="279" ht="18" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="280" ht="17.6" spans="1:3">
+    <row r="280" ht="18" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="281" ht="17.6" spans="1:3">
+    <row r="281" ht="18" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2">
         <v>20130807</v>
@@ -4249,21 +4254,21 @@
         <v>273</v>
       </c>
     </row>
-    <row r="282" ht="17.6" spans="1:3">
+    <row r="282" ht="18" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="283" ht="17.6" spans="1:3">
+    <row r="283" ht="18" spans="1:3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="284" ht="17.6" spans="1:3">
+    <row r="284" ht="18" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2">
         <v>20130722</v>
@@ -4272,7 +4277,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="285" ht="17.6" spans="1:3">
+    <row r="285" ht="18" spans="1:3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="4" t="s">
@@ -4284,25 +4289,25 @@
       <c r="B286" s="2">
         <v>20130618</v>
       </c>
-      <c r="C286" s="16" t="s">
+      <c r="C286" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="287" ht="17.6" spans="1:3">
+    <row r="287" ht="18" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="288" ht="17.6" spans="1:3">
+    <row r="288" ht="18" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="289" ht="17.6" spans="1:3">
+    <row r="289" ht="18" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2">
         <v>20130607</v>
@@ -4311,30 +4316,30 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" ht="17.6" spans="1:3">
+    <row r="290" ht="18" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="291" ht="17.6" spans="1:3">
+    <row r="291" ht="18" spans="1:3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="292" ht="22" spans="1:3">
+    <row r="292" ht="21.75" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2">
         <v>20130417</v>
       </c>
-      <c r="C292" s="16" t="s">
+      <c r="C292" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="293" ht="17.6" spans="1:3">
+    <row r="293" ht="18" spans="1:3">
       <c r="A293" s="2">
         <v>2012</v>
       </c>
@@ -4345,14 +4350,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="294" ht="17.6" spans="1:3">
+    <row r="294" ht="18" spans="1:3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="295" ht="17.6" spans="1:3">
+    <row r="295" ht="18" spans="1:3">
       <c r="A295" s="2">
         <v>2011</v>
       </c>
@@ -4363,35 +4368,35 @@
         <v>287</v>
       </c>
     </row>
-    <row r="296" ht="17.6" spans="1:3">
+    <row r="296" ht="18" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="297" ht="17.6" spans="1:3">
+    <row r="297" ht="18" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="298" ht="17.6" spans="1:3">
+    <row r="298" ht="18" spans="1:3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="299" ht="17.6" spans="1:3">
+    <row r="299" ht="18" spans="1:3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="300" ht="17.6" spans="1:3">
+    <row r="300" ht="18" spans="1:3">
       <c r="A300" s="2">
         <v>2010</v>
       </c>
@@ -4402,35 +4407,35 @@
         <v>292</v>
       </c>
     </row>
-    <row r="301" ht="17.6" spans="1:3">
+    <row r="301" ht="18" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="302" ht="17.6" spans="1:3">
+    <row r="302" ht="18" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="303" ht="17.6" spans="1:3">
+    <row r="303" ht="18" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="304" ht="17.6" spans="1:3">
+    <row r="304" ht="18" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="305" ht="17.6" spans="1:3">
+    <row r="305" ht="18" spans="1:3">
       <c r="A305" s="2">
         <v>2009</v>
       </c>
@@ -4441,35 +4446,35 @@
         <v>296</v>
       </c>
     </row>
-    <row r="306" ht="17.6" spans="1:3">
+    <row r="306" ht="18" spans="1:3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="307" ht="17.6" spans="1:3">
+    <row r="307" ht="18" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="308" ht="17.6" spans="1:3">
+    <row r="308" ht="18" spans="1:3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="309" ht="17.6" spans="1:3">
+    <row r="309" ht="18" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="310" ht="17.6" spans="1:3">
+    <row r="310" ht="18" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2">
         <v>20090827</v>
@@ -4478,37 +4483,37 @@
         <v>301</v>
       </c>
     </row>
-    <row r="311" ht="17.6" spans="1:3">
+    <row r="311" ht="18" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="312" ht="17.6" spans="1:3">
+    <row r="312" ht="18" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="313" ht="17.6" spans="1:3">
+    <row r="313" ht="18" spans="1:3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="314" ht="22" spans="1:3">
+    <row r="314" ht="21.75" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2">
         <v>20090731</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="315" ht="17.6" spans="1:3">
+    <row r="315" ht="18" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2">
         <v>20090723</v>
@@ -4517,28 +4522,28 @@
         <v>306</v>
       </c>
     </row>
-    <row r="316" ht="17.6" spans="1:3">
+    <row r="316" ht="18" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="317" ht="17.6" spans="1:3">
+    <row r="317" ht="18" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="318" ht="17.6" spans="1:3">
+    <row r="318" ht="18" spans="1:3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="319" ht="17.6" spans="1:3">
+    <row r="319" ht="18" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2">
         <v>20090705</v>
@@ -4547,14 +4552,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="320" ht="17.6" spans="1:3">
+    <row r="320" ht="18" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="321" ht="17.6" spans="1:3">
+    <row r="321" ht="18" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2">
         <v>20090620</v>
@@ -4563,7 +4568,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="322" ht="17.6" spans="1:3">
+    <row r="322" ht="18" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="4" t="s">
@@ -4654,13 +4659,13 @@
     <mergeCell ref="B321:B322"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4668,7 +4673,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4677,7 +4682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4685,7 +4690,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -16,7 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="318">
+  <si>
+    <t>桥下一家人</t>
+  </si>
+  <si>
+    <t>父权制与资本主义</t>
+  </si>
+  <si>
+    <t>林肯传</t>
+  </si>
+  <si>
+    <r>
+      <t>大问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简明哲学导论</t>
+    </r>
+  </si>
   <si>
     <t>技术垄断</t>
   </si>
@@ -1013,10 +1047,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1072,22 +1106,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,8 +1141,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,6 +1180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1138,17 +1204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,14 +1226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1185,26 +1234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,13 +1258,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,37 +1390,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,90 +1426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1387,18 +1433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,11 +1506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,39 +1524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,6 +1560,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1575,10 +1609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1587,137 +1621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1738,6 +1772,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2111,10 +2154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C322"/>
+  <dimension ref="A2:C327"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2136,1959 +2179,1957 @@
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" ht="21.75" spans="1:3">
       <c r="A4" s="2"/>
-      <c r="B4" s="5">
-        <v>20210601</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" ht="21.75" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
+        <v>20210621</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" ht="21.75" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="21.75" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="21.75" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9">
+        <v>20210601</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+    <row r="10" ht="18" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="21.75" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3">
+    <row r="13" ht="18" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="21.75" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
         <v>20210527</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="21.75" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="21.75" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>20210518</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="21.75" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="21.75" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
         <v>20210515</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="10">
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13">
         <v>20210420</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="18" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="18" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="18" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="21.75" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>20210416</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="21" ht="18" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="21.75" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>20210414</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>20210408</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="21.75" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>20210416</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8" t="s">
+    <row r="26" ht="21.75" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>20210414</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>20210408</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="18" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2">
-        <v>20210407</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="18" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="8" t="s">
-        <v>26</v>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
-        <v>27</v>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="18" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="18" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2">
+        <v>20210407</v>
+      </c>
       <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="35" ht="21.75" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2">
-        <v>20210406</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2">
-        <v>20210321</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>32</v>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="8" t="s">
-        <v>33</v>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="18" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="18" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="21.75" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>20210320</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>36</v>
+        <v>20210406</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
-        <v>20210316</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>20210321</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="18" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
-        <v>38</v>
+      <c r="C42" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="21.75" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2">
-        <v>20210313</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="21.75" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
-        <v>20210302</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>41</v>
+        <v>20210320</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2">
+        <v>20210316</v>
+      </c>
       <c r="C46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="47" ht="21.75" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2">
-        <v>20210227</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="48" ht="18" spans="1:3">
       <c r="A48" s="2"/>
-      <c r="B48" s="2">
-        <v>20210220</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" ht="21.75" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2">
+        <v>20210313</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="50" ht="18" spans="1:3">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
-        <v>46</v>
+      <c r="B50" s="2">
+        <v>20210302</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="18" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" ht="21.75" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2">
+        <v>20210227</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="52" ht="18" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="53" ht="18" spans="1:3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="8" t="s">
-        <v>49</v>
+      <c r="B53" s="2">
+        <v>20210220</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="8" t="s">
-        <v>50</v>
+      <c r="C54" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="8" t="s">
-        <v>51</v>
+      <c r="C55" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="18" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="8" t="s">
-        <v>52</v>
+      <c r="C56" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="18" spans="1:3">
       <c r="A57" s="2"/>
-      <c r="B57" s="2">
-        <v>20210206</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="18" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="8" t="s">
-        <v>54</v>
+      <c r="C58" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="18" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="8" t="s">
-        <v>55</v>
+      <c r="C59" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="18" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="8" t="s">
-        <v>56</v>
+      <c r="C60" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="18" spans="1:3">
       <c r="A61" s="2"/>
-      <c r="B61" s="10">
-        <v>20210111</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>57</v>
+      <c r="B61" s="2"/>
+      <c r="C61" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="18" spans="1:3">
       <c r="A62" s="2"/>
-      <c r="B62" s="11"/>
+      <c r="B62" s="2">
+        <v>20210206</v>
+      </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="18" spans="1:3">
       <c r="A63" s="2"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="4" t="s">
-        <v>59</v>
+      <c r="B63" s="2"/>
+      <c r="C63" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="4" t="s">
-        <v>60</v>
+      <c r="B64" s="2"/>
+      <c r="C64" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" ht="18" spans="1:3">
       <c r="A65" s="2"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="4" t="s">
-        <v>61</v>
+      <c r="B65" s="2"/>
+      <c r="C65" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66" ht="18" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="13">
+        <v>20210111</v>
+      </c>
       <c r="C66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" ht="18" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" ht="18" spans="1:3">
       <c r="A68" s="2"/>
-      <c r="B68" s="11"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="11"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="18" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="12"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="18" spans="1:3">
       <c r="A71" s="2"/>
-      <c r="B71" s="10">
-        <v>20210106</v>
-      </c>
+      <c r="B71" s="14"/>
       <c r="C71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" ht="18" spans="1:3">
       <c r="A72" s="2"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="11"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="18" spans="1:3">
       <c r="A74" s="2"/>
-      <c r="B74" s="12"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:3">
       <c r="A75" s="2"/>
-      <c r="B75" s="2">
-        <v>20210101</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>71</v>
+      <c r="B75" s="15"/>
+      <c r="C75" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:3">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="13">
+        <v>20210106</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="77" ht="21.75" spans="1:3">
-      <c r="A77" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B77" s="2">
-        <v>20201230</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="78" ht="18" spans="1:3">
       <c r="A78" s="2"/>
-      <c r="B78" s="2">
-        <v>20201225</v>
-      </c>
+      <c r="B78" s="14"/>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:3">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="4" t="s">
-        <v>76</v>
+      <c r="B80" s="2">
+        <v>20210101</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="2">
-        <v>20201210</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" ht="21.75" spans="1:3">
+      <c r="A82" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="2">
+        <v>20201230</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="82" ht="18" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
-        <v>20201127</v>
+        <v>20201225</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" ht="18" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="18" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:3">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="4" t="s">
-        <v>82</v>
+      <c r="B86" s="2">
+        <v>20201210</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87" ht="18" spans="1:3">
       <c r="A87" s="2"/>
-      <c r="B87" s="2">
-        <v>20201125</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>83</v>
+      <c r="B87" s="2"/>
+      <c r="C87" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:3">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="8" t="s">
-        <v>84</v>
+      <c r="B88" s="2">
+        <v>20201127</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="18" spans="1:3">
       <c r="A89" s="2"/>
-      <c r="B89" s="2">
-        <v>20201123</v>
-      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" ht="18" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="1:3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" ht="21.75" spans="1:3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2">
-        <v>20201109</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" ht="21.75" spans="1:3">
+    <row r="92" ht="18" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
-        <v>20201103</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>88</v>
+        <v>20201125</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="93" ht="18" spans="1:3">
       <c r="A93" s="2"/>
-      <c r="B93" s="2">
-        <v>20200919</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>89</v>
+      <c r="B93" s="2"/>
+      <c r="C93" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:3">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="8" t="s">
-        <v>90</v>
+      <c r="B94" s="2">
+        <v>20201123</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="95" ht="18" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" ht="21.75" spans="1:3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2">
+        <v>20201109</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="21.75" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
-        <v>20200912</v>
+        <v>20201103</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" ht="18" spans="1:3">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="8" t="s">
-        <v>94</v>
+      <c r="B98" s="2">
+        <v>20200919</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="99" ht="18" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="11" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="100" ht="21.75" spans="1:3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2">
-        <v>20200910</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="101" ht="18" spans="1:3">
       <c r="A101" s="2"/>
-      <c r="B101" s="2">
-        <v>20200901</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" ht="18" spans="1:3">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2">
+        <v>20200912</v>
+      </c>
       <c r="C102" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="8" t="s">
-        <v>99</v>
+      <c r="C103" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="104" ht="18" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" ht="21.75" spans="1:3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2">
+        <v>20200910</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="105" ht="18" spans="1:3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="106" ht="18" spans="1:3">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="8" t="s">
-        <v>102</v>
+      <c r="B106" s="2">
+        <v>20200901</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="107" ht="18" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="8" t="s">
-        <v>103</v>
+      <c r="C107" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="108" ht="18" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="8" t="s">
-        <v>104</v>
+      <c r="C108" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="109" ht="18" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="2">
-        <v>20200827</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>105</v>
+      <c r="B109" s="2"/>
+      <c r="C109" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="8" t="s">
-        <v>106</v>
+      <c r="C110" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="111" ht="18" spans="1:3">
       <c r="A111" s="2"/>
-      <c r="B111" s="2">
-        <v>20200806</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>107</v>
+      <c r="B111" s="2"/>
+      <c r="C111" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="112" ht="18" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="8" t="s">
-        <v>108</v>
+      <c r="C112" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="113" ht="18" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" ht="21.75" spans="1:3">
+      <c r="C113" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="1:3">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
-        <v>20200804</v>
+        <v>20200827</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" ht="18" spans="1:3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="11" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="115" ht="21.75" spans="1:3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2">
-        <v>20200703</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="116" ht="18" spans="1:3">
       <c r="A116" s="2"/>
-      <c r="B116" s="10">
-        <v>20200627</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>112</v>
+      <c r="B116" s="2">
+        <v>20200806</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117" ht="18" spans="1:3">
       <c r="A117" s="2"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="8" t="s">
-        <v>113</v>
+      <c r="B117" s="2"/>
+      <c r="C117" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="118" ht="18" spans="1:3">
       <c r="A118" s="2"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="8" t="s">
+      <c r="B118" s="2"/>
+      <c r="C118" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" ht="21.75" spans="1:3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2">
+        <v>20200804</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="8" t="s">
+    <row r="120" ht="21.75" spans="1:3">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2">
+        <v>20200703</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="120" ht="18" spans="1:3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="2"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="8" t="s">
-        <v>117</v>
+      <c r="B121" s="13">
+        <v>20200627</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="2"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="8" t="s">
-        <v>118</v>
+      <c r="B122" s="14"/>
+      <c r="C122" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="2"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="8" t="s">
-        <v>119</v>
+      <c r="B123" s="14"/>
+      <c r="C123" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="124" ht="18" spans="1:3">
       <c r="A124" s="2"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="8" t="s">
-        <v>120</v>
+      <c r="B124" s="14"/>
+      <c r="C124" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="125" ht="18" spans="1:3">
       <c r="A125" s="2"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="8" t="s">
-        <v>121</v>
+      <c r="B125" s="14"/>
+      <c r="C125" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="126" ht="18" spans="1:3">
       <c r="A126" s="2"/>
-      <c r="B126" s="2">
-        <v>20200611</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>122</v>
+      <c r="B126" s="14"/>
+      <c r="C126" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="4" t="s">
-        <v>123</v>
+      <c r="B127" s="14"/>
+      <c r="C127" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="4" t="s">
-        <v>124</v>
+      <c r="B128" s="14"/>
+      <c r="C128" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="4" t="s">
-        <v>125</v>
+      <c r="B129" s="14"/>
+      <c r="C129" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="130" ht="18" spans="1:3">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="4" t="s">
-        <v>126</v>
+      <c r="B130" s="15"/>
+      <c r="C130" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
-        <v>20200606</v>
+        <v>20200611</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:3">
       <c r="A134" s="2"/>
-      <c r="B134" s="2">
-        <v>20200601</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="2">
-        <v>20200402</v>
+        <v>20200606</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="138" ht="18" spans="1:3">
-      <c r="A138" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B138" s="2">
-        <v>20181120</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="2">
+        <v>20200601</v>
+      </c>
       <c r="C139" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" ht="18" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="2">
-        <v>20181020</v>
+        <v>20200402</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" ht="18" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:3">
+      <c r="A143" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B143" s="2">
+        <v>20181120</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="143" ht="18" spans="1:3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="144" ht="18" spans="1:3">
       <c r="A144" s="2"/>
-      <c r="B144" s="2">
-        <v>20181018</v>
-      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="8" t="s">
-        <v>141</v>
+      <c r="C145" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="146" ht="18" spans="1:3">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="8" t="s">
-        <v>142</v>
+      <c r="B146" s="2">
+        <v>20181020</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="147" ht="18" spans="1:3">
       <c r="A147" s="2"/>
-      <c r="B147" s="2">
-        <v>20180907</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>143</v>
+      <c r="B147" s="2"/>
+      <c r="C147" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="148" ht="18" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
-        <v>20180906</v>
+        <v>20181018</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="4" t="s">
-        <v>146</v>
+      <c r="C150" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="151" ht="18" spans="1:3">
       <c r="A151" s="2"/>
-      <c r="B151" s="2">
-        <v>20180822</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>147</v>
+      <c r="B151" s="2"/>
+      <c r="C151" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:3">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="2">
+        <v>20180907</v>
+      </c>
       <c r="C152" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" ht="18" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" ht="18" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
-        <v>20180808</v>
+        <v>20180906</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" ht="21.75" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" ht="18" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2">
-        <v>20180801</v>
+        <v>20180822</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:3">
       <c r="A157" s="2"/>
-      <c r="B157" s="2">
-        <v>20180730</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" ht="18" spans="1:3">
       <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="B159" s="2">
+        <v>20180808</v>
+      </c>
       <c r="C159" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" ht="21.75" spans="1:3">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2">
+        <v>20180801</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="161" ht="18" spans="1:3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="162" ht="18" spans="1:3">
       <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2">
+        <v>20180730</v>
+      </c>
       <c r="C162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:3">
       <c r="A163" s="2"/>
-      <c r="B163" s="2">
-        <v>20180705</v>
-      </c>
+      <c r="B163" s="2"/>
       <c r="C163" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" ht="18" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" ht="18" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="8" t="s">
-        <v>163</v>
+      <c r="C167" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:3">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="8" t="s">
-        <v>164</v>
+      <c r="B168" s="2">
+        <v>20180705</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="169" ht="18" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="4" t="s">
-        <v>168</v>
+      <c r="C172" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="173" ht="18" spans="1:3">
       <c r="A173" s="2"/>
-      <c r="B173" s="2">
-        <v>20180613</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>169</v>
+      <c r="B173" s="2"/>
+      <c r="C173" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="174" ht="18" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="8" t="s">
-        <v>170</v>
+      <c r="C174" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" ht="18" spans="1:3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="4" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="177" ht="21.75" spans="1:3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2">
-        <v>20180427</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="178" ht="18" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2">
-        <v>20180426</v>
+        <v>20180613</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="4" t="s">
-        <v>175</v>
+      <c r="C179" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" ht="18" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" ht="18" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" ht="21.75" spans="1:3">
       <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="B182" s="2">
+        <v>20180427</v>
+      </c>
       <c r="C182" s="4" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:3">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="B183" s="2">
+        <v>20180426</v>
+      </c>
       <c r="C183" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" ht="18" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" ht="18" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="4" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" ht="18" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="4" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" ht="18" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" ht="18" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="8" t="s">
-        <v>184</v>
+      <c r="C190" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" ht="18" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" ht="18" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:3">
       <c r="A195" s="2"/>
-      <c r="B195" s="2">
-        <v>20180217</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>189</v>
+      <c r="B195" s="2"/>
+      <c r="C195" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="196" ht="18" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="8" t="s">
-        <v>190</v>
+      <c r="C196" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:3">
       <c r="A197" s="2"/>
-      <c r="B197" s="2">
-        <v>20180125</v>
-      </c>
+      <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" ht="18" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" ht="18" spans="1:3">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="4" t="s">
-        <v>194</v>
+      <c r="B200" s="2">
+        <v>20180217</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" ht="18" spans="1:3">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2">
+        <v>20180125</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="202" ht="18" spans="1:3">
-      <c r="A202" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B202" s="2">
-        <v>20171220</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" ht="18" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
-      <c r="C204" s="8" t="s">
-        <v>198</v>
+      <c r="C204" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="205" ht="18" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" ht="18" spans="1:3">
       <c r="A206" s="2"/>
-      <c r="B206" s="2">
-        <v>20171128</v>
-      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" ht="18" spans="1:3">
+      <c r="A207" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B207" s="2">
+        <v>20171220</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="207" ht="18" spans="1:3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="208" ht="18" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
-      <c r="C208" s="8" t="s">
-        <v>202</v>
+      <c r="C208" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="209" ht="18" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="4" t="s">
-        <v>203</v>
+      <c r="C209" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="210" ht="18" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" ht="18" spans="1:3">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="8" t="s">
-        <v>205</v>
+      <c r="B211" s="2">
+        <v>20171128</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="212" ht="18" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="8" t="s">
-        <v>206</v>
+      <c r="C212" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="213" ht="18" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="8" t="s">
-        <v>207</v>
+      <c r="C213" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="214" ht="18" spans="1:3">
       <c r="A214" s="2"/>
-      <c r="B214" s="2">
-        <v>20170925</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>208</v>
+      <c r="B214" s="2"/>
+      <c r="C214" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="215" ht="18" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
-      <c r="C215" s="8" t="s">
-        <v>209</v>
+      <c r="C215" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="216" ht="18" spans="1:3">
       <c r="A216" s="2"/>
-      <c r="B216" s="2">
-        <v>20170912</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>210</v>
+      <c r="B216" s="2"/>
+      <c r="C216" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="217" ht="18" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="4" t="s">
-        <v>211</v>
+      <c r="C217" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="218" ht="18" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
-      <c r="C218" s="8" t="s">
-        <v>212</v>
+      <c r="C218" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="219" ht="18" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
-        <v>20170716</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>213</v>
+        <v>20170925</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="220" ht="18" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="4" t="s">
-        <v>214</v>
+      <c r="C220" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="221" ht="18" spans="1:3">
       <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="B221" s="2">
+        <v>20170912</v>
+      </c>
       <c r="C221" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" ht="18" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" ht="18" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
-      <c r="C223" s="4" t="s">
-        <v>217</v>
+      <c r="C223" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="224" ht="18" spans="1:3">
       <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="B224" s="2">
+        <v>20170716</v>
+      </c>
       <c r="C224" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" ht="18" spans="1:3">
       <c r="A225" s="2"/>
-      <c r="B225" s="2">
-        <v>20170613</v>
-      </c>
+      <c r="B225" s="2"/>
       <c r="C225" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" ht="18" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" ht="18" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
-      <c r="C227" s="8" t="s">
-        <v>28</v>
+      <c r="C227" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="228" ht="18" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="229" ht="18" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="230" ht="18" spans="1:3">
       <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="8" t="s">
+      <c r="B230" s="2">
+        <v>20170613</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="231" ht="18" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="232" ht="21.75" spans="1:3">
+    <row r="232" ht="18" spans="1:3">
       <c r="A232" s="2"/>
-      <c r="B232" s="2">
-        <v>20170503</v>
-      </c>
-      <c r="C232" s="4" t="s">
+      <c r="B232" s="2"/>
+      <c r="C232" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" ht="18" spans="1:3">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="11" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="233" ht="21.75" spans="1:3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2">
-        <v>20170412</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="234" ht="18" spans="1:3">
       <c r="A234" s="2"/>
-      <c r="B234" s="2">
-        <v>20170411</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>227</v>
+      <c r="B234" s="2"/>
+      <c r="C234" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="235" ht="18" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
-      <c r="C235" s="4" t="s">
-        <v>228</v>
+      <c r="C235" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="236" ht="18" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="237" ht="21.75" spans="1:3">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2">
+        <v>20170503</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:3">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="238" ht="18" spans="1:3">
+    <row r="238" ht="21.75" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
-        <v>20170318</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>231</v>
+        <v>20170412</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="239" ht="18" spans="1:3">
       <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="8" t="s">
-        <v>232</v>
+      <c r="B239" s="2">
+        <v>20170411</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="240" ht="18" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" ht="18" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" ht="18" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" ht="18" spans="1:3">
       <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="4" t="s">
+      <c r="B243" s="2">
+        <v>20170318</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="244" ht="18" spans="1:3">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="244" ht="21.75" spans="1:3">
-      <c r="A244" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B244" s="2">
-        <v>20161215</v>
-      </c>
-      <c r="C244" s="4" t="s">
+    <row r="245" ht="18" spans="1:3">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="4" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="245" ht="21.75" spans="1:3">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2">
-        <v>20160420</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="246" ht="18" spans="1:3">
       <c r="A246" s="2"/>
-      <c r="B246" s="2">
-        <v>20160415</v>
-      </c>
+      <c r="B246" s="2"/>
       <c r="C246" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" ht="18" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" ht="18" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" ht="21.75" spans="1:3">
+      <c r="A249" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B249" s="2">
+        <v>20161215</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="249" ht="18" spans="1:3">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="4" t="s">
+    <row r="250" ht="21.75" spans="1:3">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2">
+        <v>20160420</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="250" ht="18" spans="1:3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="251" ht="18" spans="1:3">
       <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="B251" s="2">
+        <v>20160415</v>
+      </c>
       <c r="C251" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" ht="18" spans="1:3">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="252" ht="21.75" spans="1:3">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2">
-        <v>20160111</v>
-      </c>
-      <c r="C252" s="4" t="s">
+    <row r="253" ht="18" spans="1:3">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="11" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="253" ht="18" spans="1:3">
-      <c r="A253" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B253" s="2">
-        <v>20151221</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="254" ht="18" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
-      <c r="C254" s="8" t="s">
-        <v>247</v>
+      <c r="C254" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="255" ht="18" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" ht="18" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" ht="21.75" spans="1:3">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2">
+        <v>20160111</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="257" ht="18" spans="1:3">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="4" t="s">
+    <row r="258" ht="18" spans="1:3">
+      <c r="A258" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B258" s="2">
+        <v>20151221</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="258" ht="18" spans="1:3">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2">
-        <v>20151104</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="259" ht="18" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
-      <c r="C259" s="8" t="s">
-        <v>252</v>
+      <c r="C259" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="260" ht="18" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="261" ht="18" spans="1:3">
@@ -4100,16 +4141,16 @@
     </row>
     <row r="262" ht="18" spans="1:3">
       <c r="A262" s="2"/>
-      <c r="B262" s="2">
-        <v>20150807</v>
-      </c>
+      <c r="B262" s="2"/>
       <c r="C262" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="263" ht="18" spans="1:3">
       <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="B263" s="2">
+        <v>20151104</v>
+      </c>
       <c r="C263" s="4" t="s">
         <v>255</v>
       </c>
@@ -4117,7 +4158,7 @@
     <row r="264" ht="18" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4125,538 +4166,576 @@
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="266" ht="18" spans="1:3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" ht="18" spans="1:3">
       <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="8" t="s">
-        <v>259</v>
+      <c r="B267" s="2">
+        <v>20150807</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="268" ht="18" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" ht="18" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
-      <c r="C269" s="4" t="s">
-        <v>261</v>
+      <c r="C269" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="270" ht="18" spans="1:3">
       <c r="A270" s="2"/>
-      <c r="B270" s="2">
-        <v>20150303</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>262</v>
+      <c r="B270" s="2"/>
+      <c r="C270" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="271" ht="18" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="272" ht="18" spans="1:3">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="11" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="272" ht="18" spans="1:3">
-      <c r="A272" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B272" s="2">
-        <v>20141210</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="273" ht="18" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
-      <c r="C273" s="8" t="s">
-        <v>265</v>
+      <c r="C273" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="274" ht="18" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
-      <c r="C274" s="8" t="s">
-        <v>266</v>
+      <c r="C274" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="275" ht="18" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
-        <v>20141120</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>267</v>
+        <v>20150303</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="276" ht="18" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" ht="18" spans="1:3">
+      <c r="A277" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B277" s="2">
+        <v>20141210</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="277" ht="18" spans="1:3">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="4" t="s">
+    <row r="278" ht="18" spans="1:3">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="11" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="278" ht="18" spans="1:3">
-      <c r="A278" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B278" s="2">
-        <v>20131206</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="279" ht="18" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="4" t="s">
-        <v>271</v>
+      <c r="C279" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="280" ht="18" spans="1:3">
       <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="B280" s="2">
+        <v>20141120</v>
+      </c>
       <c r="C280" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" ht="18" spans="1:3">
       <c r="A281" s="2"/>
-      <c r="B281" s="2">
-        <v>20130807</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>273</v>
+      <c r="B281" s="2"/>
+      <c r="C281" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="282" ht="18" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="283" ht="18" spans="1:3">
+      <c r="A283" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B283" s="2">
+        <v>20131206</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="283" ht="18" spans="1:3">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="284" ht="18" spans="1:3">
       <c r="A284" s="2"/>
-      <c r="B284" s="2">
-        <v>20130722</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>276</v>
+      <c r="B284" s="2"/>
+      <c r="C284" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="285" ht="18" spans="1:3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" ht="18" spans="1:3">
       <c r="A286" s="2"/>
       <c r="B286" s="2">
-        <v>20130618</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>278</v>
+        <v>20130807</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="287" ht="18" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" ht="18" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" ht="18" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2">
-        <v>20130607</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>281</v>
+        <v>20130722</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="290" ht="18" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2">
+        <v>20130618</v>
+      </c>
+      <c r="C291" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="291" ht="18" spans="1:3">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="4" t="s">
+    <row r="292" ht="18" spans="1:3">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="292" ht="21.75" spans="1:3">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2">
-        <v>20130417</v>
-      </c>
-      <c r="C292" s="13" t="s">
+    <row r="293" ht="18" spans="1:3">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="4" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="293" ht="18" spans="1:3">
-      <c r="A293" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B293" s="2">
-        <v>20120119</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="294" ht="18" spans="1:3">
       <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="8" t="s">
+      <c r="B294" s="2">
+        <v>20130607</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="295" ht="18" spans="1:3">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="4" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="295" ht="18" spans="1:3">
-      <c r="A295" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B295" s="2">
-        <v>20110818</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="296" ht="18" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" ht="21.75" spans="1:3">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2">
+        <v>20130417</v>
+      </c>
+      <c r="C297" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="297" ht="18" spans="1:3">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="4" t="s">
+    <row r="298" ht="18" spans="1:3">
+      <c r="A298" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B298" s="2">
+        <v>20120119</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="298" ht="18" spans="1:3">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="299" ht="18" spans="1:3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="8" t="s">
-        <v>291</v>
+      <c r="C299" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="300" ht="18" spans="1:3">
       <c r="A300" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B300" s="2">
-        <v>20101013</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>292</v>
+        <v>20110818</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="301" ht="18" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
-      <c r="C301" s="8" t="s">
-        <v>293</v>
+      <c r="C301" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="302" ht="18" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
-      <c r="C302" s="8" t="s">
-        <v>294</v>
+      <c r="C302" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="303" ht="18" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
-      <c r="C303" s="8" t="s">
-        <v>29</v>
+      <c r="C303" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="304" ht="18" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="305" ht="18" spans="1:3">
       <c r="A305" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B305" s="2">
-        <v>20091218</v>
-      </c>
-      <c r="C305" s="8" t="s">
+        <v>20101013</v>
+      </c>
+      <c r="C305" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="306" ht="18" spans="1:3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="307" ht="18" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="308" ht="18" spans="1:3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
-      <c r="C308" s="8" t="s">
-        <v>299</v>
+      <c r="C308" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="309" ht="18" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
-      <c r="C309" s="4" t="s">
+      <c r="C309" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="310" ht="18" spans="1:3">
+      <c r="A310" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B310" s="2">
+        <v>20091218</v>
+      </c>
+      <c r="C310" s="11" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="310" ht="18" spans="1:3">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2">
-        <v>20090827</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="311" ht="18" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
-      <c r="C311" s="8" t="s">
-        <v>302</v>
+      <c r="C311" s="11" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="312" ht="18" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="4" t="s">
-        <v>303</v>
+      <c r="C312" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="313" ht="18" spans="1:3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="314" ht="18" spans="1:3">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="4" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="314" ht="21.75" spans="1:3">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2">
-        <v>20090731</v>
-      </c>
-      <c r="C314" s="14" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="315" ht="18" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2">
-        <v>20090723</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>306</v>
+        <v>20090827</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="316" ht="18" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="8" t="s">
-        <v>307</v>
+      <c r="C316" s="11" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="317" ht="18" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="8" t="s">
-        <v>308</v>
+      <c r="C317" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="318" ht="18" spans="1:3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
-      <c r="C318" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="319" ht="18" spans="1:3">
+      <c r="C318" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="319" ht="21.75" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2">
-        <v>20090705</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>310</v>
+        <v>20090731</v>
+      </c>
+      <c r="C319" s="17" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="320" ht="18" spans="1:3">
       <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="8" t="s">
-        <v>311</v>
+      <c r="B320" s="2">
+        <v>20090723</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="321" ht="18" spans="1:3">
       <c r="A321" s="2"/>
-      <c r="B321" s="2">
-        <v>20090620</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>312</v>
+      <c r="B321" s="2"/>
+      <c r="C321" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="322" ht="18" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="4" t="s">
+      <c r="C322" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="323" ht="18" spans="1:3">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="11" t="s">
         <v>313</v>
       </c>
     </row>
+    <row r="324" ht="18" spans="1:3">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2">
+        <v>20090705</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="325" ht="18" spans="1:3">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326" ht="18" spans="1:3">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2">
+        <v>20090620</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="327" ht="18" spans="1:3">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A2:A76"/>
-    <mergeCell ref="A77:A137"/>
-    <mergeCell ref="A138:A201"/>
-    <mergeCell ref="A202:A243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A253:A271"/>
-    <mergeCell ref="A272:A277"/>
-    <mergeCell ref="A278:A292"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="A295:A299"/>
+  <mergeCells count="81">
+    <mergeCell ref="A2:A81"/>
+    <mergeCell ref="A82:A142"/>
+    <mergeCell ref="A143:A206"/>
+    <mergeCell ref="A207:A248"/>
+    <mergeCell ref="A249:A257"/>
+    <mergeCell ref="A258:A276"/>
+    <mergeCell ref="A277:A282"/>
+    <mergeCell ref="A283:A297"/>
+    <mergeCell ref="A298:A299"/>
     <mergeCell ref="A300:A304"/>
-    <mergeCell ref="A305:A322"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="A305:A309"/>
+    <mergeCell ref="A310:A327"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B121:B130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="B163:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B178:B194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B201"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="B225:B231"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="B238:B243"/>
-    <mergeCell ref="B246:B251"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="B262:B269"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="B168:B177"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B183:B199"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B211:B218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="B224:B229"/>
+    <mergeCell ref="B230:B236"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="B251:B256"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B267:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="B280:B282"/>
+    <mergeCell ref="B283:B285"/>
     <mergeCell ref="B286:B288"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="B295:B299"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B298:B299"/>
     <mergeCell ref="B300:B304"/>
     <mergeCell ref="B305:B309"/>
-    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="B310:B314"/>
     <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B320:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -16,7 +16,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
+  <si>
+    <t>图画通识丛书：本雅明</t>
+  </si>
+  <si>
+    <t>早年毛泽东传记、史料与回忆</t>
+  </si>
+  <si>
+    <t>胡耀邦与平反冤假错案</t>
+  </si>
+  <si>
+    <t>专制主义统治下的臣民心理</t>
+  </si>
+  <si>
+    <t>如父如子</t>
+  </si>
+  <si>
+    <r>
+      <t>文化权力与国家</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1900-1942</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年的华北农村</t>
+    </r>
+  </si>
+  <si>
+    <t>宋氏家族</t>
+  </si>
   <si>
     <t>桥下一家人</t>
   </si>
@@ -28,6 +71,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>大问题</t>
     </r>
     <r>
@@ -1048,8 +1098,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1106,7 +1156,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,54 +1183,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,39 +1215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1223,6 +1226,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,8 +1253,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,7 +1308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,31 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,12 +1368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1325,18 +1375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,48 +1410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1426,7 +1422,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,8 +1557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,6 +1579,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1539,6 +1613,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,39 +1651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1609,10 +1659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1621,133 +1671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,9 +1835,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,6 +1846,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2154,10 +2204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C327"/>
+  <dimension ref="A2:C335"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2186,1775 +2236,1771 @@
     </row>
     <row r="5" ht="21.75" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5">
-        <v>20210621</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" ht="21.75" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5">
+        <v>20210623</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="21.75" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="21.75" spans="1:3">
       <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="21.75" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9">
-        <v>20210601</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="10" ht="21.75" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+    <row r="11" ht="21.75" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9">
+        <v>20210621</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="10"/>
       <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6" t="s">
+    <row r="17" ht="18" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9">
+        <v>20210601</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="21.75" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3">
-        <v>20210527</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="18" ht="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="21.75" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3">
-        <v>20210518</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="19" ht="18" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="21.75" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>20210515</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:3">
       <c r="A20" s="2"/>
-      <c r="B20" s="13">
-        <v>20210420</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="21.75" spans="1:3">
       <c r="A25" s="2"/>
-      <c r="B25" s="2">
-        <v>20210416</v>
+      <c r="B25" s="3">
+        <v>20210527</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="21.75" spans="1:3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2">
-        <v>20210414</v>
+      <c r="B26" s="3">
+        <v>20210518</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="21.75" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
-        <v>20210408</v>
+        <v>20210515</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="12">
+        <v>20210420</v>
+      </c>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="18" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="18" spans="1:3">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="11" t="s">
-        <v>25</v>
+      <c r="B30" s="13"/>
+      <c r="C30" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:3">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="11" t="s">
-        <v>26</v>
+      <c r="B31" s="13"/>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="18" spans="1:3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="21.75" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2">
+        <v>20210416</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="1:3">
+    <row r="34" ht="21.75" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
-        <v>20210407</v>
+        <v>20210414</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="11" t="s">
-        <v>30</v>
+      <c r="B35" s="2">
+        <v>20210408</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="18" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="4" t="s">
-        <v>33</v>
+      <c r="C38" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="18" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="40" ht="21.75" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2">
-        <v>20210406</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2">
-        <v>20210321</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>36</v>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="18" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="11" t="s">
-        <v>37</v>
+      <c r="B42" s="2">
+        <v>20210407</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
+      <c r="C43" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="18" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="45" ht="21.75" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2">
-        <v>20210320</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2">
-        <v>20210316</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="18" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" ht="21.75" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2">
+        <v>20210406</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" ht="21.75" spans="1:3">
+    <row r="49" ht="18" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
-        <v>20210313</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>44</v>
+        <v>20210321</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="18" spans="1:3">
       <c r="A50" s="2"/>
-      <c r="B50" s="2">
-        <v>20210302</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>45</v>
+      <c r="B50" s="2"/>
+      <c r="C50" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="18" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" ht="21.75" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2">
-        <v>20210227</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" ht="18" spans="1:3">
+    <row r="53" ht="21.75" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
-        <v>20210220</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>48</v>
+        <v>20210320</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:3">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2">
+        <v>20210316</v>
+      </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="18" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="18" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="21.75" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2">
+        <v>20210313</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="57" ht="18" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="58" ht="18" spans="1:3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="11" t="s">
-        <v>53</v>
+      <c r="B58" s="2">
+        <v>20210302</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="18" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" ht="21.75" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2">
+        <v>20210227</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="60" ht="18" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="61" ht="18" spans="1:3">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="11" t="s">
-        <v>56</v>
+      <c r="B61" s="2">
+        <v>20210220</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="18" spans="1:3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2">
-        <v>20210206</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="18" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="11" t="s">
-        <v>58</v>
+      <c r="C63" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="11" t="s">
-        <v>59</v>
+      <c r="C64" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="18" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="11" t="s">
-        <v>60</v>
+      <c r="C65" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66" ht="18" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="13">
-        <v>20210111</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>61</v>
+      <c r="B66" s="2"/>
+      <c r="C66" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="67" ht="18" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="4" t="s">
-        <v>62</v>
+      <c r="B67" s="2"/>
+      <c r="C67" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="18" spans="1:3">
       <c r="A68" s="2"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="4" t="s">
-        <v>63</v>
+      <c r="B68" s="2"/>
+      <c r="C68" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="4" t="s">
-        <v>64</v>
+      <c r="B69" s="2"/>
+      <c r="C69" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" ht="18" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="2">
+        <v>20210206</v>
+      </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="18" spans="1:3">
       <c r="A71" s="2"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="4" t="s">
-        <v>66</v>
+      <c r="B71" s="2"/>
+      <c r="C71" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="18" spans="1:3">
       <c r="A72" s="2"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="4" t="s">
-        <v>67</v>
+      <c r="B72" s="2"/>
+      <c r="C72" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" ht="18" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="4" t="s">
-        <v>68</v>
+      <c r="B73" s="2"/>
+      <c r="C73" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" ht="18" spans="1:3">
       <c r="A74" s="2"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="12">
+        <v>20210111</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:3">
       <c r="A75" s="2"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:3">
       <c r="A76" s="2"/>
-      <c r="B76" s="13">
-        <v>20210106</v>
-      </c>
+      <c r="B76" s="13"/>
       <c r="C76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="14"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="18" spans="1:3">
       <c r="A78" s="2"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:3">
       <c r="A80" s="2"/>
-      <c r="B80" s="2">
-        <v>20210101</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>75</v>
+      <c r="B80" s="13"/>
+      <c r="C80" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="18" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="82" ht="21.75" spans="1:3">
-      <c r="A82" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B82" s="2">
-        <v>20201230</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="83" ht="18" spans="1:3">
       <c r="A83" s="2"/>
-      <c r="B83" s="2">
-        <v>20201225</v>
-      </c>
+      <c r="B83" s="14"/>
       <c r="C83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" ht="18" spans="1:3">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="12">
+        <v>20210106</v>
+      </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" ht="18" spans="1:3">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:3">
       <c r="A86" s="2"/>
-      <c r="B86" s="2">
-        <v>20201210</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>81</v>
+      <c r="B86" s="13"/>
+      <c r="C86" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="18" spans="1:3">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="11" t="s">
-        <v>82</v>
+      <c r="B87" s="14"/>
+      <c r="C87" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
-        <v>20201127</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>83</v>
+        <v>20210101</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="18" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" ht="21.75" spans="1:3">
+      <c r="A90" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B90" s="2">
+        <v>20201230</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="90" ht="18" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="91" ht="18" spans="1:3">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2">
+        <v>20201225</v>
+      </c>
       <c r="C91" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" ht="18" spans="1:3">
       <c r="A92" s="2"/>
-      <c r="B92" s="2">
-        <v>20201125</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>87</v>
+      <c r="B92" s="2"/>
+      <c r="C92" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="93" ht="18" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="11" t="s">
-        <v>88</v>
+      <c r="C93" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
-        <v>20201123</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>20201210</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="95" ht="18" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" ht="21.75" spans="1:3">
+      <c r="C95" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
-        <v>20201109</v>
+        <v>20201127</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="1:3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="97" ht="21.75" spans="1:3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2">
-        <v>20201103</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="98" ht="18" spans="1:3">
       <c r="A98" s="2"/>
-      <c r="B98" s="2">
-        <v>20200919</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>93</v>
+      <c r="B98" s="2"/>
+      <c r="C98" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="99" ht="18" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="11" t="s">
-        <v>94</v>
+      <c r="C99" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="100" ht="18" spans="1:3">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="11" t="s">
-        <v>95</v>
+      <c r="B100" s="2">
+        <v>20201125</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="101" ht="18" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="4" t="s">
-        <v>96</v>
+      <c r="C101" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="102" ht="18" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
-        <v>20200912</v>
+        <v>20201123</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" ht="21.75" spans="1:3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2">
+        <v>20201109</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="104" ht="18" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="105" ht="21.75" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
-        <v>20200910</v>
+        <v>20201103</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="18" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
-        <v>20200901</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>20200919</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="107" ht="18" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="4" t="s">
-        <v>102</v>
+      <c r="C107" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="108" ht="18" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="11" t="s">
-        <v>103</v>
+      <c r="C108" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="109" ht="18" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="11" t="s">
-        <v>104</v>
+      <c r="C109" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="11" t="s">
-        <v>105</v>
+      <c r="B110" s="2">
+        <v>20200912</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="111" ht="18" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="11" t="s">
-        <v>106</v>
+      <c r="C111" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="112" ht="18" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" ht="21.75" spans="1:3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2">
+        <v>20200910</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="113" ht="18" spans="1:3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="114" ht="18" spans="1:3">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
-        <v>20200827</v>
+        <v>20200901</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" ht="18" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="11" t="s">
-        <v>110</v>
+      <c r="C115" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="116" ht="18" spans="1:3">
       <c r="A116" s="2"/>
-      <c r="B116" s="2">
-        <v>20200806</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>111</v>
+      <c r="B116" s="2"/>
+      <c r="C116" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="117" ht="18" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="11" t="s">
-        <v>112</v>
+      <c r="C117" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="118" ht="18" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" ht="18" spans="1:3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" ht="21.75" spans="1:3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2">
-        <v>20200804</v>
-      </c>
-      <c r="C119" s="4" t="s">
+    <row r="120" ht="18" spans="1:3">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="15" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="120" ht="21.75" spans="1:3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2">
-        <v>20200703</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="2"/>
-      <c r="B121" s="13">
-        <v>20200627</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>116</v>
+      <c r="B121" s="2"/>
+      <c r="C121" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="2"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="11" t="s">
-        <v>117</v>
+      <c r="B122" s="2">
+        <v>20200827</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="2"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="11" t="s">
-        <v>118</v>
+      <c r="B123" s="2"/>
+      <c r="C123" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="124" ht="18" spans="1:3">
       <c r="A124" s="2"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="11" t="s">
-        <v>119</v>
+      <c r="B124" s="2">
+        <v>20200806</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="125" ht="18" spans="1:3">
       <c r="A125" s="2"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="11" t="s">
-        <v>120</v>
+      <c r="B125" s="2"/>
+      <c r="C125" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="126" ht="18" spans="1:3">
       <c r="A126" s="2"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="11" t="s">
+      <c r="B126" s="2"/>
+      <c r="C126" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" ht="21.75" spans="1:3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2">
+        <v>20200804</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="11" t="s">
+    <row r="128" ht="21.75" spans="1:3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2">
+        <v>20200703</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="128" ht="18" spans="1:3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="11" t="s">
-        <v>124</v>
+      <c r="B129" s="12">
+        <v>20200627</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="130" ht="18" spans="1:3">
       <c r="A130" s="2"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="11" t="s">
-        <v>125</v>
+      <c r="B130" s="13"/>
+      <c r="C130" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="2"/>
-      <c r="B131" s="2">
-        <v>20200611</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>126</v>
+      <c r="B131" s="13"/>
+      <c r="C131" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="4" t="s">
-        <v>127</v>
+      <c r="B132" s="13"/>
+      <c r="C132" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="4" t="s">
-        <v>128</v>
+      <c r="B133" s="13"/>
+      <c r="C133" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:3">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="4" t="s">
-        <v>129</v>
+      <c r="B134" s="13"/>
+      <c r="C134" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:3">
       <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="4" t="s">
-        <v>130</v>
+      <c r="B135" s="13"/>
+      <c r="C135" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:3">
       <c r="A136" s="2"/>
-      <c r="B136" s="2">
-        <v>20200606</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>131</v>
+      <c r="B136" s="13"/>
+      <c r="C136" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:3">
       <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="4" t="s">
-        <v>132</v>
+      <c r="B137" s="13"/>
+      <c r="C137" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:3">
       <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="4" t="s">
-        <v>133</v>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="2">
-        <v>20200601</v>
+        <v>20200611</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" ht="18" spans="1:3">
       <c r="A141" s="2"/>
-      <c r="B141" s="2">
-        <v>20200402</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" ht="18" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="4" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="143" ht="18" spans="1:3">
-      <c r="A143" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B143" s="2">
-        <v>20181120</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="144" ht="18" spans="1:3">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="2">
+        <v>20200606</v>
+      </c>
       <c r="C144" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" ht="18" spans="1:3">
       <c r="A146" s="2"/>
-      <c r="B146" s="2">
-        <v>20181020</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" ht="18" spans="1:3">
       <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="11" t="s">
-        <v>142</v>
+      <c r="B147" s="2">
+        <v>20200601</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="148" ht="18" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
-        <v>20181018</v>
+        <v>20200402</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" ht="18" spans="1:3">
+      <c r="A151" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B151" s="2">
+        <v>20181120</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="151" ht="18" spans="1:3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:3">
       <c r="A152" s="2"/>
-      <c r="B152" s="2">
-        <v>20180907</v>
-      </c>
+      <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" ht="18" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" ht="18" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
-        <v>20180906</v>
+        <v>20181020</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="4" t="s">
-        <v>150</v>
+      <c r="C155" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="156" ht="18" spans="1:3">
       <c r="A156" s="2"/>
-      <c r="B156" s="2">
-        <v>20180822</v>
-      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:3">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="2">
+        <v>20181018</v>
+      </c>
       <c r="C157" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="4" t="s">
-        <v>153</v>
+      <c r="C158" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="159" ht="18" spans="1:3">
       <c r="A159" s="2"/>
-      <c r="B159" s="2">
-        <v>20180808</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>154</v>
+      <c r="B159" s="2"/>
+      <c r="C159" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:3">
       <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="2">
+        <v>20180907</v>
+      </c>
       <c r="C160" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" ht="18" spans="1:3">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="4" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="161" ht="21.75" spans="1:3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2">
-        <v>20180801</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="162" ht="18" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
-        <v>20180730</v>
+        <v>20180906</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:3">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="2">
+        <v>20180822</v>
+      </c>
       <c r="C164" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" ht="18" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" ht="18" spans="1:3">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="2">
+        <v>20180808</v>
+      </c>
       <c r="C167" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:3">
       <c r="A168" s="2"/>
-      <c r="B168" s="2">
-        <v>20180705</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" ht="21.75" spans="1:3">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2">
+        <v>20180801</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="169" ht="18" spans="1:3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:3">
       <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="2">
+        <v>20180730</v>
+      </c>
       <c r="C170" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="11" t="s">
-        <v>167</v>
+      <c r="C172" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="173" ht="18" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="11" t="s">
-        <v>168</v>
+      <c r="C173" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="174" ht="18" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:3">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="2">
+        <v>20180705</v>
+      </c>
       <c r="C176" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" ht="18" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" ht="18" spans="1:3">
       <c r="A178" s="2"/>
-      <c r="B178" s="2">
-        <v>20180613</v>
-      </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="11" t="s">
-        <v>174</v>
+      <c r="C179" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="4" t="s">
-        <v>175</v>
+      <c r="C180" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="181" ht="18" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" ht="18" spans="1:3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="4" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="182" ht="21.75" spans="1:3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2">
-        <v>20180427</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:3">
       <c r="A183" s="2"/>
-      <c r="B183" s="2">
-        <v>20180426</v>
-      </c>
+      <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" ht="18" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" ht="18" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:3">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="2">
+        <v>20180613</v>
+      </c>
       <c r="C186" s="4" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" ht="18" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="4" t="s">
-        <v>16</v>
+      <c r="C187" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="188" ht="18" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" ht="18" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" ht="21.75" spans="1:3">
       <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="2">
+        <v>20180427</v>
+      </c>
       <c r="C190" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:3">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="2">
+        <v>20180426</v>
+      </c>
       <c r="C191" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" ht="18" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" ht="18" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="11" t="s">
-        <v>188</v>
+      <c r="C195" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="196" ht="18" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" ht="18" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" ht="18" spans="1:3">
       <c r="A200" s="2"/>
-      <c r="B200" s="2">
-        <v>20180217</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>193</v>
+      <c r="B200" s="2"/>
+      <c r="C200" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="11" t="s">
-        <v>194</v>
+      <c r="C201" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="202" ht="18" spans="1:3">
       <c r="A202" s="2"/>
-      <c r="B202" s="2">
-        <v>20180125</v>
-      </c>
+      <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="4" t="s">
-        <v>196</v>
+      <c r="C203" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="204" ht="18" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" ht="18" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" ht="18" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" ht="18" spans="1:3">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="4" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="207" ht="18" spans="1:3">
-      <c r="A207" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B207" s="2">
-        <v>20171220</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="208" ht="18" spans="1:3">
       <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="4" t="s">
-        <v>201</v>
+      <c r="B208" s="2">
+        <v>20180217</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="209" ht="18" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="11" t="s">
-        <v>202</v>
+      <c r="C209" s="15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="210" ht="18" spans="1:3">
       <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="B210" s="2">
+        <v>20180125</v>
+      </c>
       <c r="C210" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" ht="18" spans="1:3">
       <c r="A211" s="2"/>
-      <c r="B211" s="2">
-        <v>20171128</v>
-      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" ht="18" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="11" t="s">
-        <v>205</v>
+      <c r="C212" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="213" ht="18" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="11" t="s">
-        <v>206</v>
+      <c r="C213" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="214" ht="18" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" ht="18" spans="1:3">
+      <c r="A215" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B215" s="2">
+        <v>20171220</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="215" ht="18" spans="1:3">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="216" ht="18" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
-      <c r="C216" s="11" t="s">
-        <v>209</v>
+      <c r="C216" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="217" ht="18" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="11" t="s">
-        <v>210</v>
+      <c r="C217" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="218" ht="18" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
-      <c r="C218" s="11" t="s">
-        <v>211</v>
+      <c r="C218" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="219" ht="18" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
-        <v>20170925</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>212</v>
+        <v>20171128</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="220" ht="18" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="11" t="s">
-        <v>213</v>
+      <c r="C220" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="221" ht="18" spans="1:3">
       <c r="A221" s="2"/>
-      <c r="B221" s="2">
-        <v>20170912</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>214</v>
+      <c r="B221" s="2"/>
+      <c r="C221" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="222" ht="18" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" ht="18" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
-      <c r="C223" s="11" t="s">
-        <v>216</v>
+      <c r="C223" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="224" ht="18" spans="1:3">
       <c r="A224" s="2"/>
-      <c r="B224" s="2">
-        <v>20170716</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>217</v>
+      <c r="B224" s="2"/>
+      <c r="C224" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="225" ht="18" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="4" t="s">
-        <v>218</v>
+      <c r="C225" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="226" ht="18" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="4" t="s">
-        <v>219</v>
+      <c r="C226" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="227" ht="18" spans="1:3">
       <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="4" t="s">
-        <v>220</v>
+      <c r="B227" s="2">
+        <v>20170925</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="228" ht="18" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="4" t="s">
-        <v>221</v>
+      <c r="C228" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="229" ht="18" spans="1:3">
       <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="B229" s="2">
+        <v>20170912</v>
+      </c>
       <c r="C229" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" ht="18" spans="1:3">
       <c r="A230" s="2"/>
-      <c r="B230" s="2">
-        <v>20170613</v>
-      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" ht="18" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="4" t="s">
-        <v>224</v>
+      <c r="C231" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="232" ht="18" spans="1:3">
       <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="11" t="s">
-        <v>32</v>
+      <c r="B232" s="2">
+        <v>20170716</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="233" ht="18" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="234" ht="18" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
-      <c r="C234" s="11" t="s">
+      <c r="C234" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="235" ht="18" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
-      <c r="C235" s="11" t="s">
+      <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="236" ht="18" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="21.75" spans="1:3">
+    <row r="237" ht="18" spans="1:3">
       <c r="A237" s="2"/>
-      <c r="B237" s="2">
-        <v>20170503</v>
-      </c>
+      <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" ht="21.75" spans="1:3">
+    <row r="238" ht="18" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
-        <v>20170412</v>
+        <v>20170613</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>230</v>
@@ -3962,9 +4008,7 @@
     </row>
     <row r="239" ht="18" spans="1:3">
       <c r="A239" s="2"/>
-      <c r="B239" s="2">
-        <v>20170411</v>
-      </c>
+      <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
@@ -3972,216 +4016,218 @@
     <row r="240" ht="18" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="4" t="s">
-        <v>232</v>
+      <c r="C240" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="241" ht="18" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
-      <c r="C241" s="4" t="s">
-        <v>233</v>
+      <c r="C241" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="242" ht="18" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
-      <c r="C242" s="4" t="s">
-        <v>234</v>
+      <c r="C242" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="243" ht="18" spans="1:3">
       <c r="A243" s="2"/>
-      <c r="B243" s="2">
-        <v>20170318</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>235</v>
+      <c r="B243" s="2"/>
+      <c r="C243" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="244" ht="18" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="11" t="s">
+      <c r="C244" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" ht="21.75" spans="1:3">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2">
+        <v>20170503</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="245" ht="18" spans="1:3">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="4" t="s">
+    <row r="246" ht="21.75" spans="1:3">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2">
+        <v>20170412</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="246" ht="18" spans="1:3">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="247" ht="18" spans="1:3">
       <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="B247" s="2">
+        <v>20170411</v>
+      </c>
       <c r="C247" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" ht="18" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" ht="18" spans="1:3">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="249" ht="21.75" spans="1:3">
-      <c r="A249" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B249" s="2">
-        <v>20161215</v>
-      </c>
-      <c r="C249" s="4" t="s">
+    <row r="250" ht="18" spans="1:3">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="4" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="250" ht="21.75" spans="1:3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2">
-        <v>20160420</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="251" ht="18" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
-        <v>20160415</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>243</v>
+        <v>20170318</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="252" ht="18" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
-      <c r="C252" s="4" t="s">
-        <v>244</v>
+      <c r="C252" s="15" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="253" ht="18" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
-      <c r="C253" s="11" t="s">
-        <v>245</v>
+      <c r="C253" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="254" ht="18" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" ht="18" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" ht="18" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" ht="21.75" spans="1:3">
+      <c r="A257" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B257" s="2">
+        <v>20161215</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="257" ht="21.75" spans="1:3">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2">
-        <v>20160111</v>
-      </c>
-      <c r="C257" s="4" t="s">
+    <row r="258" ht="21.75" spans="1:3">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2">
+        <v>20160420</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="258" ht="18" spans="1:3">
-      <c r="A258" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B258" s="2">
-        <v>20151221</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="259" ht="18" spans="1:3">
       <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="11" t="s">
-        <v>251</v>
+      <c r="B259" s="2">
+        <v>20160415</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="260" ht="18" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" ht="18" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="4" t="s">
-        <v>253</v>
+      <c r="C261" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="262" ht="18" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" ht="18" spans="1:3">
       <c r="A263" s="2"/>
-      <c r="B263" s="2">
-        <v>20151104</v>
-      </c>
+      <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" ht="18" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="11" t="s">
+      <c r="C264" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" ht="21.75" spans="1:3">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2">
+        <v>20160111</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="265" ht="18" spans="1:3">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
     <row r="266" ht="18" spans="1:3">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B266" s="2">
+        <v>20151221</v>
+      </c>
       <c r="C266" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="267" ht="18" spans="1:3">
       <c r="A267" s="2"/>
-      <c r="B267" s="2">
-        <v>20150807</v>
-      </c>
-      <c r="C267" s="4" t="s">
+      <c r="B267" s="2"/>
+      <c r="C267" s="15" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4195,7 +4241,7 @@
     <row r="269" ht="18" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
-      <c r="C269" s="11" t="s">
+      <c r="C269" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4208,7 +4254,9 @@
     </row>
     <row r="271" ht="18" spans="1:3">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="B271" s="2">
+        <v>20151104</v>
+      </c>
       <c r="C271" s="4" t="s">
         <v>262</v>
       </c>
@@ -4216,7 +4264,7 @@
     <row r="272" ht="18" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="11" t="s">
+      <c r="C272" s="15" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4224,518 +4272,577 @@
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" ht="18" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" ht="18" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
-        <v>20150303</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>266</v>
+        <v>20150807</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="276" ht="18" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" ht="18" spans="1:3">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="15" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="277" ht="18" spans="1:3">
-      <c r="A277" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B277" s="2">
-        <v>20141210</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="278" ht="18" spans="1:3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
-      <c r="C278" s="11" t="s">
-        <v>269</v>
+      <c r="C278" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="279" ht="18" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="11" t="s">
-        <v>270</v>
+      <c r="C279" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="280" ht="18" spans="1:3">
       <c r="A280" s="2"/>
-      <c r="B280" s="2">
-        <v>20141120</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>271</v>
+      <c r="B280" s="2"/>
+      <c r="C280" s="15" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="281" ht="18" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="11" t="s">
-        <v>272</v>
+      <c r="C281" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="282" ht="18" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="283" ht="18" spans="1:3">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2">
+        <v>20150303</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="283" ht="18" spans="1:3">
-      <c r="A283" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B283" s="2">
-        <v>20131206</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="284" ht="18" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" ht="18" spans="1:3">
+      <c r="A285" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B285" s="2">
+        <v>20141210</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="285" ht="18" spans="1:3">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="286" ht="18" spans="1:3">
       <c r="A286" s="2"/>
-      <c r="B286" s="2">
-        <v>20130807</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>277</v>
+      <c r="B286" s="2"/>
+      <c r="C286" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="287" ht="18" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="4" t="s">
-        <v>278</v>
+      <c r="C287" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="288" ht="18" spans="1:3">
       <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="B288" s="2">
+        <v>20141120</v>
+      </c>
       <c r="C288" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" ht="18" spans="1:3">
       <c r="A289" s="2"/>
-      <c r="B289" s="2">
-        <v>20130722</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>280</v>
+      <c r="B289" s="2"/>
+      <c r="C289" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="290" ht="18" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="291" ht="18" spans="1:3">
+      <c r="A291" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B291" s="2">
+        <v>20131206</v>
+      </c>
+      <c r="C291" s="15" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2">
-        <v>20130618</v>
-      </c>
-      <c r="C291" s="16" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="292" ht="18" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" ht="18" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" ht="18" spans="1:3">
       <c r="A294" s="2"/>
       <c r="B294" s="2">
-        <v>20130607</v>
-      </c>
-      <c r="C294" s="11" t="s">
-        <v>285</v>
+        <v>20130807</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="295" ht="18" spans="1:3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" ht="18" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="297" ht="21.75" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" ht="18" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2">
-        <v>20130417</v>
-      </c>
-      <c r="C297" s="16" t="s">
+        <v>20130722</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="298" ht="18" spans="1:3">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="298" ht="18" spans="1:3">
-      <c r="A298" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B298" s="2">
-        <v>20120119</v>
-      </c>
-      <c r="C298" s="4" t="s">
+    <row r="299" spans="1:3">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2">
+        <v>20130618</v>
+      </c>
+      <c r="C299" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="299" ht="18" spans="1:3">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="11" t="s">
+    <row r="300" ht="18" spans="1:3">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="4" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="300" ht="18" spans="1:3">
-      <c r="A300" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B300" s="2">
-        <v>20110818</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="301" ht="18" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" ht="18" spans="1:3">
       <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="4" t="s">
-        <v>293</v>
+      <c r="B302" s="2">
+        <v>20130607</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="303" ht="18" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" ht="18" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
-      <c r="C304" s="11" t="s">
+      <c r="C304" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="305" ht="21.75" spans="1:3">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2">
+        <v>20130417</v>
+      </c>
+      <c r="C305" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="305" ht="18" spans="1:3">
-      <c r="A305" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B305" s="2">
-        <v>20101013</v>
-      </c>
-      <c r="C305" s="11" t="s">
+    <row r="306" ht="18" spans="1:3">
+      <c r="A306" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B306" s="2">
+        <v>20120119</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="306" ht="18" spans="1:3">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="307" ht="18" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="11" t="s">
+      <c r="C307" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="308" ht="18" spans="1:3">
+      <c r="A308" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B308" s="2">
+        <v>20110818</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="308" ht="18" spans="1:3">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="309" ht="18" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
-      <c r="C309" s="11" t="s">
+      <c r="C309" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="310" ht="18" spans="1:3">
-      <c r="A310" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B310" s="2">
-        <v>20091218</v>
-      </c>
-      <c r="C310" s="11" t="s">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="311" ht="18" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
-      <c r="C311" s="11" t="s">
+      <c r="C311" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="312" ht="18" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="11" t="s">
+      <c r="C312" s="15" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="313" ht="18" spans="1:3">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="11" t="s">
+      <c r="A313" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B313" s="2">
+        <v>20101013</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="314" ht="18" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="15" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="315" ht="18" spans="1:3">
       <c r="A315" s="2"/>
-      <c r="B315" s="2">
-        <v>20090827</v>
-      </c>
-      <c r="C315" s="4" t="s">
+      <c r="B315" s="2"/>
+      <c r="C315" s="15" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="316" ht="18" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="11" t="s">
-        <v>306</v>
+      <c r="C316" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="317" ht="18" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="4" t="s">
+      <c r="C317" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="318" ht="18" spans="1:3">
+      <c r="A318" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B318" s="2">
+        <v>20091218</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="318" ht="18" spans="1:3">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="11" t="s">
+    <row r="319" ht="18" spans="1:3">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="15" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="319" ht="21.75" spans="1:3">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2">
-        <v>20090731</v>
-      </c>
-      <c r="C319" s="17" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="320" ht="18" spans="1:3">
       <c r="A320" s="2"/>
-      <c r="B320" s="2">
-        <v>20090723</v>
-      </c>
-      <c r="C320" s="11" t="s">
-        <v>310</v>
+      <c r="B320" s="2"/>
+      <c r="C320" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="321" ht="18" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="11" t="s">
-        <v>311</v>
+      <c r="C321" s="15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="322" ht="18" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="11" t="s">
-        <v>312</v>
+      <c r="C322" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="323" ht="18" spans="1:3">
       <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="11" t="s">
-        <v>313</v>
+      <c r="B323" s="2">
+        <v>20090827</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="324" ht="18" spans="1:3">
       <c r="A324" s="2"/>
-      <c r="B324" s="2">
-        <v>20090705</v>
-      </c>
-      <c r="C324" s="11" t="s">
-        <v>314</v>
+      <c r="B324" s="2"/>
+      <c r="C324" s="15" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="325" ht="18" spans="1:3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
-      <c r="C325" s="11" t="s">
-        <v>315</v>
+      <c r="C325" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="326" ht="18" spans="1:3">
       <c r="A326" s="2"/>
-      <c r="B326" s="2">
+      <c r="B326" s="2"/>
+      <c r="C326" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="327" ht="21.75" spans="1:3">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2">
+        <v>20090731</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="328" ht="18" spans="1:3">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2">
+        <v>20090723</v>
+      </c>
+      <c r="C328" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="329" ht="18" spans="1:3">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="330" ht="18" spans="1:3">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="331" ht="18" spans="1:3">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="332" ht="18" spans="1:3">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2">
+        <v>20090705</v>
+      </c>
+      <c r="C332" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="333" ht="18" spans="1:3">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="334" ht="18" spans="1:3">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2">
         <v>20090620</v>
       </c>
-      <c r="C326" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="327" ht="18" spans="1:3">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="4" t="s">
-        <v>317</v>
+      <c r="C334" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="335" ht="18" spans="1:3">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A2:A81"/>
-    <mergeCell ref="A82:A142"/>
-    <mergeCell ref="A143:A206"/>
-    <mergeCell ref="A207:A248"/>
-    <mergeCell ref="A249:A257"/>
-    <mergeCell ref="A258:A276"/>
-    <mergeCell ref="A277:A282"/>
-    <mergeCell ref="A283:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A300:A304"/>
-    <mergeCell ref="A305:A309"/>
-    <mergeCell ref="A310:A327"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B92:B93"/>
+  <mergeCells count="82">
+    <mergeCell ref="A2:A89"/>
+    <mergeCell ref="A90:A150"/>
+    <mergeCell ref="A151:A214"/>
+    <mergeCell ref="A215:A256"/>
+    <mergeCell ref="A257:A265"/>
+    <mergeCell ref="A266:A284"/>
+    <mergeCell ref="A285:A290"/>
+    <mergeCell ref="A291:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A313:A317"/>
+    <mergeCell ref="A318:A335"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B93"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B121:B130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="B168:B177"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B183:B199"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B211:B218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="B230:B236"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B129:B138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B185"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B191:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="B219:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B232:B237"/>
+    <mergeCell ref="B238:B244"/>
+    <mergeCell ref="B247:B250"/>
     <mergeCell ref="B251:B256"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="B267:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B277:B279"/>
-    <mergeCell ref="B280:B282"/>
-    <mergeCell ref="B283:B285"/>
-    <mergeCell ref="B286:B288"/>
-    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="B259:B264"/>
+    <mergeCell ref="B266:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B288:B290"/>
     <mergeCell ref="B291:B293"/>
     <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B300:B304"/>
-    <mergeCell ref="B305:B309"/>
-    <mergeCell ref="B310:B314"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B320:B323"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="B313:B317"/>
+    <mergeCell ref="B318:B322"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="B328:B331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B334:B335"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
   <si>
     <t>图画通识丛书：本雅明</t>
   </si>
@@ -34,6 +34,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>文化权力与国家</t>
     </r>
     <r>
@@ -1097,10 +1104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1163,20 +1170,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1187,6 +1180,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1205,14 +1206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1222,31 +1215,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1261,10 +1230,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1278,15 +1271,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,6 +1287,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,7 +1315,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,169 +1489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,36 +1570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1617,15 +1594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1641,6 +1609,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1651,157 +1634,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1829,14 +1836,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1846,9 +1847,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1859,54 +1857,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2202,44 +2200,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:C335"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.075"/>
-    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
-    <col min="3" max="3" width="87.3083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.07692307692308"/>
+    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="87.3076923076923" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21.75" spans="1:3">
+    <row r="2" ht="22" spans="1:3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="21.75" spans="1:3">
+    <row r="3" ht="22" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="21.75" spans="1:3">
+    <row r="4" ht="22" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="21.75" spans="1:3">
+    <row r="5" ht="22" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="21.75" spans="1:3">
+    <row r="6" ht="17.6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>20210623</v>
@@ -2248,137 +2246,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="21.75" spans="1:3">
+    <row r="7" ht="17.6" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="1:3">
+    <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="21.75" spans="1:3">
+    <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="21.75" spans="1:3">
+    <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="21.75" spans="1:3">
+    <row r="11" ht="18" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" ht="17.6" spans="1:3">
       <c r="A13" s="2"/>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>20210621</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="2"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="2"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:3">
+    <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>20210601</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:3">
+    <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="2"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:3">
+    <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="2"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:3">
+    <row r="21" ht="17.6" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
+    <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:3">
+    <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="21.75" spans="1:3">
+    <row r="25" ht="22" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>20210527</v>
@@ -2387,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="21.75" spans="1:3">
+    <row r="26" ht="22" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
         <v>20210518</v>
@@ -2396,7 +2394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="21.75" spans="1:3">
+    <row r="27" ht="22" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>20210515</v>
@@ -2405,44 +2403,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:3">
+    <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>20210420</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:3">
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:3">
+    <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="2"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:3">
+    <row r="31" ht="17.6" spans="1:3">
       <c r="A31" s="2"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:3">
+    <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="2"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="21.75" spans="1:3">
+    <row r="33" ht="22" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>20210416</v>
@@ -2451,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="21.75" spans="1:3">
+    <row r="34" ht="22" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>20210414</v>
@@ -2460,7 +2458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="18" spans="1:3">
+    <row r="35" ht="17.6" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>20210408</v>
@@ -2469,49 +2467,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:3">
+    <row r="36" ht="17.6" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:3">
+    <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:3">
+    <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:3">
+    <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="18" spans="1:3">
+    <row r="40" ht="17.6" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:3">
+    <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:3">
+    <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>20210407</v>
@@ -2520,81 +2518,81 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:3">
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:3">
+    <row r="44" ht="17.6" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="18" spans="1:3">
+    <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:3">
+    <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" ht="21.75" spans="1:3">
+    <row r="48" ht="22" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>20210406</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:3">
+    <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>20210321</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:3">
+    <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:3">
+    <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:3">
+    <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" ht="21.75" spans="1:3">
+    <row r="53" ht="22" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>20210320</v>
@@ -2603,7 +2601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" ht="18" spans="1:3">
+    <row r="54" ht="17.6" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>20210316</v>
@@ -2612,120 +2610,120 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" ht="18" spans="1:3">
+    <row r="55" ht="17.6" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:3">
+    <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="21.75" spans="1:3">
+    <row r="57" ht="22" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>20210313</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" ht="18" spans="1:3">
+    <row r="58" ht="17.6" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>20210302</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:3">
+    <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" ht="21.75" spans="1:3">
+    <row r="60" ht="22" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>20210227</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" ht="18" spans="1:3">
+    <row r="61" ht="17.6" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>20210220</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:3">
+    <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:3">
+    <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:3">
+    <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" ht="18" spans="1:3">
+    <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" ht="18" spans="1:3">
+    <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:3">
+    <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:3">
+    <row r="68" ht="17.6" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" ht="18" spans="1:3">
+    <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>20210206</v>
@@ -2734,157 +2732,157 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:3">
+    <row r="71" ht="17.6" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="18" spans="1:3">
+    <row r="72" ht="17.6" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:3">
+    <row r="73" ht="17.6" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:3">
+    <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="2"/>
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>20210111</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:3">
+    <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="2"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:3">
+    <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="2"/>
-      <c r="B76" s="13"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:3">
+    <row r="77" ht="17.6" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="13"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="18" spans="1:3">
+    <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="2"/>
-      <c r="B78" s="13"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" ht="18" spans="1:3">
+    <row r="79" ht="17.6" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="13"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:3">
+    <row r="80" ht="17.6" spans="1:3">
       <c r="A80" s="2"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" ht="18" spans="1:3">
+    <row r="81" ht="17.6" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" ht="18" spans="1:3">
+    <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="2"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:3">
+    <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="2"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:3">
+    <row r="84" ht="17.6" spans="1:3">
       <c r="A84" s="2"/>
-      <c r="B84" s="12">
+      <c r="B84" s="10">
         <v>20210106</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" ht="18" spans="1:3">
+    <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="2"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" ht="18" spans="1:3">
+    <row r="86" ht="17.6" spans="1:3">
       <c r="A86" s="2"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" ht="18" spans="1:3">
+    <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="2"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" ht="18" spans="1:3">
+    <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>20210101</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:3">
+    <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" ht="21.75" spans="1:3">
+    <row r="90" ht="22" spans="1:3">
       <c r="A90" s="2">
         <v>2020</v>
       </c>
       <c r="B90" s="2">
         <v>20201230</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:3">
+    <row r="91" ht="17.6" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>20201225</v>
@@ -2893,37 +2891,37 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:3">
+    <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:3">
+    <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:3">
+    <row r="94" ht="17.6" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>20201210</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="17.6" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
+    <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>20201127</v>
@@ -2932,44 +2930,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:3">
+    <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" ht="18" spans="1:3">
+    <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:3">
+    <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>20201125</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:3">
+    <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" ht="18" spans="1:3">
+    <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>20201123</v>
@@ -2978,14 +2976,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" ht="18" spans="1:3">
+    <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" ht="21.75" spans="1:3">
+    <row r="104" ht="22" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>20201109</v>
@@ -2994,7 +2992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" ht="21.75" spans="1:3">
+    <row r="105" ht="22" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>20201103</v>
@@ -3003,37 +3001,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:3">
+    <row r="106" ht="17.6" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>20200919</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:3">
+    <row r="107" ht="17.6" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:3">
+    <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:3">
+    <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:3">
+    <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="2">
         <v>20200912</v>
@@ -3042,21 +3040,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" ht="18" spans="1:3">
+    <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:3">
+    <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" ht="21.75" spans="1:3">
+    <row r="113" ht="22" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>20200910</v>
@@ -3074,56 +3072,56 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" ht="18" spans="1:3">
+    <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:3">
+    <row r="116" ht="17.6" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="18" spans="1:3">
+    <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:3">
+    <row r="118" ht="17.6" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
+    <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:3">
+    <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:3">
+    <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:3">
+    <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <v>20200827</v>
@@ -3132,14 +3130,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:3">
+    <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" ht="18" spans="1:3">
+    <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
         <v>20200806</v>
@@ -3148,21 +3146,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:3">
+    <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" ht="18" spans="1:3">
+    <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="21.75" spans="1:3">
+    <row r="127" ht="22" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
         <v>20200804</v>
@@ -3171,7 +3169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" ht="21.75" spans="1:3">
+    <row r="128" ht="22" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
         <v>20200703</v>
@@ -3180,79 +3178,79 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:3">
+    <row r="129" ht="17.6" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="12">
+      <c r="B129" s="10">
         <v>20200627</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:3">
+    <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="2"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="15" t="s">
+      <c r="B130" s="11"/>
+      <c r="C130" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" ht="18" spans="1:3">
+    <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="2"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="15" t="s">
+      <c r="B131" s="11"/>
+      <c r="C131" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" ht="18" spans="1:3">
+    <row r="132" ht="17.6" spans="1:3">
       <c r="A132" s="2"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="15" t="s">
+      <c r="B132" s="11"/>
+      <c r="C132" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" ht="18" spans="1:3">
+    <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="2"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="15" t="s">
+      <c r="B133" s="11"/>
+      <c r="C133" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" ht="18" spans="1:3">
+    <row r="134" ht="17.6" spans="1:3">
       <c r="A134" s="2"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="15" t="s">
+      <c r="B134" s="11"/>
+      <c r="C134" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:3">
+    <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="2"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="15" t="s">
+      <c r="B135" s="11"/>
+      <c r="C135" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" ht="18" spans="1:3">
+    <row r="136" ht="17.6" spans="1:3">
       <c r="A136" s="2"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="15" t="s">
+      <c r="B136" s="11"/>
+      <c r="C136" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:3">
+    <row r="137" ht="17.6" spans="1:3">
       <c r="A137" s="2"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="15" t="s">
+      <c r="B137" s="11"/>
+      <c r="C137" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:3">
+    <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="2"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="15" t="s">
+      <c r="B138" s="12"/>
+      <c r="C138" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:3">
+    <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="2">
         <v>20200611</v>
@@ -3261,35 +3259,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" ht="18" spans="1:3">
+    <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" ht="18" spans="1:3">
+    <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" ht="18" spans="1:3">
+    <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" ht="18" spans="1:3">
+    <row r="143" ht="17.6" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" ht="18" spans="1:3">
+    <row r="144" ht="17.6" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>20200606</v>
@@ -3298,21 +3296,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" ht="18" spans="1:3">
+    <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" ht="18" spans="1:3">
+    <row r="146" ht="17.6" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" ht="18" spans="1:3">
+    <row r="147" ht="17.6" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>20200601</v>
@@ -3321,14 +3319,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" ht="18" spans="1:3">
+    <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" ht="18" spans="1:3">
+    <row r="149" ht="17.6" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>20200402</v>
@@ -3337,39 +3335,39 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="18" spans="1:3">
+    <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" ht="18" spans="1:3">
+    <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="2">
         <v>2018</v>
       </c>
       <c r="B151" s="2">
         <v>20181120</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:3">
+    <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:3">
+    <row r="153" ht="17.6" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" ht="18" spans="1:3">
+    <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>20181020</v>
@@ -3378,21 +3376,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="18" spans="1:3">
+    <row r="155" ht="17.6" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" ht="18" spans="1:3">
+    <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" ht="18" spans="1:3">
+    <row r="157" ht="17.6" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>20181018</v>
@@ -3401,21 +3399,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" ht="18" spans="1:3">
+    <row r="158" ht="17.6" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" ht="18" spans="1:3">
+    <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:3">
+    <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
         <v>20180907</v>
@@ -3424,14 +3422,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:3">
+    <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" ht="18" spans="1:3">
+    <row r="162" ht="17.6" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>20180906</v>
@@ -3440,14 +3438,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:3">
+    <row r="163" ht="17.6" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:3">
+    <row r="164" ht="17.6" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
         <v>20180822</v>
@@ -3456,21 +3454,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="18" spans="1:3">
+    <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" ht="18" spans="1:3">
+    <row r="166" ht="17.6" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:3">
+    <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
         <v>20180808</v>
@@ -3479,14 +3477,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="18" spans="1:3">
+    <row r="168" ht="17.6" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" ht="21.75" spans="1:3">
+    <row r="169" ht="22" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2">
         <v>20180801</v>
@@ -3495,7 +3493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="170" ht="18" spans="1:3">
+    <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
         <v>20180730</v>
@@ -3504,42 +3502,42 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" ht="18" spans="1:3">
+    <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" ht="18" spans="1:3">
+    <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="18" spans="1:3">
+    <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:3">
+    <row r="174" ht="17.6" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:3">
+    <row r="175" ht="17.6" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:3">
+    <row r="176" ht="17.6" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
         <v>20180705</v>
@@ -3548,70 +3546,70 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="18" spans="1:3">
+    <row r="177" ht="17.6" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="18" spans="1:3">
+    <row r="178" ht="17.6" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="18" spans="1:3">
+    <row r="179" ht="17.6" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="18" spans="1:3">
+    <row r="180" ht="17.6" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="18" spans="1:3">
+    <row r="181" ht="17.6" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="18" spans="1:3">
+    <row r="182" ht="17.6" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="18" spans="1:3">
+    <row r="183" ht="17.6" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="18" spans="1:3">
+    <row r="184" ht="17.6" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:3">
+    <row r="185" ht="17.6" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:3">
+    <row r="186" ht="17.6" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>20180613</v>
@@ -3620,28 +3618,28 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:3">
+    <row r="187" ht="17.6" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="15" t="s">
+      <c r="C187" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:3">
+    <row r="188" ht="17.6" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:3">
+    <row r="189" ht="17.6" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="21.75" spans="1:3">
+    <row r="190" ht="22" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
         <v>20180427</v>
@@ -3650,7 +3648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="18" spans="1:3">
+    <row r="191" ht="17.6" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>20180426</v>
@@ -3659,135 +3657,135 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="18" spans="1:3">
+    <row r="192" ht="17.6" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="18" spans="1:3">
+    <row r="193" ht="17.6" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="18" spans="1:3">
+    <row r="194" ht="17.6" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" ht="18" spans="1:3">
+    <row r="195" ht="17.6" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196" ht="18" spans="1:3">
+    <row r="196" ht="17.6" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="197" ht="18" spans="1:3">
+    <row r="197" ht="17.6" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="198" ht="18" spans="1:3">
+    <row r="198" ht="17.6" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" ht="18" spans="1:3">
+    <row r="199" ht="17.6" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="200" ht="18" spans="1:3">
+    <row r="200" ht="17.6" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" ht="18" spans="1:3">
+    <row r="201" ht="17.6" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202" ht="18" spans="1:3">
+    <row r="202" ht="17.6" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="203" ht="18" spans="1:3">
+    <row r="203" ht="17.6" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="15" t="s">
+      <c r="C203" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="204" ht="18" spans="1:3">
+    <row r="204" ht="17.6" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="205" ht="18" spans="1:3">
+    <row r="205" ht="17.6" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" ht="18" spans="1:3">
+    <row r="206" ht="17.6" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="207" ht="18" spans="1:3">
+    <row r="207" ht="17.6" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="208" ht="18" spans="1:3">
+    <row r="208" ht="17.6" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2">
         <v>20180217</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="209" ht="18" spans="1:3">
+    <row r="209" ht="17.6" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" ht="18" spans="1:3">
+    <row r="210" ht="17.6" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2">
         <v>20180125</v>
@@ -3796,67 +3794,67 @@
         <v>202</v>
       </c>
     </row>
-    <row r="211" ht="18" spans="1:3">
+    <row r="211" ht="17.6" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="212" ht="18" spans="1:3">
+    <row r="212" ht="17.6" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" ht="18" spans="1:3">
+    <row r="213" ht="17.6" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="214" ht="18" spans="1:3">
+    <row r="214" ht="17.6" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" ht="18" spans="1:3">
+    <row r="215" ht="17.6" spans="1:3">
       <c r="A215" s="2">
         <v>2017</v>
       </c>
       <c r="B215" s="2">
         <v>20171220</v>
       </c>
-      <c r="C215" s="15" t="s">
+      <c r="C215" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" ht="18" spans="1:3">
+    <row r="216" ht="17.6" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="217" ht="18" spans="1:3">
+    <row r="217" ht="17.6" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" ht="18" spans="1:3">
+    <row r="218" ht="17.6" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" ht="18" spans="1:3">
+    <row r="219" ht="17.6" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
         <v>20171128</v>
@@ -3865,72 +3863,72 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" ht="18" spans="1:3">
+    <row r="220" ht="17.6" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:3">
+    <row r="221" ht="17.6" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" ht="18" spans="1:3">
+    <row r="222" ht="17.6" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" ht="18" spans="1:3">
+    <row r="223" ht="17.6" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="224" ht="18" spans="1:3">
+    <row r="224" ht="17.6" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="225" ht="18" spans="1:3">
+    <row r="225" ht="17.6" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" ht="18" spans="1:3">
+    <row r="226" ht="17.6" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="15" t="s">
+      <c r="C226" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" ht="18" spans="1:3">
+    <row r="227" ht="17.6" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2">
         <v>20170925</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="228" ht="18" spans="1:3">
+    <row r="228" ht="17.6" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" ht="18" spans="1:3">
+    <row r="229" ht="17.6" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2">
         <v>20170912</v>
@@ -3939,21 +3937,21 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" ht="18" spans="1:3">
+    <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" ht="18" spans="1:3">
+    <row r="231" ht="17.6" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" ht="18" spans="1:3">
+    <row r="232" ht="17.6" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="2">
         <v>20170716</v>
@@ -3962,42 +3960,42 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" ht="18" spans="1:3">
+    <row r="233" ht="17.6" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" ht="18" spans="1:3">
+    <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" ht="18" spans="1:3">
+    <row r="235" ht="17.6" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" ht="18" spans="1:3">
+    <row r="236" ht="17.6" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:3">
+    <row r="237" ht="17.6" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" ht="18" spans="1:3">
+    <row r="238" ht="17.6" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
         <v>20170613</v>
@@ -4006,49 +4004,49 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" ht="18" spans="1:3">
+    <row r="239" ht="17.6" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" ht="18" spans="1:3">
+    <row r="240" ht="17.6" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="241" ht="18" spans="1:3">
+    <row r="241" ht="17.6" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="242" ht="18" spans="1:3">
+    <row r="242" ht="17.6" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="243" ht="18" spans="1:3">
+    <row r="243" ht="17.6" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
-      <c r="C243" s="15" t="s">
+      <c r="C243" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="244" ht="18" spans="1:3">
+    <row r="244" ht="17.6" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="245" ht="21.75" spans="1:3">
+    <row r="245" ht="22" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="2">
         <v>20170503</v>
@@ -4057,7 +4055,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="246" ht="21.75" spans="1:3">
+    <row r="246" ht="22" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
         <v>20170412</v>
@@ -4066,7 +4064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:3">
+    <row r="247" ht="17.6" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="2">
         <v>20170411</v>
@@ -4075,72 +4073,72 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" ht="18" spans="1:3">
+    <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="249" ht="18" spans="1:3">
+    <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="250" ht="18" spans="1:3">
+    <row r="250" ht="17.6" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="251" ht="18" spans="1:3">
+    <row r="251" ht="17.6" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
         <v>20170318</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="252" ht="18" spans="1:3">
+    <row r="252" ht="17.6" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="253" ht="18" spans="1:3">
+    <row r="253" ht="17.6" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="254" ht="18" spans="1:3">
+    <row r="254" ht="17.6" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" ht="18" spans="1:3">
+    <row r="255" ht="17.6" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="256" ht="18" spans="1:3">
+    <row r="256" ht="17.6" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" ht="21.75" spans="1:3">
+    <row r="257" ht="22" spans="1:3">
       <c r="A257" s="2">
         <v>2016</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" ht="21.75" spans="1:3">
+    <row r="258" ht="22" spans="1:3">
       <c r="A258" s="2"/>
       <c r="B258" s="2">
         <v>20160420</v>
@@ -4160,7 +4158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="259" ht="18" spans="1:3">
+    <row r="259" ht="17.6" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="2">
         <v>20160415</v>
@@ -4169,42 +4167,42 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" ht="18" spans="1:3">
+    <row r="260" ht="17.6" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" ht="18" spans="1:3">
+    <row r="261" ht="17.6" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="262" ht="18" spans="1:3">
+    <row r="262" ht="17.6" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" ht="18" spans="1:3">
+    <row r="263" ht="17.6" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" ht="18" spans="1:3">
+    <row r="264" ht="17.6" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" ht="21.75" spans="1:3">
+    <row r="265" ht="22" spans="1:3">
       <c r="A265" s="2"/>
       <c r="B265" s="2">
         <v>20160111</v>
@@ -4213,7 +4211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" ht="18" spans="1:3">
+    <row r="266" ht="17.6" spans="1:3">
       <c r="A266" s="2">
         <v>2015</v>
       </c>
@@ -4224,35 +4222,35 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" ht="18" spans="1:3">
+    <row r="267" ht="17.6" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="268" ht="18" spans="1:3">
+    <row r="268" ht="17.6" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" ht="18" spans="1:3">
+    <row r="269" ht="17.6" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" ht="18" spans="1:3">
+    <row r="270" ht="17.6" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" ht="18" spans="1:3">
+    <row r="271" ht="17.6" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="2">
         <v>20151104</v>
@@ -4261,28 +4259,28 @@
         <v>262</v>
       </c>
     </row>
-    <row r="272" ht="18" spans="1:3">
+    <row r="272" ht="17.6" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" ht="18" spans="1:3">
+    <row r="273" ht="17.6" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="274" ht="18" spans="1:3">
+    <row r="274" ht="17.6" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="275" ht="18" spans="1:3">
+    <row r="275" ht="17.6" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
         <v>20150807</v>
@@ -4291,72 +4289,72 @@
         <v>265</v>
       </c>
     </row>
-    <row r="276" ht="18" spans="1:3">
+    <row r="276" ht="17.6" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="277" ht="18" spans="1:3">
+    <row r="277" ht="17.6" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="278" ht="18" spans="1:3">
+    <row r="278" ht="17.6" spans="1:3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="279" ht="18" spans="1:3">
+    <row r="279" ht="17.6" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="280" ht="18" spans="1:3">
+    <row r="280" ht="17.6" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="281" ht="18" spans="1:3">
+    <row r="281" ht="17.6" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" ht="18" spans="1:3">
+    <row r="282" ht="17.6" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="283" ht="18" spans="1:3">
+    <row r="283" ht="17.6" spans="1:3">
       <c r="A283" s="2"/>
       <c r="B283" s="2">
         <v>20150303</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="284" ht="18" spans="1:3">
+    <row r="284" ht="17.6" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="285" ht="18" spans="1:3">
+    <row r="285" ht="17.6" spans="1:3">
       <c r="A285" s="2">
         <v>2014</v>
       </c>
@@ -4367,21 +4365,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="286" ht="18" spans="1:3">
+    <row r="286" ht="17.6" spans="1:3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="287" ht="18" spans="1:3">
+    <row r="287" ht="17.6" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="288" ht="18" spans="1:3">
+    <row r="288" ht="17.6" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="2">
         <v>20141120</v>
@@ -4390,46 +4388,46 @@
         <v>278</v>
       </c>
     </row>
-    <row r="289" ht="18" spans="1:3">
+    <row r="289" ht="17.6" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="290" ht="18" spans="1:3">
+    <row r="290" ht="17.6" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="291" ht="18" spans="1:3">
+    <row r="291" ht="17.6" spans="1:3">
       <c r="A291" s="2">
         <v>2013</v>
       </c>
       <c r="B291" s="2">
         <v>20131206</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="292" ht="18" spans="1:3">
+    <row r="292" ht="17.6" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="293" ht="18" spans="1:3">
+    <row r="293" ht="17.6" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="294" ht="18" spans="1:3">
+    <row r="294" ht="17.6" spans="1:3">
       <c r="A294" s="2"/>
       <c r="B294" s="2">
         <v>20130807</v>
@@ -4438,30 +4436,30 @@
         <v>284</v>
       </c>
     </row>
-    <row r="295" ht="18" spans="1:3">
+    <row r="295" ht="17.6" spans="1:3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="296" ht="18" spans="1:3">
+    <row r="296" ht="17.6" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="297" ht="18" spans="1:3">
+    <row r="297" ht="17.6" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2">
         <v>20130722</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="C297" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="298" ht="18" spans="1:3">
+    <row r="298" ht="17.6" spans="1:3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4" t="s">
@@ -4473,57 +4471,57 @@
       <c r="B299" s="2">
         <v>20130618</v>
       </c>
-      <c r="C299" s="16" t="s">
+      <c r="C299" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="300" ht="18" spans="1:3">
+    <row r="300" ht="17.6" spans="1:3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="301" ht="18" spans="1:3">
+    <row r="301" ht="17.6" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="302" ht="18" spans="1:3">
+    <row r="302" ht="17.6" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2">
         <v>20130607</v>
       </c>
-      <c r="C302" s="15" t="s">
+      <c r="C302" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="303" ht="18" spans="1:3">
+    <row r="303" ht="17.6" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="304" ht="18" spans="1:3">
+    <row r="304" ht="17.6" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="305" ht="21.75" spans="1:3">
+    <row r="305" ht="22" spans="1:3">
       <c r="A305" s="2"/>
       <c r="B305" s="2">
         <v>20130417</v>
       </c>
-      <c r="C305" s="16" t="s">
+      <c r="C305" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="306" ht="18" spans="1:3">
+    <row r="306" ht="17.6" spans="1:3">
       <c r="A306" s="2">
         <v>2012</v>
       </c>
@@ -4534,14 +4532,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="307" ht="18" spans="1:3">
+    <row r="307" ht="17.6" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="15" t="s">
+      <c r="C307" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="308" ht="18" spans="1:3">
+    <row r="308" ht="17.6" spans="1:3">
       <c r="A308" s="2">
         <v>2011</v>
       </c>
@@ -4552,113 +4550,113 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" ht="18" spans="1:3">
+    <row r="309" ht="17.6" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="310" ht="18" spans="1:3">
+    <row r="310" ht="17.6" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="311" ht="18" spans="1:3">
+    <row r="311" ht="17.6" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="312" ht="18" spans="1:3">
+    <row r="312" ht="17.6" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="313" ht="18" spans="1:3">
+    <row r="313" ht="17.6" spans="1:3">
       <c r="A313" s="2">
         <v>2010</v>
       </c>
       <c r="B313" s="2">
         <v>20101013</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="C313" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="314" ht="18" spans="1:3">
+    <row r="314" ht="17.6" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="15" t="s">
+      <c r="C314" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="315" ht="18" spans="1:3">
+    <row r="315" ht="17.6" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="316" ht="18" spans="1:3">
+    <row r="316" ht="17.6" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="15" t="s">
+      <c r="C316" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="317" ht="18" spans="1:3">
+    <row r="317" ht="17.6" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="15" t="s">
+      <c r="C317" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="318" ht="18" spans="1:3">
+    <row r="318" ht="17.6" spans="1:3">
       <c r="A318" s="2">
         <v>2009</v>
       </c>
       <c r="B318" s="2">
         <v>20091218</v>
       </c>
-      <c r="C318" s="15" t="s">
+      <c r="C318" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="319" ht="18" spans="1:3">
+    <row r="319" ht="17.6" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="15" t="s">
+      <c r="C319" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="320" ht="18" spans="1:3">
+    <row r="320" ht="17.6" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="15" t="s">
+      <c r="C320" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="321" ht="18" spans="1:3">
+    <row r="321" ht="17.6" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="15" t="s">
+      <c r="C321" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="322" ht="18" spans="1:3">
+    <row r="322" ht="17.6" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="323" ht="18" spans="1:3">
+    <row r="323" ht="17.6" spans="1:3">
       <c r="A323" s="2"/>
       <c r="B323" s="2">
         <v>20090827</v>
@@ -4667,83 +4665,83 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" ht="18" spans="1:3">
+    <row r="324" ht="17.6" spans="1:3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="15" t="s">
+      <c r="C324" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="325" ht="18" spans="1:3">
+    <row r="325" ht="17.6" spans="1:3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="326" ht="18" spans="1:3">
+    <row r="326" ht="17.6" spans="1:3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
-      <c r="C326" s="15" t="s">
+      <c r="C326" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="327" ht="21.75" spans="1:3">
+    <row r="327" ht="22" spans="1:3">
       <c r="A327" s="2"/>
       <c r="B327" s="2">
         <v>20090731</v>
       </c>
-      <c r="C327" s="17" t="s">
+      <c r="C327" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="328" ht="18" spans="1:3">
+    <row r="328" ht="17.6" spans="1:3">
       <c r="A328" s="2"/>
       <c r="B328" s="2">
         <v>20090723</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="329" ht="18" spans="1:3">
+    <row r="329" ht="17.6" spans="1:3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="15" t="s">
+      <c r="C329" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="330" ht="18" spans="1:3">
+    <row r="330" ht="17.6" spans="1:3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="15" t="s">
+      <c r="C330" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="331" ht="18" spans="1:3">
+    <row r="331" ht="17.6" spans="1:3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
-      <c r="C331" s="15" t="s">
+      <c r="C331" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="332" ht="18" spans="1:3">
+    <row r="332" ht="17.6" spans="1:3">
       <c r="A332" s="2"/>
       <c r="B332" s="2">
         <v>20090705</v>
       </c>
-      <c r="C332" s="15" t="s">
+      <c r="C332" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="333" ht="18" spans="1:3">
+    <row r="333" ht="17.6" spans="1:3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="15" t="s">
+      <c r="C333" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="334" ht="18" spans="1:3">
+    <row r="334" ht="17.6" spans="1:3">
       <c r="A334" s="2"/>
       <c r="B334" s="2">
         <v>20090620</v>
@@ -4752,7 +4750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="335" ht="18" spans="1:3">
+    <row r="335" ht="17.6" spans="1:3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="4" t="s">
@@ -4851,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4859,7 +4857,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4868,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4876,7 +4874,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
   <si>
     <t>图画通识丛书：本雅明</t>
   </si>
@@ -1106,8 +1106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1162,15 +1162,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,10 +1192,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,6 +1214,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1207,7 +1246,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1222,9 +1261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,37 +1291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,30 +1299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,7 +1315,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,7 +1447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,157 +1483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,24 +1561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1589,21 +1571,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1626,20 +1593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,153 +1614,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,54 +1857,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2200,44 +2200,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:C335"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07692307692308"/>
-    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="87.3076923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.075"/>
+    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
+    <col min="3" max="3" width="87.3083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="22" spans="1:3">
+    <row r="2" ht="21.75" spans="1:3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="22" spans="1:3">
+    <row r="3" ht="21.75" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="22" spans="1:3">
+    <row r="4" ht="21.75" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="22" spans="1:3">
+    <row r="5" ht="21.75" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="17.6" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>20210623</v>
@@ -2246,28 +2246,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:3">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="17.6" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
@@ -2281,14 +2281,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:3">
+    <row r="12" ht="18" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:3">
+    <row r="13" ht="18" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>20210621</v>
@@ -2297,14 +2297,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
@@ -2318,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:3">
+    <row r="17" ht="18" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
         <v>20210601</v>
@@ -2327,56 +2327,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:3">
+    <row r="18" ht="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" ht="18" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:3">
+    <row r="20" ht="18" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:3">
+    <row r="21" ht="18" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:3">
+    <row r="22" ht="18" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:3">
+    <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:3">
+    <row r="24" ht="18" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="22" spans="1:3">
+    <row r="25" ht="21.75" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>20210527</v>
@@ -2385,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="22" spans="1:3">
+    <row r="26" ht="21.75" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
         <v>20210518</v>
@@ -2394,7 +2394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="22" spans="1:3">
+    <row r="27" ht="21.75" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>20210515</v>
@@ -2403,7 +2403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:3">
+    <row r="28" ht="18" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="10">
         <v>20210420</v>
@@ -2412,35 +2412,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:3">
+    <row r="29" ht="18" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:3">
+    <row r="30" ht="18" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:3">
+    <row r="31" ht="18" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="11"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:3">
+    <row r="32" ht="18" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="22" spans="1:3">
+    <row r="33" ht="21.75" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>20210416</v>
@@ -2449,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="22" spans="1:3">
+    <row r="34" ht="21.75" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>20210414</v>
@@ -2458,7 +2458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="1:3">
+    <row r="35" ht="18" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>20210408</v>
@@ -2467,49 +2467,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:3">
+    <row r="36" ht="18" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:3">
+    <row r="37" ht="18" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:3">
+    <row r="38" ht="18" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:3">
+    <row r="39" ht="18" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="1:3">
+    <row r="40" ht="18" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:3">
+    <row r="41" ht="18" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:3">
+    <row r="42" ht="18" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>20210407</v>
@@ -2518,42 +2518,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:3">
+    <row r="43" ht="18" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:3">
+    <row r="44" ht="18" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:3">
+    <row r="45" ht="18" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:3">
+    <row r="46" ht="18" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:3">
+    <row r="47" ht="18" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" ht="22" spans="1:3">
+    <row r="48" ht="21.75" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>20210406</v>
@@ -2562,7 +2562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:3">
+    <row r="49" ht="18" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>20210321</v>
@@ -2571,28 +2571,28 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:3">
+    <row r="50" ht="18" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:3">
+    <row r="51" ht="18" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:3">
+    <row r="52" ht="18" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" ht="22" spans="1:3">
+    <row r="53" ht="21.75" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>20210320</v>
@@ -2601,7 +2601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" ht="17.6" spans="1:3">
+    <row r="54" ht="18" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>20210316</v>
@@ -2610,21 +2610,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="1:3">
+    <row r="55" ht="18" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:3">
+    <row r="56" ht="18" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="22" spans="1:3">
+    <row r="57" ht="21.75" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>20210313</v>
@@ -2633,7 +2633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="1:3">
+    <row r="58" ht="18" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>20210302</v>
@@ -2642,14 +2642,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="1:3">
+    <row r="59" ht="18" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" ht="22" spans="1:3">
+    <row r="60" ht="21.75" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>20210227</v>
@@ -2658,7 +2658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" ht="17.6" spans="1:3">
+    <row r="61" ht="18" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>20210220</v>
@@ -2667,63 +2667,63 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" ht="17.6" spans="1:3">
+    <row r="62" ht="18" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="17.6" spans="1:3">
+    <row r="63" ht="18" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" ht="17.6" spans="1:3">
+    <row r="64" ht="18" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="1:3">
+    <row r="65" ht="18" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" ht="17.6" spans="1:3">
+    <row r="66" ht="18" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" ht="17.6" spans="1:3">
+    <row r="67" ht="18" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" ht="17.6" spans="1:3">
+    <row r="68" ht="18" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="17.6" spans="1:3">
+    <row r="69" ht="18" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" ht="17.6" spans="1:3">
+    <row r="70" ht="18" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>20210206</v>
@@ -2732,28 +2732,28 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="17.6" spans="1:3">
+    <row r="71" ht="18" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="17.6" spans="1:3">
+    <row r="72" ht="18" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" ht="17.6" spans="1:3">
+    <row r="73" ht="18" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" ht="17.6" spans="1:3">
+    <row r="74" ht="18" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="10">
         <v>20210111</v>
@@ -2762,70 +2762,70 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" ht="17.6" spans="1:3">
+    <row r="75" ht="18" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="11"/>
       <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" ht="17.6" spans="1:3">
+    <row r="76" ht="18" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="11"/>
       <c r="C76" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" ht="17.6" spans="1:3">
+    <row r="77" ht="18" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="11"/>
       <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="17.6" spans="1:3">
+    <row r="78" ht="18" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="11"/>
       <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" ht="17.6" spans="1:3">
+    <row r="79" ht="18" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="11"/>
       <c r="C79" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" ht="17.6" spans="1:3">
+    <row r="80" ht="18" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="11"/>
       <c r="C80" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" ht="17.6" spans="1:3">
+    <row r="81" ht="18" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="11"/>
       <c r="C81" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" ht="17.6" spans="1:3">
+    <row r="82" ht="18" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="11"/>
       <c r="C82" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" ht="17.6" spans="1:3">
+    <row r="83" ht="18" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="12"/>
       <c r="C83" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" ht="17.6" spans="1:3">
+    <row r="84" ht="18" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="10">
         <v>20210106</v>
@@ -2834,28 +2834,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" ht="17.6" spans="1:3">
+    <row r="85" ht="18" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="11"/>
       <c r="C85" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" ht="17.6" spans="1:3">
+    <row r="86" ht="18" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="11"/>
       <c r="C86" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" ht="17.6" spans="1:3">
+    <row r="87" ht="18" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="12"/>
       <c r="C87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" ht="17.6" spans="1:3">
+    <row r="88" ht="18" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>20210101</v>
@@ -2864,14 +2864,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" ht="17.6" spans="1:3">
+    <row r="89" ht="18" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" ht="22" spans="1:3">
+    <row r="90" ht="21.75" spans="1:3">
       <c r="A90" s="2">
         <v>2020</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" ht="17.6" spans="1:3">
+    <row r="91" ht="18" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>20201225</v>
@@ -2891,21 +2891,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" ht="17.6" spans="1:3">
+    <row r="92" ht="18" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" ht="17.6" spans="1:3">
+    <row r="93" ht="18" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" ht="17.6" spans="1:3">
+    <row r="94" ht="18" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>20201210</v>
@@ -2914,14 +2914,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" ht="17.6" spans="1:3">
+    <row r="95" ht="18" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" ht="17.6" spans="1:3">
+    <row r="96" ht="18" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>20201127</v>
@@ -2930,28 +2930,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" ht="17.6" spans="1:3">
+    <row r="97" ht="18" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="17.6" spans="1:3">
+    <row r="98" ht="18" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" ht="17.6" spans="1:3">
+    <row r="99" ht="18" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" ht="17.6" spans="1:3">
+    <row r="100" ht="18" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>20201125</v>
@@ -2960,14 +2960,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" ht="17.6" spans="1:3">
+    <row r="101" ht="18" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" ht="17.6" spans="1:3">
+    <row r="102" ht="18" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>20201123</v>
@@ -2976,14 +2976,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" ht="17.6" spans="1:3">
+    <row r="103" ht="18" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" ht="22" spans="1:3">
+    <row r="104" ht="21.75" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>20201109</v>
@@ -2992,7 +2992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" ht="22" spans="1:3">
+    <row r="105" ht="21.75" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>20201103</v>
@@ -3001,7 +3001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" ht="17.6" spans="1:3">
+    <row r="106" ht="18" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>20200919</v>
@@ -3010,28 +3010,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" ht="17.6" spans="1:3">
+    <row r="107" ht="18" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="17.6" spans="1:3">
+    <row r="108" ht="18" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" ht="17.6" spans="1:3">
+    <row r="109" ht="18" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="17.6" spans="1:3">
+    <row r="110" ht="18" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="2">
         <v>20200912</v>
@@ -3040,21 +3040,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" ht="17.6" spans="1:3">
+    <row r="111" ht="18" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" ht="17.6" spans="1:3">
+    <row r="112" ht="18" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" ht="22" spans="1:3">
+    <row r="113" ht="21.75" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>20200910</v>
@@ -3072,56 +3072,56 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" ht="17.6" spans="1:3">
+    <row r="115" ht="18" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" ht="17.6" spans="1:3">
+    <row r="116" ht="18" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="17.6" spans="1:3">
+    <row r="117" ht="18" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" ht="17.6" spans="1:3">
+    <row r="118" ht="18" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" ht="17.6" spans="1:3">
+    <row r="119" ht="18" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" ht="17.6" spans="1:3">
+    <row r="120" ht="18" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="17.6" spans="1:3">
+    <row r="121" ht="18" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="17.6" spans="1:3">
+    <row r="122" ht="18" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <v>20200827</v>
@@ -3130,14 +3130,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" ht="17.6" spans="1:3">
+    <row r="123" ht="18" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" ht="17.6" spans="1:3">
+    <row r="124" ht="18" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
         <v>20200806</v>
@@ -3146,21 +3146,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" ht="17.6" spans="1:3">
+    <row r="125" ht="18" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" ht="17.6" spans="1:3">
+    <row r="126" ht="18" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="22" spans="1:3">
+    <row r="127" ht="21.75" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
         <v>20200804</v>
@@ -3169,7 +3169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" ht="22" spans="1:3">
+    <row r="128" ht="21.75" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
         <v>20200703</v>
@@ -3178,7 +3178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" ht="17.6" spans="1:3">
+    <row r="129" ht="18" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129" s="10">
         <v>20200627</v>
@@ -3187,70 +3187,70 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" ht="17.6" spans="1:3">
+    <row r="130" ht="18" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" ht="17.6" spans="1:3">
+    <row r="131" ht="18" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" ht="17.6" spans="1:3">
+    <row r="132" ht="18" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" ht="17.6" spans="1:3">
+    <row r="133" ht="18" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" ht="17.6" spans="1:3">
+    <row r="134" ht="18" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="11"/>
       <c r="C134" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" ht="17.6" spans="1:3">
+    <row r="135" ht="18" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="11"/>
       <c r="C135" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" ht="17.6" spans="1:3">
+    <row r="136" ht="18" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="11"/>
       <c r="C136" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" ht="17.6" spans="1:3">
+    <row r="137" ht="18" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" ht="17.6" spans="1:3">
+    <row r="138" ht="18" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="12"/>
       <c r="C138" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" ht="17.6" spans="1:3">
+    <row r="139" ht="18" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="2">
         <v>20200611</v>
@@ -3259,35 +3259,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" ht="17.6" spans="1:3">
+    <row r="140" ht="18" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" ht="17.6" spans="1:3">
+    <row r="141" ht="18" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" ht="17.6" spans="1:3">
+    <row r="142" ht="18" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" ht="17.6" spans="1:3">
+    <row r="143" ht="18" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" ht="17.6" spans="1:3">
+    <row r="144" ht="18" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>20200606</v>
@@ -3296,21 +3296,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" ht="17.6" spans="1:3">
+    <row r="145" ht="18" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
+    <row r="146" ht="18" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" ht="17.6" spans="1:3">
+    <row r="147" ht="18" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>20200601</v>
@@ -3319,14 +3319,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" ht="17.6" spans="1:3">
+    <row r="148" ht="18" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" ht="17.6" spans="1:3">
+    <row r="149" ht="18" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>20200402</v>
@@ -3335,14 +3335,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="17.6" spans="1:3">
+    <row r="150" ht="18" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" ht="17.6" spans="1:3">
+    <row r="151" ht="18" spans="1:3">
       <c r="A151" s="2">
         <v>2018</v>
       </c>
@@ -3353,21 +3353,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" ht="17.6" spans="1:3">
+    <row r="152" ht="18" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" ht="17.6" spans="1:3">
+    <row r="153" ht="18" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" ht="17.6" spans="1:3">
+    <row r="154" ht="18" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>20181020</v>
@@ -3376,21 +3376,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="17.6" spans="1:3">
+    <row r="155" ht="18" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" ht="17.6" spans="1:3">
+    <row r="156" ht="18" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" ht="17.6" spans="1:3">
+    <row r="157" ht="18" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>20181018</v>
@@ -3399,21 +3399,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" ht="17.6" spans="1:3">
+    <row r="158" ht="18" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" ht="17.6" spans="1:3">
+    <row r="159" ht="18" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="17.6" spans="1:3">
+    <row r="160" ht="18" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
         <v>20180907</v>
@@ -3422,14 +3422,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" ht="17.6" spans="1:3">
+    <row r="161" ht="18" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" ht="17.6" spans="1:3">
+    <row r="162" ht="18" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>20180906</v>
@@ -3438,14 +3438,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" ht="17.6" spans="1:3">
+    <row r="163" ht="18" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="164" ht="17.6" spans="1:3">
+    <row r="164" ht="18" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
         <v>20180822</v>
@@ -3454,21 +3454,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="17.6" spans="1:3">
+    <row r="165" ht="18" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" ht="17.6" spans="1:3">
+    <row r="166" ht="18" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="17.6" spans="1:3">
+    <row r="167" ht="18" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
         <v>20180808</v>
@@ -3477,14 +3477,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="17.6" spans="1:3">
+    <row r="168" ht="18" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" ht="22" spans="1:3">
+    <row r="169" ht="21.75" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2">
         <v>20180801</v>
@@ -3493,7 +3493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="170" ht="17.6" spans="1:3">
+    <row r="170" ht="18" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
         <v>20180730</v>
@@ -3502,42 +3502,42 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" ht="17.6" spans="1:3">
+    <row r="171" ht="18" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" ht="17.6" spans="1:3">
+    <row r="172" ht="18" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="17.6" spans="1:3">
+    <row r="173" ht="18" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="174" ht="17.6" spans="1:3">
+    <row r="174" ht="18" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="17.6" spans="1:3">
+    <row r="175" ht="18" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="17.6" spans="1:3">
+    <row r="176" ht="18" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
         <v>20180705</v>
@@ -3546,70 +3546,70 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="17.6" spans="1:3">
+    <row r="177" ht="18" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="17.6" spans="1:3">
+    <row r="178" ht="18" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="17.6" spans="1:3">
+    <row r="179" ht="18" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="17.6" spans="1:3">
+    <row r="180" ht="18" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="17.6" spans="1:3">
+    <row r="181" ht="18" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="17.6" spans="1:3">
+    <row r="182" ht="18" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="17.6" spans="1:3">
+    <row r="183" ht="18" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="17.6" spans="1:3">
+    <row r="184" ht="18" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="17.6" spans="1:3">
+    <row r="185" ht="18" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
+    <row r="186" ht="18" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>20180613</v>
@@ -3618,28 +3618,28 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="17.6" spans="1:3">
+    <row r="187" ht="18" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="17.6" spans="1:3">
+    <row r="188" ht="18" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="17.6" spans="1:3">
+    <row r="189" ht="18" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="22" spans="1:3">
+    <row r="190" ht="21.75" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
         <v>20180427</v>
@@ -3648,7 +3648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="17.6" spans="1:3">
+    <row r="191" ht="18" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>20180426</v>
@@ -3657,119 +3657,119 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="17.6" spans="1:3">
+    <row r="192" ht="18" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="17.6" spans="1:3">
+    <row r="193" ht="18" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="17.6" spans="1:3">
+    <row r="194" ht="18" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" ht="17.6" spans="1:3">
+    <row r="195" ht="18" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196" ht="17.6" spans="1:3">
+    <row r="196" ht="18" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="197" ht="17.6" spans="1:3">
+    <row r="197" ht="18" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="198" ht="17.6" spans="1:3">
+    <row r="198" ht="18" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" ht="17.6" spans="1:3">
+    <row r="199" ht="18" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="200" ht="17.6" spans="1:3">
+    <row r="200" ht="18" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" ht="17.6" spans="1:3">
+    <row r="201" ht="18" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202" ht="17.6" spans="1:3">
+    <row r="202" ht="18" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="203" ht="17.6" spans="1:3">
+    <row r="203" ht="18" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="204" ht="17.6" spans="1:3">
+    <row r="204" ht="18" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="205" ht="17.6" spans="1:3">
+    <row r="205" ht="18" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" ht="17.6" spans="1:3">
+    <row r="206" ht="18" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="207" ht="17.6" spans="1:3">
+    <row r="207" ht="18" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="208" ht="17.6" spans="1:3">
+    <row r="208" ht="18" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2">
         <v>20180217</v>
@@ -3778,14 +3778,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" ht="17.6" spans="1:3">
+    <row r="209" ht="18" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" ht="17.6" spans="1:3">
+    <row r="210" ht="18" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2">
         <v>20180125</v>
@@ -3794,35 +3794,35 @@
         <v>202</v>
       </c>
     </row>
-    <row r="211" ht="17.6" spans="1:3">
+    <row r="211" ht="18" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="212" ht="17.6" spans="1:3">
+    <row r="212" ht="18" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" ht="17.6" spans="1:3">
+    <row r="213" ht="18" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="214" ht="17.6" spans="1:3">
+    <row r="214" ht="18" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" ht="17.6" spans="1:3">
+    <row r="215" ht="18" spans="1:3">
       <c r="A215" s="2">
         <v>2017</v>
       </c>
@@ -3833,28 +3833,28 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" ht="17.6" spans="1:3">
+    <row r="216" ht="18" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="217" ht="17.6" spans="1:3">
+    <row r="217" ht="18" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" ht="17.6" spans="1:3">
+    <row r="218" ht="18" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" ht="17.6" spans="1:3">
+    <row r="219" ht="18" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
         <v>20171128</v>
@@ -3863,56 +3863,56 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" ht="17.6" spans="1:3">
+    <row r="220" ht="18" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" ht="17.6" spans="1:3">
+    <row r="221" ht="18" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
+    <row r="222" ht="18" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" ht="17.6" spans="1:3">
+    <row r="223" ht="18" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="224" ht="17.6" spans="1:3">
+    <row r="224" ht="18" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="225" ht="17.6" spans="1:3">
+    <row r="225" ht="18" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" ht="17.6" spans="1:3">
+    <row r="226" ht="18" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" ht="17.6" spans="1:3">
+    <row r="227" ht="18" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2">
         <v>20170925</v>
@@ -3921,14 +3921,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" ht="17.6" spans="1:3">
+    <row r="228" ht="18" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" ht="17.6" spans="1:3">
+    <row r="229" ht="18" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2">
         <v>20170912</v>
@@ -3937,21 +3937,21 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:3">
+    <row r="230" ht="18" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" ht="17.6" spans="1:3">
+    <row r="231" ht="18" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" ht="17.6" spans="1:3">
+    <row r="232" ht="18" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="2">
         <v>20170716</v>
@@ -3960,42 +3960,42 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" ht="17.6" spans="1:3">
+    <row r="233" ht="18" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" ht="17.6" spans="1:3">
+    <row r="234" ht="18" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" ht="17.6" spans="1:3">
+    <row r="235" ht="18" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" ht="17.6" spans="1:3">
+    <row r="236" ht="18" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="17.6" spans="1:3">
+    <row r="237" ht="18" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:3">
+    <row r="238" ht="18" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
         <v>20170613</v>
@@ -4004,49 +4004,49 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" ht="17.6" spans="1:3">
+    <row r="239" ht="18" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" ht="17.6" spans="1:3">
+    <row r="240" ht="18" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="241" ht="17.6" spans="1:3">
+    <row r="241" ht="18" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="242" ht="17.6" spans="1:3">
+    <row r="242" ht="18" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="243" ht="17.6" spans="1:3">
+    <row r="243" ht="18" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="244" ht="17.6" spans="1:3">
+    <row r="244" ht="18" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="245" ht="22" spans="1:3">
+    <row r="245" ht="21.75" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="2">
         <v>20170503</v>
@@ -4055,7 +4055,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="246" ht="22" spans="1:3">
+    <row r="246" ht="21.75" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
         <v>20170412</v>
@@ -4064,7 +4064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" ht="17.6" spans="1:3">
+    <row r="247" ht="18" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="2">
         <v>20170411</v>
@@ -4073,28 +4073,28 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" ht="17.6" spans="1:3">
+    <row r="248" ht="18" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="249" ht="17.6" spans="1:3">
+    <row r="249" ht="18" spans="1:3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="250" ht="17.6" spans="1:3">
+    <row r="250" ht="18" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="251" ht="17.6" spans="1:3">
+    <row r="251" ht="18" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
         <v>20170318</v>
@@ -4103,42 +4103,42 @@
         <v>242</v>
       </c>
     </row>
-    <row r="252" ht="17.6" spans="1:3">
+    <row r="252" ht="18" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="253" ht="17.6" spans="1:3">
+    <row r="253" ht="18" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="254" ht="17.6" spans="1:3">
+    <row r="254" ht="18" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" ht="17.6" spans="1:3">
+    <row r="255" ht="18" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="256" ht="17.6" spans="1:3">
+    <row r="256" ht="18" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" ht="22" spans="1:3">
+    <row r="257" ht="21.75" spans="1:3">
       <c r="A257" s="2">
         <v>2016</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" ht="22" spans="1:3">
+    <row r="258" ht="21.75" spans="1:3">
       <c r="A258" s="2"/>
       <c r="B258" s="2">
         <v>20160420</v>
@@ -4158,7 +4158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="259" ht="17.6" spans="1:3">
+    <row r="259" ht="18" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="2">
         <v>20160415</v>
@@ -4167,42 +4167,42 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" ht="17.6" spans="1:3">
+    <row r="260" ht="18" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" ht="17.6" spans="1:3">
+    <row r="261" ht="18" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="262" ht="17.6" spans="1:3">
+    <row r="262" ht="18" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" ht="17.6" spans="1:3">
+    <row r="263" ht="18" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" ht="17.6" spans="1:3">
+    <row r="264" ht="18" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" ht="22" spans="1:3">
+    <row r="265" ht="21.75" spans="1:3">
       <c r="A265" s="2"/>
       <c r="B265" s="2">
         <v>20160111</v>
@@ -4211,7 +4211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" ht="17.6" spans="1:3">
+    <row r="266" ht="18" spans="1:3">
       <c r="A266" s="2">
         <v>2015</v>
       </c>
@@ -4222,35 +4222,35 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" ht="17.6" spans="1:3">
+    <row r="267" ht="18" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="268" ht="17.6" spans="1:3">
+    <row r="268" ht="18" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" ht="17.6" spans="1:3">
+    <row r="269" ht="18" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" ht="17.6" spans="1:3">
+    <row r="270" ht="18" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" ht="17.6" spans="1:3">
+    <row r="271" ht="18" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="2">
         <v>20151104</v>
@@ -4259,28 +4259,28 @@
         <v>262</v>
       </c>
     </row>
-    <row r="272" ht="17.6" spans="1:3">
+    <row r="272" ht="18" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" ht="17.6" spans="1:3">
+    <row r="273" ht="18" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="274" ht="17.6" spans="1:3">
+    <row r="274" ht="18" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="275" ht="17.6" spans="1:3">
+    <row r="275" ht="18" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
         <v>20150807</v>
@@ -4289,56 +4289,56 @@
         <v>265</v>
       </c>
     </row>
-    <row r="276" ht="17.6" spans="1:3">
+    <row r="276" ht="18" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="277" ht="17.6" spans="1:3">
+    <row r="277" ht="18" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="278" ht="17.6" spans="1:3">
+    <row r="278" ht="18" spans="1:3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="279" ht="17.6" spans="1:3">
+    <row r="279" ht="18" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="280" ht="17.6" spans="1:3">
+    <row r="280" ht="18" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="281" ht="17.6" spans="1:3">
+    <row r="281" ht="18" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" ht="17.6" spans="1:3">
+    <row r="282" ht="18" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="283" ht="17.6" spans="1:3">
+    <row r="283" ht="18" spans="1:3">
       <c r="A283" s="2"/>
       <c r="B283" s="2">
         <v>20150303</v>
@@ -4347,14 +4347,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="284" ht="17.6" spans="1:3">
+    <row r="284" ht="18" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="285" ht="17.6" spans="1:3">
+    <row r="285" ht="18" spans="1:3">
       <c r="A285" s="2">
         <v>2014</v>
       </c>
@@ -4365,21 +4365,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="286" ht="17.6" spans="1:3">
+    <row r="286" ht="18" spans="1:3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="287" ht="17.6" spans="1:3">
+    <row r="287" ht="18" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="288" ht="17.6" spans="1:3">
+    <row r="288" ht="18" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="2">
         <v>20141120</v>
@@ -4388,21 +4388,21 @@
         <v>278</v>
       </c>
     </row>
-    <row r="289" ht="17.6" spans="1:3">
+    <row r="289" ht="18" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="290" ht="17.6" spans="1:3">
+    <row r="290" ht="18" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="291" ht="17.6" spans="1:3">
+    <row r="291" ht="18" spans="1:3">
       <c r="A291" s="2">
         <v>2013</v>
       </c>
@@ -4413,21 +4413,21 @@
         <v>281</v>
       </c>
     </row>
-    <row r="292" ht="17.6" spans="1:3">
+    <row r="292" ht="18" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="293" ht="17.6" spans="1:3">
+    <row r="293" ht="18" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="294" ht="17.6" spans="1:3">
+    <row r="294" ht="18" spans="1:3">
       <c r="A294" s="2"/>
       <c r="B294" s="2">
         <v>20130807</v>
@@ -4436,21 +4436,21 @@
         <v>284</v>
       </c>
     </row>
-    <row r="295" ht="17.6" spans="1:3">
+    <row r="295" ht="18" spans="1:3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="296" ht="17.6" spans="1:3">
+    <row r="296" ht="18" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="297" ht="17.6" spans="1:3">
+    <row r="297" ht="18" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2">
         <v>20130722</v>
@@ -4459,7 +4459,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="298" ht="17.6" spans="1:3">
+    <row r="298" ht="18" spans="1:3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4" t="s">
@@ -4475,21 +4475,21 @@
         <v>289</v>
       </c>
     </row>
-    <row r="300" ht="17.6" spans="1:3">
+    <row r="300" ht="18" spans="1:3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="301" ht="17.6" spans="1:3">
+    <row r="301" ht="18" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="302" ht="17.6" spans="1:3">
+    <row r="302" ht="18" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2">
         <v>20130607</v>
@@ -4498,21 +4498,21 @@
         <v>292</v>
       </c>
     </row>
-    <row r="303" ht="17.6" spans="1:3">
+    <row r="303" ht="18" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="304" ht="17.6" spans="1:3">
+    <row r="304" ht="18" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="305" ht="22" spans="1:3">
+    <row r="305" ht="21.75" spans="1:3">
       <c r="A305" s="2"/>
       <c r="B305" s="2">
         <v>20130417</v>
@@ -4521,7 +4521,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306" ht="17.6" spans="1:3">
+    <row r="306" ht="18" spans="1:3">
       <c r="A306" s="2">
         <v>2012</v>
       </c>
@@ -4532,14 +4532,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="307" ht="17.6" spans="1:3">
+    <row r="307" ht="18" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="308" ht="17.6" spans="1:3">
+    <row r="308" ht="18" spans="1:3">
       <c r="A308" s="2">
         <v>2011</v>
       </c>
@@ -4550,35 +4550,35 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" ht="17.6" spans="1:3">
+    <row r="309" ht="18" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="310" ht="17.6" spans="1:3">
+    <row r="310" ht="18" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="311" ht="17.6" spans="1:3">
+    <row r="311" ht="18" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="312" ht="17.6" spans="1:3">
+    <row r="312" ht="18" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="313" ht="17.6" spans="1:3">
+    <row r="313" ht="18" spans="1:3">
       <c r="A313" s="2">
         <v>2010</v>
       </c>
@@ -4589,35 +4589,35 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" ht="17.6" spans="1:3">
+    <row r="314" ht="18" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="315" ht="17.6" spans="1:3">
+    <row r="315" ht="18" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="316" ht="17.6" spans="1:3">
+    <row r="316" ht="18" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="317" ht="17.6" spans="1:3">
+    <row r="317" ht="18" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="318" ht="17.6" spans="1:3">
+    <row r="318" ht="18" spans="1:3">
       <c r="A318" s="2">
         <v>2009</v>
       </c>
@@ -4628,35 +4628,35 @@
         <v>307</v>
       </c>
     </row>
-    <row r="319" ht="17.6" spans="1:3">
+    <row r="319" ht="18" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="320" ht="17.6" spans="1:3">
+    <row r="320" ht="18" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="321" ht="17.6" spans="1:3">
+    <row r="321" ht="18" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="322" ht="17.6" spans="1:3">
+    <row r="322" ht="18" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="323" ht="17.6" spans="1:3">
+    <row r="323" ht="18" spans="1:3">
       <c r="A323" s="2"/>
       <c r="B323" s="2">
         <v>20090827</v>
@@ -4665,28 +4665,28 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" ht="17.6" spans="1:3">
+    <row r="324" ht="18" spans="1:3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="325" ht="17.6" spans="1:3">
+    <row r="325" ht="18" spans="1:3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="326" ht="17.6" spans="1:3">
+    <row r="326" ht="18" spans="1:3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="327" ht="22" spans="1:3">
+    <row r="327" ht="21.75" spans="1:3">
       <c r="A327" s="2"/>
       <c r="B327" s="2">
         <v>20090731</v>
@@ -4695,7 +4695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="328" ht="17.6" spans="1:3">
+    <row r="328" ht="18" spans="1:3">
       <c r="A328" s="2"/>
       <c r="B328" s="2">
         <v>20090723</v>
@@ -4704,28 +4704,28 @@
         <v>317</v>
       </c>
     </row>
-    <row r="329" ht="17.6" spans="1:3">
+    <row r="329" ht="18" spans="1:3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="330" ht="17.6" spans="1:3">
+    <row r="330" ht="18" spans="1:3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="331" ht="17.6" spans="1:3">
+    <row r="331" ht="18" spans="1:3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="332" ht="17.6" spans="1:3">
+    <row r="332" ht="18" spans="1:3">
       <c r="A332" s="2"/>
       <c r="B332" s="2">
         <v>20090705</v>
@@ -4734,14 +4734,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="333" ht="17.6" spans="1:3">
+    <row r="333" ht="18" spans="1:3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="334" ht="17.6" spans="1:3">
+    <row r="334" ht="18" spans="1:3">
       <c r="A334" s="2"/>
       <c r="B334" s="2">
         <v>20090620</v>
@@ -4750,7 +4750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="335" ht="17.6" spans="1:3">
+    <row r="335" ht="18" spans="1:3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="4" t="s">
@@ -4849,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4857,7 +4857,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4866,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4874,7 +4874,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
   <si>
     <t>图画通识丛书：本雅明</t>
   </si>
@@ -1105,9 +1105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1142,21 +1142,97 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Open Sans"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1171,113 +1247,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,8 +1276,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,7 +1315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1339,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,145 +1477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,13 +1489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,32 +1561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,11 +1603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,153 +1643,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1833,11 +1833,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1857,54 +1857,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2200,44 +2200,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A2:C335"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.075"/>
-    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
-    <col min="3" max="3" width="87.3083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.07692307692308"/>
+    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="87.3076923076923" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21.75" spans="1:3">
+    <row r="2" ht="22" spans="1:3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="21.75" spans="1:3">
+    <row r="3" ht="22" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="21.75" spans="1:3">
+    <row r="4" ht="22" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="21.75" spans="1:3">
+    <row r="5" ht="22" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" ht="17.6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="5">
         <v>20210623</v>
@@ -2246,28 +2246,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
+    <row r="7" ht="17.6" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" ht="17.6" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" ht="17.6" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" ht="17.6" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
@@ -2277,48 +2277,48 @@
     <row r="11" ht="18" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:3">
+    <row r="12" ht="17.6" spans="1:3">
       <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:3">
+    <row r="13" ht="17.6" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="5">
         <v>20210621</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" ht="17.6" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" ht="17.6" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:3">
+    <row r="17" ht="17.6" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5">
         <v>20210601</v>
@@ -2327,56 +2327,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:3">
+    <row r="18" ht="17.6" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:3">
+    <row r="20" ht="17.6" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:3">
+    <row r="21" ht="17.6" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
+    <row r="23" ht="17.6" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:3">
+    <row r="24" ht="17.6" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="21.75" spans="1:3">
+    <row r="25" ht="22" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>20210527</v>
@@ -2385,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="21.75" spans="1:3">
+    <row r="26" ht="22" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="3">
         <v>20210518</v>
@@ -2394,7 +2394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="21.75" spans="1:3">
+    <row r="27" ht="22" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>20210515</v>
@@ -2403,7 +2403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:3">
+    <row r="28" ht="17.6" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="10">
         <v>20210420</v>
@@ -2412,35 +2412,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:3">
+    <row r="29" ht="17.6" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:3">
+    <row r="30" ht="17.6" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:3">
+    <row r="31" ht="17.6" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="11"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:3">
+    <row r="32" ht="17.6" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="21.75" spans="1:3">
+    <row r="33" ht="22" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>20210416</v>
@@ -2449,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="21.75" spans="1:3">
+    <row r="34" ht="22" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>20210414</v>
@@ -2458,7 +2458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="18" spans="1:3">
+    <row r="35" ht="17.6" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>20210408</v>
@@ -2467,49 +2467,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:3">
+    <row r="36" ht="17.6" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:3">
+    <row r="37" ht="17.6" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:3">
+    <row r="38" ht="17.6" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:3">
+    <row r="39" ht="17.6" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="18" spans="1:3">
+    <row r="40" ht="17.6" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:3">
+    <row r="41" ht="17.6" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:3">
+    <row r="42" ht="17.6" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>20210407</v>
@@ -2518,81 +2518,81 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:3">
+    <row r="43" ht="17.6" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:3">
+    <row r="44" ht="17.6" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
+    <row r="45" ht="17.6" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="18" spans="1:3">
+    <row r="46" ht="17.6" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:3">
+    <row r="47" ht="17.6" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" ht="21.75" spans="1:3">
+    <row r="48" ht="22" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>20210406</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:3">
+    <row r="49" ht="17.6" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>20210321</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:3">
+    <row r="50" ht="17.6" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:3">
+    <row r="51" ht="17.6" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:3">
+    <row r="52" ht="17.6" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" ht="21.75" spans="1:3">
+    <row r="53" ht="22" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>20210320</v>
@@ -2601,7 +2601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" ht="18" spans="1:3">
+    <row r="54" ht="17.6" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>20210316</v>
@@ -2610,120 +2610,120 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" ht="18" spans="1:3">
+    <row r="55" ht="17.6" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:3">
+    <row r="56" ht="17.6" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="21.75" spans="1:3">
+    <row r="57" ht="22" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>20210313</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" ht="18" spans="1:3">
+    <row r="58" ht="17.6" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>20210302</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:3">
+    <row r="59" ht="17.6" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" ht="21.75" spans="1:3">
+    <row r="60" ht="22" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>20210227</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" ht="18" spans="1:3">
+    <row r="61" ht="17.6" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>20210220</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:3">
+    <row r="62" ht="17.6" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:3">
+    <row r="63" ht="17.6" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:3">
+    <row r="64" ht="17.6" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" ht="18" spans="1:3">
+    <row r="65" ht="17.6" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" ht="18" spans="1:3">
+    <row r="66" ht="17.6" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:3">
+    <row r="67" ht="17.6" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:3">
+    <row r="68" ht="17.6" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="17.6" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" ht="18" spans="1:3">
+    <row r="70" ht="17.6" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>20210206</v>
@@ -2732,28 +2732,28 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:3">
+    <row r="71" ht="17.6" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="18" spans="1:3">
+    <row r="72" ht="17.6" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:3">
+    <row r="73" ht="17.6" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:3">
+    <row r="74" ht="17.6" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="10">
         <v>20210111</v>
@@ -2762,70 +2762,70 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:3">
+    <row r="75" ht="17.6" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="11"/>
       <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:3">
+    <row r="76" ht="17.6" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="11"/>
       <c r="C76" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:3">
+    <row r="77" ht="17.6" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="11"/>
       <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="18" spans="1:3">
+    <row r="78" ht="17.6" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="11"/>
       <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" ht="18" spans="1:3">
+    <row r="79" ht="17.6" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="11"/>
       <c r="C79" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:3">
+    <row r="80" ht="17.6" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="11"/>
       <c r="C80" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" ht="18" spans="1:3">
+    <row r="81" ht="17.6" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="11"/>
       <c r="C81" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" ht="18" spans="1:3">
+    <row r="82" ht="17.6" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="11"/>
       <c r="C82" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:3">
+    <row r="83" ht="17.6" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="12"/>
       <c r="C83" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:3">
+    <row r="84" ht="17.6" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="10">
         <v>20210106</v>
@@ -2834,55 +2834,55 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" ht="18" spans="1:3">
+    <row r="85" ht="17.6" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="11"/>
       <c r="C85" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" ht="18" spans="1:3">
+    <row r="86" ht="17.6" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="11"/>
       <c r="C86" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" ht="18" spans="1:3">
+    <row r="87" ht="17.6" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="12"/>
       <c r="C87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" ht="18" spans="1:3">
+    <row r="88" ht="17.6" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>20210101</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:3">
+    <row r="89" ht="17.6" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" ht="21.75" spans="1:3">
+    <row r="90" ht="22" spans="1:3">
       <c r="A90" s="2">
         <v>2020</v>
       </c>
       <c r="B90" s="2">
         <v>20201230</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:3">
+    <row r="91" ht="17.6" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>20201225</v>
@@ -2891,37 +2891,37 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:3">
+    <row r="92" ht="17.6" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:3">
+    <row r="93" ht="17.6" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:3">
+    <row r="94" ht="17.6" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>20201210</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="17.6" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" ht="18" spans="1:3">
+    <row r="96" ht="17.6" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>20201127</v>
@@ -2930,44 +2930,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:3">
+    <row r="97" ht="17.6" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:3">
+    <row r="98" ht="17.6" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" ht="18" spans="1:3">
+    <row r="99" ht="17.6" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:3">
+    <row r="100" ht="17.6" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>20201125</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:3">
+    <row r="101" ht="17.6" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" ht="18" spans="1:3">
+    <row r="102" ht="17.6" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>20201123</v>
@@ -2976,14 +2976,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" ht="18" spans="1:3">
+    <row r="103" ht="17.6" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" ht="21.75" spans="1:3">
+    <row r="104" ht="22" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>20201109</v>
@@ -2992,7 +2992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" ht="21.75" spans="1:3">
+    <row r="105" ht="22" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>20201103</v>
@@ -3001,37 +3001,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:3">
+    <row r="106" ht="17.6" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>20200919</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:3">
+    <row r="107" ht="17.6" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:3">
+    <row r="108" ht="17.6" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:3">
+    <row r="109" ht="17.6" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:3">
+    <row r="110" ht="17.6" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="2">
         <v>20200912</v>
@@ -3040,21 +3040,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" ht="18" spans="1:3">
+    <row r="111" ht="17.6" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:3">
+    <row r="112" ht="17.6" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" ht="21.75" spans="1:3">
+    <row r="113" ht="22" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>20200910</v>
@@ -3072,56 +3072,56 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" ht="18" spans="1:3">
+    <row r="115" ht="17.6" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:3">
+    <row r="116" ht="17.6" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="18" spans="1:3">
+    <row r="117" ht="17.6" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:3">
+    <row r="118" ht="17.6" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:3">
+    <row r="119" ht="17.6" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:3">
+    <row r="120" ht="17.6" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:3">
+    <row r="121" ht="17.6" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:3">
+    <row r="122" ht="17.6" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <v>20200827</v>
@@ -3130,14 +3130,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:3">
+    <row r="123" ht="17.6" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" ht="18" spans="1:3">
+    <row r="124" ht="17.6" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
         <v>20200806</v>
@@ -3146,21 +3146,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:3">
+    <row r="125" ht="17.6" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" ht="18" spans="1:3">
+    <row r="126" ht="17.6" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="21.75" spans="1:3">
+    <row r="127" ht="22" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
         <v>20200804</v>
@@ -3169,7 +3169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" ht="21.75" spans="1:3">
+    <row r="128" ht="22" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
         <v>20200703</v>
@@ -3178,79 +3178,79 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:3">
+    <row r="129" ht="17.6" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129" s="10">
         <v>20200627</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:3">
+    <row r="130" ht="17.6" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130" s="11"/>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" ht="18" spans="1:3">
+    <row r="131" ht="17.6" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131" s="11"/>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" ht="18" spans="1:3">
+    <row r="132" ht="17.6" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132" s="11"/>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" ht="18" spans="1:3">
+    <row r="133" ht="17.6" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="11"/>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" ht="18" spans="1:3">
+    <row r="134" ht="17.6" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="11"/>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:3">
+    <row r="135" ht="17.6" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="11"/>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" ht="18" spans="1:3">
+    <row r="136" ht="17.6" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:3">
+    <row r="137" ht="17.6" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="11"/>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:3">
+    <row r="138" ht="17.6" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="12"/>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:3">
+    <row r="139" ht="17.6" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="2">
         <v>20200611</v>
@@ -3259,35 +3259,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" ht="18" spans="1:3">
+    <row r="140" ht="17.6" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" ht="18" spans="1:3">
+    <row r="141" ht="17.6" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" ht="18" spans="1:3">
+    <row r="142" ht="17.6" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" ht="18" spans="1:3">
+    <row r="143" ht="17.6" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" ht="18" spans="1:3">
+    <row r="144" ht="17.6" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>20200606</v>
@@ -3296,21 +3296,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" ht="18" spans="1:3">
+    <row r="145" ht="17.6" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" ht="18" spans="1:3">
+    <row r="146" ht="17.6" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" ht="18" spans="1:3">
+    <row r="147" ht="17.6" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>20200601</v>
@@ -3319,14 +3319,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" ht="18" spans="1:3">
+    <row r="148" ht="17.6" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" ht="18" spans="1:3">
+    <row r="149" ht="17.6" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>20200402</v>
@@ -3335,39 +3335,39 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="18" spans="1:3">
+    <row r="150" ht="17.6" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" ht="18" spans="1:3">
+    <row r="151" ht="17.6" spans="1:3">
       <c r="A151" s="2">
         <v>2018</v>
       </c>
       <c r="B151" s="2">
         <v>20181120</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:3">
+    <row r="152" ht="17.6" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:3">
+    <row r="153" ht="17.6" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" ht="18" spans="1:3">
+    <row r="154" ht="17.6" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>20181020</v>
@@ -3376,21 +3376,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="18" spans="1:3">
+    <row r="155" ht="17.6" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" ht="18" spans="1:3">
+    <row r="156" ht="17.6" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" ht="18" spans="1:3">
+    <row r="157" ht="17.6" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>20181018</v>
@@ -3399,21 +3399,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" ht="18" spans="1:3">
+    <row r="158" ht="17.6" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" ht="18" spans="1:3">
+    <row r="159" ht="17.6" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:3">
+    <row r="160" ht="17.6" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
         <v>20180907</v>
@@ -3422,14 +3422,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:3">
+    <row r="161" ht="17.6" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" ht="18" spans="1:3">
+    <row r="162" ht="17.6" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>20180906</v>
@@ -3438,14 +3438,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:3">
+    <row r="163" ht="17.6" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:3">
+    <row r="164" ht="17.6" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
         <v>20180822</v>
@@ -3454,21 +3454,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="18" spans="1:3">
+    <row r="165" ht="17.6" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" ht="18" spans="1:3">
+    <row r="166" ht="17.6" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:3">
+    <row r="167" ht="17.6" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
         <v>20180808</v>
@@ -3477,14 +3477,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="18" spans="1:3">
+    <row r="168" ht="17.6" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" ht="21.75" spans="1:3">
+    <row r="169" ht="22" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2">
         <v>20180801</v>
@@ -3493,7 +3493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="170" ht="18" spans="1:3">
+    <row r="170" ht="17.6" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
         <v>20180730</v>
@@ -3502,42 +3502,42 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" ht="18" spans="1:3">
+    <row r="171" ht="17.6" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" ht="18" spans="1:3">
+    <row r="172" ht="17.6" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="18" spans="1:3">
+    <row r="173" ht="17.6" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:3">
+    <row r="174" ht="17.6" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:3">
+    <row r="175" ht="17.6" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:3">
+    <row r="176" ht="17.6" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
         <v>20180705</v>
@@ -3546,70 +3546,70 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="18" spans="1:3">
+    <row r="177" ht="17.6" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="18" spans="1:3">
+    <row r="178" ht="17.6" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="18" spans="1:3">
+    <row r="179" ht="17.6" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="18" spans="1:3">
+    <row r="180" ht="17.6" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="18" spans="1:3">
+    <row r="181" ht="17.6" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="18" spans="1:3">
+    <row r="182" ht="17.6" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="18" spans="1:3">
+    <row r="183" ht="17.6" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="18" spans="1:3">
+    <row r="184" ht="17.6" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:3">
+    <row r="185" ht="17.6" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:3">
+    <row r="186" ht="17.6" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>20180613</v>
@@ -3618,28 +3618,28 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:3">
+    <row r="187" ht="17.6" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:3">
+    <row r="188" ht="17.6" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:3">
+    <row r="189" ht="17.6" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="21.75" spans="1:3">
+    <row r="190" ht="22" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
         <v>20180427</v>
@@ -3648,7 +3648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="18" spans="1:3">
+    <row r="191" ht="17.6" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>20180426</v>
@@ -3657,135 +3657,135 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="18" spans="1:3">
+    <row r="192" ht="17.6" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="18" spans="1:3">
+    <row r="193" ht="17.6" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="18" spans="1:3">
+    <row r="194" ht="17.6" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" ht="18" spans="1:3">
+    <row r="195" ht="17.6" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196" ht="18" spans="1:3">
+    <row r="196" ht="17.6" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="197" ht="18" spans="1:3">
+    <row r="197" ht="17.6" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="198" ht="18" spans="1:3">
+    <row r="198" ht="17.6" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" ht="18" spans="1:3">
+    <row r="199" ht="17.6" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="200" ht="18" spans="1:3">
+    <row r="200" ht="17.6" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" ht="18" spans="1:3">
+    <row r="201" ht="17.6" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202" ht="18" spans="1:3">
+    <row r="202" ht="17.6" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="203" ht="18" spans="1:3">
+    <row r="203" ht="17.6" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="204" ht="18" spans="1:3">
+    <row r="204" ht="17.6" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="205" ht="18" spans="1:3">
+    <row r="205" ht="17.6" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" ht="18" spans="1:3">
+    <row r="206" ht="17.6" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="207" ht="18" spans="1:3">
+    <row r="207" ht="17.6" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="208" ht="18" spans="1:3">
+    <row r="208" ht="17.6" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2">
         <v>20180217</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="209" ht="18" spans="1:3">
+    <row r="209" ht="17.6" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" ht="18" spans="1:3">
+    <row r="210" ht="17.6" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2">
         <v>20180125</v>
@@ -3794,67 +3794,67 @@
         <v>202</v>
       </c>
     </row>
-    <row r="211" ht="18" spans="1:3">
+    <row r="211" ht="17.6" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="212" ht="18" spans="1:3">
+    <row r="212" ht="17.6" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" ht="18" spans="1:3">
+    <row r="213" ht="17.6" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="214" ht="18" spans="1:3">
+    <row r="214" ht="17.6" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" ht="18" spans="1:3">
+    <row r="215" ht="17.6" spans="1:3">
       <c r="A215" s="2">
         <v>2017</v>
       </c>
       <c r="B215" s="2">
         <v>20171220</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" ht="18" spans="1:3">
+    <row r="216" ht="17.6" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="217" ht="18" spans="1:3">
+    <row r="217" ht="17.6" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" ht="18" spans="1:3">
+    <row r="218" ht="17.6" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" ht="18" spans="1:3">
+    <row r="219" ht="17.6" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2">
         <v>20171128</v>
@@ -3863,72 +3863,72 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" ht="18" spans="1:3">
+    <row r="220" ht="17.6" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:3">
+    <row r="221" ht="17.6" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" ht="18" spans="1:3">
+    <row r="222" ht="17.6" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" ht="18" spans="1:3">
+    <row r="223" ht="17.6" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="224" ht="18" spans="1:3">
+    <row r="224" ht="17.6" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="225" ht="18" spans="1:3">
+    <row r="225" ht="17.6" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" ht="18" spans="1:3">
+    <row r="226" ht="17.6" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" ht="18" spans="1:3">
+    <row r="227" ht="17.6" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2">
         <v>20170925</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="228" ht="18" spans="1:3">
+    <row r="228" ht="17.6" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" ht="18" spans="1:3">
+    <row r="229" ht="17.6" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2">
         <v>20170912</v>
@@ -3937,21 +3937,21 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" ht="18" spans="1:3">
+    <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" ht="18" spans="1:3">
+    <row r="231" ht="17.6" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" ht="18" spans="1:3">
+    <row r="232" ht="17.6" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="2">
         <v>20170716</v>
@@ -3960,42 +3960,42 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233" ht="18" spans="1:3">
+    <row r="233" ht="17.6" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" ht="18" spans="1:3">
+    <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" ht="18" spans="1:3">
+    <row r="235" ht="17.6" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" ht="18" spans="1:3">
+    <row r="236" ht="17.6" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:3">
+    <row r="237" ht="17.6" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" ht="18" spans="1:3">
+    <row r="238" ht="17.6" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2">
         <v>20170613</v>
@@ -4004,49 +4004,49 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" ht="18" spans="1:3">
+    <row r="239" ht="17.6" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" ht="18" spans="1:3">
+    <row r="240" ht="17.6" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="241" ht="18" spans="1:3">
+    <row r="241" ht="17.6" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="242" ht="18" spans="1:3">
+    <row r="242" ht="17.6" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="243" ht="18" spans="1:3">
+    <row r="243" ht="17.6" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="244" ht="18" spans="1:3">
+    <row r="244" ht="17.6" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="245" ht="21.75" spans="1:3">
+    <row r="245" ht="22" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="2">
         <v>20170503</v>
@@ -4055,7 +4055,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="246" ht="21.75" spans="1:3">
+    <row r="246" ht="22" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
         <v>20170412</v>
@@ -4064,7 +4064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:3">
+    <row r="247" ht="17.6" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="2">
         <v>20170411</v>
@@ -4073,72 +4073,72 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" ht="18" spans="1:3">
+    <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="249" ht="18" spans="1:3">
+    <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="250" ht="18" spans="1:3">
+    <row r="250" ht="17.6" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="251" ht="18" spans="1:3">
+    <row r="251" ht="17.6" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
         <v>20170318</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="252" ht="18" spans="1:3">
+    <row r="252" ht="17.6" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="253" ht="18" spans="1:3">
+    <row r="253" ht="17.6" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="254" ht="18" spans="1:3">
+    <row r="254" ht="17.6" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" ht="18" spans="1:3">
+    <row r="255" ht="17.6" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="256" ht="18" spans="1:3">
+    <row r="256" ht="17.6" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" ht="21.75" spans="1:3">
+    <row r="257" ht="22" spans="1:3">
       <c r="A257" s="2">
         <v>2016</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" ht="21.75" spans="1:3">
+    <row r="258" ht="22" spans="1:3">
       <c r="A258" s="2"/>
       <c r="B258" s="2">
         <v>20160420</v>
@@ -4158,7 +4158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="259" ht="18" spans="1:3">
+    <row r="259" ht="17.6" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="2">
         <v>20160415</v>
@@ -4167,42 +4167,42 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" ht="18" spans="1:3">
+    <row r="260" ht="17.6" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" ht="18" spans="1:3">
+    <row r="261" ht="17.6" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="9" t="s">
+      <c r="C261" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="262" ht="18" spans="1:3">
+    <row r="262" ht="17.6" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" ht="18" spans="1:3">
+    <row r="263" ht="17.6" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" ht="18" spans="1:3">
+    <row r="264" ht="17.6" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" ht="21.75" spans="1:3">
+    <row r="265" ht="22" spans="1:3">
       <c r="A265" s="2"/>
       <c r="B265" s="2">
         <v>20160111</v>
@@ -4211,7 +4211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" ht="18" spans="1:3">
+    <row r="266" ht="17.6" spans="1:3">
       <c r="A266" s="2">
         <v>2015</v>
       </c>
@@ -4222,35 +4222,35 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" ht="18" spans="1:3">
+    <row r="267" ht="17.6" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="268" ht="18" spans="1:3">
+    <row r="268" ht="17.6" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" ht="18" spans="1:3">
+    <row r="269" ht="17.6" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" ht="18" spans="1:3">
+    <row r="270" ht="17.6" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" ht="18" spans="1:3">
+    <row r="271" ht="17.6" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="2">
         <v>20151104</v>
@@ -4259,28 +4259,28 @@
         <v>262</v>
       </c>
     </row>
-    <row r="272" ht="18" spans="1:3">
+    <row r="272" ht="17.6" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" ht="18" spans="1:3">
+    <row r="273" ht="17.6" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="274" ht="18" spans="1:3">
+    <row r="274" ht="17.6" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="275" ht="18" spans="1:3">
+    <row r="275" ht="17.6" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
         <v>20150807</v>
@@ -4289,72 +4289,72 @@
         <v>265</v>
       </c>
     </row>
-    <row r="276" ht="18" spans="1:3">
+    <row r="276" ht="17.6" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="277" ht="18" spans="1:3">
+    <row r="277" ht="17.6" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="9" t="s">
+      <c r="C277" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="278" ht="18" spans="1:3">
+    <row r="278" ht="17.6" spans="1:3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="279" ht="18" spans="1:3">
+    <row r="279" ht="17.6" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="280" ht="18" spans="1:3">
+    <row r="280" ht="17.6" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="9" t="s">
+      <c r="C280" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="281" ht="18" spans="1:3">
+    <row r="281" ht="17.6" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" ht="18" spans="1:3">
+    <row r="282" ht="17.6" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="283" ht="18" spans="1:3">
+    <row r="283" ht="17.6" spans="1:3">
       <c r="A283" s="2"/>
       <c r="B283" s="2">
         <v>20150303</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="284" ht="18" spans="1:3">
+    <row r="284" ht="17.6" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="285" ht="18" spans="1:3">
+    <row r="285" ht="17.6" spans="1:3">
       <c r="A285" s="2">
         <v>2014</v>
       </c>
@@ -4365,21 +4365,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="286" ht="18" spans="1:3">
+    <row r="286" ht="17.6" spans="1:3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
-      <c r="C286" s="9" t="s">
+      <c r="C286" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="287" ht="18" spans="1:3">
+    <row r="287" ht="17.6" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="9" t="s">
+      <c r="C287" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="288" ht="18" spans="1:3">
+    <row r="288" ht="17.6" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="2">
         <v>20141120</v>
@@ -4388,46 +4388,46 @@
         <v>278</v>
       </c>
     </row>
-    <row r="289" ht="18" spans="1:3">
+    <row r="289" ht="17.6" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="9" t="s">
+      <c r="C289" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="290" ht="18" spans="1:3">
+    <row r="290" ht="17.6" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="291" ht="18" spans="1:3">
+    <row r="291" ht="17.6" spans="1:3">
       <c r="A291" s="2">
         <v>2013</v>
       </c>
       <c r="B291" s="2">
         <v>20131206</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C291" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="292" ht="18" spans="1:3">
+    <row r="292" ht="17.6" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="293" ht="18" spans="1:3">
+    <row r="293" ht="17.6" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="294" ht="18" spans="1:3">
+    <row r="294" ht="17.6" spans="1:3">
       <c r="A294" s="2"/>
       <c r="B294" s="2">
         <v>20130807</v>
@@ -4436,30 +4436,30 @@
         <v>284</v>
       </c>
     </row>
-    <row r="295" ht="18" spans="1:3">
+    <row r="295" ht="17.6" spans="1:3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="296" ht="18" spans="1:3">
+    <row r="296" ht="17.6" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="297" ht="18" spans="1:3">
+    <row r="297" ht="17.6" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2">
         <v>20130722</v>
       </c>
-      <c r="C297" s="9" t="s">
+      <c r="C297" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="298" ht="18" spans="1:3">
+    <row r="298" ht="17.6" spans="1:3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4" t="s">
@@ -4475,44 +4475,44 @@
         <v>289</v>
       </c>
     </row>
-    <row r="300" ht="18" spans="1:3">
+    <row r="300" ht="17.6" spans="1:3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="301" ht="18" spans="1:3">
+    <row r="301" ht="17.6" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="302" ht="18" spans="1:3">
+    <row r="302" ht="17.6" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2">
         <v>20130607</v>
       </c>
-      <c r="C302" s="9" t="s">
+      <c r="C302" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="303" ht="18" spans="1:3">
+    <row r="303" ht="17.6" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="304" ht="18" spans="1:3">
+    <row r="304" ht="17.6" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="305" ht="21.75" spans="1:3">
+    <row r="305" ht="22" spans="1:3">
       <c r="A305" s="2"/>
       <c r="B305" s="2">
         <v>20130417</v>
@@ -4521,7 +4521,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306" ht="18" spans="1:3">
+    <row r="306" ht="17.6" spans="1:3">
       <c r="A306" s="2">
         <v>2012</v>
       </c>
@@ -4532,14 +4532,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="307" ht="18" spans="1:3">
+    <row r="307" ht="17.6" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="9" t="s">
+      <c r="C307" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="308" ht="18" spans="1:3">
+    <row r="308" ht="17.6" spans="1:3">
       <c r="A308" s="2">
         <v>2011</v>
       </c>
@@ -4550,113 +4550,113 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" ht="18" spans="1:3">
+    <row r="309" ht="17.6" spans="1:3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="310" ht="18" spans="1:3">
+    <row r="310" ht="17.6" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="311" ht="18" spans="1:3">
+    <row r="311" ht="17.6" spans="1:3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="312" ht="18" spans="1:3">
+    <row r="312" ht="17.6" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="313" ht="18" spans="1:3">
+    <row r="313" ht="17.6" spans="1:3">
       <c r="A313" s="2">
         <v>2010</v>
       </c>
       <c r="B313" s="2">
         <v>20101013</v>
       </c>
-      <c r="C313" s="9" t="s">
+      <c r="C313" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="314" ht="18" spans="1:3">
+    <row r="314" ht="17.6" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="9" t="s">
+      <c r="C314" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="315" ht="18" spans="1:3">
+    <row r="315" ht="17.6" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="316" ht="18" spans="1:3">
+    <row r="316" ht="17.6" spans="1:3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="9" t="s">
+      <c r="C316" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="317" ht="18" spans="1:3">
+    <row r="317" ht="17.6" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="9" t="s">
+      <c r="C317" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="318" ht="18" spans="1:3">
+    <row r="318" ht="17.6" spans="1:3">
       <c r="A318" s="2">
         <v>2009</v>
       </c>
       <c r="B318" s="2">
         <v>20091218</v>
       </c>
-      <c r="C318" s="9" t="s">
+      <c r="C318" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="319" ht="18" spans="1:3">
+    <row r="319" ht="17.6" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="320" ht="18" spans="1:3">
+    <row r="320" ht="17.6" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="9" t="s">
+      <c r="C320" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="321" ht="18" spans="1:3">
+    <row r="321" ht="17.6" spans="1:3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="9" t="s">
+      <c r="C321" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="322" ht="18" spans="1:3">
+    <row r="322" ht="17.6" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="323" ht="18" spans="1:3">
+    <row r="323" ht="17.6" spans="1:3">
       <c r="A323" s="2"/>
       <c r="B323" s="2">
         <v>20090827</v>
@@ -4665,28 +4665,28 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" ht="18" spans="1:3">
+    <row r="324" ht="17.6" spans="1:3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="325" ht="18" spans="1:3">
+    <row r="325" ht="17.6" spans="1:3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="326" ht="18" spans="1:3">
+    <row r="326" ht="17.6" spans="1:3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
-      <c r="C326" s="9" t="s">
+      <c r="C326" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="327" ht="21.75" spans="1:3">
+    <row r="327" ht="22" spans="1:3">
       <c r="A327" s="2"/>
       <c r="B327" s="2">
         <v>20090731</v>
@@ -4695,53 +4695,53 @@
         <v>316</v>
       </c>
     </row>
-    <row r="328" ht="18" spans="1:3">
+    <row r="328" ht="17.6" spans="1:3">
       <c r="A328" s="2"/>
       <c r="B328" s="2">
         <v>20090723</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="329" ht="18" spans="1:3">
+    <row r="329" ht="17.6" spans="1:3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="330" ht="18" spans="1:3">
+    <row r="330" ht="17.6" spans="1:3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="9" t="s">
+      <c r="C330" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="331" ht="18" spans="1:3">
+    <row r="331" ht="17.6" spans="1:3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
-      <c r="C331" s="9" t="s">
+      <c r="C331" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="332" ht="18" spans="1:3">
+    <row r="332" ht="17.6" spans="1:3">
       <c r="A332" s="2"/>
       <c r="B332" s="2">
         <v>20090705</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C332" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="333" ht="18" spans="1:3">
+    <row r="333" ht="17.6" spans="1:3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="9" t="s">
+      <c r="C333" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="334" ht="18" spans="1:3">
+    <row r="334" ht="17.6" spans="1:3">
       <c r="A334" s="2"/>
       <c r="B334" s="2">
         <v>20090620</v>
@@ -4750,7 +4750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="335" ht="18" spans="1:3">
+    <row r="335" ht="17.6" spans="1:3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="4" t="s">
@@ -4849,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4857,7 +4857,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4866,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4874,7 +4874,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="328">
+  <si>
+    <t>这个世界会好吗？</t>
+  </si>
+  <si>
+    <t>我在伊朗长大</t>
+  </si>
+  <si>
+    <t>为什么你该花更多的钱买更少的衣服</t>
+  </si>
   <si>
     <t>图画通识丛书：本雅明</t>
   </si>
@@ -33,386 +42,321 @@
     <t>如父如子</t>
   </si>
   <si>
+    <t>文化权力与国家 1900-1942年的华北农村</t>
+  </si>
+  <si>
+    <t>宋氏家族</t>
+  </si>
+  <si>
+    <t>桥下一家人</t>
+  </si>
+  <si>
+    <t>父权制与资本主义</t>
+  </si>
+  <si>
+    <t>林肯传</t>
+  </si>
+  <si>
+    <t>大问题 简明哲学导论</t>
+  </si>
+  <si>
+    <t>技术垄断</t>
+  </si>
+  <si>
+    <t>童年的消逝</t>
+  </si>
+  <si>
+    <t>娱乐至死</t>
+  </si>
+  <si>
+    <t>罗生门</t>
+  </si>
+  <si>
+    <t>现实不似你所见</t>
+  </si>
+  <si>
+    <t>时间的秩序</t>
+  </si>
+  <si>
+    <t>学术与政治</t>
+  </si>
+  <si>
+    <t>毛泽东选集套装四册</t>
+  </si>
+  <si>
+    <t>基业长青</t>
+  </si>
+  <si>
+    <t>臣服实验</t>
+  </si>
+  <si>
+    <t>写作即思考</t>
+  </si>
+  <si>
+    <t>契诃夫短篇小说</t>
+  </si>
+  <si>
+    <t>莫泊桑短篇小说</t>
+  </si>
+  <si>
+    <t>马克吐温短篇小说</t>
+  </si>
+  <si>
+    <t>欧亨利-短篇小说</t>
+  </si>
+  <si>
+    <t>罪与罚</t>
+  </si>
+  <si>
+    <t>亚里士多德 诗学</t>
+  </si>
+  <si>
+    <t>文心雕龙</t>
+  </si>
+  <si>
+    <t>我们为何结婚 又为何不忠 性 婚姻和外语的自然史</t>
+  </si>
+  <si>
+    <t>必要的幻觉：民主社会中的思想控制</t>
+  </si>
+  <si>
+    <t>应向花园安放灵魂：从自然到自我的追寻之旅</t>
+  </si>
+  <si>
+    <t>毁灭与重生：日本昭和时代（1926-1989）</t>
+  </si>
+  <si>
+    <t>1963：变革之年</t>
+  </si>
+  <si>
+    <t>疯癫与文明</t>
+  </si>
+  <si>
+    <t>规训与惩罚</t>
+  </si>
+  <si>
+    <t>洛丽塔</t>
+  </si>
+  <si>
+    <t>美丽新世界</t>
+  </si>
+  <si>
+    <t>白鲸</t>
+  </si>
+  <si>
+    <t>苏菲的世界</t>
+  </si>
+  <si>
+    <t>不能承受的生命之轻</t>
+  </si>
+  <si>
+    <t>围城、人、兽、鬼</t>
+  </si>
+  <si>
+    <t>性学观止</t>
+  </si>
+  <si>
+    <t>北欧神话</t>
+  </si>
+  <si>
+    <t>北欧众神</t>
+  </si>
+  <si>
+    <t>古希腊神话与传说</t>
+  </si>
+  <si>
+    <t>古埃及 - 亡灵书</t>
+  </si>
+  <si>
+    <t>english in use</t>
+  </si>
+  <si>
+    <t>批判性思维</t>
+  </si>
+  <si>
+    <t>逻辑与哲学：现代逻辑导论</t>
+  </si>
+  <si>
+    <t>少年维特的烦恼</t>
+  </si>
+  <si>
+    <t>中国自驾游地图集</t>
+  </si>
+  <si>
+    <t>克苏鲁神话</t>
+  </si>
+  <si>
+    <t>死灵之书</t>
+  </si>
+  <si>
+    <t>海奥华预言</t>
+  </si>
+  <si>
+    <t>PBL项目制学习</t>
+  </si>
+  <si>
+    <t>中国传统经济：结构均衡和资本主义</t>
+  </si>
+  <si>
+    <t>资本主义的历史</t>
+  </si>
+  <si>
+    <t>资本主义与现代社会理论</t>
+  </si>
+  <si>
+    <t>认识管理</t>
+  </si>
+  <si>
+    <t>胜任</t>
+  </si>
+  <si>
+    <t>如何想到又做到</t>
+  </si>
+  <si>
+    <t>如何与重要人物社交</t>
+  </si>
+  <si>
+    <t>失去的二十年</t>
+  </si>
+  <si>
+    <t>世界经济简史</t>
+  </si>
+  <si>
+    <t>小王子</t>
+  </si>
+  <si>
+    <t>中国近代史</t>
+  </si>
+  <si>
+    <t>期权、期货及其他衍生产品</t>
+  </si>
+  <si>
+    <t>涂尔干文集1：社会分工论</t>
+  </si>
+  <si>
+    <t>涂尔干文集2：职业伦理与公民道德</t>
+  </si>
+  <si>
+    <t>涂尔干文集3：自杀论</t>
+  </si>
+  <si>
+    <t>涂尔干文集4：宗教生活的基本形式</t>
+  </si>
+  <si>
+    <t>涂尔干文集5：原始分类 乱伦禁忌及其起源</t>
+  </si>
+  <si>
+    <t>涂尔干文集6：道德教育 教育与社会学</t>
+  </si>
+  <si>
+    <t>涂尔干文集7：教育思想的演进</t>
+  </si>
+  <si>
+    <t>涂尔干文集8：孟德斯鸠与卢梭 社会主义与圣西门</t>
+  </si>
+  <si>
+    <t>涂尔干文集9：哲学讲稿 社会学与哲学</t>
+  </si>
+  <si>
+    <t>涂尔干文集10：社会学方法的准则  实用主义与社会学</t>
+  </si>
+  <si>
+    <t>塔勒布套装：黑天鹅</t>
+  </si>
+  <si>
+    <t>塔勒布套装：随机漫步的傻瓜</t>
+  </si>
+  <si>
+    <t>塔勒布套装：非对称风险</t>
+  </si>
+  <si>
+    <t>塔勒布套装：反脆弱</t>
+  </si>
+  <si>
+    <t>天朝的崩溃：鸦片战争再研究</t>
+  </si>
+  <si>
+    <t>人类的大地</t>
+  </si>
+  <si>
+    <t>彼得原理</t>
+  </si>
+  <si>
+    <t>第二性 两册</t>
+  </si>
+  <si>
+    <t>马丁加德纳的趣味数学题</t>
+  </si>
+  <si>
+    <t>怎样解题：数学</t>
+  </si>
+  <si>
+    <t>比波王子</t>
+  </si>
+  <si>
+    <t>影响力</t>
+  </si>
+  <si>
+    <t>DK汽车大百科</t>
+  </si>
+  <si>
+    <t>西藏的文明</t>
+  </si>
+  <si>
+    <t>苯教与西藏神话的起源</t>
+  </si>
+  <si>
+    <t>喇嘛王国的覆灭</t>
+  </si>
+  <si>
+    <t>唐诗鉴赏辞典</t>
+  </si>
+  <si>
+    <t>低欲望社会</t>
+  </si>
+  <si>
+    <t>5000年文明启示录</t>
+  </si>
+  <si>
+    <t>莎士比亚戏剧故事全集8册</t>
+  </si>
+  <si>
+    <t>穷查理宝典</t>
+  </si>
+  <si>
+    <t>新教伦理与资本主义精神</t>
+  </si>
+  <si>
+    <t>哈佛非虚构写作课</t>
+  </si>
+  <si>
+    <t>一本小小的红色写作书</t>
+  </si>
+  <si>
+    <t>七十二堂写作课</t>
+  </si>
+  <si>
+    <t>遗憾的进化</t>
+  </si>
+  <si>
+    <t>开放中的变迁</t>
+  </si>
+  <si>
+    <t>兴盛与危机：论中国社会超稳定结构</t>
+  </si>
+  <si>
+    <t>中国思想史十讲 上卷</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文化权力与国家</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1900-1942</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年的华北农村</t>
-    </r>
-  </si>
-  <si>
-    <t>宋氏家族</t>
-  </si>
-  <si>
-    <t>桥下一家人</t>
-  </si>
-  <si>
-    <t>父权制与资本主义</t>
-  </si>
-  <si>
-    <t>林肯传</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大问题</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简明哲学导论</t>
-    </r>
-  </si>
-  <si>
-    <t>技术垄断</t>
-  </si>
-  <si>
-    <t>童年的消逝</t>
-  </si>
-  <si>
-    <t>娱乐至死</t>
-  </si>
-  <si>
-    <t>罗生门</t>
-  </si>
-  <si>
-    <t>现实不似你所见</t>
-  </si>
-  <si>
-    <t>时间的秩序</t>
-  </si>
-  <si>
-    <t>学术与政治</t>
-  </si>
-  <si>
-    <t>毛泽东选集套装四册</t>
-  </si>
-  <si>
-    <t>基业长青</t>
-  </si>
-  <si>
-    <t>臣服实验</t>
-  </si>
-  <si>
-    <t>写作即思考</t>
-  </si>
-  <si>
-    <t>契诃夫短篇小说</t>
-  </si>
-  <si>
-    <t>莫泊桑短篇小说</t>
-  </si>
-  <si>
-    <t>马克吐温短篇小说</t>
-  </si>
-  <si>
-    <t>欧亨利-短篇小说</t>
-  </si>
-  <si>
-    <t>罪与罚</t>
-  </si>
-  <si>
-    <t>亚里士多德 诗学</t>
-  </si>
-  <si>
-    <t>文心雕龙</t>
-  </si>
-  <si>
-    <t>我们为何结婚 又为何不忠 性 婚姻和外语的自然史</t>
-  </si>
-  <si>
-    <t>必要的幻觉：民主社会中的思想控制</t>
-  </si>
-  <si>
-    <t>应向花园安放灵魂：从自然到自我的追寻之旅</t>
-  </si>
-  <si>
-    <t>毁灭与重生：日本昭和时代（1926-1989）</t>
-  </si>
-  <si>
-    <t>1963：变革之年</t>
-  </si>
-  <si>
-    <t>疯癫与文明</t>
-  </si>
-  <si>
-    <t>规训与惩罚</t>
-  </si>
-  <si>
-    <t>洛丽塔</t>
-  </si>
-  <si>
-    <t>美丽新世界</t>
-  </si>
-  <si>
-    <t>白鲸</t>
-  </si>
-  <si>
-    <t>苏菲的世界</t>
-  </si>
-  <si>
-    <t>不能承受的生命之轻</t>
-  </si>
-  <si>
-    <t>围城、人、兽、鬼</t>
-  </si>
-  <si>
-    <t>性学观止</t>
-  </si>
-  <si>
-    <t>北欧神话</t>
-  </si>
-  <si>
-    <t>北欧众神</t>
-  </si>
-  <si>
-    <t>古希腊神话与传说</t>
-  </si>
-  <si>
-    <t>古埃及 - 亡灵书</t>
-  </si>
-  <si>
-    <t>english in use</t>
-  </si>
-  <si>
-    <t>批判性思维</t>
-  </si>
-  <si>
-    <t>逻辑与哲学：现代逻辑导论</t>
-  </si>
-  <si>
-    <t>少年维特的烦恼</t>
-  </si>
-  <si>
-    <t>中国自驾游地图集</t>
-  </si>
-  <si>
-    <t>克苏鲁神话</t>
-  </si>
-  <si>
-    <t>死灵之书</t>
-  </si>
-  <si>
-    <t>海奥华预言</t>
-  </si>
-  <si>
-    <t>PBL项目制学习</t>
-  </si>
-  <si>
-    <t>中国传统经济：结构均衡和资本主义</t>
-  </si>
-  <si>
-    <t>资本主义的历史</t>
-  </si>
-  <si>
-    <t>资本主义与现代社会理论</t>
-  </si>
-  <si>
-    <t>认识管理</t>
-  </si>
-  <si>
-    <t>胜任</t>
-  </si>
-  <si>
-    <t>如何想到又做到</t>
-  </si>
-  <si>
-    <t>如何与重要人物社交</t>
-  </si>
-  <si>
-    <t>失去的二十年</t>
-  </si>
-  <si>
-    <t>世界经济简史</t>
-  </si>
-  <si>
-    <t>小王子</t>
-  </si>
-  <si>
-    <t>中国近代史</t>
-  </si>
-  <si>
-    <t>期权、期货及其他衍生产品</t>
-  </si>
-  <si>
-    <t>涂尔干文集1：社会分工论</t>
-  </si>
-  <si>
-    <t>涂尔干文集2：职业伦理与公民道德</t>
-  </si>
-  <si>
-    <t>涂尔干文集3：自杀论</t>
-  </si>
-  <si>
-    <t>涂尔干文集4：宗教生活的基本形式</t>
-  </si>
-  <si>
-    <t>涂尔干文集5：原始分类 乱伦禁忌及其起源</t>
-  </si>
-  <si>
-    <t>涂尔干文集6：道德教育 教育与社会学</t>
-  </si>
-  <si>
-    <t>涂尔干文集7：教育思想的演进</t>
-  </si>
-  <si>
-    <t>涂尔干文集8：孟德斯鸠与卢梭 社会主义与圣西门</t>
-  </si>
-  <si>
-    <t>涂尔干文集9：哲学讲稿 社会学与哲学</t>
-  </si>
-  <si>
-    <t>涂尔干文集10：社会学方法的准则  实用主义与社会学</t>
-  </si>
-  <si>
-    <t>塔勒布套装：黑天鹅</t>
-  </si>
-  <si>
-    <t>塔勒布套装：随机漫步的傻瓜</t>
-  </si>
-  <si>
-    <t>塔勒布套装：非对称风险</t>
-  </si>
-  <si>
-    <t>塔勒布套装：反脆弱</t>
-  </si>
-  <si>
-    <t>天朝的崩溃：鸦片战争再研究</t>
-  </si>
-  <si>
-    <t>人类的大地</t>
-  </si>
-  <si>
-    <t>彼得原理</t>
-  </si>
-  <si>
-    <t>第二性 两册</t>
-  </si>
-  <si>
-    <t>马丁加德纳的趣味数学题</t>
-  </si>
-  <si>
-    <t>怎样解题：数学</t>
-  </si>
-  <si>
-    <t>比波王子</t>
-  </si>
-  <si>
-    <t>影响力</t>
-  </si>
-  <si>
-    <t>DK汽车大百科</t>
-  </si>
-  <si>
-    <t>西藏的文明</t>
-  </si>
-  <si>
-    <t>苯教与西藏神话的起源</t>
-  </si>
-  <si>
-    <t>喇嘛王国的覆灭</t>
-  </si>
-  <si>
-    <t>唐诗鉴赏辞典</t>
-  </si>
-  <si>
-    <t>低欲望社会</t>
-  </si>
-  <si>
-    <t>5000年文明启示录</t>
-  </si>
-  <si>
-    <t>莎士比亚戏剧故事全集8册</t>
-  </si>
-  <si>
-    <t>穷查理宝典</t>
-  </si>
-  <si>
-    <t>新教伦理与资本主义精神</t>
-  </si>
-  <si>
-    <t>哈佛非虚构写作课</t>
-  </si>
-  <si>
-    <t>一本小小的红色写作书</t>
-  </si>
-  <si>
-    <t>七十二堂写作课</t>
-  </si>
-  <si>
-    <t>遗憾的进化</t>
-  </si>
-  <si>
-    <t>开放中的变迁</t>
-  </si>
-  <si>
-    <t>兴盛与危机：论中国社会超稳定结构</t>
-  </si>
-  <si>
-    <t>中国思想史十讲 上卷</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
       <t>权力与自由：联邦论+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF00B050"/>
-        <rFont val="Open Sans"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>辩论</t>
@@ -420,9 +364,9 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>+美利坚共和国的缔造</t>
@@ -430,21 +374,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
       <t>现代世界体系 2卷，3卷，4卷，</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF00B050"/>
-        <rFont val="Open Sans"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1卷</t>
@@ -1104,12 +1041,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,11 +1056,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1134,32 +1070,17 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Open Sans"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF00B050"/>
-      <name val="Open Sans"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1170,7 +1091,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1184,17 +1105,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,29 +1122,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,21 +1137,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,6 +1198,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,31 +1220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,13 +1236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,25 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,25 +1302,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,19 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,55 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,13 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,7 +1465,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1555,18 +1478,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1575,6 +1487,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,23 +1539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,6 +1562,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1643,168 +1579,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1827,29 +1748,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1857,54 +1778,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2200,2647 +2121,2673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C335"/>
+  <dimension ref="A2:C338"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.07692307692308"/>
-    <col min="2" max="2" width="16.7692307692308" customWidth="1"/>
-    <col min="3" max="3" width="87.3076923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.075"/>
+    <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
+    <col min="3" max="3" width="87.3083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="22" spans="1:3">
+    <row r="2" ht="21.75" spans="1:3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="22" spans="1:3">
+    <row r="3" ht="21.75" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="22" spans="1:3">
+    <row r="4" ht="21.75" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="22" spans="1:3">
+    <row r="5" ht="21.75" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="17.6" spans="1:3">
+    <row r="6" ht="21.75" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
+        <v>20210716</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="21" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5">
+        <v>20210715</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7">
         <v>20210623</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="17.6" spans="1:3">
+    <row r="10" ht="24" customHeight="1" spans="1:3">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:3">
+    <row r="11" ht="24" customHeight="1" spans="1:3">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="17.6" spans="1:3">
+    <row r="12" ht="21" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="17.6" spans="1:3">
+    <row r="13" ht="21" spans="1:3">
       <c r="A13" s="2"/>
-      <c r="B13" s="5">
-        <v>20210621</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="17.6" spans="1:3">
+    <row r="14" ht="21" spans="1:3">
       <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="17.6" spans="1:3">
+    <row r="15" ht="21" spans="1:3">
       <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:3">
+    <row r="16" ht="21" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="7">
+        <v>20210621</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="17.6" spans="1:3">
+    <row r="17" ht="21" spans="1:3">
       <c r="A17" s="2"/>
-      <c r="B17" s="5">
-        <v>20210601</v>
-      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="17.6" spans="1:3">
+    <row r="18" ht="21" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" ht="21" spans="1:3">
       <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="17.6" spans="1:3">
+    <row r="20" ht="21" spans="1:3">
       <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="7">
+        <v>20210601</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="17.6" spans="1:3">
+    <row r="21" ht="21" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:3">
+    <row r="22" ht="21" spans="1:3">
       <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="17.6" spans="1:3">
+    <row r="23" ht="21" spans="1:3">
       <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="17.6" spans="1:3">
+    <row r="24" ht="21" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="22" spans="1:3">
+    <row r="25" ht="21" spans="1:3">
       <c r="A25" s="2"/>
-      <c r="B25" s="3">
-        <v>20210527</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="22" spans="1:3">
+    <row r="26" ht="21" spans="1:3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3">
-        <v>20210518</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="22" spans="1:3">
+    <row r="27" ht="21" spans="1:3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2">
-        <v>20210515</v>
-      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="1:3">
+    <row r="28" ht="21.75" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="10">
-        <v>20210420</v>
+      <c r="B28" s="3">
+        <v>20210527</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="1:3">
+    <row r="29" ht="21.75" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="3">
+        <v>20210518</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="1:3">
+    <row r="30" ht="21.75" spans="1:3">
       <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="2">
+        <v>20210515</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="1:3">
+    <row r="31" ht="21" spans="1:3">
       <c r="A31" s="2"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="11">
+        <v>20210420</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="1:3">
+    <row r="32" ht="21" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="22" spans="1:3">
+    <row r="33" ht="21" spans="1:3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2">
-        <v>20210416</v>
-      </c>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="22" spans="1:3">
+    <row r="34" ht="21" spans="1:3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2">
-        <v>20210414</v>
-      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="1:3">
+    <row r="35" ht="21" spans="1:3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2">
-        <v>20210408</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="1:3">
+    <row r="36" ht="21.75" spans="1:3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2">
+        <v>20210416</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="1:3">
+    <row r="37" ht="21.75" spans="1:3">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2">
+        <v>20210414</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="1:3">
+    <row r="38" ht="21" spans="1:3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="2">
+        <v>20210408</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="1:3">
+    <row r="39" ht="21" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="1:3">
+    <row r="40" ht="21" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="1:3">
+    <row r="41" ht="21" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="1:3">
+    <row r="42" ht="21" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2">
-        <v>20210407</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="1:3">
+    <row r="43" ht="21" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="1:3">
+    <row r="44" ht="21" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="1:3">
+    <row r="45" ht="21" spans="1:3">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2">
+        <v>20210407</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="1:3">
+    <row r="46" ht="21" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="1:3">
+    <row r="47" ht="21" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" ht="22" spans="1:3">
+    <row r="48" ht="21" spans="1:3">
       <c r="A48" s="2"/>
-      <c r="B48" s="2">
-        <v>20210406</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="1:3">
+    <row r="49" ht="21" spans="1:3">
       <c r="A49" s="2"/>
-      <c r="B49" s="2">
-        <v>20210321</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="1:3">
+    <row r="50" ht="21" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="1:3">
+    <row r="51" ht="21.75" spans="1:3">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="2">
+        <v>20210406</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="1:3">
+    <row r="52" ht="21" spans="1:3">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="2">
+        <v>20210321</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" ht="22" spans="1:3">
+    <row r="53" ht="21" spans="1:3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2">
-        <v>20210320</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" ht="17.6" spans="1:3">
+    <row r="54" ht="21" spans="1:3">
       <c r="A54" s="2"/>
-      <c r="B54" s="2">
-        <v>20210316</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="1:3">
+    <row r="55" ht="21" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="1:3">
+    <row r="56" ht="21.75" spans="1:3">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="2">
+        <v>20210320</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="22" spans="1:3">
+    <row r="57" ht="21" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
-        <v>20210313</v>
-      </c>
-      <c r="C57" s="6" t="s">
+        <v>20210316</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="1:3">
+    <row r="58" ht="21" spans="1:3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2">
-        <v>20210302</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="1:3">
+    <row r="59" ht="21" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" ht="22" spans="1:3">
+    <row r="60" ht="21.75" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
-        <v>20210227</v>
-      </c>
-      <c r="C60" s="6" t="s">
+        <v>20210313</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" ht="17.6" spans="1:3">
+    <row r="61" ht="21" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
-        <v>20210220</v>
-      </c>
-      <c r="C61" s="6" t="s">
+        <v>20210302</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" ht="17.6" spans="1:3">
+    <row r="62" ht="21" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="17.6" spans="1:3">
+    <row r="63" ht="21.75" spans="1:3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="2">
+        <v>20210227</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" ht="17.6" spans="1:3">
+    <row r="64" ht="21" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4" t="s">
+      <c r="B64" s="2">
+        <v>20210220</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" ht="17.6" spans="1:3">
+    <row r="65" ht="21" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" ht="17.6" spans="1:3">
+    <row r="66" ht="21" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" ht="17.6" spans="1:3">
+    <row r="67" ht="21" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" ht="17.6" spans="1:3">
+    <row r="68" ht="21" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="17.6" spans="1:3">
+    <row r="69" ht="21" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" ht="17.6" spans="1:3">
+    <row r="70" ht="21" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="2">
-        <v>20210206</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="17.6" spans="1:3">
+    <row r="71" ht="21" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="17.6" spans="1:3">
+    <row r="72" ht="21" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" ht="17.6" spans="1:3">
+    <row r="73" ht="21" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="2">
+        <v>20210206</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" ht="17.6" spans="1:3">
+    <row r="74" ht="21" spans="1:3">
       <c r="A74" s="2"/>
-      <c r="B74" s="10">
+      <c r="B74" s="2"/>
+      <c r="C74" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" ht="21" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" ht="21" spans="1:3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" ht="21" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="11">
         <v>20210111</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" ht="17.6" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" ht="17.6" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" ht="17.6" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="11"/>
       <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="17.6" spans="1:3">
+    <row r="78" ht="21" spans="1:3">
       <c r="A78" s="2"/>
-      <c r="B78" s="11"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" ht="17.6" spans="1:3">
+    <row r="79" ht="21" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" ht="17.6" spans="1:3">
+    <row r="80" ht="21" spans="1:3">
       <c r="A80" s="2"/>
-      <c r="B80" s="11"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" ht="17.6" spans="1:3">
+    <row r="81" ht="21" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="11"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" ht="17.6" spans="1:3">
+    <row r="82" ht="21" spans="1:3">
       <c r="A82" s="2"/>
-      <c r="B82" s="11"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" ht="17.6" spans="1:3">
+    <row r="83" ht="21" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="12"/>
       <c r="C83" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" ht="17.6" spans="1:3">
+    <row r="84" ht="21" spans="1:3">
       <c r="A84" s="2"/>
-      <c r="B84" s="10">
-        <v>20210106</v>
-      </c>
+      <c r="B84" s="12"/>
       <c r="C84" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" ht="17.6" spans="1:3">
+    <row r="85" ht="21" spans="1:3">
       <c r="A85" s="2"/>
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" ht="17.6" spans="1:3">
+    <row r="86" ht="21" spans="1:3">
       <c r="A86" s="2"/>
-      <c r="B86" s="11"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" ht="17.6" spans="1:3">
+    <row r="87" ht="21" spans="1:3">
       <c r="A87" s="2"/>
-      <c r="B87" s="12"/>
+      <c r="B87" s="11">
+        <v>20210106</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" ht="17.6" spans="1:3">
+    <row r="88" ht="21" spans="1:3">
       <c r="A88" s="2"/>
-      <c r="B88" s="2">
-        <v>20210101</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B88" s="12"/>
+      <c r="C88" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" ht="17.6" spans="1:3">
+    <row r="89" ht="21" spans="1:3">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="12"/>
+      <c r="C89" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" ht="22" spans="1:3">
-      <c r="A90" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B90" s="2">
-        <v>20201230</v>
-      </c>
-      <c r="C90" s="6" t="s">
+    <row r="90" ht="21" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" ht="17.6" spans="1:3">
+    <row r="91" ht="21" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
-        <v>20201225</v>
-      </c>
-      <c r="C91" s="4" t="s">
+        <v>20210101</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" ht="17.6" spans="1:3">
+    <row r="92" ht="21" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" ht="17.6" spans="1:3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="4" t="s">
+    <row r="93" ht="21.75" spans="1:3">
+      <c r="A93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="2">
+        <v>20201230</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" ht="17.6" spans="1:3">
+    <row r="94" ht="21" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
-        <v>20201210</v>
-      </c>
-      <c r="C94" s="6" t="s">
+        <v>20201225</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" ht="17.6" spans="1:3">
+    <row r="95" ht="21" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" ht="17.6" spans="1:3">
+    <row r="96" ht="21" spans="1:3">
       <c r="A96" s="2"/>
-      <c r="B96" s="2">
-        <v>20201127</v>
-      </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" ht="17.6" spans="1:3">
+    <row r="97" ht="21" spans="1:3">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="2">
+        <v>20201210</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="17.6" spans="1:3">
+    <row r="98" ht="21" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" ht="17.6" spans="1:3">
+    <row r="99" ht="21" spans="1:3">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2">
+        <v>20201127</v>
+      </c>
       <c r="C99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" ht="17.6" spans="1:3">
+    <row r="100" ht="21" spans="1:3">
       <c r="A100" s="2"/>
-      <c r="B100" s="2">
-        <v>20201125</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="B100" s="2"/>
+      <c r="C100" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" ht="17.6" spans="1:3">
+    <row r="101" ht="21" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" ht="17.6" spans="1:3">
+    <row r="102" ht="21" spans="1:3">
       <c r="A102" s="2"/>
-      <c r="B102" s="2">
-        <v>20201123</v>
-      </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" ht="17.6" spans="1:3">
+    <row r="103" ht="21" spans="1:3">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="2">
+        <v>20201125</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" ht="22" spans="1:3">
+    <row r="104" ht="21" spans="1:3">
       <c r="A104" s="2"/>
-      <c r="B104" s="2">
-        <v>20201109</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="B104" s="2"/>
+      <c r="C104" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" ht="22" spans="1:3">
+    <row r="105" ht="21" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
-        <v>20201103</v>
+        <v>20201123</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" ht="17.6" spans="1:3">
+    <row r="106" ht="21" spans="1:3">
       <c r="A106" s="2"/>
-      <c r="B106" s="2">
+      <c r="B106" s="2"/>
+      <c r="C106" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" ht="21.75" spans="1:3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2">
+        <v>20201109</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" ht="21.75" spans="1:3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2">
+        <v>20201103</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" ht="21" spans="1:3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2">
         <v>20200919</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" ht="17.6" spans="1:3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" ht="17.6" spans="1:3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" ht="17.6" spans="1:3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="17.6" spans="1:3">
+    <row r="110" ht="21" spans="1:3">
       <c r="A110" s="2"/>
-      <c r="B110" s="2">
-        <v>20200912</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="B110" s="2"/>
+      <c r="C110" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" ht="17.6" spans="1:3">
+    <row r="111" ht="21" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" ht="17.6" spans="1:3">
+    <row r="112" ht="21" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" ht="22" spans="1:3">
+    <row r="113" ht="21" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
-        <v>20200910</v>
+        <v>20200912</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="114" ht="18" spans="1:3">
+    <row r="114" ht="21" spans="1:3">
       <c r="A114" s="2"/>
-      <c r="B114" s="2">
-        <v>20200901</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="B114" s="2"/>
+      <c r="C114" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" ht="17.6" spans="1:3">
+    <row r="115" ht="21" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" ht="17.6" spans="1:3">
+    <row r="116" ht="21.75" spans="1:3">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="6" t="s">
+      <c r="B116" s="2">
+        <v>20200910</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="17.6" spans="1:3">
+    <row r="117" ht="21" spans="1:3">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="6" t="s">
+      <c r="B117" s="2">
+        <v>20200901</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" ht="17.6" spans="1:3">
+    <row r="118" ht="21" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" ht="17.6" spans="1:3">
+    <row r="119" ht="21" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" ht="17.6" spans="1:3">
+    <row r="120" ht="21" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="17.6" spans="1:3">
+    <row r="121" ht="21" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="17.6" spans="1:3">
+    <row r="122" ht="21" spans="1:3">
       <c r="A122" s="2"/>
-      <c r="B122" s="2">
-        <v>20200827</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="B122" s="2"/>
+      <c r="C122" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" ht="17.6" spans="1:3">
+    <row r="123" ht="21" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" ht="17.6" spans="1:3">
+    <row r="124" ht="21" spans="1:3">
       <c r="A124" s="2"/>
-      <c r="B124" s="2">
-        <v>20200806</v>
-      </c>
-      <c r="C124" s="4" t="s">
+      <c r="B124" s="2"/>
+      <c r="C124" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="125" ht="17.6" spans="1:3">
+    <row r="125" ht="21" spans="1:3">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="6" t="s">
+      <c r="B125" s="2">
+        <v>20200827</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" ht="17.6" spans="1:3">
+    <row r="126" ht="21" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="22" spans="1:3">
+    <row r="127" ht="21" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
-        <v>20200804</v>
+        <v>20200806</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" ht="22" spans="1:3">
+    <row r="128" ht="21" spans="1:3">
       <c r="A128" s="2"/>
-      <c r="B128" s="2">
+      <c r="B128" s="2"/>
+      <c r="C128" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" ht="21" spans="1:3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" ht="21.75" spans="1:3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2">
+        <v>20200804</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" ht="21.75" spans="1:3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2">
         <v>20200703</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" ht="17.6" spans="1:3">
-      <c r="A129" s="2"/>
-      <c r="B129" s="10">
+      <c r="C131" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" ht="21" spans="1:3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="11">
         <v>20200627</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" ht="17.6" spans="1:3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" ht="17.6" spans="1:3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" ht="17.6" spans="1:3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" ht="17.6" spans="1:3">
+    <row r="133" ht="21" spans="1:3">
       <c r="A133" s="2"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="6" t="s">
+      <c r="B133" s="12"/>
+      <c r="C133" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" ht="17.6" spans="1:3">
+    <row r="134" ht="21" spans="1:3">
       <c r="A134" s="2"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="6" t="s">
+      <c r="B134" s="12"/>
+      <c r="C134" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="135" ht="17.6" spans="1:3">
+    <row r="135" ht="21" spans="1:3">
       <c r="A135" s="2"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="6" t="s">
+      <c r="B135" s="12"/>
+      <c r="C135" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" ht="17.6" spans="1:3">
+    <row r="136" ht="21" spans="1:3">
       <c r="A136" s="2"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="12"/>
+      <c r="C136" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" ht="17.6" spans="1:3">
+    <row r="137" ht="21" spans="1:3">
       <c r="A137" s="2"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="6" t="s">
+      <c r="B137" s="12"/>
+      <c r="C137" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" ht="17.6" spans="1:3">
+    <row r="138" ht="21" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="12"/>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" ht="17.6" spans="1:3">
+    <row r="139" ht="21" spans="1:3">
       <c r="A139" s="2"/>
-      <c r="B139" s="2">
+      <c r="B139" s="12"/>
+      <c r="C139" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" ht="21" spans="1:3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" ht="21" spans="1:3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" ht="21" spans="1:3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2">
         <v>20200611</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" ht="17.6" spans="1:3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="141" ht="17.6" spans="1:3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="142" ht="17.6" spans="1:3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
       <c r="C142" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" ht="17.6" spans="1:3">
+    <row r="143" ht="21" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" ht="17.6" spans="1:3">
+    <row r="144" ht="21" spans="1:3">
       <c r="A144" s="2"/>
-      <c r="B144" s="2">
-        <v>20200606</v>
-      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" ht="17.6" spans="1:3">
+    <row r="145" ht="21" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" ht="17.6" spans="1:3">
+    <row r="146" ht="21" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" ht="17.6" spans="1:3">
+    <row r="147" ht="21" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
-        <v>20200601</v>
+        <v>20200606</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="148" ht="17.6" spans="1:3">
+    <row r="148" ht="21" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" ht="17.6" spans="1:3">
+    <row r="149" ht="21" spans="1:3">
       <c r="A149" s="2"/>
-      <c r="B149" s="2">
-        <v>20200402</v>
-      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="17.6" spans="1:3">
+    <row r="150" ht="21" spans="1:3">
       <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2">
+        <v>20200601</v>
+      </c>
       <c r="C150" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151" ht="17.6" spans="1:3">
-      <c r="A151" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B151" s="2">
-        <v>20181120</v>
-      </c>
-      <c r="C151" s="6" t="s">
+    <row r="151" ht="21" spans="1:3">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152" ht="17.6" spans="1:3">
+    <row r="152" ht="21" spans="1:3">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="2">
+        <v>20200402</v>
+      </c>
       <c r="C152" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" ht="17.6" spans="1:3">
+    <row r="153" ht="21" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" ht="17.6" spans="1:3">
-      <c r="A154" s="2"/>
+    <row r="154" ht="21" spans="1:3">
+      <c r="A154" s="2">
+        <v>2018</v>
+      </c>
       <c r="B154" s="2">
-        <v>20181020</v>
-      </c>
-      <c r="C154" s="4" t="s">
+        <v>20181120</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="17.6" spans="1:3">
+    <row r="155" ht="21" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" ht="17.6" spans="1:3">
+    <row r="156" ht="21" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157" ht="17.6" spans="1:3">
+    <row r="157" ht="21" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
-        <v>20181018</v>
+        <v>20181020</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="158" ht="17.6" spans="1:3">
+    <row r="158" ht="21" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" ht="17.6" spans="1:3">
+    <row r="159" ht="21" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="17.6" spans="1:3">
+    <row r="160" ht="21" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
-        <v>20180907</v>
+        <v>20181018</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="161" ht="17.6" spans="1:3">
+    <row r="161" ht="21" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" ht="17.6" spans="1:3">
+    <row r="162" ht="21" spans="1:3">
       <c r="A162" s="2"/>
-      <c r="B162" s="2">
-        <v>20180906</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="B162" s="2"/>
+      <c r="C162" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" ht="17.6" spans="1:3">
+    <row r="163" ht="21" spans="1:3">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2">
+        <v>20180907</v>
+      </c>
       <c r="C163" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="164" ht="17.6" spans="1:3">
+    <row r="164" ht="21" spans="1:3">
       <c r="A164" s="2"/>
-      <c r="B164" s="2">
-        <v>20180822</v>
-      </c>
+      <c r="B164" s="2"/>
       <c r="C164" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="165" ht="17.6" spans="1:3">
+    <row r="165" ht="21" spans="1:3">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="2">
+        <v>20180906</v>
+      </c>
       <c r="C165" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166" ht="17.6" spans="1:3">
+    <row r="166" ht="21" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="17.6" spans="1:3">
+    <row r="167" ht="21" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
-        <v>20180808</v>
+        <v>20180822</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="17.6" spans="1:3">
+    <row r="168" ht="21" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="169" ht="22" spans="1:3">
+    <row r="169" ht="21" spans="1:3">
       <c r="A169" s="2"/>
-      <c r="B169" s="2">
-        <v>20180801</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="170" ht="17.6" spans="1:3">
+    <row r="170" ht="21" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
-        <v>20180730</v>
+        <v>20180808</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="171" ht="17.6" spans="1:3">
+    <row r="171" ht="21" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" ht="17.6" spans="1:3">
+    <row r="172" ht="21.75" spans="1:3">
       <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+      <c r="B172" s="2">
+        <v>20180801</v>
+      </c>
       <c r="C172" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="17.6" spans="1:3">
+    <row r="173" ht="21" spans="1:3">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="2">
+        <v>20180730</v>
+      </c>
       <c r="C173" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="174" ht="17.6" spans="1:3">
+    <row r="174" ht="21" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="17.6" spans="1:3">
+    <row r="175" ht="21" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="176" ht="17.6" spans="1:3">
+    <row r="176" ht="21" spans="1:3">
       <c r="A176" s="2"/>
-      <c r="B176" s="2">
-        <v>20180705</v>
-      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="17.6" spans="1:3">
+    <row r="177" ht="21" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="17.6" spans="1:3">
+    <row r="178" ht="21" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="17.6" spans="1:3">
+    <row r="179" ht="21" spans="1:3">
       <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="B179" s="2">
+        <v>20180705</v>
+      </c>
       <c r="C179" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="180" ht="17.6" spans="1:3">
+    <row r="180" ht="21" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" ht="17.6" spans="1:3">
+    <row r="181" ht="21" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" ht="17.6" spans="1:3">
+    <row r="182" ht="21" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" ht="17.6" spans="1:3">
+    <row r="183" ht="21" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="17.6" spans="1:3">
+    <row r="184" ht="21" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" ht="17.6" spans="1:3">
+    <row r="185" ht="21" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" ht="17.6" spans="1:3">
+    <row r="186" ht="21" spans="1:3">
       <c r="A186" s="2"/>
-      <c r="B186" s="2">
-        <v>20180613</v>
-      </c>
+      <c r="B186" s="2"/>
       <c r="C186" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" ht="17.6" spans="1:3">
+    <row r="187" ht="21" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="188" ht="17.6" spans="1:3">
+    <row r="188" ht="21" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="17.6" spans="1:3">
+    <row r="189" ht="21" spans="1:3">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="2">
+        <v>20180613</v>
+      </c>
       <c r="C189" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="190" ht="22" spans="1:3">
+    <row r="190" ht="21" spans="1:3">
       <c r="A190" s="2"/>
-      <c r="B190" s="2">
-        <v>20180427</v>
-      </c>
-      <c r="C190" s="4" t="s">
+      <c r="B190" s="2"/>
+      <c r="C190" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="191" ht="17.6" spans="1:3">
+    <row r="191" ht="21" spans="1:3">
       <c r="A191" s="2"/>
-      <c r="B191" s="2">
-        <v>20180426</v>
-      </c>
+      <c r="B191" s="2"/>
       <c r="C191" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="192" ht="17.6" spans="1:3">
+    <row r="192" ht="21" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="17.6" spans="1:3">
+    <row r="193" ht="21.75" spans="1:3">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="2">
+        <v>20180427</v>
+      </c>
       <c r="C193" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" ht="17.6" spans="1:3">
+    <row r="194" ht="21" spans="1:3">
       <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="2">
+        <v>20180426</v>
+      </c>
       <c r="C194" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" ht="17.6" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" ht="21" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196" ht="17.6" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" ht="21" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" ht="17.6" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" ht="21" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" ht="17.6" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" ht="21" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" ht="17.6" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" ht="21" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="200" ht="17.6" spans="1:3">
+    <row r="200" ht="21" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" ht="17.6" spans="1:3">
+    <row r="201" ht="21" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202" ht="17.6" spans="1:3">
+    <row r="202" ht="21" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="203" ht="17.6" spans="1:3">
+    <row r="203" ht="21" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="204" ht="17.6" spans="1:3">
+    <row r="204" ht="21" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="205" ht="17.6" spans="1:3">
+    <row r="205" ht="21" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" ht="17.6" spans="1:3">
+    <row r="206" ht="21" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="207" ht="17.6" spans="1:3">
+    <row r="207" ht="21" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="208" ht="17.6" spans="1:3">
+    <row r="208" ht="21" spans="1:3">
       <c r="A208" s="2"/>
-      <c r="B208" s="2">
-        <v>20180217</v>
-      </c>
-      <c r="C208" s="6" t="s">
+      <c r="B208" s="2"/>
+      <c r="C208" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="209" ht="17.6" spans="1:3">
+    <row r="209" ht="21" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" ht="17.6" spans="1:3">
+    <row r="210" ht="21" spans="1:3">
       <c r="A210" s="2"/>
-      <c r="B210" s="2">
-        <v>20180125</v>
-      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="211" ht="17.6" spans="1:3">
+    <row r="211" ht="21" spans="1:3">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="4" t="s">
+      <c r="B211" s="2">
+        <v>20180217</v>
+      </c>
+      <c r="C211" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="212" ht="17.6" spans="1:3">
+    <row r="212" ht="21" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" ht="17.6" spans="1:3">
+    <row r="213" ht="21" spans="1:3">
       <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="B213" s="2">
+        <v>20180125</v>
+      </c>
       <c r="C213" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="214" ht="17.6" spans="1:3">
+    <row r="214" ht="21" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" ht="17.6" spans="1:3">
-      <c r="A215" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B215" s="2">
-        <v>20171220</v>
-      </c>
-      <c r="C215" s="6" t="s">
+    <row r="215" ht="21" spans="1:3">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" ht="17.6" spans="1:3">
+    <row r="216" ht="21" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="217" ht="17.6" spans="1:3">
+    <row r="217" ht="21" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" ht="17.6" spans="1:3">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="4" t="s">
+    <row r="218" ht="21" spans="1:3">
+      <c r="A218" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B218" s="2">
+        <v>20171220</v>
+      </c>
+      <c r="C218" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="219" ht="17.6" spans="1:3">
+    <row r="219" ht="21" spans="1:3">
       <c r="A219" s="2"/>
-      <c r="B219" s="2">
-        <v>20171128</v>
-      </c>
+      <c r="B219" s="2"/>
       <c r="C219" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="220" ht="17.6" spans="1:3">
+    <row r="220" ht="21" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" ht="17.6" spans="1:3">
+    <row r="221" ht="21" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
+    <row r="222" ht="21" spans="1:3">
       <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="B222" s="2">
+        <v>20171128</v>
+      </c>
       <c r="C222" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" ht="17.6" spans="1:3">
+    <row r="223" ht="21" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="224" ht="17.6" spans="1:3">
+    <row r="224" ht="21" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="225" ht="17.6" spans="1:3">
+    <row r="225" ht="21" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="226" ht="17.6" spans="1:3">
+    <row r="226" ht="21" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="227" ht="17.6" spans="1:3">
+    <row r="227" ht="21" spans="1:3">
       <c r="A227" s="2"/>
-      <c r="B227" s="2">
-        <v>20170925</v>
-      </c>
-      <c r="C227" s="6" t="s">
+      <c r="B227" s="2"/>
+      <c r="C227" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="228" ht="17.6" spans="1:3">
+    <row r="228" ht="21" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" ht="17.6" spans="1:3">
+    <row r="229" ht="21" spans="1:3">
       <c r="A229" s="2"/>
-      <c r="B229" s="2">
-        <v>20170912</v>
-      </c>
-      <c r="C229" s="4" t="s">
+      <c r="B229" s="2"/>
+      <c r="C229" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:3">
+    <row r="230" ht="21" spans="1:3">
       <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="4" t="s">
+      <c r="B230" s="2">
+        <v>20170925</v>
+      </c>
+      <c r="C230" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="231" ht="17.6" spans="1:3">
+    <row r="231" ht="21" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="232" ht="17.6" spans="1:3">
+    <row r="232" ht="21" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="2">
-        <v>20170716</v>
+        <v>20170912</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="233" ht="17.6" spans="1:3">
+    <row r="233" ht="21" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="234" ht="17.6" spans="1:3">
+    <row r="234" ht="21" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="235" ht="17.6" spans="1:3">
+    <row r="235" ht="21" spans="1:3">
       <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="B235" s="2">
+        <v>20170716</v>
+      </c>
       <c r="C235" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="236" ht="17.6" spans="1:3">
+    <row r="236" ht="21" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="237" ht="17.6" spans="1:3">
+    <row r="237" ht="21" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:3">
+    <row r="238" ht="21" spans="1:3">
       <c r="A238" s="2"/>
-      <c r="B238" s="2">
-        <v>20170613</v>
-      </c>
+      <c r="B238" s="2"/>
       <c r="C238" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="239" ht="17.6" spans="1:3">
+    <row r="239" ht="21" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" ht="17.6" spans="1:3">
+    <row r="240" ht="21" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="241" ht="17.6" spans="1:3">
+      <c r="C240" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="241" ht="21" spans="1:3">
       <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="242" ht="17.6" spans="1:3">
+      <c r="B241" s="2">
+        <v>20170613</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="242" ht="21" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
-      <c r="C242" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="243" ht="17.6" spans="1:3">
+      <c r="C242" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" ht="21" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
-      <c r="C243" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="244" ht="17.6" spans="1:3">
+      <c r="C243" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" ht="21" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="245" ht="22" spans="1:3">
+    <row r="245" ht="21" spans="1:3">
       <c r="A245" s="2"/>
-      <c r="B245" s="2">
+      <c r="B245" s="2"/>
+      <c r="C245" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="246" ht="21" spans="1:3">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" ht="21" spans="1:3">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="248" ht="21.75" spans="1:3">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2">
         <v>20170503</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="246" ht="22" spans="1:3">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2">
-        <v>20170412</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="247" ht="17.6" spans="1:3">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2">
-        <v>20170411</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="248" ht="17.6" spans="1:3">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
       <c r="C248" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="249" ht="17.6" spans="1:3">
+    <row r="249" ht="21.75" spans="1:3">
       <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="B249" s="2">
+        <v>20170412</v>
+      </c>
       <c r="C249" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="250" ht="17.6" spans="1:3">
+    <row r="250" ht="21" spans="1:3">
       <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="B250" s="2">
+        <v>20170411</v>
+      </c>
       <c r="C250" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="251" ht="17.6" spans="1:3">
+    <row r="251" ht="21" spans="1:3">
       <c r="A251" s="2"/>
-      <c r="B251" s="2">
-        <v>20170318</v>
-      </c>
-      <c r="C251" s="6" t="s">
+      <c r="B251" s="2"/>
+      <c r="C251" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="252" ht="17.6" spans="1:3">
+    <row r="252" ht="21" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="253" ht="17.6" spans="1:3">
+    <row r="253" ht="21" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="254" ht="17.6" spans="1:3">
+    <row r="254" ht="21" spans="1:3">
       <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="4" t="s">
+      <c r="B254" s="2">
+        <v>20170318</v>
+      </c>
+      <c r="C254" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="255" ht="17.6" spans="1:3">
+    <row r="255" ht="21" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="256" ht="17.6" spans="1:3">
+    <row r="256" ht="21" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" ht="22" spans="1:3">
-      <c r="A257" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B257" s="2">
-        <v>20161215</v>
-      </c>
+    <row r="257" ht="21" spans="1:3">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="258" ht="22" spans="1:3">
+    <row r="258" ht="21" spans="1:3">
       <c r="A258" s="2"/>
-      <c r="B258" s="2">
-        <v>20160420</v>
-      </c>
+      <c r="B258" s="2"/>
       <c r="C258" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="259" ht="17.6" spans="1:3">
+    <row r="259" ht="21" spans="1:3">
       <c r="A259" s="2"/>
-      <c r="B259" s="2">
-        <v>20160415</v>
-      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="260" ht="17.6" spans="1:3">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+    <row r="260" ht="21.75" spans="1:3">
+      <c r="A260" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B260" s="2">
+        <v>20161215</v>
+      </c>
       <c r="C260" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" ht="17.6" spans="1:3">
+    <row r="261" ht="21.75" spans="1:3">
       <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="6" t="s">
+      <c r="B261" s="2">
+        <v>20160420</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="262" ht="17.6" spans="1:3">
+    <row r="262" ht="21" spans="1:3">
       <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="B262" s="2">
+        <v>20160415</v>
+      </c>
       <c r="C262" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="263" ht="17.6" spans="1:3">
+    <row r="263" ht="21" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="264" ht="17.6" spans="1:3">
+    <row r="264" ht="21" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="265" ht="22" spans="1:3">
+    <row r="265" ht="21" spans="1:3">
       <c r="A265" s="2"/>
-      <c r="B265" s="2">
-        <v>20160111</v>
-      </c>
+      <c r="B265" s="2"/>
       <c r="C265" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="266" ht="17.6" spans="1:3">
-      <c r="A266" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B266" s="2">
-        <v>20151221</v>
-      </c>
+    <row r="266" ht="21" spans="1:3">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
       <c r="C266" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="267" ht="17.6" spans="1:3">
+    <row r="267" ht="21" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="6" t="s">
+      <c r="C267" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="268" ht="17.6" spans="1:3">
+    <row r="268" ht="21.75" spans="1:3">
       <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="B268" s="2">
+        <v>20160111</v>
+      </c>
       <c r="C268" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="269" ht="17.6" spans="1:3">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+    <row r="269" ht="21" spans="1:3">
+      <c r="A269" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B269" s="2">
+        <v>20151221</v>
+      </c>
       <c r="C269" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="270" ht="17.6" spans="1:3">
+    <row r="270" ht="21" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="271" ht="17.6" spans="1:3">
+    <row r="271" ht="21" spans="1:3">
       <c r="A271" s="2"/>
-      <c r="B271" s="2">
-        <v>20151104</v>
-      </c>
+      <c r="B271" s="2"/>
       <c r="C271" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="272" ht="17.6" spans="1:3">
+    <row r="272" ht="21" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" ht="17.6" spans="1:3">
+    <row r="273" ht="21" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="274" ht="17.6" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="274" ht="21" spans="1:3">
       <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="B274" s="2">
+        <v>20151104</v>
+      </c>
       <c r="C274" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="275" ht="17.6" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" ht="21" spans="1:3">
       <c r="A275" s="2"/>
-      <c r="B275" s="2">
-        <v>20150807</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="276" ht="17.6" spans="1:3">
+      <c r="B275" s="2"/>
+      <c r="C275" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="276" ht="21" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="277" ht="17.6" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="277" ht="21" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="6" t="s">
+      <c r="C277" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="278" ht="17.6" spans="1:3">
+    <row r="278" ht="21" spans="1:3">
       <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="B278" s="2">
+        <v>20150807</v>
+      </c>
       <c r="C278" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="279" ht="17.6" spans="1:3">
+    <row r="279" ht="21" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="280" ht="17.6" spans="1:3">
+    <row r="280" ht="21" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="6" t="s">
+      <c r="C280" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="281" ht="17.6" spans="1:3">
+    <row r="281" ht="21" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="282" ht="17.6" spans="1:3">
+    <row r="282" ht="21" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="283" ht="17.6" spans="1:3">
+    <row r="283" ht="21" spans="1:3">
       <c r="A283" s="2"/>
-      <c r="B283" s="2">
-        <v>20150303</v>
-      </c>
-      <c r="C283" s="6" t="s">
+      <c r="B283" s="2"/>
+      <c r="C283" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="284" ht="17.6" spans="1:3">
+    <row r="284" ht="21" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="285" ht="17.6" spans="1:3">
-      <c r="A285" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B285" s="2">
-        <v>20141210</v>
-      </c>
+    <row r="285" ht="21" spans="1:3">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
       <c r="C285" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="286" ht="17.6" spans="1:3">
+    <row r="286" ht="21" spans="1:3">
       <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="6" t="s">
+      <c r="B286" s="2">
+        <v>20150303</v>
+      </c>
+      <c r="C286" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="287" ht="17.6" spans="1:3">
+    <row r="287" ht="21" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="6" t="s">
+      <c r="C287" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="288" ht="17.6" spans="1:3">
-      <c r="A288" s="2"/>
+    <row r="288" ht="21" spans="1:3">
+      <c r="A288" s="2">
+        <v>2014</v>
+      </c>
       <c r="B288" s="2">
-        <v>20141120</v>
+        <v>20141210</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="289" ht="17.6" spans="1:3">
+    <row r="289" ht="21" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="6" t="s">
+      <c r="C289" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="290" ht="17.6" spans="1:3">
+    <row r="290" ht="21" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="291" ht="17.6" spans="1:3">
-      <c r="A291" s="2">
-        <v>2013</v>
-      </c>
+    <row r="291" ht="21" spans="1:3">
+      <c r="A291" s="2"/>
       <c r="B291" s="2">
-        <v>20131206</v>
-      </c>
-      <c r="C291" s="6" t="s">
+        <v>20141120</v>
+      </c>
+      <c r="C291" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="292" ht="17.6" spans="1:3">
+    <row r="292" ht="21" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="293" ht="17.6" spans="1:3">
+    <row r="293" ht="21" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="294" ht="17.6" spans="1:3">
-      <c r="A294" s="2"/>
+    <row r="294" ht="21" spans="1:3">
+      <c r="A294" s="2">
+        <v>2013</v>
+      </c>
       <c r="B294" s="2">
-        <v>20130807</v>
-      </c>
-      <c r="C294" s="4" t="s">
+        <v>20131206</v>
+      </c>
+      <c r="C294" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="295" ht="17.6" spans="1:3">
+    <row r="295" ht="21" spans="1:3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="296" ht="17.6" spans="1:3">
+    <row r="296" ht="21" spans="1:3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="297" ht="17.6" spans="1:3">
+    <row r="297" ht="21" spans="1:3">
       <c r="A297" s="2"/>
       <c r="B297" s="2">
-        <v>20130722</v>
-      </c>
-      <c r="C297" s="6" t="s">
+        <v>20130807</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="298" ht="17.6" spans="1:3">
+    <row r="298" ht="21" spans="1:3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" ht="21" spans="1:3">
       <c r="A299" s="2"/>
-      <c r="B299" s="2">
-        <v>20130618</v>
-      </c>
-      <c r="C299" s="13" t="s">
+      <c r="B299" s="2"/>
+      <c r="C299" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="300" ht="17.6" spans="1:3">
+    <row r="300" ht="21" spans="1:3">
       <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="4" t="s">
+      <c r="B300" s="2">
+        <v>20130722</v>
+      </c>
+      <c r="C300" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="301" ht="17.6" spans="1:3">
+    <row r="301" ht="21" spans="1:3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="302" ht="17.6" spans="1:3">
+    <row r="302" ht="21" spans="1:3">
       <c r="A302" s="2"/>
       <c r="B302" s="2">
-        <v>20130607</v>
-      </c>
-      <c r="C302" s="6" t="s">
+        <v>20130618</v>
+      </c>
+      <c r="C302" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="303" ht="17.6" spans="1:3">
+    <row r="303" ht="21" spans="1:3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="304" ht="17.6" spans="1:3">
+    <row r="304" ht="21" spans="1:3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="305" ht="22" spans="1:3">
+    <row r="305" ht="21" spans="1:3">
       <c r="A305" s="2"/>
       <c r="B305" s="2">
-        <v>20130417</v>
-      </c>
-      <c r="C305" s="13" t="s">
+        <v>20130607</v>
+      </c>
+      <c r="C305" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="306" ht="17.6" spans="1:3">
-      <c r="A306" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B306" s="2">
-        <v>20120119</v>
-      </c>
+    <row r="306" ht="21" spans="1:3">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
       <c r="C306" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="307" ht="17.6" spans="1:3">
+    <row r="307" ht="21" spans="1:3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="6" t="s">
+      <c r="C307" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="308" ht="17.6" spans="1:3">
-      <c r="A308" s="2">
-        <v>2011</v>
-      </c>
+    <row r="308" ht="21.75" spans="1:3">
+      <c r="A308" s="2"/>
       <c r="B308" s="2">
-        <v>20110818</v>
-      </c>
-      <c r="C308" s="4" t="s">
+        <v>20130417</v>
+      </c>
+      <c r="C308" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="309" ht="17.6" spans="1:3">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
+    <row r="309" ht="21" spans="1:3">
+      <c r="A309" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B309" s="2">
+        <v>20120119</v>
+      </c>
       <c r="C309" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="310" ht="17.6" spans="1:3">
+    <row r="310" ht="21" spans="1:3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="311" ht="17.6" spans="1:3">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+    <row r="311" ht="21" spans="1:3">
+      <c r="A311" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B311" s="2">
+        <v>20110818</v>
+      </c>
       <c r="C311" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="312" ht="17.6" spans="1:3">
+    <row r="312" ht="21" spans="1:3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="6" t="s">
+      <c r="C312" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="313" ht="17.6" spans="1:3">
-      <c r="A313" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B313" s="2">
-        <v>20101013</v>
-      </c>
-      <c r="C313" s="6" t="s">
+    <row r="313" ht="21" spans="1:3">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="314" ht="17.6" spans="1:3">
+    <row r="314" ht="21" spans="1:3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="6" t="s">
+      <c r="C314" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="315" ht="17.6" spans="1:3">
+    <row r="315" ht="21" spans="1:3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="6" t="s">
+      <c r="C315" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="316" ht="17.6" spans="1:3">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="317" ht="17.6" spans="1:3">
+    <row r="316" ht="21" spans="1:3">
+      <c r="A316" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B316" s="2">
+        <v>20101013</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="317" ht="21" spans="1:3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="318" ht="17.6" spans="1:3">
-      <c r="A318" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B318" s="2">
-        <v>20091218</v>
-      </c>
-      <c r="C318" s="6" t="s">
+      <c r="C317" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="319" ht="17.6" spans="1:3">
+    <row r="318" ht="21" spans="1:3">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="319" ht="21" spans="1:3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="320" ht="17.6" spans="1:3">
+      <c r="C319" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" ht="21" spans="1:3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="6" t="s">
+      <c r="C320" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="321" ht="17.6" spans="1:3">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="6" t="s">
+    <row r="321" ht="21" spans="1:3">
+      <c r="A321" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B321" s="2">
+        <v>20091218</v>
+      </c>
+      <c r="C321" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="322" ht="17.6" spans="1:3">
+    <row r="322" ht="21" spans="1:3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="4" t="s">
+      <c r="C322" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="323" ht="17.6" spans="1:3">
+    <row r="323" ht="21" spans="1:3">
       <c r="A323" s="2"/>
-      <c r="B323" s="2">
-        <v>20090827</v>
-      </c>
-      <c r="C323" s="4" t="s">
+      <c r="B323" s="2"/>
+      <c r="C323" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="324" ht="17.6" spans="1:3">
+    <row r="324" ht="21" spans="1:3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="6" t="s">
+      <c r="C324" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="325" ht="17.6" spans="1:3">
+    <row r="325" ht="21" spans="1:3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="326" ht="17.6" spans="1:3">
+    <row r="326" ht="21" spans="1:3">
       <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="6" t="s">
+      <c r="B326" s="2">
+        <v>20090827</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="327" ht="22" spans="1:3">
+    <row r="327" ht="21" spans="1:3">
       <c r="A327" s="2"/>
-      <c r="B327" s="2">
-        <v>20090731</v>
-      </c>
-      <c r="C327" s="14" t="s">
+      <c r="B327" s="2"/>
+      <c r="C327" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="328" ht="17.6" spans="1:3">
+    <row r="328" ht="21" spans="1:3">
       <c r="A328" s="2"/>
-      <c r="B328" s="2">
-        <v>20090723</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B328" s="2"/>
+      <c r="C328" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="329" ht="17.6" spans="1:3">
+    <row r="329" ht="21" spans="1:3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="6" t="s">
+      <c r="C329" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="330" ht="17.6" spans="1:3">
+    <row r="330" ht="21.75" spans="1:3">
       <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="6" t="s">
+      <c r="B330" s="2">
+        <v>20090731</v>
+      </c>
+      <c r="C330" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="331" ht="17.6" spans="1:3">
+    <row r="331" ht="21" spans="1:3">
       <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="6" t="s">
+      <c r="B331" s="2">
+        <v>20090723</v>
+      </c>
+      <c r="C331" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="332" ht="17.6" spans="1:3">
+    <row r="332" ht="21" spans="1:3">
       <c r="A332" s="2"/>
-      <c r="B332" s="2">
-        <v>20090705</v>
-      </c>
-      <c r="C332" s="6" t="s">
+      <c r="B332" s="2"/>
+      <c r="C332" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="333" ht="17.6" spans="1:3">
+    <row r="333" ht="21" spans="1:3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="6" t="s">
+      <c r="C333" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="334" ht="17.6" spans="1:3">
+    <row r="334" ht="21" spans="1:3">
       <c r="A334" s="2"/>
-      <c r="B334" s="2">
+      <c r="B334" s="2"/>
+      <c r="C334" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="335" ht="21" spans="1:3">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2">
+        <v>20090705</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="336" ht="21" spans="1:3">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="337" ht="21" spans="1:3">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2">
         <v>20090620</v>
       </c>
-      <c r="C334" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="335" ht="17.6" spans="1:3">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="4" t="s">
-        <v>324</v>
+      <c r="C337" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="338" ht="21" spans="1:3">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A2:A89"/>
-    <mergeCell ref="A90:A150"/>
-    <mergeCell ref="A151:A214"/>
-    <mergeCell ref="A215:A256"/>
-    <mergeCell ref="A257:A265"/>
-    <mergeCell ref="A266:A284"/>
-    <mergeCell ref="A285:A290"/>
-    <mergeCell ref="A291:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A313:A317"/>
-    <mergeCell ref="A318:A335"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B153"/>
+  <mergeCells count="83">
+    <mergeCell ref="A2:A92"/>
+    <mergeCell ref="A93:A153"/>
+    <mergeCell ref="A154:A217"/>
+    <mergeCell ref="A218:A259"/>
+    <mergeCell ref="A260:A268"/>
+    <mergeCell ref="A269:A287"/>
+    <mergeCell ref="A288:A293"/>
+    <mergeCell ref="A294:A308"/>
+    <mergeCell ref="A309:A310"/>
+    <mergeCell ref="A311:A315"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A338"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B117:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="B154:B156"/>
     <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B185"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B191:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="B219:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="B232:B237"/>
-    <mergeCell ref="B238:B244"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="B251:B256"/>
-    <mergeCell ref="B259:B264"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="B179:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="B194:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B217"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="B222:B229"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B259"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="B278:B285"/>
+    <mergeCell ref="B286:B287"/>
     <mergeCell ref="B288:B290"/>
     <mergeCell ref="B291:B293"/>
     <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="B300:B301"/>
     <mergeCell ref="B302:B304"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="B313:B317"/>
-    <mergeCell ref="B318:B322"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="B328:B331"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="B311:B315"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B325"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="B331:B334"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="B337:B338"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait"/>
@@ -4849,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4857,7 +4804,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4866,7 +4813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4874,7 +4821,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/book-list.xlsx
+++ b/book-list.xlsx
@@ -16,7 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="332">
+  <si>
+    <t>12堂小说大师课：遇见文学的黄金时代</t>
+  </si>
+  <si>
+    <t>西藏生死书</t>
+  </si>
+  <si>
+    <t>接近真相的贝弗莉</t>
+  </si>
+  <si>
+    <t>消失的塞布丽娜</t>
+  </si>
   <si>
     <t>这个世界会好吗？</t>
   </si>
@@ -349,6 +361,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>权力与自由：联邦论+</t>
     </r>
     <r>
@@ -374,6 +393,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>现代世界体系 2卷，3卷，4卷，</t>
     </r>
     <r>
@@ -1041,10 +1067,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1084,7 +1110,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,40 +1176,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,30 +1196,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1179,6 +1211,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1204,28 +1252,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1236,6 +1262,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1243,12 +1299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,13 +1316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,25 +1346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,13 +1394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,79 +1430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,15 +1508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1502,6 +1519,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,6 +1571,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1568,17 +1605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1587,10 +1613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1599,34 +1625,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,97 +1658,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,16 +1777,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2123,13 +2149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C338"/>
+  <dimension ref="A2:C343"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.075"/>
     <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
@@ -2160,2634 +2186,2674 @@
     </row>
     <row r="6" ht="21.75" spans="1:3">
       <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <v>20210716</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="21" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="21.75" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="5">
-        <v>20210715</v>
+        <v>20210804</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="21.75" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="21.75" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
+        <v>20210803</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7">
-        <v>20210623</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="10" ht="21.75" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>20210801</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
+    <row r="11" ht="21.75" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
+        <v>20210716</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8">
+        <v>20210715</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" ht="21" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8">
+        <v>20210623</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="21" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="21" spans="1:3">
+    <row r="15" ht="24" customHeight="1" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7">
-        <v>20210621</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="21" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="21" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7">
-        <v>20210601</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8">
+        <v>20210621</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="21" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" ht="21" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8">
+        <v>20210601</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="21" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="21" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="21.75" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="21.75" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
         <v>20210527</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="21.75" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3">
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="21.75" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
         <v>20210518</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" ht="21.75" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
+      <c r="C34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="21.75" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
         <v>20210515</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" ht="21" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11">
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="11">
         <v>20210420</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" ht="21" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" ht="21" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" ht="21" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" ht="21" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" ht="21.75" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="21.75" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
         <v>20210416</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="21.75" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2">
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" ht="21.75" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2">
         <v>20210414</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" ht="21" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2">
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2">
         <v>20210408</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" ht="21" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" ht="21" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" ht="21" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" ht="21" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="21" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" ht="21" spans="1:3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2">
-        <v>20210407</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" ht="21" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" ht="21" spans="1:3">
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" ht="21" spans="1:3">
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" ht="21" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
+        <v>20210407</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" ht="21.75" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2">
-        <v>20210406</v>
-      </c>
-      <c r="C51" s="8" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2">
-        <v>20210321</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" ht="21" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" ht="21" spans="1:3">
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" ht="21" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="21.75" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
-        <v>20210320</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" ht="21" spans="1:3">
+        <v>20210406</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
-        <v>20210316</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" ht="21" spans="1:3">
+        <v>20210321</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" ht="21" spans="1:3">
+      <c r="C58" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" ht="21.75" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2">
-        <v>20210313</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" ht="21" spans="1:3">
+    <row r="61" ht="21.75" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
+        <v>20210320</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2">
+        <v>20210316</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" ht="21.75" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2">
+        <v>20210313</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2">
         <v>20210302</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" ht="21" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" ht="21.75" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2">
-        <v>20210227</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" ht="21" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2">
-        <v>20210220</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" ht="21" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" ht="21" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" ht="21" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" ht="21.75" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <v>20210227</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" ht="21" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2">
+        <v>20210220</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="21" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" ht="21" spans="1:3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" ht="21" spans="1:3">
+      <c r="C70" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" ht="21" spans="1:3">
+      <c r="C71" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" ht="21" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
-        <v>20210206</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" ht="21" spans="1:3">
+    <row r="74" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" ht="21" spans="1:3">
+      <c r="C74" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" ht="21" spans="1:3">
+      <c r="C75" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" ht="21" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="11">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2">
+        <v>20210206</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="11">
         <v>20210111</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" ht="21" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" ht="21" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" ht="21" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" ht="21" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" ht="21" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" ht="21" spans="1:3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="12"/>
       <c r="C83" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" ht="21" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="12"/>
       <c r="C84" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" ht="21" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="12"/>
       <c r="C85" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="4" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" ht="21" spans="1:3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="11">
-        <v>20210106</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" ht="21" spans="1:3">
+    <row r="88" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="12"/>
       <c r="C88" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" ht="21" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="12"/>
       <c r="C89" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" ht="21" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="4" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" ht="21" spans="1:3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="11">
+        <v>20210106</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2">
         <v>20210101</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" ht="21" spans="1:3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" ht="21.75" spans="1:3">
-      <c r="A93" s="2">
+      <c r="C96" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" ht="21.75" spans="1:3">
+      <c r="A98" s="2">
         <v>2020</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B98" s="2">
         <v>20201230</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" ht="21" spans="1:3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2">
-        <v>20201225</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" ht="21" spans="1:3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" ht="21" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" ht="21" spans="1:3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2">
-        <v>20201210</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="21" spans="1:3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" ht="21" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
-        <v>20201127</v>
+        <v>20201225</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" ht="21" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" ht="21" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2">
+        <v>20201210</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" ht="21" spans="1:3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="4" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" ht="21" spans="1:3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2">
-        <v>20201125</v>
-      </c>
-      <c r="C103" s="8" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2">
+        <v>20201127</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" ht="21" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="8" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" ht="21" spans="1:3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2">
-        <v>20201123</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" ht="21" spans="1:3">
+    <row r="106" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" ht="21.75" spans="1:3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2">
-        <v>20201109</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" ht="21.75" spans="1:3">
+    <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2">
-        <v>20201103</v>
-      </c>
-      <c r="C108" s="4" t="s">
+        <v>20201125</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" ht="21" spans="1:3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2">
-        <v>20200919</v>
-      </c>
-      <c r="C109" s="8" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2">
+        <v>20201123</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="21" spans="1:3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" ht="21" spans="1:3">
+    <row r="111" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" ht="21.75" spans="1:3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2">
+        <v>20201109</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" ht="21" spans="1:3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" ht="21" spans="1:3">
+    <row r="113" ht="21.75" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
-        <v>20200912</v>
+        <v>20201103</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2">
+        <v>20200919</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="114" ht="21" spans="1:3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" ht="21" spans="1:3">
+    <row r="115" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="116" ht="21.75" spans="1:3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2">
-        <v>20200910</v>
-      </c>
-      <c r="C116" s="4" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" ht="21" spans="1:3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2">
-        <v>20200901</v>
-      </c>
-      <c r="C117" s="4" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2">
+        <v>20200912</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" ht="21" spans="1:3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" ht="21" spans="1:3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" ht="21" spans="1:3">
+      <c r="C119" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" ht="21.75" spans="1:3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2">
+        <v>20200910</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" ht="21" spans="1:3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="8" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2">
+        <v>20200901</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" ht="21" spans="1:3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" ht="21" spans="1:3">
+    <row r="123" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" ht="21" spans="1:3">
+      <c r="C123" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2">
-        <v>20200827</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" ht="21" spans="1:3">
+    <row r="126" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" ht="21" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2">
-        <v>20200806</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" ht="21" spans="1:3">
+    <row r="128" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" ht="21" spans="1:3">
+      <c r="C128" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" ht="21.75" spans="1:3">
+      <c r="C129" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
+        <v>20200827</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2">
+        <v>20200806</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" ht="21.75" spans="1:3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2">
         <v>20200804</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" ht="21.75" spans="1:3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2">
+      <c r="C135" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" ht="21.75" spans="1:3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2">
         <v>20200703</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" ht="21" spans="1:3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="11">
+      <c r="C136" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="11">
         <v>20200627</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" ht="21" spans="1:3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" ht="21" spans="1:3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" ht="21" spans="1:3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" ht="21" spans="1:3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" ht="21" spans="1:3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" ht="21" spans="1:3">
+    <row r="138" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="12"/>
-      <c r="C138" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" ht="21" spans="1:3">
+      <c r="C138" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="12"/>
-      <c r="C139" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" ht="21" spans="1:3">
+      <c r="C139" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="12"/>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="8" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2">
-        <v>20200611</v>
-      </c>
-      <c r="C142" s="4" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="4" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="4" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="4" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" ht="21" spans="1:3">
+    <row r="147" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
-        <v>20200606</v>
+        <v>20200611</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" ht="21" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" ht="21" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2">
-        <v>20200601</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="151" ht="21" spans="1:3">
+    <row r="151" spans="1:3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" ht="21" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="2">
-        <v>20200402</v>
+        <v>20200606</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" ht="21" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B154" s="2">
-        <v>20181120</v>
-      </c>
-      <c r="C154" s="8" t="s">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2">
+        <v>20200601</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156" ht="21" spans="1:3">
+    <row r="156" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" ht="21" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
-        <v>20181020</v>
+        <v>20200402</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" ht="21" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B159" s="2">
+        <v>20181120</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="4" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2">
-        <v>20181018</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" ht="21" spans="1:3">
+    <row r="161" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2">
+        <v>20181020</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="8" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2">
-        <v>20180907</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" ht="21" spans="1:3">
+    <row r="164" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="165" ht="21" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
-        <v>20180906</v>
+        <v>20181018</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="166" ht="21" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2">
-        <v>20180822</v>
-      </c>
-      <c r="C167" s="4" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2">
+        <v>20180907</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" ht="21" spans="1:3">
+    <row r="169" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" ht="21" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
-        <v>20180808</v>
+        <v>20180906</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" ht="21" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" ht="21.75" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2">
-        <v>20180801</v>
+        <v>20180822</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2">
-        <v>20180730</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" ht="21" spans="1:3">
+    <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2">
+        <v>20180808</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="175" ht="21" spans="1:3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" ht="21" spans="1:3">
+    <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" ht="21.75" spans="1:3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2">
+        <v>20180801</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="177" ht="21" spans="1:3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="4" t="s">
+    <row r="178" spans="1:3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2">
+        <v>20180730</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:3">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="4" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:3">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2">
-        <v>20180705</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" ht="21" spans="1:3">
+    <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="181" ht="21" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="182" ht="21" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="183" ht="21" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2">
+        <v>20180705</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="184" ht="21" spans="1:3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" ht="21" spans="1:3">
+    <row r="185" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="186" ht="21" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="187" ht="21" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="188" ht="21" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" ht="21" spans="1:3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2">
-        <v>20180613</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" ht="21" spans="1:3">
+    <row r="190" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="191" ht="21" spans="1:3">
+      <c r="C190" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" ht="21" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="193" ht="21.75" spans="1:3">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2">
-        <v>20180427</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" ht="21" spans="1:3">
+    <row r="194" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="2">
-        <v>20180426</v>
+        <v>20180613</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" ht="21" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" ht="21" spans="1:3">
+      <c r="C195" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="197" ht="21" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" ht="21" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" ht="21.75" spans="1:3">
       <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="B198" s="2">
+        <v>20180427</v>
+      </c>
       <c r="C198" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" ht="21" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="B199" s="2">
+        <v>20180426</v>
+      </c>
       <c r="C199" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="200" ht="21" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="201" ht="21" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="202" ht="21" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="203" ht="21" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="204" ht="21" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="205" ht="21" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="206" ht="21" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
-      <c r="C206" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="207" ht="21" spans="1:3">
+      <c r="C206" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" ht="21" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" ht="21" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="210" ht="21" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="211" ht="21" spans="1:3">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2">
-        <v>20180217</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="212" ht="21" spans="1:3">
+    <row r="212" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2">
-        <v>20180125</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="215" ht="21" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2">
+        <v>20180217</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" ht="21" spans="1:3">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="217" ht="21" spans="1:3">
+    <row r="217" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2">
+        <v>20180125</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="218" ht="21" spans="1:3">
-      <c r="A218" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B218" s="2">
-        <v>20171220</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="219" ht="21" spans="1:3">
+    <row r="219" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="220" ht="21" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="221" ht="21" spans="1:3">
+      <c r="C220" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="222" ht="21" spans="1:3">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2">
-        <v>20171128</v>
-      </c>
-      <c r="C222" s="4" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B223" s="2">
+        <v>20171220</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="223" ht="21" spans="1:3">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="224" ht="21" spans="1:3">
+    <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
-      <c r="C224" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="225" ht="21" spans="1:3">
+      <c r="C224" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="4" t="s">
-       